--- a/07 ootareon 目標管理シート.xlsx
+++ b/07 ootareon 目標管理シート.xlsx
@@ -47,7 +47,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="570" uniqueCount="526">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="576" uniqueCount="526">
   <si>
     <t xml:space="preserve">学習目標自己チェックシート(ビジネスマナー)</t>
   </si>
@@ -1769,21 +1769,21 @@
       <sz val="11"/>
       <color rgb="FF000000"/>
       <name val="メイリオ"/>
-      <family val="3"/>
+      <family val="0"/>
       <charset val="128"/>
     </font>
     <font>
       <sz val="11"/>
       <color rgb="FF000000"/>
       <name val="メイリオ"/>
-      <family val="3"/>
+      <family val="0"/>
       <charset val="128"/>
     </font>
     <font>
       <sz val="14"/>
       <color rgb="FFFF0000"/>
       <name val="メイリオ"/>
-      <family val="3"/>
+      <family val="0"/>
       <charset val="128"/>
     </font>
   </fonts>
@@ -1958,79 +1958,79 @@
       <alignment horizontal="general" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="12" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="12" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="true">
       <alignment horizontal="general" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="13" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="13" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="true">
       <alignment horizontal="general" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="14" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="14" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="true">
       <alignment horizontal="general" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="15" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="15" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="true">
       <alignment horizontal="general" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="16" fillId="2" borderId="4" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="16" fillId="2" borderId="4" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="167" fontId="12" fillId="0" borderId="4" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="167" fontId="12" fillId="0" borderId="4" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="17" fillId="0" borderId="5" xfId="28" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="17" fillId="0" borderId="5" xfId="28" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="17" fillId="3" borderId="4" xfId="28" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="17" fillId="3" borderId="4" xfId="28" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="12" fillId="0" borderId="4" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="12" fillId="0" borderId="4" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="17" fillId="4" borderId="4" xfId="28" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="17" fillId="4" borderId="4" xfId="28" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="12" fillId="3" borderId="4" xfId="28" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="12" fillId="3" borderId="4" xfId="28" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="12" fillId="4" borderId="4" xfId="28" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="12" fillId="4" borderId="4" xfId="28" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="12" fillId="0" borderId="4" xfId="28" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="12" fillId="0" borderId="4" xfId="28" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="12" fillId="4" borderId="6" xfId="28" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="12" fillId="4" borderId="6" xfId="28" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="12" fillId="3" borderId="6" xfId="28" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="12" fillId="3" borderId="6" xfId="28" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="12" fillId="0" borderId="4" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="12" fillId="0" borderId="4" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="12" fillId="0" borderId="4" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="12" fillId="0" borderId="4" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
       <alignment horizontal="general" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="12" fillId="0" borderId="4" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="12" fillId="0" borderId="4" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
       <alignment horizontal="general" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="12" fillId="0" borderId="7" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="12" fillId="0" borderId="7" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -2175,15 +2175,15 @@
   <xdr:twoCellAnchor editAs="twoCell">
     <xdr:from>
       <xdr:col>4</xdr:col>
-      <xdr:colOff>217800</xdr:colOff>
+      <xdr:colOff>185760</xdr:colOff>
       <xdr:row>0</xdr:row>
-      <xdr:rowOff>145080</xdr:rowOff>
+      <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>16</xdr:col>
-      <xdr:colOff>308160</xdr:colOff>
+      <xdr:colOff>275760</xdr:colOff>
       <xdr:row>6</xdr:row>
-      <xdr:rowOff>181080</xdr:rowOff>
+      <xdr:rowOff>35640</xdr:rowOff>
     </xdr:to>
     <xdr:sp>
       <xdr:nvSpPr>
@@ -2192,8 +2192,8 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="11673360" y="145080"/>
-          <a:ext cx="5012640" cy="1626840"/>
+          <a:off x="11641320" y="0"/>
+          <a:ext cx="5012280" cy="1626480"/>
         </a:xfrm>
         <a:prstGeom prst="wedgeRoundRectCallout">
           <a:avLst>
@@ -2359,9 +2359,9 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>16</xdr:col>
-      <xdr:colOff>308160</xdr:colOff>
+      <xdr:colOff>307800</xdr:colOff>
       <xdr:row>6</xdr:row>
-      <xdr:rowOff>181080</xdr:rowOff>
+      <xdr:rowOff>180720</xdr:rowOff>
     </xdr:to>
     <xdr:sp>
       <xdr:nvSpPr>
@@ -2371,7 +2371,7 @@
       <xdr:spPr>
         <a:xfrm>
           <a:off x="11673360" y="145080"/>
-          <a:ext cx="5012640" cy="1626840"/>
+          <a:ext cx="5012280" cy="1626480"/>
         </a:xfrm>
         <a:prstGeom prst="wedgeRoundRectCallout">
           <a:avLst>
@@ -2537,9 +2537,9 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>16</xdr:col>
-      <xdr:colOff>308160</xdr:colOff>
+      <xdr:colOff>307800</xdr:colOff>
       <xdr:row>6</xdr:row>
-      <xdr:rowOff>181080</xdr:rowOff>
+      <xdr:rowOff>180720</xdr:rowOff>
     </xdr:to>
     <xdr:sp>
       <xdr:nvSpPr>
@@ -2549,7 +2549,7 @@
       <xdr:spPr>
         <a:xfrm>
           <a:off x="11620440" y="145080"/>
-          <a:ext cx="5013000" cy="1626840"/>
+          <a:ext cx="5012640" cy="1626480"/>
         </a:xfrm>
         <a:prstGeom prst="wedgeRoundRectCallout">
           <a:avLst>
@@ -2715,9 +2715,9 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>16</xdr:col>
-      <xdr:colOff>267480</xdr:colOff>
+      <xdr:colOff>267120</xdr:colOff>
       <xdr:row>6</xdr:row>
-      <xdr:rowOff>163080</xdr:rowOff>
+      <xdr:rowOff>162720</xdr:rowOff>
     </xdr:to>
     <xdr:sp>
       <xdr:nvSpPr>
@@ -2727,7 +2727,7 @@
       <xdr:spPr>
         <a:xfrm>
           <a:off x="11522160" y="89640"/>
-          <a:ext cx="5070600" cy="1664280"/>
+          <a:ext cx="5070240" cy="1663920"/>
         </a:xfrm>
         <a:prstGeom prst="wedgeRoundRectCallout">
           <a:avLst>
@@ -2888,9 +2888,9 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>4</xdr:col>
-      <xdr:colOff>81360</xdr:colOff>
+      <xdr:colOff>81000</xdr:colOff>
       <xdr:row>85</xdr:row>
-      <xdr:rowOff>172080</xdr:rowOff>
+      <xdr:rowOff>171720</xdr:rowOff>
     </xdr:to>
     <xdr:sp>
       <xdr:nvSpPr>
@@ -2900,7 +2900,7 @@
       <xdr:spPr>
         <a:xfrm>
           <a:off x="11283480" y="16295400"/>
-          <a:ext cx="200520" cy="2231280"/>
+          <a:ext cx="200160" cy="2230920"/>
         </a:xfrm>
         <a:prstGeom prst="rightBrace">
           <a:avLst>
@@ -2940,9 +2940,9 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>15</xdr:col>
-      <xdr:colOff>410040</xdr:colOff>
+      <xdr:colOff>409680</xdr:colOff>
       <xdr:row>84</xdr:row>
-      <xdr:rowOff>132840</xdr:rowOff>
+      <xdr:rowOff>132480</xdr:rowOff>
     </xdr:to>
     <xdr:sp>
       <xdr:nvSpPr>
@@ -2952,7 +2952,7 @@
       <xdr:spPr>
         <a:xfrm>
           <a:off x="11702160" y="17115480"/>
-          <a:ext cx="4622760" cy="1162440"/>
+          <a:ext cx="4622400" cy="1162080"/>
         </a:xfrm>
         <a:prstGeom prst="ellipse">
           <a:avLst/>
@@ -3053,9 +3053,9 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>16</xdr:col>
-      <xdr:colOff>245160</xdr:colOff>
+      <xdr:colOff>244800</xdr:colOff>
       <xdr:row>7</xdr:row>
-      <xdr:rowOff>6120</xdr:rowOff>
+      <xdr:rowOff>5760</xdr:rowOff>
     </xdr:to>
     <xdr:sp>
       <xdr:nvSpPr>
@@ -3065,7 +3065,7 @@
       <xdr:spPr>
         <a:xfrm>
           <a:off x="10479960" y="158760"/>
-          <a:ext cx="5034240" cy="1647720"/>
+          <a:ext cx="5033880" cy="1647360"/>
         </a:xfrm>
         <a:prstGeom prst="wedgeRoundRectCallout">
           <a:avLst>
@@ -3231,9 +3231,9 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>16</xdr:col>
-      <xdr:colOff>319680</xdr:colOff>
+      <xdr:colOff>319320</xdr:colOff>
       <xdr:row>13</xdr:row>
-      <xdr:rowOff>209160</xdr:rowOff>
+      <xdr:rowOff>208800</xdr:rowOff>
     </xdr:to>
     <xdr:sp>
       <xdr:nvSpPr>
@@ -3243,7 +3243,7 @@
       <xdr:spPr>
         <a:xfrm>
           <a:off x="11906640" y="156960"/>
-          <a:ext cx="5070240" cy="3109680"/>
+          <a:ext cx="5069880" cy="3109320"/>
         </a:xfrm>
         <a:prstGeom prst="wedgeRoundRectCallout">
           <a:avLst>
@@ -3409,9 +3409,9 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>16</xdr:col>
-      <xdr:colOff>319680</xdr:colOff>
+      <xdr:colOff>319320</xdr:colOff>
       <xdr:row>11</xdr:row>
-      <xdr:rowOff>209160</xdr:rowOff>
+      <xdr:rowOff>208800</xdr:rowOff>
     </xdr:to>
     <xdr:sp>
       <xdr:nvSpPr>
@@ -3421,7 +3421,7 @@
       <xdr:spPr>
         <a:xfrm>
           <a:off x="11906640" y="156960"/>
-          <a:ext cx="5070240" cy="2690640"/>
+          <a:ext cx="5069880" cy="2690280"/>
         </a:xfrm>
         <a:prstGeom prst="wedgeRoundRectCallout">
           <a:avLst>
@@ -3769,10 +3769,10 @@
     <tabColor rgb="FF9DC3E6"/>
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:D28"/>
+  <dimension ref="A1:E28"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="pageBreakPreview" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="70" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="D29" activeCellId="0" sqref="D29"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="pageBreakPreview" topLeftCell="C12" colorId="64" zoomScale="100" zoomScaleNormal="70" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="E29" activeCellId="0" sqref="E29"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.45703125" defaultRowHeight="16.5" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -3840,6 +3840,9 @@
       <c r="D7" s="9" t="n">
         <v>0</v>
       </c>
+      <c r="E7" s="1" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="8" customFormat="false" ht="17" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A8" s="6" t="n">
@@ -3853,6 +3856,9 @@
       <c r="D8" s="9" t="s">
         <v>10</v>
       </c>
+      <c r="E8" s="1" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="9" customFormat="false" ht="17" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A9" s="6" t="n">
@@ -3866,6 +3872,9 @@
       <c r="D9" s="9" t="n">
         <v>0</v>
       </c>
+      <c r="E9" s="1" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="10" customFormat="false" ht="17" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A10" s="6" t="n">
@@ -3879,6 +3888,9 @@
       <c r="D10" s="9" t="n">
         <v>0</v>
       </c>
+      <c r="E10" s="1" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="11" customFormat="false" ht="17" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A11" s="6" t="n">
@@ -3892,6 +3904,9 @@
       <c r="D11" s="9" t="s">
         <v>10</v>
       </c>
+      <c r="E11" s="1" t="s">
+        <v>10</v>
+      </c>
     </row>
     <row r="12" customFormat="false" ht="17" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A12" s="6" t="n">
@@ -3905,6 +3920,9 @@
       <c r="D12" s="9" t="s">
         <v>10</v>
       </c>
+      <c r="E12" s="1" t="s">
+        <v>10</v>
+      </c>
     </row>
     <row r="13" customFormat="false" ht="17" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A13" s="6" t="n">
@@ -3918,6 +3936,9 @@
       <c r="D13" s="9" t="s">
         <v>10</v>
       </c>
+      <c r="E13" s="1" t="s">
+        <v>10</v>
+      </c>
     </row>
     <row r="14" customFormat="false" ht="17" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A14" s="6" t="n">
@@ -3931,6 +3952,9 @@
       <c r="D14" s="9" t="s">
         <v>10</v>
       </c>
+      <c r="E14" s="1" t="s">
+        <v>10</v>
+      </c>
     </row>
     <row r="15" customFormat="false" ht="17" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A15" s="6" t="n">
@@ -3944,6 +3968,9 @@
       <c r="D15" s="9" t="n">
         <v>0</v>
       </c>
+      <c r="E15" s="1" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="16" customFormat="false" ht="17" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A16" s="6" t="n">
@@ -3957,6 +3984,9 @@
       <c r="D16" s="9" t="n">
         <v>0</v>
       </c>
+      <c r="E16" s="1" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="17" customFormat="false" ht="17" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A17" s="6" t="n">
@@ -3970,6 +4000,9 @@
       <c r="D17" s="9" t="n">
         <v>0</v>
       </c>
+      <c r="E17" s="1" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="18" customFormat="false" ht="17" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A18" s="6" t="n">
@@ -3983,6 +4016,9 @@
       <c r="D18" s="9" t="n">
         <v>0</v>
       </c>
+      <c r="E18" s="1" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="19" customFormat="false" ht="17" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A19" s="6" t="n">
@@ -3996,6 +4032,9 @@
       <c r="D19" s="9" t="s">
         <v>10</v>
       </c>
+      <c r="E19" s="1" t="s">
+        <v>10</v>
+      </c>
     </row>
     <row r="20" customFormat="false" ht="17" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A20" s="6" t="n">
@@ -4009,6 +4048,9 @@
       <c r="D20" s="9" t="n">
         <v>0</v>
       </c>
+      <c r="E20" s="1" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="21" customFormat="false" ht="17" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A21" s="6" t="n">
@@ -4022,6 +4064,9 @@
       <c r="D21" s="9" t="n">
         <v>0</v>
       </c>
+      <c r="E21" s="1" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="22" customFormat="false" ht="17" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A22" s="6" t="n">
@@ -4035,6 +4080,9 @@
       <c r="D22" s="9" t="n">
         <v>0</v>
       </c>
+      <c r="E22" s="1" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="23" customFormat="false" ht="17" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A23" s="6" t="n">
@@ -4048,6 +4096,9 @@
       <c r="D23" s="9" t="n">
         <v>0</v>
       </c>
+      <c r="E23" s="1" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="24" customFormat="false" ht="17" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A24" s="6" t="n">
@@ -4061,6 +4112,9 @@
       <c r="D24" s="9" t="s">
         <v>10</v>
       </c>
+      <c r="E24" s="1" t="s">
+        <v>10</v>
+      </c>
     </row>
     <row r="25" customFormat="false" ht="17" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A25" s="6" t="n">
@@ -4074,6 +4128,9 @@
       <c r="D25" s="9" t="n">
         <v>0</v>
       </c>
+      <c r="E25" s="1" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="26" customFormat="false" ht="17" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A26" s="6" t="n">
@@ -4087,6 +4144,9 @@
       <c r="D26" s="9" t="n">
         <v>0</v>
       </c>
+      <c r="E26" s="1" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="27" customFormat="false" ht="17" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A27" s="6" t="n">
@@ -4100,6 +4160,9 @@
       <c r="D27" s="9" t="n">
         <v>0</v>
       </c>
+      <c r="E27" s="1" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="28" customFormat="false" ht="17" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A28" s="6" t="n">
@@ -4111,6 +4174,9 @@
         <v>30</v>
       </c>
       <c r="D28" s="9" t="n">
+        <v>0</v>
+      </c>
+      <c r="E28" s="1" t="n">
         <v>0</v>
       </c>
     </row>

--- a/07 ootareon 目標管理シート.xlsx
+++ b/07 ootareon 目標管理シート.xlsx
@@ -47,7 +47,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="576" uniqueCount="526">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="582" uniqueCount="526">
   <si>
     <t xml:space="preserve">学習目標自己チェックシート(ビジネスマナー)</t>
   </si>
@@ -2175,15 +2175,15 @@
   <xdr:twoCellAnchor editAs="twoCell">
     <xdr:from>
       <xdr:col>4</xdr:col>
-      <xdr:colOff>185760</xdr:colOff>
+      <xdr:colOff>211680</xdr:colOff>
       <xdr:row>0</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>16</xdr:col>
-      <xdr:colOff>275760</xdr:colOff>
+      <xdr:colOff>301320</xdr:colOff>
       <xdr:row>6</xdr:row>
-      <xdr:rowOff>35640</xdr:rowOff>
+      <xdr:rowOff>35280</xdr:rowOff>
     </xdr:to>
     <xdr:sp>
       <xdr:nvSpPr>
@@ -2192,8 +2192,8 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="11641320" y="0"/>
-          <a:ext cx="5012280" cy="1626480"/>
+          <a:off x="11667240" y="0"/>
+          <a:ext cx="5011920" cy="1626120"/>
         </a:xfrm>
         <a:prstGeom prst="wedgeRoundRectCallout">
           <a:avLst>
@@ -2359,9 +2359,9 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>16</xdr:col>
-      <xdr:colOff>307800</xdr:colOff>
+      <xdr:colOff>307440</xdr:colOff>
       <xdr:row>6</xdr:row>
-      <xdr:rowOff>180720</xdr:rowOff>
+      <xdr:rowOff>180360</xdr:rowOff>
     </xdr:to>
     <xdr:sp>
       <xdr:nvSpPr>
@@ -2371,7 +2371,7 @@
       <xdr:spPr>
         <a:xfrm>
           <a:off x="11673360" y="145080"/>
-          <a:ext cx="5012280" cy="1626480"/>
+          <a:ext cx="5011920" cy="1626120"/>
         </a:xfrm>
         <a:prstGeom prst="wedgeRoundRectCallout">
           <a:avLst>
@@ -2537,9 +2537,9 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>16</xdr:col>
-      <xdr:colOff>307800</xdr:colOff>
+      <xdr:colOff>307440</xdr:colOff>
       <xdr:row>6</xdr:row>
-      <xdr:rowOff>180720</xdr:rowOff>
+      <xdr:rowOff>180360</xdr:rowOff>
     </xdr:to>
     <xdr:sp>
       <xdr:nvSpPr>
@@ -2549,7 +2549,7 @@
       <xdr:spPr>
         <a:xfrm>
           <a:off x="11620440" y="145080"/>
-          <a:ext cx="5012640" cy="1626480"/>
+          <a:ext cx="5012280" cy="1626120"/>
         </a:xfrm>
         <a:prstGeom prst="wedgeRoundRectCallout">
           <a:avLst>
@@ -2715,9 +2715,9 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>16</xdr:col>
-      <xdr:colOff>267120</xdr:colOff>
+      <xdr:colOff>266760</xdr:colOff>
       <xdr:row>6</xdr:row>
-      <xdr:rowOff>162720</xdr:rowOff>
+      <xdr:rowOff>162360</xdr:rowOff>
     </xdr:to>
     <xdr:sp>
       <xdr:nvSpPr>
@@ -2727,7 +2727,7 @@
       <xdr:spPr>
         <a:xfrm>
           <a:off x="11522160" y="89640"/>
-          <a:ext cx="5070240" cy="1663920"/>
+          <a:ext cx="5069880" cy="1663560"/>
         </a:xfrm>
         <a:prstGeom prst="wedgeRoundRectCallout">
           <a:avLst>
@@ -2888,9 +2888,9 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>4</xdr:col>
-      <xdr:colOff>81000</xdr:colOff>
+      <xdr:colOff>80640</xdr:colOff>
       <xdr:row>85</xdr:row>
-      <xdr:rowOff>171720</xdr:rowOff>
+      <xdr:rowOff>171360</xdr:rowOff>
     </xdr:to>
     <xdr:sp>
       <xdr:nvSpPr>
@@ -2900,7 +2900,7 @@
       <xdr:spPr>
         <a:xfrm>
           <a:off x="11283480" y="16295400"/>
-          <a:ext cx="200160" cy="2230920"/>
+          <a:ext cx="199800" cy="2230560"/>
         </a:xfrm>
         <a:prstGeom prst="rightBrace">
           <a:avLst>
@@ -2940,9 +2940,9 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>15</xdr:col>
-      <xdr:colOff>409680</xdr:colOff>
+      <xdr:colOff>409320</xdr:colOff>
       <xdr:row>84</xdr:row>
-      <xdr:rowOff>132480</xdr:rowOff>
+      <xdr:rowOff>132120</xdr:rowOff>
     </xdr:to>
     <xdr:sp>
       <xdr:nvSpPr>
@@ -2952,7 +2952,7 @@
       <xdr:spPr>
         <a:xfrm>
           <a:off x="11702160" y="17115480"/>
-          <a:ext cx="4622400" cy="1162080"/>
+          <a:ext cx="4622040" cy="1161720"/>
         </a:xfrm>
         <a:prstGeom prst="ellipse">
           <a:avLst/>
@@ -3053,9 +3053,9 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>16</xdr:col>
-      <xdr:colOff>244800</xdr:colOff>
+      <xdr:colOff>244440</xdr:colOff>
       <xdr:row>7</xdr:row>
-      <xdr:rowOff>5760</xdr:rowOff>
+      <xdr:rowOff>5400</xdr:rowOff>
     </xdr:to>
     <xdr:sp>
       <xdr:nvSpPr>
@@ -3065,7 +3065,7 @@
       <xdr:spPr>
         <a:xfrm>
           <a:off x="10479960" y="158760"/>
-          <a:ext cx="5033880" cy="1647360"/>
+          <a:ext cx="5033520" cy="1647000"/>
         </a:xfrm>
         <a:prstGeom prst="wedgeRoundRectCallout">
           <a:avLst>
@@ -3231,9 +3231,9 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>16</xdr:col>
-      <xdr:colOff>319320</xdr:colOff>
+      <xdr:colOff>318960</xdr:colOff>
       <xdr:row>13</xdr:row>
-      <xdr:rowOff>208800</xdr:rowOff>
+      <xdr:rowOff>208440</xdr:rowOff>
     </xdr:to>
     <xdr:sp>
       <xdr:nvSpPr>
@@ -3243,7 +3243,7 @@
       <xdr:spPr>
         <a:xfrm>
           <a:off x="11906640" y="156960"/>
-          <a:ext cx="5069880" cy="3109320"/>
+          <a:ext cx="5069520" cy="3108960"/>
         </a:xfrm>
         <a:prstGeom prst="wedgeRoundRectCallout">
           <a:avLst>
@@ -3409,9 +3409,9 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>16</xdr:col>
-      <xdr:colOff>319320</xdr:colOff>
+      <xdr:colOff>318960</xdr:colOff>
       <xdr:row>11</xdr:row>
-      <xdr:rowOff>208800</xdr:rowOff>
+      <xdr:rowOff>208440</xdr:rowOff>
     </xdr:to>
     <xdr:sp>
       <xdr:nvSpPr>
@@ -3421,7 +3421,7 @@
       <xdr:spPr>
         <a:xfrm>
           <a:off x="11906640" y="156960"/>
-          <a:ext cx="5069880" cy="2690280"/>
+          <a:ext cx="5069520" cy="2689920"/>
         </a:xfrm>
         <a:prstGeom prst="wedgeRoundRectCallout">
           <a:avLst>
@@ -3769,10 +3769,10 @@
     <tabColor rgb="FF9DC3E6"/>
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:E28"/>
+  <dimension ref="A1:F28"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="pageBreakPreview" topLeftCell="C12" colorId="64" zoomScale="100" zoomScaleNormal="70" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="E29" activeCellId="0" sqref="E29"/>
+      <selection pane="topLeft" activeCell="F29" activeCellId="0" sqref="F29"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.45703125" defaultRowHeight="16.5" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -3843,6 +3843,9 @@
       <c r="E7" s="1" t="n">
         <v>0</v>
       </c>
+      <c r="F7" s="1" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="8" customFormat="false" ht="17" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A8" s="6" t="n">
@@ -3859,6 +3862,9 @@
       <c r="E8" s="1" t="n">
         <v>0</v>
       </c>
+      <c r="F8" s="1" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="9" customFormat="false" ht="17" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A9" s="6" t="n">
@@ -3875,6 +3881,9 @@
       <c r="E9" s="1" t="n">
         <v>0</v>
       </c>
+      <c r="F9" s="1" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="10" customFormat="false" ht="17" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A10" s="6" t="n">
@@ -3891,6 +3900,9 @@
       <c r="E10" s="1" t="n">
         <v>0</v>
       </c>
+      <c r="F10" s="1" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="11" customFormat="false" ht="17" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A11" s="6" t="n">
@@ -3907,6 +3919,9 @@
       <c r="E11" s="1" t="s">
         <v>10</v>
       </c>
+      <c r="F11" s="1" t="s">
+        <v>10</v>
+      </c>
     </row>
     <row r="12" customFormat="false" ht="17" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A12" s="6" t="n">
@@ -3923,6 +3938,9 @@
       <c r="E12" s="1" t="s">
         <v>10</v>
       </c>
+      <c r="F12" s="1" t="s">
+        <v>10</v>
+      </c>
     </row>
     <row r="13" customFormat="false" ht="17" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A13" s="6" t="n">
@@ -3939,6 +3957,9 @@
       <c r="E13" s="1" t="s">
         <v>10</v>
       </c>
+      <c r="F13" s="1" t="s">
+        <v>10</v>
+      </c>
     </row>
     <row r="14" customFormat="false" ht="17" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A14" s="6" t="n">
@@ -3955,6 +3976,9 @@
       <c r="E14" s="1" t="s">
         <v>10</v>
       </c>
+      <c r="F14" s="1" t="s">
+        <v>10</v>
+      </c>
     </row>
     <row r="15" customFormat="false" ht="17" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A15" s="6" t="n">
@@ -3971,6 +3995,9 @@
       <c r="E15" s="1" t="n">
         <v>0</v>
       </c>
+      <c r="F15" s="1" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="16" customFormat="false" ht="17" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A16" s="6" t="n">
@@ -3987,6 +4014,9 @@
       <c r="E16" s="1" t="n">
         <v>0</v>
       </c>
+      <c r="F16" s="1" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="17" customFormat="false" ht="17" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A17" s="6" t="n">
@@ -4003,6 +4033,9 @@
       <c r="E17" s="1" t="n">
         <v>0</v>
       </c>
+      <c r="F17" s="1" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="18" customFormat="false" ht="17" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A18" s="6" t="n">
@@ -4019,6 +4052,9 @@
       <c r="E18" s="1" t="n">
         <v>0</v>
       </c>
+      <c r="F18" s="1" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="19" customFormat="false" ht="17" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A19" s="6" t="n">
@@ -4035,6 +4071,9 @@
       <c r="E19" s="1" t="s">
         <v>10</v>
       </c>
+      <c r="F19" s="1" t="s">
+        <v>10</v>
+      </c>
     </row>
     <row r="20" customFormat="false" ht="17" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A20" s="6" t="n">
@@ -4051,6 +4090,9 @@
       <c r="E20" s="1" t="n">
         <v>0</v>
       </c>
+      <c r="F20" s="1" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="21" customFormat="false" ht="17" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A21" s="6" t="n">
@@ -4067,6 +4109,9 @@
       <c r="E21" s="1" t="n">
         <v>0</v>
       </c>
+      <c r="F21" s="1" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="22" customFormat="false" ht="17" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A22" s="6" t="n">
@@ -4083,6 +4128,9 @@
       <c r="E22" s="1" t="n">
         <v>0</v>
       </c>
+      <c r="F22" s="1" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="23" customFormat="false" ht="17" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A23" s="6" t="n">
@@ -4099,6 +4147,9 @@
       <c r="E23" s="1" t="n">
         <v>0</v>
       </c>
+      <c r="F23" s="1" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="24" customFormat="false" ht="17" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A24" s="6" t="n">
@@ -4115,6 +4166,9 @@
       <c r="E24" s="1" t="s">
         <v>10</v>
       </c>
+      <c r="F24" s="1" t="s">
+        <v>10</v>
+      </c>
     </row>
     <row r="25" customFormat="false" ht="17" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A25" s="6" t="n">
@@ -4131,6 +4185,9 @@
       <c r="E25" s="1" t="n">
         <v>0</v>
       </c>
+      <c r="F25" s="1" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="26" customFormat="false" ht="17" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A26" s="6" t="n">
@@ -4147,6 +4204,9 @@
       <c r="E26" s="1" t="n">
         <v>0</v>
       </c>
+      <c r="F26" s="1" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="27" customFormat="false" ht="17" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A27" s="6" t="n">
@@ -4163,6 +4223,9 @@
       <c r="E27" s="1" t="n">
         <v>0</v>
       </c>
+      <c r="F27" s="1" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="28" customFormat="false" ht="17" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A28" s="6" t="n">
@@ -4177,6 +4240,9 @@
         <v>0</v>
       </c>
       <c r="E28" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="F28" s="1" t="n">
         <v>0</v>
       </c>
     </row>

--- a/07 ootareon 目標管理シート.xlsx
+++ b/07 ootareon 目標管理シート.xlsx
@@ -47,7 +47,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="582" uniqueCount="526">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="586" uniqueCount="526">
   <si>
     <t xml:space="preserve">学習目標自己チェックシート(ビジネスマナー)</t>
   </si>
@@ -2174,16 +2174,16 @@
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <xdr:twoCellAnchor editAs="twoCell">
     <xdr:from>
-      <xdr:col>4</xdr:col>
-      <xdr:colOff>211680</xdr:colOff>
+      <xdr:col>10</xdr:col>
+      <xdr:colOff>266400</xdr:colOff>
       <xdr:row>0</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>16</xdr:col>
-      <xdr:colOff>301320</xdr:colOff>
+      <xdr:col>20</xdr:col>
+      <xdr:colOff>545040</xdr:colOff>
       <xdr:row>6</xdr:row>
-      <xdr:rowOff>35280</xdr:rowOff>
+      <xdr:rowOff>34920</xdr:rowOff>
     </xdr:to>
     <xdr:sp>
       <xdr:nvSpPr>
@@ -2192,8 +2192,8 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="11667240" y="0"/>
-          <a:ext cx="5011920" cy="1626120"/>
+          <a:off x="14182920" y="0"/>
+          <a:ext cx="5011560" cy="1625760"/>
         </a:xfrm>
         <a:prstGeom prst="wedgeRoundRectCallout">
           <a:avLst>
@@ -2359,9 +2359,9 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>16</xdr:col>
-      <xdr:colOff>307440</xdr:colOff>
+      <xdr:colOff>307080</xdr:colOff>
       <xdr:row>6</xdr:row>
-      <xdr:rowOff>180360</xdr:rowOff>
+      <xdr:rowOff>180000</xdr:rowOff>
     </xdr:to>
     <xdr:sp>
       <xdr:nvSpPr>
@@ -2371,7 +2371,7 @@
       <xdr:spPr>
         <a:xfrm>
           <a:off x="11673360" y="145080"/>
-          <a:ext cx="5011920" cy="1626120"/>
+          <a:ext cx="5011560" cy="1625760"/>
         </a:xfrm>
         <a:prstGeom prst="wedgeRoundRectCallout">
           <a:avLst>
@@ -2537,9 +2537,9 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>16</xdr:col>
-      <xdr:colOff>307440</xdr:colOff>
+      <xdr:colOff>307080</xdr:colOff>
       <xdr:row>6</xdr:row>
-      <xdr:rowOff>180360</xdr:rowOff>
+      <xdr:rowOff>180000</xdr:rowOff>
     </xdr:to>
     <xdr:sp>
       <xdr:nvSpPr>
@@ -2549,7 +2549,7 @@
       <xdr:spPr>
         <a:xfrm>
           <a:off x="11620440" y="145080"/>
-          <a:ext cx="5012280" cy="1626120"/>
+          <a:ext cx="5011920" cy="1625760"/>
         </a:xfrm>
         <a:prstGeom prst="wedgeRoundRectCallout">
           <a:avLst>
@@ -2715,9 +2715,9 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>16</xdr:col>
-      <xdr:colOff>266760</xdr:colOff>
+      <xdr:colOff>266400</xdr:colOff>
       <xdr:row>6</xdr:row>
-      <xdr:rowOff>162360</xdr:rowOff>
+      <xdr:rowOff>162000</xdr:rowOff>
     </xdr:to>
     <xdr:sp>
       <xdr:nvSpPr>
@@ -2727,7 +2727,7 @@
       <xdr:spPr>
         <a:xfrm>
           <a:off x="11522160" y="89640"/>
-          <a:ext cx="5069880" cy="1663560"/>
+          <a:ext cx="5069520" cy="1663200"/>
         </a:xfrm>
         <a:prstGeom prst="wedgeRoundRectCallout">
           <a:avLst>
@@ -2888,9 +2888,9 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>4</xdr:col>
-      <xdr:colOff>80640</xdr:colOff>
+      <xdr:colOff>80280</xdr:colOff>
       <xdr:row>85</xdr:row>
-      <xdr:rowOff>171360</xdr:rowOff>
+      <xdr:rowOff>171000</xdr:rowOff>
     </xdr:to>
     <xdr:sp>
       <xdr:nvSpPr>
@@ -2900,7 +2900,7 @@
       <xdr:spPr>
         <a:xfrm>
           <a:off x="11283480" y="16295400"/>
-          <a:ext cx="199800" cy="2230560"/>
+          <a:ext cx="199440" cy="2230200"/>
         </a:xfrm>
         <a:prstGeom prst="rightBrace">
           <a:avLst>
@@ -2940,9 +2940,9 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>15</xdr:col>
-      <xdr:colOff>409320</xdr:colOff>
+      <xdr:colOff>408960</xdr:colOff>
       <xdr:row>84</xdr:row>
-      <xdr:rowOff>132120</xdr:rowOff>
+      <xdr:rowOff>131760</xdr:rowOff>
     </xdr:to>
     <xdr:sp>
       <xdr:nvSpPr>
@@ -2952,7 +2952,7 @@
       <xdr:spPr>
         <a:xfrm>
           <a:off x="11702160" y="17115480"/>
-          <a:ext cx="4622040" cy="1161720"/>
+          <a:ext cx="4621680" cy="1161360"/>
         </a:xfrm>
         <a:prstGeom prst="ellipse">
           <a:avLst/>
@@ -3053,9 +3053,9 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>16</xdr:col>
-      <xdr:colOff>244440</xdr:colOff>
+      <xdr:colOff>244080</xdr:colOff>
       <xdr:row>7</xdr:row>
-      <xdr:rowOff>5400</xdr:rowOff>
+      <xdr:rowOff>5040</xdr:rowOff>
     </xdr:to>
     <xdr:sp>
       <xdr:nvSpPr>
@@ -3065,7 +3065,7 @@
       <xdr:spPr>
         <a:xfrm>
           <a:off x="10479960" y="158760"/>
-          <a:ext cx="5033520" cy="1647000"/>
+          <a:ext cx="5033160" cy="1646640"/>
         </a:xfrm>
         <a:prstGeom prst="wedgeRoundRectCallout">
           <a:avLst>
@@ -3231,9 +3231,9 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>16</xdr:col>
-      <xdr:colOff>318960</xdr:colOff>
+      <xdr:colOff>318600</xdr:colOff>
       <xdr:row>13</xdr:row>
-      <xdr:rowOff>208440</xdr:rowOff>
+      <xdr:rowOff>208080</xdr:rowOff>
     </xdr:to>
     <xdr:sp>
       <xdr:nvSpPr>
@@ -3243,7 +3243,7 @@
       <xdr:spPr>
         <a:xfrm>
           <a:off x="11906640" y="156960"/>
-          <a:ext cx="5069520" cy="3108960"/>
+          <a:ext cx="5069160" cy="3108600"/>
         </a:xfrm>
         <a:prstGeom prst="wedgeRoundRectCallout">
           <a:avLst>
@@ -3409,9 +3409,9 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>16</xdr:col>
-      <xdr:colOff>318960</xdr:colOff>
+      <xdr:colOff>318600</xdr:colOff>
       <xdr:row>11</xdr:row>
-      <xdr:rowOff>208440</xdr:rowOff>
+      <xdr:rowOff>208080</xdr:rowOff>
     </xdr:to>
     <xdr:sp>
       <xdr:nvSpPr>
@@ -3421,7 +3421,7 @@
       <xdr:spPr>
         <a:xfrm>
           <a:off x="11906640" y="156960"/>
-          <a:ext cx="5069520" cy="2689920"/>
+          <a:ext cx="5069160" cy="2689560"/>
         </a:xfrm>
         <a:prstGeom prst="wedgeRoundRectCallout">
           <a:avLst>
@@ -3769,10 +3769,10 @@
     <tabColor rgb="FF9DC3E6"/>
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:F28"/>
+  <dimension ref="A1:G28"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="pageBreakPreview" topLeftCell="C12" colorId="64" zoomScale="100" zoomScaleNormal="70" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="F29" activeCellId="0" sqref="F29"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="pageBreakPreview" topLeftCell="A7" colorId="64" zoomScale="80" zoomScaleNormal="70" zoomScalePageLayoutView="80" workbookViewId="0">
+      <selection pane="topLeft" activeCell="G29" activeCellId="0" sqref="G29"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.45703125" defaultRowHeight="16.5" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -3846,6 +3846,9 @@
       <c r="F7" s="1" t="n">
         <v>0</v>
       </c>
+      <c r="G7" s="1" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="8" customFormat="false" ht="17" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A8" s="6" t="n">
@@ -3865,6 +3868,9 @@
       <c r="F8" s="1" t="n">
         <v>0</v>
       </c>
+      <c r="G8" s="1" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="9" customFormat="false" ht="17" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A9" s="6" t="n">
@@ -3884,6 +3890,9 @@
       <c r="F9" s="1" t="n">
         <v>0</v>
       </c>
+      <c r="G9" s="1" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="10" customFormat="false" ht="17" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A10" s="6" t="n">
@@ -3903,6 +3912,9 @@
       <c r="F10" s="1" t="n">
         <v>0</v>
       </c>
+      <c r="G10" s="1" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="11" customFormat="false" ht="17" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A11" s="6" t="n">
@@ -3922,6 +3934,9 @@
       <c r="F11" s="1" t="s">
         <v>10</v>
       </c>
+      <c r="G11" s="1" t="s">
+        <v>10</v>
+      </c>
     </row>
     <row r="12" customFormat="false" ht="17" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A12" s="6" t="n">
@@ -3941,6 +3956,9 @@
       <c r="F12" s="1" t="s">
         <v>10</v>
       </c>
+      <c r="G12" s="1" t="s">
+        <v>10</v>
+      </c>
     </row>
     <row r="13" customFormat="false" ht="17" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A13" s="6" t="n">
@@ -3960,6 +3978,9 @@
       <c r="F13" s="1" t="s">
         <v>10</v>
       </c>
+      <c r="G13" s="1" t="s">
+        <v>10</v>
+      </c>
     </row>
     <row r="14" customFormat="false" ht="17" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A14" s="6" t="n">
@@ -3979,6 +4000,9 @@
       <c r="F14" s="1" t="s">
         <v>10</v>
       </c>
+      <c r="G14" s="1" t="s">
+        <v>10</v>
+      </c>
     </row>
     <row r="15" customFormat="false" ht="17" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A15" s="6" t="n">
@@ -3998,6 +4022,9 @@
       <c r="F15" s="1" t="n">
         <v>0</v>
       </c>
+      <c r="G15" s="1" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="16" customFormat="false" ht="17" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A16" s="6" t="n">
@@ -4017,6 +4044,9 @@
       <c r="F16" s="1" t="n">
         <v>0</v>
       </c>
+      <c r="G16" s="1" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="17" customFormat="false" ht="17" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A17" s="6" t="n">
@@ -4036,6 +4066,9 @@
       <c r="F17" s="1" t="n">
         <v>0</v>
       </c>
+      <c r="G17" s="1" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="18" customFormat="false" ht="17" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A18" s="6" t="n">
@@ -4055,6 +4088,9 @@
       <c r="F18" s="1" t="n">
         <v>0</v>
       </c>
+      <c r="G18" s="1" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="19" customFormat="false" ht="17" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A19" s="6" t="n">
@@ -4074,6 +4110,9 @@
       <c r="F19" s="1" t="s">
         <v>10</v>
       </c>
+      <c r="G19" s="1" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="20" customFormat="false" ht="17" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A20" s="6" t="n">
@@ -4093,6 +4132,9 @@
       <c r="F20" s="1" t="n">
         <v>0</v>
       </c>
+      <c r="G20" s="1" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="21" customFormat="false" ht="17" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A21" s="6" t="n">
@@ -4112,6 +4154,9 @@
       <c r="F21" s="1" t="n">
         <v>0</v>
       </c>
+      <c r="G21" s="1" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="22" customFormat="false" ht="17" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A22" s="6" t="n">
@@ -4131,6 +4176,9 @@
       <c r="F22" s="1" t="n">
         <v>0</v>
       </c>
+      <c r="G22" s="1" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="23" customFormat="false" ht="17" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A23" s="6" t="n">
@@ -4150,6 +4198,9 @@
       <c r="F23" s="1" t="n">
         <v>0</v>
       </c>
+      <c r="G23" s="1" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="24" customFormat="false" ht="17" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A24" s="6" t="n">
@@ -4169,6 +4220,9 @@
       <c r="F24" s="1" t="s">
         <v>10</v>
       </c>
+      <c r="G24" s="1" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="25" customFormat="false" ht="17" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A25" s="6" t="n">
@@ -4188,6 +4242,9 @@
       <c r="F25" s="1" t="n">
         <v>0</v>
       </c>
+      <c r="G25" s="1" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="26" customFormat="false" ht="17" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A26" s="6" t="n">
@@ -4207,6 +4264,9 @@
       <c r="F26" s="1" t="n">
         <v>0</v>
       </c>
+      <c r="G26" s="1" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="27" customFormat="false" ht="17" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A27" s="6" t="n">
@@ -4226,6 +4286,9 @@
       <c r="F27" s="1" t="n">
         <v>0</v>
       </c>
+      <c r="G27" s="1" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="28" customFormat="false" ht="17" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A28" s="6" t="n">
@@ -4243,6 +4306,9 @@
         <v>0</v>
       </c>
       <c r="F28" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="G28" s="1" t="n">
         <v>0</v>
       </c>
     </row>
@@ -4284,7 +4350,7 @@
   </sheetPr>
   <dimension ref="A1:D16"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="pageBreakPreview" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="70" zoomScalePageLayoutView="100" workbookViewId="0">
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="pageBreakPreview" topLeftCell="A1" colorId="64" zoomScale="80" zoomScaleNormal="70" zoomScalePageLayoutView="80" workbookViewId="0">
       <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
     </sheetView>
   </sheetViews>
@@ -4482,7 +4548,7 @@
   </sheetPr>
   <dimension ref="A1:D63"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="pageBreakPreview" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="70" zoomScalePageLayoutView="100" workbookViewId="0">
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="pageBreakPreview" topLeftCell="A1" colorId="64" zoomScale="80" zoomScaleNormal="70" zoomScalePageLayoutView="80" workbookViewId="0">
       <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
     </sheetView>
   </sheetViews>
@@ -5167,7 +5233,7 @@
   </sheetPr>
   <dimension ref="A1:D86"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="pageBreakPreview" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="70" zoomScalePageLayoutView="100" workbookViewId="0">
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="pageBreakPreview" topLeftCell="A1" colorId="64" zoomScale="80" zoomScaleNormal="70" zoomScalePageLayoutView="80" workbookViewId="0">
       <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
     </sheetView>
   </sheetViews>
@@ -6125,7 +6191,7 @@
   </sheetPr>
   <dimension ref="A1:D172"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="pageBreakPreview" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="85" zoomScalePageLayoutView="100" workbookViewId="0">
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="pageBreakPreview" topLeftCell="A1" colorId="64" zoomScale="80" zoomScaleNormal="85" zoomScalePageLayoutView="80" workbookViewId="0">
       <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
     </sheetView>
   </sheetViews>
@@ -7954,7 +8020,7 @@
   </sheetPr>
   <dimension ref="A1:D79"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="pageBreakPreview" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="85" zoomScalePageLayoutView="100" workbookViewId="0">
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="pageBreakPreview" topLeftCell="A1" colorId="64" zoomScale="80" zoomScaleNormal="85" zoomScalePageLayoutView="80" workbookViewId="0">
       <selection pane="topLeft" activeCell="C32" activeCellId="0" sqref="C32"/>
     </sheetView>
   </sheetViews>
@@ -8878,7 +8944,7 @@
   </sheetPr>
   <dimension ref="A1:D34"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="pageBreakPreview" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="85" zoomScalePageLayoutView="100" workbookViewId="0">
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="pageBreakPreview" topLeftCell="A1" colorId="64" zoomScale="80" zoomScaleNormal="85" zoomScalePageLayoutView="80" workbookViewId="0">
       <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
     </sheetView>
   </sheetViews>

--- a/07 ootareon 目標管理シート.xlsx
+++ b/07 ootareon 目標管理シート.xlsx
@@ -47,7 +47,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="586" uniqueCount="526">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="590" uniqueCount="526">
   <si>
     <t xml:space="preserve">学習目標自己チェックシート(ビジネスマナー)</t>
   </si>
@@ -2181,9 +2181,9 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>20</xdr:col>
-      <xdr:colOff>545040</xdr:colOff>
+      <xdr:colOff>544680</xdr:colOff>
       <xdr:row>6</xdr:row>
-      <xdr:rowOff>34920</xdr:rowOff>
+      <xdr:rowOff>34560</xdr:rowOff>
     </xdr:to>
     <xdr:sp>
       <xdr:nvSpPr>
@@ -2193,7 +2193,7 @@
       <xdr:spPr>
         <a:xfrm>
           <a:off x="14182920" y="0"/>
-          <a:ext cx="5011560" cy="1625760"/>
+          <a:ext cx="5011200" cy="1625400"/>
         </a:xfrm>
         <a:prstGeom prst="wedgeRoundRectCallout">
           <a:avLst>
@@ -2359,9 +2359,9 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>16</xdr:col>
-      <xdr:colOff>307080</xdr:colOff>
+      <xdr:colOff>306720</xdr:colOff>
       <xdr:row>6</xdr:row>
-      <xdr:rowOff>180000</xdr:rowOff>
+      <xdr:rowOff>179640</xdr:rowOff>
     </xdr:to>
     <xdr:sp>
       <xdr:nvSpPr>
@@ -2371,7 +2371,7 @@
       <xdr:spPr>
         <a:xfrm>
           <a:off x="11673360" y="145080"/>
-          <a:ext cx="5011560" cy="1625760"/>
+          <a:ext cx="5011200" cy="1625400"/>
         </a:xfrm>
         <a:prstGeom prst="wedgeRoundRectCallout">
           <a:avLst>
@@ -2537,9 +2537,9 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>16</xdr:col>
-      <xdr:colOff>307080</xdr:colOff>
+      <xdr:colOff>306720</xdr:colOff>
       <xdr:row>6</xdr:row>
-      <xdr:rowOff>180000</xdr:rowOff>
+      <xdr:rowOff>179640</xdr:rowOff>
     </xdr:to>
     <xdr:sp>
       <xdr:nvSpPr>
@@ -2549,7 +2549,7 @@
       <xdr:spPr>
         <a:xfrm>
           <a:off x="11620440" y="145080"/>
-          <a:ext cx="5011920" cy="1625760"/>
+          <a:ext cx="5011560" cy="1625400"/>
         </a:xfrm>
         <a:prstGeom prst="wedgeRoundRectCallout">
           <a:avLst>
@@ -2715,9 +2715,9 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>16</xdr:col>
-      <xdr:colOff>266400</xdr:colOff>
+      <xdr:colOff>266040</xdr:colOff>
       <xdr:row>6</xdr:row>
-      <xdr:rowOff>162000</xdr:rowOff>
+      <xdr:rowOff>161640</xdr:rowOff>
     </xdr:to>
     <xdr:sp>
       <xdr:nvSpPr>
@@ -2727,7 +2727,7 @@
       <xdr:spPr>
         <a:xfrm>
           <a:off x="11522160" y="89640"/>
-          <a:ext cx="5069520" cy="1663200"/>
+          <a:ext cx="5069160" cy="1662840"/>
         </a:xfrm>
         <a:prstGeom prst="wedgeRoundRectCallout">
           <a:avLst>
@@ -2888,9 +2888,9 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>4</xdr:col>
-      <xdr:colOff>80280</xdr:colOff>
+      <xdr:colOff>79920</xdr:colOff>
       <xdr:row>85</xdr:row>
-      <xdr:rowOff>171000</xdr:rowOff>
+      <xdr:rowOff>170640</xdr:rowOff>
     </xdr:to>
     <xdr:sp>
       <xdr:nvSpPr>
@@ -2900,7 +2900,7 @@
       <xdr:spPr>
         <a:xfrm>
           <a:off x="11283480" y="16295400"/>
-          <a:ext cx="199440" cy="2230200"/>
+          <a:ext cx="199080" cy="2229840"/>
         </a:xfrm>
         <a:prstGeom prst="rightBrace">
           <a:avLst>
@@ -2940,9 +2940,9 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>15</xdr:col>
-      <xdr:colOff>408960</xdr:colOff>
+      <xdr:colOff>408600</xdr:colOff>
       <xdr:row>84</xdr:row>
-      <xdr:rowOff>131760</xdr:rowOff>
+      <xdr:rowOff>131400</xdr:rowOff>
     </xdr:to>
     <xdr:sp>
       <xdr:nvSpPr>
@@ -2952,7 +2952,7 @@
       <xdr:spPr>
         <a:xfrm>
           <a:off x="11702160" y="17115480"/>
-          <a:ext cx="4621680" cy="1161360"/>
+          <a:ext cx="4621320" cy="1161000"/>
         </a:xfrm>
         <a:prstGeom prst="ellipse">
           <a:avLst/>
@@ -3053,9 +3053,9 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>16</xdr:col>
-      <xdr:colOff>244080</xdr:colOff>
+      <xdr:colOff>243720</xdr:colOff>
       <xdr:row>7</xdr:row>
-      <xdr:rowOff>5040</xdr:rowOff>
+      <xdr:rowOff>4680</xdr:rowOff>
     </xdr:to>
     <xdr:sp>
       <xdr:nvSpPr>
@@ -3065,7 +3065,7 @@
       <xdr:spPr>
         <a:xfrm>
           <a:off x="10479960" y="158760"/>
-          <a:ext cx="5033160" cy="1646640"/>
+          <a:ext cx="5032800" cy="1646280"/>
         </a:xfrm>
         <a:prstGeom prst="wedgeRoundRectCallout">
           <a:avLst>
@@ -3231,9 +3231,9 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>16</xdr:col>
-      <xdr:colOff>318600</xdr:colOff>
+      <xdr:colOff>318240</xdr:colOff>
       <xdr:row>13</xdr:row>
-      <xdr:rowOff>208080</xdr:rowOff>
+      <xdr:rowOff>207720</xdr:rowOff>
     </xdr:to>
     <xdr:sp>
       <xdr:nvSpPr>
@@ -3243,7 +3243,7 @@
       <xdr:spPr>
         <a:xfrm>
           <a:off x="11906640" y="156960"/>
-          <a:ext cx="5069160" cy="3108600"/>
+          <a:ext cx="5068800" cy="3108240"/>
         </a:xfrm>
         <a:prstGeom prst="wedgeRoundRectCallout">
           <a:avLst>
@@ -3409,9 +3409,9 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>16</xdr:col>
-      <xdr:colOff>318600</xdr:colOff>
+      <xdr:colOff>318240</xdr:colOff>
       <xdr:row>11</xdr:row>
-      <xdr:rowOff>208080</xdr:rowOff>
+      <xdr:rowOff>207720</xdr:rowOff>
     </xdr:to>
     <xdr:sp>
       <xdr:nvSpPr>
@@ -3421,7 +3421,7 @@
       <xdr:spPr>
         <a:xfrm>
           <a:off x="11906640" y="156960"/>
-          <a:ext cx="5069160" cy="2689560"/>
+          <a:ext cx="5068800" cy="2689200"/>
         </a:xfrm>
         <a:prstGeom prst="wedgeRoundRectCallout">
           <a:avLst>
@@ -3769,10 +3769,10 @@
     <tabColor rgb="FF9DC3E6"/>
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:G28"/>
+  <dimension ref="A1:H28"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="pageBreakPreview" topLeftCell="A7" colorId="64" zoomScale="80" zoomScaleNormal="70" zoomScalePageLayoutView="80" workbookViewId="0">
-      <selection pane="topLeft" activeCell="G29" activeCellId="0" sqref="G29"/>
+      <selection pane="topLeft" activeCell="H29" activeCellId="0" sqref="H29"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.45703125" defaultRowHeight="16.5" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -3849,6 +3849,9 @@
       <c r="G7" s="1" t="n">
         <v>0</v>
       </c>
+      <c r="H7" s="1" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="8" customFormat="false" ht="17" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A8" s="6" t="n">
@@ -3871,6 +3874,9 @@
       <c r="G8" s="1" t="n">
         <v>0</v>
       </c>
+      <c r="H8" s="1" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="9" customFormat="false" ht="17" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A9" s="6" t="n">
@@ -3893,6 +3899,9 @@
       <c r="G9" s="1" t="n">
         <v>0</v>
       </c>
+      <c r="H9" s="1" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="10" customFormat="false" ht="17" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A10" s="6" t="n">
@@ -3915,6 +3924,9 @@
       <c r="G10" s="1" t="n">
         <v>0</v>
       </c>
+      <c r="H10" s="1" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="11" customFormat="false" ht="17" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A11" s="6" t="n">
@@ -3937,6 +3949,9 @@
       <c r="G11" s="1" t="s">
         <v>10</v>
       </c>
+      <c r="H11" s="1" t="s">
+        <v>10</v>
+      </c>
     </row>
     <row r="12" customFormat="false" ht="17" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A12" s="6" t="n">
@@ -3959,6 +3974,9 @@
       <c r="G12" s="1" t="s">
         <v>10</v>
       </c>
+      <c r="H12" s="1" t="s">
+        <v>10</v>
+      </c>
     </row>
     <row r="13" customFormat="false" ht="17" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A13" s="6" t="n">
@@ -3981,6 +3999,9 @@
       <c r="G13" s="1" t="s">
         <v>10</v>
       </c>
+      <c r="H13" s="1" t="s">
+        <v>10</v>
+      </c>
     </row>
     <row r="14" customFormat="false" ht="17" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A14" s="6" t="n">
@@ -4003,6 +4024,9 @@
       <c r="G14" s="1" t="s">
         <v>10</v>
       </c>
+      <c r="H14" s="1" t="s">
+        <v>10</v>
+      </c>
     </row>
     <row r="15" customFormat="false" ht="17" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A15" s="6" t="n">
@@ -4025,6 +4049,9 @@
       <c r="G15" s="1" t="n">
         <v>0</v>
       </c>
+      <c r="H15" s="1" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="16" customFormat="false" ht="17" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A16" s="6" t="n">
@@ -4047,6 +4074,9 @@
       <c r="G16" s="1" t="n">
         <v>0</v>
       </c>
+      <c r="H16" s="1" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="17" customFormat="false" ht="17" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A17" s="6" t="n">
@@ -4069,6 +4099,9 @@
       <c r="G17" s="1" t="n">
         <v>0</v>
       </c>
+      <c r="H17" s="1" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="18" customFormat="false" ht="17" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A18" s="6" t="n">
@@ -4091,6 +4124,9 @@
       <c r="G18" s="1" t="n">
         <v>0</v>
       </c>
+      <c r="H18" s="1" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="19" customFormat="false" ht="17" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A19" s="6" t="n">
@@ -4113,6 +4149,9 @@
       <c r="G19" s="1" t="n">
         <v>0</v>
       </c>
+      <c r="H19" s="1" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="20" customFormat="false" ht="17" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A20" s="6" t="n">
@@ -4135,6 +4174,9 @@
       <c r="G20" s="1" t="n">
         <v>0</v>
       </c>
+      <c r="H20" s="1" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="21" customFormat="false" ht="17" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A21" s="6" t="n">
@@ -4157,6 +4199,9 @@
       <c r="G21" s="1" t="n">
         <v>0</v>
       </c>
+      <c r="H21" s="1" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="22" customFormat="false" ht="17" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A22" s="6" t="n">
@@ -4179,6 +4224,9 @@
       <c r="G22" s="1" t="n">
         <v>0</v>
       </c>
+      <c r="H22" s="1" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="23" customFormat="false" ht="17" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A23" s="6" t="n">
@@ -4201,6 +4249,9 @@
       <c r="G23" s="1" t="n">
         <v>0</v>
       </c>
+      <c r="H23" s="1" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="24" customFormat="false" ht="17" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A24" s="6" t="n">
@@ -4223,6 +4274,9 @@
       <c r="G24" s="1" t="n">
         <v>0</v>
       </c>
+      <c r="H24" s="1" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="25" customFormat="false" ht="17" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A25" s="6" t="n">
@@ -4245,6 +4299,9 @@
       <c r="G25" s="1" t="n">
         <v>0</v>
       </c>
+      <c r="H25" s="1" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="26" customFormat="false" ht="17" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A26" s="6" t="n">
@@ -4267,6 +4324,9 @@
       <c r="G26" s="1" t="n">
         <v>0</v>
       </c>
+      <c r="H26" s="1" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="27" customFormat="false" ht="17" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A27" s="6" t="n">
@@ -4289,6 +4349,9 @@
       <c r="G27" s="1" t="n">
         <v>0</v>
       </c>
+      <c r="H27" s="1" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="28" customFormat="false" ht="17" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A28" s="6" t="n">
@@ -4309,6 +4372,9 @@
         <v>0</v>
       </c>
       <c r="G28" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="H28" s="1" t="n">
         <v>0</v>
       </c>
     </row>

--- a/07 ootareon 目標管理シート.xlsx
+++ b/07 ootareon 目標管理シート.xlsx
@@ -47,7 +47,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="590" uniqueCount="526">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="594" uniqueCount="526">
   <si>
     <t xml:space="preserve">学習目標自己チェックシート(ビジネスマナー)</t>
   </si>
@@ -2181,9 +2181,9 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>20</xdr:col>
-      <xdr:colOff>544680</xdr:colOff>
+      <xdr:colOff>544320</xdr:colOff>
       <xdr:row>6</xdr:row>
-      <xdr:rowOff>34560</xdr:rowOff>
+      <xdr:rowOff>34200</xdr:rowOff>
     </xdr:to>
     <xdr:sp>
       <xdr:nvSpPr>
@@ -2193,7 +2193,7 @@
       <xdr:spPr>
         <a:xfrm>
           <a:off x="14182920" y="0"/>
-          <a:ext cx="5011200" cy="1625400"/>
+          <a:ext cx="5010840" cy="1625040"/>
         </a:xfrm>
         <a:prstGeom prst="wedgeRoundRectCallout">
           <a:avLst>
@@ -2359,9 +2359,9 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>16</xdr:col>
-      <xdr:colOff>306720</xdr:colOff>
+      <xdr:colOff>306360</xdr:colOff>
       <xdr:row>6</xdr:row>
-      <xdr:rowOff>179640</xdr:rowOff>
+      <xdr:rowOff>179280</xdr:rowOff>
     </xdr:to>
     <xdr:sp>
       <xdr:nvSpPr>
@@ -2371,7 +2371,7 @@
       <xdr:spPr>
         <a:xfrm>
           <a:off x="11673360" y="145080"/>
-          <a:ext cx="5011200" cy="1625400"/>
+          <a:ext cx="5010840" cy="1625040"/>
         </a:xfrm>
         <a:prstGeom prst="wedgeRoundRectCallout">
           <a:avLst>
@@ -2537,9 +2537,9 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>16</xdr:col>
-      <xdr:colOff>306720</xdr:colOff>
+      <xdr:colOff>306360</xdr:colOff>
       <xdr:row>6</xdr:row>
-      <xdr:rowOff>179640</xdr:rowOff>
+      <xdr:rowOff>179280</xdr:rowOff>
     </xdr:to>
     <xdr:sp>
       <xdr:nvSpPr>
@@ -2549,7 +2549,7 @@
       <xdr:spPr>
         <a:xfrm>
           <a:off x="11620440" y="145080"/>
-          <a:ext cx="5011560" cy="1625400"/>
+          <a:ext cx="5011200" cy="1625040"/>
         </a:xfrm>
         <a:prstGeom prst="wedgeRoundRectCallout">
           <a:avLst>
@@ -2715,9 +2715,9 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>16</xdr:col>
-      <xdr:colOff>266040</xdr:colOff>
+      <xdr:colOff>265680</xdr:colOff>
       <xdr:row>6</xdr:row>
-      <xdr:rowOff>161640</xdr:rowOff>
+      <xdr:rowOff>161280</xdr:rowOff>
     </xdr:to>
     <xdr:sp>
       <xdr:nvSpPr>
@@ -2727,7 +2727,7 @@
       <xdr:spPr>
         <a:xfrm>
           <a:off x="11522160" y="89640"/>
-          <a:ext cx="5069160" cy="1662840"/>
+          <a:ext cx="5068800" cy="1662480"/>
         </a:xfrm>
         <a:prstGeom prst="wedgeRoundRectCallout">
           <a:avLst>
@@ -2888,9 +2888,9 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>4</xdr:col>
-      <xdr:colOff>79920</xdr:colOff>
+      <xdr:colOff>79560</xdr:colOff>
       <xdr:row>85</xdr:row>
-      <xdr:rowOff>170640</xdr:rowOff>
+      <xdr:rowOff>170280</xdr:rowOff>
     </xdr:to>
     <xdr:sp>
       <xdr:nvSpPr>
@@ -2900,7 +2900,7 @@
       <xdr:spPr>
         <a:xfrm>
           <a:off x="11283480" y="16295400"/>
-          <a:ext cx="199080" cy="2229840"/>
+          <a:ext cx="198720" cy="2229480"/>
         </a:xfrm>
         <a:prstGeom prst="rightBrace">
           <a:avLst>
@@ -2940,9 +2940,9 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>15</xdr:col>
-      <xdr:colOff>408600</xdr:colOff>
+      <xdr:colOff>408240</xdr:colOff>
       <xdr:row>84</xdr:row>
-      <xdr:rowOff>131400</xdr:rowOff>
+      <xdr:rowOff>131040</xdr:rowOff>
     </xdr:to>
     <xdr:sp>
       <xdr:nvSpPr>
@@ -2952,7 +2952,7 @@
       <xdr:spPr>
         <a:xfrm>
           <a:off x="11702160" y="17115480"/>
-          <a:ext cx="4621320" cy="1161000"/>
+          <a:ext cx="4620960" cy="1160640"/>
         </a:xfrm>
         <a:prstGeom prst="ellipse">
           <a:avLst/>
@@ -3053,9 +3053,9 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>16</xdr:col>
-      <xdr:colOff>243720</xdr:colOff>
+      <xdr:colOff>243360</xdr:colOff>
       <xdr:row>7</xdr:row>
-      <xdr:rowOff>4680</xdr:rowOff>
+      <xdr:rowOff>4320</xdr:rowOff>
     </xdr:to>
     <xdr:sp>
       <xdr:nvSpPr>
@@ -3065,7 +3065,7 @@
       <xdr:spPr>
         <a:xfrm>
           <a:off x="10479960" y="158760"/>
-          <a:ext cx="5032800" cy="1646280"/>
+          <a:ext cx="5032440" cy="1645920"/>
         </a:xfrm>
         <a:prstGeom prst="wedgeRoundRectCallout">
           <a:avLst>
@@ -3231,9 +3231,9 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>16</xdr:col>
-      <xdr:colOff>318240</xdr:colOff>
+      <xdr:colOff>317880</xdr:colOff>
       <xdr:row>13</xdr:row>
-      <xdr:rowOff>207720</xdr:rowOff>
+      <xdr:rowOff>207360</xdr:rowOff>
     </xdr:to>
     <xdr:sp>
       <xdr:nvSpPr>
@@ -3243,7 +3243,7 @@
       <xdr:spPr>
         <a:xfrm>
           <a:off x="11906640" y="156960"/>
-          <a:ext cx="5068800" cy="3108240"/>
+          <a:ext cx="5068440" cy="3107880"/>
         </a:xfrm>
         <a:prstGeom prst="wedgeRoundRectCallout">
           <a:avLst>
@@ -3409,9 +3409,9 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>16</xdr:col>
-      <xdr:colOff>318240</xdr:colOff>
+      <xdr:colOff>317880</xdr:colOff>
       <xdr:row>11</xdr:row>
-      <xdr:rowOff>207720</xdr:rowOff>
+      <xdr:rowOff>207360</xdr:rowOff>
     </xdr:to>
     <xdr:sp>
       <xdr:nvSpPr>
@@ -3421,7 +3421,7 @@
       <xdr:spPr>
         <a:xfrm>
           <a:off x="11906640" y="156960"/>
-          <a:ext cx="5068800" cy="2689200"/>
+          <a:ext cx="5068440" cy="2688840"/>
         </a:xfrm>
         <a:prstGeom prst="wedgeRoundRectCallout">
           <a:avLst>
@@ -3769,10 +3769,10 @@
     <tabColor rgb="FF9DC3E6"/>
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:H28"/>
+  <dimension ref="A1:I28"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="pageBreakPreview" topLeftCell="A7" colorId="64" zoomScale="80" zoomScaleNormal="70" zoomScalePageLayoutView="80" workbookViewId="0">
-      <selection pane="topLeft" activeCell="H29" activeCellId="0" sqref="H29"/>
+      <selection pane="topLeft" activeCell="I29" activeCellId="0" sqref="I29"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.45703125" defaultRowHeight="16.5" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -3852,6 +3852,9 @@
       <c r="H7" s="1" t="n">
         <v>0</v>
       </c>
+      <c r="I7" s="1" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="8" customFormat="false" ht="17" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A8" s="6" t="n">
@@ -3877,6 +3880,9 @@
       <c r="H8" s="1" t="n">
         <v>0</v>
       </c>
+      <c r="I8" s="1" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="9" customFormat="false" ht="17" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A9" s="6" t="n">
@@ -3902,6 +3908,9 @@
       <c r="H9" s="1" t="n">
         <v>0</v>
       </c>
+      <c r="I9" s="1" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="10" customFormat="false" ht="17" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A10" s="6" t="n">
@@ -3927,6 +3936,9 @@
       <c r="H10" s="1" t="n">
         <v>0</v>
       </c>
+      <c r="I10" s="1" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="11" customFormat="false" ht="17" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A11" s="6" t="n">
@@ -3952,6 +3964,9 @@
       <c r="H11" s="1" t="s">
         <v>10</v>
       </c>
+      <c r="I11" s="1" t="s">
+        <v>10</v>
+      </c>
     </row>
     <row r="12" customFormat="false" ht="17" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A12" s="6" t="n">
@@ -3977,6 +3992,9 @@
       <c r="H12" s="1" t="s">
         <v>10</v>
       </c>
+      <c r="I12" s="1" t="s">
+        <v>10</v>
+      </c>
     </row>
     <row r="13" customFormat="false" ht="17" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A13" s="6" t="n">
@@ -4002,6 +4020,9 @@
       <c r="H13" s="1" t="s">
         <v>10</v>
       </c>
+      <c r="I13" s="1" t="s">
+        <v>10</v>
+      </c>
     </row>
     <row r="14" customFormat="false" ht="17" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A14" s="6" t="n">
@@ -4027,6 +4048,9 @@
       <c r="H14" s="1" t="s">
         <v>10</v>
       </c>
+      <c r="I14" s="1" t="s">
+        <v>10</v>
+      </c>
     </row>
     <row r="15" customFormat="false" ht="17" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A15" s="6" t="n">
@@ -4052,6 +4076,9 @@
       <c r="H15" s="1" t="n">
         <v>0</v>
       </c>
+      <c r="I15" s="1" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="16" customFormat="false" ht="17" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A16" s="6" t="n">
@@ -4077,6 +4104,9 @@
       <c r="H16" s="1" t="n">
         <v>0</v>
       </c>
+      <c r="I16" s="1" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="17" customFormat="false" ht="17" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A17" s="6" t="n">
@@ -4102,6 +4132,9 @@
       <c r="H17" s="1" t="n">
         <v>0</v>
       </c>
+      <c r="I17" s="1" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="18" customFormat="false" ht="17" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A18" s="6" t="n">
@@ -4127,6 +4160,9 @@
       <c r="H18" s="1" t="n">
         <v>0</v>
       </c>
+      <c r="I18" s="1" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="19" customFormat="false" ht="17" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A19" s="6" t="n">
@@ -4152,6 +4188,9 @@
       <c r="H19" s="1" t="n">
         <v>0</v>
       </c>
+      <c r="I19" s="1" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="20" customFormat="false" ht="17" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A20" s="6" t="n">
@@ -4177,6 +4216,9 @@
       <c r="H20" s="1" t="n">
         <v>0</v>
       </c>
+      <c r="I20" s="1" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="21" customFormat="false" ht="17" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A21" s="6" t="n">
@@ -4202,6 +4244,9 @@
       <c r="H21" s="1" t="n">
         <v>0</v>
       </c>
+      <c r="I21" s="1" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="22" customFormat="false" ht="17" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A22" s="6" t="n">
@@ -4227,6 +4272,9 @@
       <c r="H22" s="1" t="n">
         <v>0</v>
       </c>
+      <c r="I22" s="1" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="23" customFormat="false" ht="17" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A23" s="6" t="n">
@@ -4252,6 +4300,9 @@
       <c r="H23" s="1" t="n">
         <v>0</v>
       </c>
+      <c r="I23" s="1" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="24" customFormat="false" ht="17" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A24" s="6" t="n">
@@ -4277,6 +4328,9 @@
       <c r="H24" s="1" t="n">
         <v>0</v>
       </c>
+      <c r="I24" s="1" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="25" customFormat="false" ht="17" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A25" s="6" t="n">
@@ -4302,6 +4356,9 @@
       <c r="H25" s="1" t="n">
         <v>0</v>
       </c>
+      <c r="I25" s="1" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="26" customFormat="false" ht="17" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A26" s="6" t="n">
@@ -4327,6 +4384,9 @@
       <c r="H26" s="1" t="n">
         <v>0</v>
       </c>
+      <c r="I26" s="1" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="27" customFormat="false" ht="17" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A27" s="6" t="n">
@@ -4352,6 +4412,9 @@
       <c r="H27" s="1" t="n">
         <v>0</v>
       </c>
+      <c r="I27" s="1" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="28" customFormat="false" ht="17" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A28" s="6" t="n">
@@ -4375,6 +4438,9 @@
         <v>0</v>
       </c>
       <c r="H28" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="I28" s="1" t="n">
         <v>0</v>
       </c>
     </row>

--- a/07 ootareon 目標管理シート.xlsx
+++ b/07 ootareon 目標管理シート.xlsx
@@ -47,7 +47,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="594" uniqueCount="526">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="598" uniqueCount="526">
   <si>
     <t xml:space="preserve">学習目標自己チェックシート(ビジネスマナー)</t>
   </si>
@@ -2181,9 +2181,9 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>20</xdr:col>
-      <xdr:colOff>544320</xdr:colOff>
+      <xdr:colOff>543960</xdr:colOff>
       <xdr:row>6</xdr:row>
-      <xdr:rowOff>34200</xdr:rowOff>
+      <xdr:rowOff>33840</xdr:rowOff>
     </xdr:to>
     <xdr:sp>
       <xdr:nvSpPr>
@@ -2193,7 +2193,7 @@
       <xdr:spPr>
         <a:xfrm>
           <a:off x="14182920" y="0"/>
-          <a:ext cx="5010840" cy="1625040"/>
+          <a:ext cx="5010480" cy="1624680"/>
         </a:xfrm>
         <a:prstGeom prst="wedgeRoundRectCallout">
           <a:avLst>
@@ -2359,9 +2359,9 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>16</xdr:col>
-      <xdr:colOff>306360</xdr:colOff>
+      <xdr:colOff>306000</xdr:colOff>
       <xdr:row>6</xdr:row>
-      <xdr:rowOff>179280</xdr:rowOff>
+      <xdr:rowOff>178920</xdr:rowOff>
     </xdr:to>
     <xdr:sp>
       <xdr:nvSpPr>
@@ -2371,7 +2371,7 @@
       <xdr:spPr>
         <a:xfrm>
           <a:off x="11673360" y="145080"/>
-          <a:ext cx="5010840" cy="1625040"/>
+          <a:ext cx="5010480" cy="1624680"/>
         </a:xfrm>
         <a:prstGeom prst="wedgeRoundRectCallout">
           <a:avLst>
@@ -2537,9 +2537,9 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>16</xdr:col>
-      <xdr:colOff>306360</xdr:colOff>
+      <xdr:colOff>306000</xdr:colOff>
       <xdr:row>6</xdr:row>
-      <xdr:rowOff>179280</xdr:rowOff>
+      <xdr:rowOff>178920</xdr:rowOff>
     </xdr:to>
     <xdr:sp>
       <xdr:nvSpPr>
@@ -2549,7 +2549,7 @@
       <xdr:spPr>
         <a:xfrm>
           <a:off x="11620440" y="145080"/>
-          <a:ext cx="5011200" cy="1625040"/>
+          <a:ext cx="5010840" cy="1624680"/>
         </a:xfrm>
         <a:prstGeom prst="wedgeRoundRectCallout">
           <a:avLst>
@@ -2715,9 +2715,9 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>16</xdr:col>
-      <xdr:colOff>265680</xdr:colOff>
+      <xdr:colOff>265320</xdr:colOff>
       <xdr:row>6</xdr:row>
-      <xdr:rowOff>161280</xdr:rowOff>
+      <xdr:rowOff>160920</xdr:rowOff>
     </xdr:to>
     <xdr:sp>
       <xdr:nvSpPr>
@@ -2727,7 +2727,7 @@
       <xdr:spPr>
         <a:xfrm>
           <a:off x="11522160" y="89640"/>
-          <a:ext cx="5068800" cy="1662480"/>
+          <a:ext cx="5068440" cy="1662120"/>
         </a:xfrm>
         <a:prstGeom prst="wedgeRoundRectCallout">
           <a:avLst>
@@ -2888,9 +2888,9 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>4</xdr:col>
-      <xdr:colOff>79560</xdr:colOff>
+      <xdr:colOff>79200</xdr:colOff>
       <xdr:row>85</xdr:row>
-      <xdr:rowOff>170280</xdr:rowOff>
+      <xdr:rowOff>169920</xdr:rowOff>
     </xdr:to>
     <xdr:sp>
       <xdr:nvSpPr>
@@ -2900,7 +2900,7 @@
       <xdr:spPr>
         <a:xfrm>
           <a:off x="11283480" y="16295400"/>
-          <a:ext cx="198720" cy="2229480"/>
+          <a:ext cx="198360" cy="2229120"/>
         </a:xfrm>
         <a:prstGeom prst="rightBrace">
           <a:avLst>
@@ -2940,9 +2940,9 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>15</xdr:col>
-      <xdr:colOff>408240</xdr:colOff>
+      <xdr:colOff>407880</xdr:colOff>
       <xdr:row>84</xdr:row>
-      <xdr:rowOff>131040</xdr:rowOff>
+      <xdr:rowOff>130680</xdr:rowOff>
     </xdr:to>
     <xdr:sp>
       <xdr:nvSpPr>
@@ -2952,7 +2952,7 @@
       <xdr:spPr>
         <a:xfrm>
           <a:off x="11702160" y="17115480"/>
-          <a:ext cx="4620960" cy="1160640"/>
+          <a:ext cx="4620600" cy="1160280"/>
         </a:xfrm>
         <a:prstGeom prst="ellipse">
           <a:avLst/>
@@ -3053,9 +3053,9 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>16</xdr:col>
-      <xdr:colOff>243360</xdr:colOff>
+      <xdr:colOff>243000</xdr:colOff>
       <xdr:row>7</xdr:row>
-      <xdr:rowOff>4320</xdr:rowOff>
+      <xdr:rowOff>3960</xdr:rowOff>
     </xdr:to>
     <xdr:sp>
       <xdr:nvSpPr>
@@ -3065,7 +3065,7 @@
       <xdr:spPr>
         <a:xfrm>
           <a:off x="10479960" y="158760"/>
-          <a:ext cx="5032440" cy="1645920"/>
+          <a:ext cx="5032080" cy="1645560"/>
         </a:xfrm>
         <a:prstGeom prst="wedgeRoundRectCallout">
           <a:avLst>
@@ -3231,9 +3231,9 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>16</xdr:col>
-      <xdr:colOff>317880</xdr:colOff>
+      <xdr:colOff>317520</xdr:colOff>
       <xdr:row>13</xdr:row>
-      <xdr:rowOff>207360</xdr:rowOff>
+      <xdr:rowOff>207000</xdr:rowOff>
     </xdr:to>
     <xdr:sp>
       <xdr:nvSpPr>
@@ -3243,7 +3243,7 @@
       <xdr:spPr>
         <a:xfrm>
           <a:off x="11906640" y="156960"/>
-          <a:ext cx="5068440" cy="3107880"/>
+          <a:ext cx="5068080" cy="3107520"/>
         </a:xfrm>
         <a:prstGeom prst="wedgeRoundRectCallout">
           <a:avLst>
@@ -3409,9 +3409,9 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>16</xdr:col>
-      <xdr:colOff>317880</xdr:colOff>
+      <xdr:colOff>317520</xdr:colOff>
       <xdr:row>11</xdr:row>
-      <xdr:rowOff>207360</xdr:rowOff>
+      <xdr:rowOff>207000</xdr:rowOff>
     </xdr:to>
     <xdr:sp>
       <xdr:nvSpPr>
@@ -3421,7 +3421,7 @@
       <xdr:spPr>
         <a:xfrm>
           <a:off x="11906640" y="156960"/>
-          <a:ext cx="5068440" cy="2688840"/>
+          <a:ext cx="5068080" cy="2688480"/>
         </a:xfrm>
         <a:prstGeom prst="wedgeRoundRectCallout">
           <a:avLst>
@@ -3769,10 +3769,10 @@
     <tabColor rgb="FF9DC3E6"/>
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:I28"/>
+  <dimension ref="A1:J28"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="pageBreakPreview" topLeftCell="A7" colorId="64" zoomScale="80" zoomScaleNormal="70" zoomScalePageLayoutView="80" workbookViewId="0">
-      <selection pane="topLeft" activeCell="I29" activeCellId="0" sqref="I29"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="pageBreakPreview" topLeftCell="C7" colorId="64" zoomScale="80" zoomScaleNormal="70" zoomScalePageLayoutView="80" workbookViewId="0">
+      <selection pane="topLeft" activeCell="J29" activeCellId="0" sqref="J29"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.45703125" defaultRowHeight="16.5" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -3855,6 +3855,9 @@
       <c r="I7" s="1" t="n">
         <v>0</v>
       </c>
+      <c r="J7" s="1" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="8" customFormat="false" ht="17" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A8" s="6" t="n">
@@ -3883,6 +3886,9 @@
       <c r="I8" s="1" t="n">
         <v>0</v>
       </c>
+      <c r="J8" s="1" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="9" customFormat="false" ht="17" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A9" s="6" t="n">
@@ -3911,6 +3917,9 @@
       <c r="I9" s="1" t="n">
         <v>0</v>
       </c>
+      <c r="J9" s="1" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="10" customFormat="false" ht="17" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A10" s="6" t="n">
@@ -3939,6 +3948,9 @@
       <c r="I10" s="1" t="n">
         <v>0</v>
       </c>
+      <c r="J10" s="1" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="11" customFormat="false" ht="17" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A11" s="6" t="n">
@@ -3967,6 +3979,9 @@
       <c r="I11" s="1" t="s">
         <v>10</v>
       </c>
+      <c r="J11" s="1" t="s">
+        <v>10</v>
+      </c>
     </row>
     <row r="12" customFormat="false" ht="17" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A12" s="6" t="n">
@@ -3995,6 +4010,9 @@
       <c r="I12" s="1" t="s">
         <v>10</v>
       </c>
+      <c r="J12" s="1" t="s">
+        <v>10</v>
+      </c>
     </row>
     <row r="13" customFormat="false" ht="17" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A13" s="6" t="n">
@@ -4023,6 +4041,9 @@
       <c r="I13" s="1" t="s">
         <v>10</v>
       </c>
+      <c r="J13" s="1" t="s">
+        <v>10</v>
+      </c>
     </row>
     <row r="14" customFormat="false" ht="17" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A14" s="6" t="n">
@@ -4051,6 +4072,9 @@
       <c r="I14" s="1" t="s">
         <v>10</v>
       </c>
+      <c r="J14" s="1" t="s">
+        <v>10</v>
+      </c>
     </row>
     <row r="15" customFormat="false" ht="17" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A15" s="6" t="n">
@@ -4079,6 +4103,9 @@
       <c r="I15" s="1" t="n">
         <v>0</v>
       </c>
+      <c r="J15" s="1" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="16" customFormat="false" ht="17" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A16" s="6" t="n">
@@ -4107,6 +4134,9 @@
       <c r="I16" s="1" t="n">
         <v>0</v>
       </c>
+      <c r="J16" s="1" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="17" customFormat="false" ht="17" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A17" s="6" t="n">
@@ -4135,6 +4165,9 @@
       <c r="I17" s="1" t="n">
         <v>0</v>
       </c>
+      <c r="J17" s="1" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="18" customFormat="false" ht="17" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A18" s="6" t="n">
@@ -4163,6 +4196,9 @@
       <c r="I18" s="1" t="n">
         <v>0</v>
       </c>
+      <c r="J18" s="1" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="19" customFormat="false" ht="17" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A19" s="6" t="n">
@@ -4191,6 +4227,9 @@
       <c r="I19" s="1" t="n">
         <v>0</v>
       </c>
+      <c r="J19" s="1" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="20" customFormat="false" ht="17" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A20" s="6" t="n">
@@ -4219,6 +4258,9 @@
       <c r="I20" s="1" t="n">
         <v>0</v>
       </c>
+      <c r="J20" s="1" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="21" customFormat="false" ht="17" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A21" s="6" t="n">
@@ -4247,6 +4289,9 @@
       <c r="I21" s="1" t="n">
         <v>0</v>
       </c>
+      <c r="J21" s="1" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="22" customFormat="false" ht="17" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A22" s="6" t="n">
@@ -4275,6 +4320,9 @@
       <c r="I22" s="1" t="n">
         <v>0</v>
       </c>
+      <c r="J22" s="1" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="23" customFormat="false" ht="17" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A23" s="6" t="n">
@@ -4303,6 +4351,9 @@
       <c r="I23" s="1" t="n">
         <v>0</v>
       </c>
+      <c r="J23" s="1" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="24" customFormat="false" ht="17" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A24" s="6" t="n">
@@ -4331,6 +4382,9 @@
       <c r="I24" s="1" t="n">
         <v>0</v>
       </c>
+      <c r="J24" s="1" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="25" customFormat="false" ht="17" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A25" s="6" t="n">
@@ -4359,6 +4413,9 @@
       <c r="I25" s="1" t="n">
         <v>0</v>
       </c>
+      <c r="J25" s="1" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="26" customFormat="false" ht="17" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A26" s="6" t="n">
@@ -4387,6 +4444,9 @@
       <c r="I26" s="1" t="n">
         <v>0</v>
       </c>
+      <c r="J26" s="1" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="27" customFormat="false" ht="17" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A27" s="6" t="n">
@@ -4415,6 +4475,9 @@
       <c r="I27" s="1" t="n">
         <v>0</v>
       </c>
+      <c r="J27" s="1" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="28" customFormat="false" ht="17" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A28" s="6" t="n">
@@ -4441,6 +4504,9 @@
         <v>0</v>
       </c>
       <c r="I28" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="J28" s="1" t="n">
         <v>0</v>
       </c>
     </row>

--- a/07 ootareon 目標管理シート.xlsx
+++ b/07 ootareon 目標管理シート.xlsx
@@ -47,7 +47,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="598" uniqueCount="526">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="602" uniqueCount="526">
   <si>
     <t xml:space="preserve">学習目標自己チェックシート(ビジネスマナー)</t>
   </si>
@@ -2181,9 +2181,9 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>20</xdr:col>
-      <xdr:colOff>543960</xdr:colOff>
+      <xdr:colOff>543600</xdr:colOff>
       <xdr:row>6</xdr:row>
-      <xdr:rowOff>33840</xdr:rowOff>
+      <xdr:rowOff>33480</xdr:rowOff>
     </xdr:to>
     <xdr:sp>
       <xdr:nvSpPr>
@@ -2193,7 +2193,7 @@
       <xdr:spPr>
         <a:xfrm>
           <a:off x="14182920" y="0"/>
-          <a:ext cx="5010480" cy="1624680"/>
+          <a:ext cx="5010120" cy="1624320"/>
         </a:xfrm>
         <a:prstGeom prst="wedgeRoundRectCallout">
           <a:avLst>
@@ -2359,9 +2359,9 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>16</xdr:col>
-      <xdr:colOff>306000</xdr:colOff>
+      <xdr:colOff>305640</xdr:colOff>
       <xdr:row>6</xdr:row>
-      <xdr:rowOff>178920</xdr:rowOff>
+      <xdr:rowOff>178560</xdr:rowOff>
     </xdr:to>
     <xdr:sp>
       <xdr:nvSpPr>
@@ -2371,7 +2371,7 @@
       <xdr:spPr>
         <a:xfrm>
           <a:off x="11673360" y="145080"/>
-          <a:ext cx="5010480" cy="1624680"/>
+          <a:ext cx="5010120" cy="1624320"/>
         </a:xfrm>
         <a:prstGeom prst="wedgeRoundRectCallout">
           <a:avLst>
@@ -2537,9 +2537,9 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>16</xdr:col>
-      <xdr:colOff>306000</xdr:colOff>
+      <xdr:colOff>305640</xdr:colOff>
       <xdr:row>6</xdr:row>
-      <xdr:rowOff>178920</xdr:rowOff>
+      <xdr:rowOff>178560</xdr:rowOff>
     </xdr:to>
     <xdr:sp>
       <xdr:nvSpPr>
@@ -2549,7 +2549,7 @@
       <xdr:spPr>
         <a:xfrm>
           <a:off x="11620440" y="145080"/>
-          <a:ext cx="5010840" cy="1624680"/>
+          <a:ext cx="5010480" cy="1624320"/>
         </a:xfrm>
         <a:prstGeom prst="wedgeRoundRectCallout">
           <a:avLst>
@@ -2715,9 +2715,9 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>16</xdr:col>
-      <xdr:colOff>265320</xdr:colOff>
+      <xdr:colOff>264960</xdr:colOff>
       <xdr:row>6</xdr:row>
-      <xdr:rowOff>160920</xdr:rowOff>
+      <xdr:rowOff>160560</xdr:rowOff>
     </xdr:to>
     <xdr:sp>
       <xdr:nvSpPr>
@@ -2727,7 +2727,7 @@
       <xdr:spPr>
         <a:xfrm>
           <a:off x="11522160" y="89640"/>
-          <a:ext cx="5068440" cy="1662120"/>
+          <a:ext cx="5068080" cy="1661760"/>
         </a:xfrm>
         <a:prstGeom prst="wedgeRoundRectCallout">
           <a:avLst>
@@ -2888,9 +2888,9 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>4</xdr:col>
-      <xdr:colOff>79200</xdr:colOff>
+      <xdr:colOff>78840</xdr:colOff>
       <xdr:row>85</xdr:row>
-      <xdr:rowOff>169920</xdr:rowOff>
+      <xdr:rowOff>169560</xdr:rowOff>
     </xdr:to>
     <xdr:sp>
       <xdr:nvSpPr>
@@ -2900,7 +2900,7 @@
       <xdr:spPr>
         <a:xfrm>
           <a:off x="11283480" y="16295400"/>
-          <a:ext cx="198360" cy="2229120"/>
+          <a:ext cx="198000" cy="2228760"/>
         </a:xfrm>
         <a:prstGeom prst="rightBrace">
           <a:avLst>
@@ -2940,9 +2940,9 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>15</xdr:col>
-      <xdr:colOff>407880</xdr:colOff>
+      <xdr:colOff>407520</xdr:colOff>
       <xdr:row>84</xdr:row>
-      <xdr:rowOff>130680</xdr:rowOff>
+      <xdr:rowOff>130320</xdr:rowOff>
     </xdr:to>
     <xdr:sp>
       <xdr:nvSpPr>
@@ -2952,7 +2952,7 @@
       <xdr:spPr>
         <a:xfrm>
           <a:off x="11702160" y="17115480"/>
-          <a:ext cx="4620600" cy="1160280"/>
+          <a:ext cx="4620240" cy="1159920"/>
         </a:xfrm>
         <a:prstGeom prst="ellipse">
           <a:avLst/>
@@ -3053,9 +3053,9 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>16</xdr:col>
-      <xdr:colOff>243000</xdr:colOff>
+      <xdr:colOff>242640</xdr:colOff>
       <xdr:row>7</xdr:row>
-      <xdr:rowOff>3960</xdr:rowOff>
+      <xdr:rowOff>3600</xdr:rowOff>
     </xdr:to>
     <xdr:sp>
       <xdr:nvSpPr>
@@ -3065,7 +3065,7 @@
       <xdr:spPr>
         <a:xfrm>
           <a:off x="10479960" y="158760"/>
-          <a:ext cx="5032080" cy="1645560"/>
+          <a:ext cx="5031720" cy="1645200"/>
         </a:xfrm>
         <a:prstGeom prst="wedgeRoundRectCallout">
           <a:avLst>
@@ -3231,9 +3231,9 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>16</xdr:col>
-      <xdr:colOff>317520</xdr:colOff>
+      <xdr:colOff>317160</xdr:colOff>
       <xdr:row>13</xdr:row>
-      <xdr:rowOff>207000</xdr:rowOff>
+      <xdr:rowOff>206640</xdr:rowOff>
     </xdr:to>
     <xdr:sp>
       <xdr:nvSpPr>
@@ -3243,7 +3243,7 @@
       <xdr:spPr>
         <a:xfrm>
           <a:off x="11906640" y="156960"/>
-          <a:ext cx="5068080" cy="3107520"/>
+          <a:ext cx="5067720" cy="3107160"/>
         </a:xfrm>
         <a:prstGeom prst="wedgeRoundRectCallout">
           <a:avLst>
@@ -3409,9 +3409,9 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>16</xdr:col>
-      <xdr:colOff>317520</xdr:colOff>
+      <xdr:colOff>317160</xdr:colOff>
       <xdr:row>11</xdr:row>
-      <xdr:rowOff>207000</xdr:rowOff>
+      <xdr:rowOff>206640</xdr:rowOff>
     </xdr:to>
     <xdr:sp>
       <xdr:nvSpPr>
@@ -3421,7 +3421,7 @@
       <xdr:spPr>
         <a:xfrm>
           <a:off x="11906640" y="156960"/>
-          <a:ext cx="5068080" cy="2688480"/>
+          <a:ext cx="5067720" cy="2688120"/>
         </a:xfrm>
         <a:prstGeom prst="wedgeRoundRectCallout">
           <a:avLst>
@@ -3769,10 +3769,10 @@
     <tabColor rgb="FF9DC3E6"/>
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:J28"/>
+  <dimension ref="A1:K28"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="pageBreakPreview" topLeftCell="C7" colorId="64" zoomScale="80" zoomScaleNormal="70" zoomScalePageLayoutView="80" workbookViewId="0">
-      <selection pane="topLeft" activeCell="J29" activeCellId="0" sqref="J29"/>
+      <selection pane="topLeft" activeCell="K29" activeCellId="0" sqref="K29"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.45703125" defaultRowHeight="16.5" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -3858,6 +3858,9 @@
       <c r="J7" s="1" t="n">
         <v>0</v>
       </c>
+      <c r="K7" s="1" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="8" customFormat="false" ht="17" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A8" s="6" t="n">
@@ -3889,6 +3892,9 @@
       <c r="J8" s="1" t="n">
         <v>0</v>
       </c>
+      <c r="K8" s="1" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="9" customFormat="false" ht="17" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A9" s="6" t="n">
@@ -3920,6 +3926,9 @@
       <c r="J9" s="1" t="n">
         <v>0</v>
       </c>
+      <c r="K9" s="1" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="10" customFormat="false" ht="17" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A10" s="6" t="n">
@@ -3951,6 +3960,9 @@
       <c r="J10" s="1" t="n">
         <v>0</v>
       </c>
+      <c r="K10" s="1" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="11" customFormat="false" ht="17" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A11" s="6" t="n">
@@ -3982,6 +3994,9 @@
       <c r="J11" s="1" t="s">
         <v>10</v>
       </c>
+      <c r="K11" s="1" t="s">
+        <v>10</v>
+      </c>
     </row>
     <row r="12" customFormat="false" ht="17" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A12" s="6" t="n">
@@ -4013,6 +4028,9 @@
       <c r="J12" s="1" t="s">
         <v>10</v>
       </c>
+      <c r="K12" s="1" t="s">
+        <v>10</v>
+      </c>
     </row>
     <row r="13" customFormat="false" ht="17" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A13" s="6" t="n">
@@ -4044,6 +4062,9 @@
       <c r="J13" s="1" t="s">
         <v>10</v>
       </c>
+      <c r="K13" s="1" t="s">
+        <v>10</v>
+      </c>
     </row>
     <row r="14" customFormat="false" ht="17" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A14" s="6" t="n">
@@ -4075,6 +4096,9 @@
       <c r="J14" s="1" t="s">
         <v>10</v>
       </c>
+      <c r="K14" s="1" t="s">
+        <v>10</v>
+      </c>
     </row>
     <row r="15" customFormat="false" ht="17" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A15" s="6" t="n">
@@ -4106,6 +4130,9 @@
       <c r="J15" s="1" t="n">
         <v>0</v>
       </c>
+      <c r="K15" s="1" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="16" customFormat="false" ht="17" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A16" s="6" t="n">
@@ -4137,6 +4164,9 @@
       <c r="J16" s="1" t="n">
         <v>0</v>
       </c>
+      <c r="K16" s="1" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="17" customFormat="false" ht="17" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A17" s="6" t="n">
@@ -4168,6 +4198,9 @@
       <c r="J17" s="1" t="n">
         <v>0</v>
       </c>
+      <c r="K17" s="1" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="18" customFormat="false" ht="17" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A18" s="6" t="n">
@@ -4199,6 +4232,9 @@
       <c r="J18" s="1" t="n">
         <v>0</v>
       </c>
+      <c r="K18" s="1" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="19" customFormat="false" ht="17" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A19" s="6" t="n">
@@ -4230,6 +4266,9 @@
       <c r="J19" s="1" t="n">
         <v>0</v>
       </c>
+      <c r="K19" s="1" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="20" customFormat="false" ht="17" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A20" s="6" t="n">
@@ -4261,6 +4300,9 @@
       <c r="J20" s="1" t="n">
         <v>0</v>
       </c>
+      <c r="K20" s="1" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="21" customFormat="false" ht="17" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A21" s="6" t="n">
@@ -4292,6 +4334,9 @@
       <c r="J21" s="1" t="n">
         <v>0</v>
       </c>
+      <c r="K21" s="1" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="22" customFormat="false" ht="17" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A22" s="6" t="n">
@@ -4323,6 +4368,9 @@
       <c r="J22" s="1" t="n">
         <v>0</v>
       </c>
+      <c r="K22" s="1" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="23" customFormat="false" ht="17" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A23" s="6" t="n">
@@ -4354,6 +4402,9 @@
       <c r="J23" s="1" t="n">
         <v>0</v>
       </c>
+      <c r="K23" s="1" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="24" customFormat="false" ht="17" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A24" s="6" t="n">
@@ -4385,6 +4436,9 @@
       <c r="J24" s="1" t="n">
         <v>0</v>
       </c>
+      <c r="K24" s="1" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="25" customFormat="false" ht="17" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A25" s="6" t="n">
@@ -4416,6 +4470,9 @@
       <c r="J25" s="1" t="n">
         <v>0</v>
       </c>
+      <c r="K25" s="1" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="26" customFormat="false" ht="17" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A26" s="6" t="n">
@@ -4447,6 +4504,9 @@
       <c r="J26" s="1" t="n">
         <v>0</v>
       </c>
+      <c r="K26" s="1" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="27" customFormat="false" ht="17" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A27" s="6" t="n">
@@ -4478,6 +4538,9 @@
       <c r="J27" s="1" t="n">
         <v>0</v>
       </c>
+      <c r="K27" s="1" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="28" customFormat="false" ht="17" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A28" s="6" t="n">
@@ -4507,6 +4570,9 @@
         <v>0</v>
       </c>
       <c r="J28" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="K28" s="1" t="n">
         <v>0</v>
       </c>
     </row>

--- a/07 ootareon 目標管理シート.xlsx
+++ b/07 ootareon 目標管理シート.xlsx
@@ -47,7 +47,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="602" uniqueCount="526">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="606" uniqueCount="526">
   <si>
     <t xml:space="preserve">学習目標自己チェックシート(ビジネスマナー)</t>
   </si>
@@ -2181,9 +2181,9 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>20</xdr:col>
-      <xdr:colOff>543600</xdr:colOff>
+      <xdr:colOff>543240</xdr:colOff>
       <xdr:row>6</xdr:row>
-      <xdr:rowOff>33480</xdr:rowOff>
+      <xdr:rowOff>33120</xdr:rowOff>
     </xdr:to>
     <xdr:sp>
       <xdr:nvSpPr>
@@ -2193,7 +2193,7 @@
       <xdr:spPr>
         <a:xfrm>
           <a:off x="14182920" y="0"/>
-          <a:ext cx="5010120" cy="1624320"/>
+          <a:ext cx="5009760" cy="1623960"/>
         </a:xfrm>
         <a:prstGeom prst="wedgeRoundRectCallout">
           <a:avLst>
@@ -2359,9 +2359,9 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>16</xdr:col>
-      <xdr:colOff>305640</xdr:colOff>
+      <xdr:colOff>305280</xdr:colOff>
       <xdr:row>6</xdr:row>
-      <xdr:rowOff>178560</xdr:rowOff>
+      <xdr:rowOff>178200</xdr:rowOff>
     </xdr:to>
     <xdr:sp>
       <xdr:nvSpPr>
@@ -2371,7 +2371,7 @@
       <xdr:spPr>
         <a:xfrm>
           <a:off x="11673360" y="145080"/>
-          <a:ext cx="5010120" cy="1624320"/>
+          <a:ext cx="5009760" cy="1623960"/>
         </a:xfrm>
         <a:prstGeom prst="wedgeRoundRectCallout">
           <a:avLst>
@@ -2537,9 +2537,9 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>16</xdr:col>
-      <xdr:colOff>305640</xdr:colOff>
+      <xdr:colOff>305280</xdr:colOff>
       <xdr:row>6</xdr:row>
-      <xdr:rowOff>178560</xdr:rowOff>
+      <xdr:rowOff>178200</xdr:rowOff>
     </xdr:to>
     <xdr:sp>
       <xdr:nvSpPr>
@@ -2549,7 +2549,7 @@
       <xdr:spPr>
         <a:xfrm>
           <a:off x="11620440" y="145080"/>
-          <a:ext cx="5010480" cy="1624320"/>
+          <a:ext cx="5010120" cy="1623960"/>
         </a:xfrm>
         <a:prstGeom prst="wedgeRoundRectCallout">
           <a:avLst>
@@ -2715,9 +2715,9 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>16</xdr:col>
-      <xdr:colOff>264960</xdr:colOff>
+      <xdr:colOff>264600</xdr:colOff>
       <xdr:row>6</xdr:row>
-      <xdr:rowOff>160560</xdr:rowOff>
+      <xdr:rowOff>160200</xdr:rowOff>
     </xdr:to>
     <xdr:sp>
       <xdr:nvSpPr>
@@ -2727,7 +2727,7 @@
       <xdr:spPr>
         <a:xfrm>
           <a:off x="11522160" y="89640"/>
-          <a:ext cx="5068080" cy="1661760"/>
+          <a:ext cx="5067720" cy="1661400"/>
         </a:xfrm>
         <a:prstGeom prst="wedgeRoundRectCallout">
           <a:avLst>
@@ -2888,9 +2888,9 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>4</xdr:col>
-      <xdr:colOff>78840</xdr:colOff>
+      <xdr:colOff>78480</xdr:colOff>
       <xdr:row>85</xdr:row>
-      <xdr:rowOff>169560</xdr:rowOff>
+      <xdr:rowOff>169200</xdr:rowOff>
     </xdr:to>
     <xdr:sp>
       <xdr:nvSpPr>
@@ -2900,7 +2900,7 @@
       <xdr:spPr>
         <a:xfrm>
           <a:off x="11283480" y="16295400"/>
-          <a:ext cx="198000" cy="2228760"/>
+          <a:ext cx="197640" cy="2228400"/>
         </a:xfrm>
         <a:prstGeom prst="rightBrace">
           <a:avLst>
@@ -2940,9 +2940,9 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>15</xdr:col>
-      <xdr:colOff>407520</xdr:colOff>
+      <xdr:colOff>407160</xdr:colOff>
       <xdr:row>84</xdr:row>
-      <xdr:rowOff>130320</xdr:rowOff>
+      <xdr:rowOff>129960</xdr:rowOff>
     </xdr:to>
     <xdr:sp>
       <xdr:nvSpPr>
@@ -2952,7 +2952,7 @@
       <xdr:spPr>
         <a:xfrm>
           <a:off x="11702160" y="17115480"/>
-          <a:ext cx="4620240" cy="1159920"/>
+          <a:ext cx="4619880" cy="1159560"/>
         </a:xfrm>
         <a:prstGeom prst="ellipse">
           <a:avLst/>
@@ -3053,9 +3053,9 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>16</xdr:col>
-      <xdr:colOff>242640</xdr:colOff>
+      <xdr:colOff>242280</xdr:colOff>
       <xdr:row>7</xdr:row>
-      <xdr:rowOff>3600</xdr:rowOff>
+      <xdr:rowOff>3240</xdr:rowOff>
     </xdr:to>
     <xdr:sp>
       <xdr:nvSpPr>
@@ -3065,7 +3065,7 @@
       <xdr:spPr>
         <a:xfrm>
           <a:off x="10479960" y="158760"/>
-          <a:ext cx="5031720" cy="1645200"/>
+          <a:ext cx="5031360" cy="1644840"/>
         </a:xfrm>
         <a:prstGeom prst="wedgeRoundRectCallout">
           <a:avLst>
@@ -3231,9 +3231,9 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>16</xdr:col>
-      <xdr:colOff>317160</xdr:colOff>
+      <xdr:colOff>316800</xdr:colOff>
       <xdr:row>13</xdr:row>
-      <xdr:rowOff>206640</xdr:rowOff>
+      <xdr:rowOff>206280</xdr:rowOff>
     </xdr:to>
     <xdr:sp>
       <xdr:nvSpPr>
@@ -3243,7 +3243,7 @@
       <xdr:spPr>
         <a:xfrm>
           <a:off x="11906640" y="156960"/>
-          <a:ext cx="5067720" cy="3107160"/>
+          <a:ext cx="5067360" cy="3106800"/>
         </a:xfrm>
         <a:prstGeom prst="wedgeRoundRectCallout">
           <a:avLst>
@@ -3409,9 +3409,9 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>16</xdr:col>
-      <xdr:colOff>317160</xdr:colOff>
+      <xdr:colOff>316800</xdr:colOff>
       <xdr:row>11</xdr:row>
-      <xdr:rowOff>206640</xdr:rowOff>
+      <xdr:rowOff>206280</xdr:rowOff>
     </xdr:to>
     <xdr:sp>
       <xdr:nvSpPr>
@@ -3421,7 +3421,7 @@
       <xdr:spPr>
         <a:xfrm>
           <a:off x="11906640" y="156960"/>
-          <a:ext cx="5067720" cy="2688120"/>
+          <a:ext cx="5067360" cy="2687760"/>
         </a:xfrm>
         <a:prstGeom prst="wedgeRoundRectCallout">
           <a:avLst>
@@ -3769,10 +3769,10 @@
     <tabColor rgb="FF9DC3E6"/>
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:K28"/>
+  <dimension ref="A1:L28"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="pageBreakPreview" topLeftCell="C7" colorId="64" zoomScale="80" zoomScaleNormal="70" zoomScalePageLayoutView="80" workbookViewId="0">
-      <selection pane="topLeft" activeCell="K29" activeCellId="0" sqref="K29"/>
+      <selection pane="topLeft" activeCell="L29" activeCellId="0" sqref="L29"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.45703125" defaultRowHeight="16.5" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -3861,6 +3861,9 @@
       <c r="K7" s="1" t="n">
         <v>0</v>
       </c>
+      <c r="L7" s="1" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="8" customFormat="false" ht="17" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A8" s="6" t="n">
@@ -3895,6 +3898,9 @@
       <c r="K8" s="1" t="n">
         <v>0</v>
       </c>
+      <c r="L8" s="1" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="9" customFormat="false" ht="17" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A9" s="6" t="n">
@@ -3929,6 +3935,9 @@
       <c r="K9" s="1" t="n">
         <v>0</v>
       </c>
+      <c r="L9" s="1" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="10" customFormat="false" ht="17" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A10" s="6" t="n">
@@ -3963,6 +3972,9 @@
       <c r="K10" s="1" t="n">
         <v>0</v>
       </c>
+      <c r="L10" s="1" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="11" customFormat="false" ht="17" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A11" s="6" t="n">
@@ -3997,6 +4009,9 @@
       <c r="K11" s="1" t="s">
         <v>10</v>
       </c>
+      <c r="L11" s="1" t="s">
+        <v>10</v>
+      </c>
     </row>
     <row r="12" customFormat="false" ht="17" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A12" s="6" t="n">
@@ -4031,6 +4046,9 @@
       <c r="K12" s="1" t="s">
         <v>10</v>
       </c>
+      <c r="L12" s="1" t="s">
+        <v>10</v>
+      </c>
     </row>
     <row r="13" customFormat="false" ht="17" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A13" s="6" t="n">
@@ -4065,6 +4083,9 @@
       <c r="K13" s="1" t="s">
         <v>10</v>
       </c>
+      <c r="L13" s="1" t="s">
+        <v>10</v>
+      </c>
     </row>
     <row r="14" customFormat="false" ht="17" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A14" s="6" t="n">
@@ -4099,6 +4120,9 @@
       <c r="K14" s="1" t="s">
         <v>10</v>
       </c>
+      <c r="L14" s="1" t="s">
+        <v>10</v>
+      </c>
     </row>
     <row r="15" customFormat="false" ht="17" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A15" s="6" t="n">
@@ -4133,6 +4157,9 @@
       <c r="K15" s="1" t="n">
         <v>0</v>
       </c>
+      <c r="L15" s="1" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="16" customFormat="false" ht="17" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A16" s="6" t="n">
@@ -4167,6 +4194,9 @@
       <c r="K16" s="1" t="n">
         <v>0</v>
       </c>
+      <c r="L16" s="1" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="17" customFormat="false" ht="17" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A17" s="6" t="n">
@@ -4201,6 +4231,9 @@
       <c r="K17" s="1" t="n">
         <v>0</v>
       </c>
+      <c r="L17" s="1" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="18" customFormat="false" ht="17" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A18" s="6" t="n">
@@ -4235,6 +4268,9 @@
       <c r="K18" s="1" t="n">
         <v>0</v>
       </c>
+      <c r="L18" s="1" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="19" customFormat="false" ht="17" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A19" s="6" t="n">
@@ -4269,6 +4305,9 @@
       <c r="K19" s="1" t="n">
         <v>0</v>
       </c>
+      <c r="L19" s="1" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="20" customFormat="false" ht="17" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A20" s="6" t="n">
@@ -4303,6 +4342,9 @@
       <c r="K20" s="1" t="n">
         <v>0</v>
       </c>
+      <c r="L20" s="1" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="21" customFormat="false" ht="17" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A21" s="6" t="n">
@@ -4337,6 +4379,9 @@
       <c r="K21" s="1" t="n">
         <v>0</v>
       </c>
+      <c r="L21" s="1" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="22" customFormat="false" ht="17" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A22" s="6" t="n">
@@ -4371,6 +4416,9 @@
       <c r="K22" s="1" t="n">
         <v>0</v>
       </c>
+      <c r="L22" s="1" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="23" customFormat="false" ht="17" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A23" s="6" t="n">
@@ -4405,6 +4453,9 @@
       <c r="K23" s="1" t="n">
         <v>0</v>
       </c>
+      <c r="L23" s="1" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="24" customFormat="false" ht="17" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A24" s="6" t="n">
@@ -4439,6 +4490,9 @@
       <c r="K24" s="1" t="n">
         <v>0</v>
       </c>
+      <c r="L24" s="1" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="25" customFormat="false" ht="17" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A25" s="6" t="n">
@@ -4473,6 +4527,9 @@
       <c r="K25" s="1" t="n">
         <v>0</v>
       </c>
+      <c r="L25" s="1" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="26" customFormat="false" ht="17" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A26" s="6" t="n">
@@ -4507,6 +4564,9 @@
       <c r="K26" s="1" t="n">
         <v>0</v>
       </c>
+      <c r="L26" s="1" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="27" customFormat="false" ht="17" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A27" s="6" t="n">
@@ -4541,6 +4601,9 @@
       <c r="K27" s="1" t="n">
         <v>0</v>
       </c>
+      <c r="L27" s="1" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="28" customFormat="false" ht="17" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A28" s="6" t="n">
@@ -4573,6 +4636,9 @@
         <v>0</v>
       </c>
       <c r="K28" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="L28" s="1" t="n">
         <v>0</v>
       </c>
     </row>

--- a/07 ootareon 目標管理シート.xlsx
+++ b/07 ootareon 目標管理シート.xlsx
@@ -47,7 +47,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="606" uniqueCount="526">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="610" uniqueCount="526">
   <si>
     <t xml:space="preserve">学習目標自己チェックシート(ビジネスマナー)</t>
   </si>
@@ -2181,9 +2181,9 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>20</xdr:col>
-      <xdr:colOff>543240</xdr:colOff>
+      <xdr:colOff>542880</xdr:colOff>
       <xdr:row>6</xdr:row>
-      <xdr:rowOff>33120</xdr:rowOff>
+      <xdr:rowOff>32760</xdr:rowOff>
     </xdr:to>
     <xdr:sp>
       <xdr:nvSpPr>
@@ -2193,7 +2193,7 @@
       <xdr:spPr>
         <a:xfrm>
           <a:off x="14182920" y="0"/>
-          <a:ext cx="5009760" cy="1623960"/>
+          <a:ext cx="5009400" cy="1623600"/>
         </a:xfrm>
         <a:prstGeom prst="wedgeRoundRectCallout">
           <a:avLst>
@@ -2359,9 +2359,9 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>16</xdr:col>
-      <xdr:colOff>305280</xdr:colOff>
+      <xdr:colOff>304920</xdr:colOff>
       <xdr:row>6</xdr:row>
-      <xdr:rowOff>178200</xdr:rowOff>
+      <xdr:rowOff>177840</xdr:rowOff>
     </xdr:to>
     <xdr:sp>
       <xdr:nvSpPr>
@@ -2371,7 +2371,7 @@
       <xdr:spPr>
         <a:xfrm>
           <a:off x="11673360" y="145080"/>
-          <a:ext cx="5009760" cy="1623960"/>
+          <a:ext cx="5009400" cy="1623600"/>
         </a:xfrm>
         <a:prstGeom prst="wedgeRoundRectCallout">
           <a:avLst>
@@ -2537,9 +2537,9 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>16</xdr:col>
-      <xdr:colOff>305280</xdr:colOff>
+      <xdr:colOff>304920</xdr:colOff>
       <xdr:row>6</xdr:row>
-      <xdr:rowOff>178200</xdr:rowOff>
+      <xdr:rowOff>177840</xdr:rowOff>
     </xdr:to>
     <xdr:sp>
       <xdr:nvSpPr>
@@ -2549,7 +2549,7 @@
       <xdr:spPr>
         <a:xfrm>
           <a:off x="11620440" y="145080"/>
-          <a:ext cx="5010120" cy="1623960"/>
+          <a:ext cx="5009760" cy="1623600"/>
         </a:xfrm>
         <a:prstGeom prst="wedgeRoundRectCallout">
           <a:avLst>
@@ -2715,9 +2715,9 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>16</xdr:col>
-      <xdr:colOff>264600</xdr:colOff>
+      <xdr:colOff>264240</xdr:colOff>
       <xdr:row>6</xdr:row>
-      <xdr:rowOff>160200</xdr:rowOff>
+      <xdr:rowOff>159840</xdr:rowOff>
     </xdr:to>
     <xdr:sp>
       <xdr:nvSpPr>
@@ -2727,7 +2727,7 @@
       <xdr:spPr>
         <a:xfrm>
           <a:off x="11522160" y="89640"/>
-          <a:ext cx="5067720" cy="1661400"/>
+          <a:ext cx="5067360" cy="1661040"/>
         </a:xfrm>
         <a:prstGeom prst="wedgeRoundRectCallout">
           <a:avLst>
@@ -2888,9 +2888,9 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>4</xdr:col>
-      <xdr:colOff>78480</xdr:colOff>
+      <xdr:colOff>78120</xdr:colOff>
       <xdr:row>85</xdr:row>
-      <xdr:rowOff>169200</xdr:rowOff>
+      <xdr:rowOff>168840</xdr:rowOff>
     </xdr:to>
     <xdr:sp>
       <xdr:nvSpPr>
@@ -2900,7 +2900,7 @@
       <xdr:spPr>
         <a:xfrm>
           <a:off x="11283480" y="16295400"/>
-          <a:ext cx="197640" cy="2228400"/>
+          <a:ext cx="197280" cy="2228040"/>
         </a:xfrm>
         <a:prstGeom prst="rightBrace">
           <a:avLst>
@@ -2940,9 +2940,9 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>15</xdr:col>
-      <xdr:colOff>407160</xdr:colOff>
+      <xdr:colOff>406800</xdr:colOff>
       <xdr:row>84</xdr:row>
-      <xdr:rowOff>129960</xdr:rowOff>
+      <xdr:rowOff>129600</xdr:rowOff>
     </xdr:to>
     <xdr:sp>
       <xdr:nvSpPr>
@@ -2952,7 +2952,7 @@
       <xdr:spPr>
         <a:xfrm>
           <a:off x="11702160" y="17115480"/>
-          <a:ext cx="4619880" cy="1159560"/>
+          <a:ext cx="4619520" cy="1159200"/>
         </a:xfrm>
         <a:prstGeom prst="ellipse">
           <a:avLst/>
@@ -3053,9 +3053,9 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>16</xdr:col>
-      <xdr:colOff>242280</xdr:colOff>
+      <xdr:colOff>241920</xdr:colOff>
       <xdr:row>7</xdr:row>
-      <xdr:rowOff>3240</xdr:rowOff>
+      <xdr:rowOff>2880</xdr:rowOff>
     </xdr:to>
     <xdr:sp>
       <xdr:nvSpPr>
@@ -3065,7 +3065,7 @@
       <xdr:spPr>
         <a:xfrm>
           <a:off x="10479960" y="158760"/>
-          <a:ext cx="5031360" cy="1644840"/>
+          <a:ext cx="5031000" cy="1644480"/>
         </a:xfrm>
         <a:prstGeom prst="wedgeRoundRectCallout">
           <a:avLst>
@@ -3231,9 +3231,9 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>16</xdr:col>
-      <xdr:colOff>316800</xdr:colOff>
+      <xdr:colOff>316440</xdr:colOff>
       <xdr:row>13</xdr:row>
-      <xdr:rowOff>206280</xdr:rowOff>
+      <xdr:rowOff>205920</xdr:rowOff>
     </xdr:to>
     <xdr:sp>
       <xdr:nvSpPr>
@@ -3243,7 +3243,7 @@
       <xdr:spPr>
         <a:xfrm>
           <a:off x="11906640" y="156960"/>
-          <a:ext cx="5067360" cy="3106800"/>
+          <a:ext cx="5067000" cy="3106440"/>
         </a:xfrm>
         <a:prstGeom prst="wedgeRoundRectCallout">
           <a:avLst>
@@ -3409,9 +3409,9 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>16</xdr:col>
-      <xdr:colOff>316800</xdr:colOff>
+      <xdr:colOff>316440</xdr:colOff>
       <xdr:row>11</xdr:row>
-      <xdr:rowOff>206280</xdr:rowOff>
+      <xdr:rowOff>205920</xdr:rowOff>
     </xdr:to>
     <xdr:sp>
       <xdr:nvSpPr>
@@ -3421,7 +3421,7 @@
       <xdr:spPr>
         <a:xfrm>
           <a:off x="11906640" y="156960"/>
-          <a:ext cx="5067360" cy="2687760"/>
+          <a:ext cx="5067000" cy="2687400"/>
         </a:xfrm>
         <a:prstGeom prst="wedgeRoundRectCallout">
           <a:avLst>
@@ -3769,10 +3769,10 @@
     <tabColor rgb="FF9DC3E6"/>
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:L28"/>
+  <dimension ref="A1:M28"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="pageBreakPreview" topLeftCell="C7" colorId="64" zoomScale="80" zoomScaleNormal="70" zoomScalePageLayoutView="80" workbookViewId="0">
-      <selection pane="topLeft" activeCell="L29" activeCellId="0" sqref="L29"/>
+      <selection pane="topLeft" activeCell="M29" activeCellId="0" sqref="M29"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.45703125" defaultRowHeight="16.5" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -3864,6 +3864,9 @@
       <c r="L7" s="1" t="n">
         <v>0</v>
       </c>
+      <c r="M7" s="1" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="8" customFormat="false" ht="17" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A8" s="6" t="n">
@@ -3901,6 +3904,9 @@
       <c r="L8" s="1" t="n">
         <v>0</v>
       </c>
+      <c r="M8" s="1" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="9" customFormat="false" ht="17" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A9" s="6" t="n">
@@ -3938,6 +3944,9 @@
       <c r="L9" s="1" t="n">
         <v>0</v>
       </c>
+      <c r="M9" s="1" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="10" customFormat="false" ht="17" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A10" s="6" t="n">
@@ -3975,6 +3984,9 @@
       <c r="L10" s="1" t="n">
         <v>0</v>
       </c>
+      <c r="M10" s="1" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="11" customFormat="false" ht="17" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A11" s="6" t="n">
@@ -4012,6 +4024,9 @@
       <c r="L11" s="1" t="s">
         <v>10</v>
       </c>
+      <c r="M11" s="1" t="s">
+        <v>10</v>
+      </c>
     </row>
     <row r="12" customFormat="false" ht="17" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A12" s="6" t="n">
@@ -4049,6 +4064,9 @@
       <c r="L12" s="1" t="s">
         <v>10</v>
       </c>
+      <c r="M12" s="1" t="s">
+        <v>10</v>
+      </c>
     </row>
     <row r="13" customFormat="false" ht="17" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A13" s="6" t="n">
@@ -4086,6 +4104,9 @@
       <c r="L13" s="1" t="s">
         <v>10</v>
       </c>
+      <c r="M13" s="1" t="s">
+        <v>10</v>
+      </c>
     </row>
     <row r="14" customFormat="false" ht="17" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A14" s="6" t="n">
@@ -4123,6 +4144,9 @@
       <c r="L14" s="1" t="s">
         <v>10</v>
       </c>
+      <c r="M14" s="1" t="s">
+        <v>10</v>
+      </c>
     </row>
     <row r="15" customFormat="false" ht="17" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A15" s="6" t="n">
@@ -4160,6 +4184,9 @@
       <c r="L15" s="1" t="n">
         <v>0</v>
       </c>
+      <c r="M15" s="1" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="16" customFormat="false" ht="17" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A16" s="6" t="n">
@@ -4197,6 +4224,9 @@
       <c r="L16" s="1" t="n">
         <v>0</v>
       </c>
+      <c r="M16" s="1" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="17" customFormat="false" ht="17" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A17" s="6" t="n">
@@ -4234,6 +4264,9 @@
       <c r="L17" s="1" t="n">
         <v>0</v>
       </c>
+      <c r="M17" s="1" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="18" customFormat="false" ht="17" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A18" s="6" t="n">
@@ -4271,6 +4304,9 @@
       <c r="L18" s="1" t="n">
         <v>0</v>
       </c>
+      <c r="M18" s="1" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="19" customFormat="false" ht="17" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A19" s="6" t="n">
@@ -4308,6 +4344,9 @@
       <c r="L19" s="1" t="n">
         <v>0</v>
       </c>
+      <c r="M19" s="1" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="20" customFormat="false" ht="17" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A20" s="6" t="n">
@@ -4345,6 +4384,9 @@
       <c r="L20" s="1" t="n">
         <v>0</v>
       </c>
+      <c r="M20" s="1" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="21" customFormat="false" ht="17" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A21" s="6" t="n">
@@ -4382,6 +4424,9 @@
       <c r="L21" s="1" t="n">
         <v>0</v>
       </c>
+      <c r="M21" s="1" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="22" customFormat="false" ht="17" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A22" s="6" t="n">
@@ -4419,6 +4464,9 @@
       <c r="L22" s="1" t="n">
         <v>0</v>
       </c>
+      <c r="M22" s="1" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="23" customFormat="false" ht="17" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A23" s="6" t="n">
@@ -4456,6 +4504,9 @@
       <c r="L23" s="1" t="n">
         <v>0</v>
       </c>
+      <c r="M23" s="1" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="24" customFormat="false" ht="17" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A24" s="6" t="n">
@@ -4493,6 +4544,9 @@
       <c r="L24" s="1" t="n">
         <v>0</v>
       </c>
+      <c r="M24" s="1" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="25" customFormat="false" ht="17" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A25" s="6" t="n">
@@ -4530,6 +4584,9 @@
       <c r="L25" s="1" t="n">
         <v>0</v>
       </c>
+      <c r="M25" s="1" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="26" customFormat="false" ht="17" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A26" s="6" t="n">
@@ -4567,6 +4624,9 @@
       <c r="L26" s="1" t="n">
         <v>0</v>
       </c>
+      <c r="M26" s="1" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="27" customFormat="false" ht="17" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A27" s="6" t="n">
@@ -4604,6 +4664,9 @@
       <c r="L27" s="1" t="n">
         <v>0</v>
       </c>
+      <c r="M27" s="1" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="28" customFormat="false" ht="17" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A28" s="6" t="n">
@@ -4639,6 +4702,9 @@
         <v>0</v>
       </c>
       <c r="L28" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="M28" s="1" t="n">
         <v>0</v>
       </c>
     </row>

--- a/07 ootareon 目標管理シート.xlsx
+++ b/07 ootareon 目標管理シート.xlsx
@@ -47,7 +47,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="610" uniqueCount="526">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="614" uniqueCount="526">
   <si>
     <t xml:space="preserve">学習目標自己チェックシート(ビジネスマナー)</t>
   </si>
@@ -2181,9 +2181,9 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>20</xdr:col>
-      <xdr:colOff>542880</xdr:colOff>
+      <xdr:colOff>542520</xdr:colOff>
       <xdr:row>6</xdr:row>
-      <xdr:rowOff>32760</xdr:rowOff>
+      <xdr:rowOff>32400</xdr:rowOff>
     </xdr:to>
     <xdr:sp>
       <xdr:nvSpPr>
@@ -2193,7 +2193,7 @@
       <xdr:spPr>
         <a:xfrm>
           <a:off x="14182920" y="0"/>
-          <a:ext cx="5009400" cy="1623600"/>
+          <a:ext cx="5009040" cy="1623240"/>
         </a:xfrm>
         <a:prstGeom prst="wedgeRoundRectCallout">
           <a:avLst>
@@ -2359,9 +2359,9 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>16</xdr:col>
-      <xdr:colOff>304920</xdr:colOff>
+      <xdr:colOff>304560</xdr:colOff>
       <xdr:row>6</xdr:row>
-      <xdr:rowOff>177840</xdr:rowOff>
+      <xdr:rowOff>177480</xdr:rowOff>
     </xdr:to>
     <xdr:sp>
       <xdr:nvSpPr>
@@ -2371,7 +2371,7 @@
       <xdr:spPr>
         <a:xfrm>
           <a:off x="11673360" y="145080"/>
-          <a:ext cx="5009400" cy="1623600"/>
+          <a:ext cx="5009040" cy="1623240"/>
         </a:xfrm>
         <a:prstGeom prst="wedgeRoundRectCallout">
           <a:avLst>
@@ -2537,9 +2537,9 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>16</xdr:col>
-      <xdr:colOff>304920</xdr:colOff>
+      <xdr:colOff>304560</xdr:colOff>
       <xdr:row>6</xdr:row>
-      <xdr:rowOff>177840</xdr:rowOff>
+      <xdr:rowOff>177480</xdr:rowOff>
     </xdr:to>
     <xdr:sp>
       <xdr:nvSpPr>
@@ -2549,7 +2549,7 @@
       <xdr:spPr>
         <a:xfrm>
           <a:off x="11620440" y="145080"/>
-          <a:ext cx="5009760" cy="1623600"/>
+          <a:ext cx="5009400" cy="1623240"/>
         </a:xfrm>
         <a:prstGeom prst="wedgeRoundRectCallout">
           <a:avLst>
@@ -2715,9 +2715,9 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>16</xdr:col>
-      <xdr:colOff>264240</xdr:colOff>
+      <xdr:colOff>263880</xdr:colOff>
       <xdr:row>6</xdr:row>
-      <xdr:rowOff>159840</xdr:rowOff>
+      <xdr:rowOff>159480</xdr:rowOff>
     </xdr:to>
     <xdr:sp>
       <xdr:nvSpPr>
@@ -2727,7 +2727,7 @@
       <xdr:spPr>
         <a:xfrm>
           <a:off x="11522160" y="89640"/>
-          <a:ext cx="5067360" cy="1661040"/>
+          <a:ext cx="5067000" cy="1660680"/>
         </a:xfrm>
         <a:prstGeom prst="wedgeRoundRectCallout">
           <a:avLst>
@@ -2888,9 +2888,9 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>4</xdr:col>
-      <xdr:colOff>78120</xdr:colOff>
+      <xdr:colOff>77760</xdr:colOff>
       <xdr:row>85</xdr:row>
-      <xdr:rowOff>168840</xdr:rowOff>
+      <xdr:rowOff>168480</xdr:rowOff>
     </xdr:to>
     <xdr:sp>
       <xdr:nvSpPr>
@@ -2900,7 +2900,7 @@
       <xdr:spPr>
         <a:xfrm>
           <a:off x="11283480" y="16295400"/>
-          <a:ext cx="197280" cy="2228040"/>
+          <a:ext cx="196920" cy="2227680"/>
         </a:xfrm>
         <a:prstGeom prst="rightBrace">
           <a:avLst>
@@ -2940,9 +2940,9 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>15</xdr:col>
-      <xdr:colOff>406800</xdr:colOff>
+      <xdr:colOff>406440</xdr:colOff>
       <xdr:row>84</xdr:row>
-      <xdr:rowOff>129600</xdr:rowOff>
+      <xdr:rowOff>129240</xdr:rowOff>
     </xdr:to>
     <xdr:sp>
       <xdr:nvSpPr>
@@ -2952,7 +2952,7 @@
       <xdr:spPr>
         <a:xfrm>
           <a:off x="11702160" y="17115480"/>
-          <a:ext cx="4619520" cy="1159200"/>
+          <a:ext cx="4619160" cy="1158840"/>
         </a:xfrm>
         <a:prstGeom prst="ellipse">
           <a:avLst/>
@@ -3053,9 +3053,9 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>16</xdr:col>
-      <xdr:colOff>241920</xdr:colOff>
+      <xdr:colOff>241560</xdr:colOff>
       <xdr:row>7</xdr:row>
-      <xdr:rowOff>2880</xdr:rowOff>
+      <xdr:rowOff>2520</xdr:rowOff>
     </xdr:to>
     <xdr:sp>
       <xdr:nvSpPr>
@@ -3065,7 +3065,7 @@
       <xdr:spPr>
         <a:xfrm>
           <a:off x="10479960" y="158760"/>
-          <a:ext cx="5031000" cy="1644480"/>
+          <a:ext cx="5030640" cy="1644120"/>
         </a:xfrm>
         <a:prstGeom prst="wedgeRoundRectCallout">
           <a:avLst>
@@ -3231,9 +3231,9 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>16</xdr:col>
-      <xdr:colOff>316440</xdr:colOff>
+      <xdr:colOff>316080</xdr:colOff>
       <xdr:row>13</xdr:row>
-      <xdr:rowOff>205920</xdr:rowOff>
+      <xdr:rowOff>205560</xdr:rowOff>
     </xdr:to>
     <xdr:sp>
       <xdr:nvSpPr>
@@ -3243,7 +3243,7 @@
       <xdr:spPr>
         <a:xfrm>
           <a:off x="11906640" y="156960"/>
-          <a:ext cx="5067000" cy="3106440"/>
+          <a:ext cx="5066640" cy="3106080"/>
         </a:xfrm>
         <a:prstGeom prst="wedgeRoundRectCallout">
           <a:avLst>
@@ -3409,9 +3409,9 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>16</xdr:col>
-      <xdr:colOff>316440</xdr:colOff>
+      <xdr:colOff>316080</xdr:colOff>
       <xdr:row>11</xdr:row>
-      <xdr:rowOff>205920</xdr:rowOff>
+      <xdr:rowOff>205560</xdr:rowOff>
     </xdr:to>
     <xdr:sp>
       <xdr:nvSpPr>
@@ -3421,7 +3421,7 @@
       <xdr:spPr>
         <a:xfrm>
           <a:off x="11906640" y="156960"/>
-          <a:ext cx="5067000" cy="2687400"/>
+          <a:ext cx="5066640" cy="2687040"/>
         </a:xfrm>
         <a:prstGeom prst="wedgeRoundRectCallout">
           <a:avLst>
@@ -3769,10 +3769,10 @@
     <tabColor rgb="FF9DC3E6"/>
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:M28"/>
+  <dimension ref="A1:N28"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="pageBreakPreview" topLeftCell="C7" colorId="64" zoomScale="80" zoomScaleNormal="70" zoomScalePageLayoutView="80" workbookViewId="0">
-      <selection pane="topLeft" activeCell="M29" activeCellId="0" sqref="M29"/>
+      <selection pane="topLeft" activeCell="N29" activeCellId="0" sqref="N29"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.45703125" defaultRowHeight="16.5" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -3867,6 +3867,9 @@
       <c r="M7" s="1" t="n">
         <v>0</v>
       </c>
+      <c r="N7" s="1" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="8" customFormat="false" ht="17" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A8" s="6" t="n">
@@ -3907,6 +3910,9 @@
       <c r="M8" s="1" t="n">
         <v>0</v>
       </c>
+      <c r="N8" s="1" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="9" customFormat="false" ht="17" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A9" s="6" t="n">
@@ -3947,6 +3953,9 @@
       <c r="M9" s="1" t="n">
         <v>0</v>
       </c>
+      <c r="N9" s="1" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="10" customFormat="false" ht="17" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A10" s="6" t="n">
@@ -3987,6 +3996,9 @@
       <c r="M10" s="1" t="n">
         <v>0</v>
       </c>
+      <c r="N10" s="1" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="11" customFormat="false" ht="17" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A11" s="6" t="n">
@@ -4027,6 +4039,9 @@
       <c r="M11" s="1" t="s">
         <v>10</v>
       </c>
+      <c r="N11" s="1" t="s">
+        <v>10</v>
+      </c>
     </row>
     <row r="12" customFormat="false" ht="17" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A12" s="6" t="n">
@@ -4067,6 +4082,9 @@
       <c r="M12" s="1" t="s">
         <v>10</v>
       </c>
+      <c r="N12" s="1" t="s">
+        <v>10</v>
+      </c>
     </row>
     <row r="13" customFormat="false" ht="17" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A13" s="6" t="n">
@@ -4107,6 +4125,9 @@
       <c r="M13" s="1" t="s">
         <v>10</v>
       </c>
+      <c r="N13" s="1" t="s">
+        <v>10</v>
+      </c>
     </row>
     <row r="14" customFormat="false" ht="17" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A14" s="6" t="n">
@@ -4147,6 +4168,9 @@
       <c r="M14" s="1" t="s">
         <v>10</v>
       </c>
+      <c r="N14" s="1" t="s">
+        <v>10</v>
+      </c>
     </row>
     <row r="15" customFormat="false" ht="17" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A15" s="6" t="n">
@@ -4187,6 +4211,9 @@
       <c r="M15" s="1" t="n">
         <v>0</v>
       </c>
+      <c r="N15" s="1" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="16" customFormat="false" ht="17" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A16" s="6" t="n">
@@ -4227,6 +4254,9 @@
       <c r="M16" s="1" t="n">
         <v>0</v>
       </c>
+      <c r="N16" s="1" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="17" customFormat="false" ht="17" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A17" s="6" t="n">
@@ -4267,6 +4297,9 @@
       <c r="M17" s="1" t="n">
         <v>0</v>
       </c>
+      <c r="N17" s="1" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="18" customFormat="false" ht="17" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A18" s="6" t="n">
@@ -4307,6 +4340,9 @@
       <c r="M18" s="1" t="n">
         <v>0</v>
       </c>
+      <c r="N18" s="1" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="19" customFormat="false" ht="17" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A19" s="6" t="n">
@@ -4347,6 +4383,9 @@
       <c r="M19" s="1" t="n">
         <v>0</v>
       </c>
+      <c r="N19" s="1" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="20" customFormat="false" ht="17" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A20" s="6" t="n">
@@ -4387,6 +4426,9 @@
       <c r="M20" s="1" t="n">
         <v>0</v>
       </c>
+      <c r="N20" s="1" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="21" customFormat="false" ht="17" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A21" s="6" t="n">
@@ -4427,6 +4469,9 @@
       <c r="M21" s="1" t="n">
         <v>0</v>
       </c>
+      <c r="N21" s="1" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="22" customFormat="false" ht="17" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A22" s="6" t="n">
@@ -4467,6 +4512,9 @@
       <c r="M22" s="1" t="n">
         <v>0</v>
       </c>
+      <c r="N22" s="1" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="23" customFormat="false" ht="17" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A23" s="6" t="n">
@@ -4507,6 +4555,9 @@
       <c r="M23" s="1" t="n">
         <v>0</v>
       </c>
+      <c r="N23" s="1" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="24" customFormat="false" ht="17" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A24" s="6" t="n">
@@ -4547,6 +4598,9 @@
       <c r="M24" s="1" t="n">
         <v>0</v>
       </c>
+      <c r="N24" s="1" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="25" customFormat="false" ht="17" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A25" s="6" t="n">
@@ -4587,6 +4641,9 @@
       <c r="M25" s="1" t="n">
         <v>0</v>
       </c>
+      <c r="N25" s="1" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="26" customFormat="false" ht="17" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A26" s="6" t="n">
@@ -4627,6 +4684,9 @@
       <c r="M26" s="1" t="n">
         <v>0</v>
       </c>
+      <c r="N26" s="1" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="27" customFormat="false" ht="17" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A27" s="6" t="n">
@@ -4667,6 +4727,9 @@
       <c r="M27" s="1" t="n">
         <v>0</v>
       </c>
+      <c r="N27" s="1" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="28" customFormat="false" ht="17" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A28" s="6" t="n">
@@ -4705,6 +4768,9 @@
         <v>0</v>
       </c>
       <c r="M28" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="N28" s="1" t="n">
         <v>0</v>
       </c>
     </row>

--- a/07 ootareon 目標管理シート.xlsx
+++ b/07 ootareon 目標管理シート.xlsx
@@ -47,7 +47,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="614" uniqueCount="526">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="618" uniqueCount="526">
   <si>
     <t xml:space="preserve">学習目標自己チェックシート(ビジネスマナー)</t>
   </si>
@@ -2181,9 +2181,9 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>20</xdr:col>
-      <xdr:colOff>542520</xdr:colOff>
+      <xdr:colOff>542160</xdr:colOff>
       <xdr:row>6</xdr:row>
-      <xdr:rowOff>32400</xdr:rowOff>
+      <xdr:rowOff>32040</xdr:rowOff>
     </xdr:to>
     <xdr:sp>
       <xdr:nvSpPr>
@@ -2193,7 +2193,7 @@
       <xdr:spPr>
         <a:xfrm>
           <a:off x="14182920" y="0"/>
-          <a:ext cx="5009040" cy="1623240"/>
+          <a:ext cx="5008680" cy="1622880"/>
         </a:xfrm>
         <a:prstGeom prst="wedgeRoundRectCallout">
           <a:avLst>
@@ -2359,9 +2359,9 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>16</xdr:col>
-      <xdr:colOff>304560</xdr:colOff>
+      <xdr:colOff>304200</xdr:colOff>
       <xdr:row>6</xdr:row>
-      <xdr:rowOff>177480</xdr:rowOff>
+      <xdr:rowOff>177120</xdr:rowOff>
     </xdr:to>
     <xdr:sp>
       <xdr:nvSpPr>
@@ -2371,7 +2371,7 @@
       <xdr:spPr>
         <a:xfrm>
           <a:off x="11673360" y="145080"/>
-          <a:ext cx="5009040" cy="1623240"/>
+          <a:ext cx="5008680" cy="1622880"/>
         </a:xfrm>
         <a:prstGeom prst="wedgeRoundRectCallout">
           <a:avLst>
@@ -2537,9 +2537,9 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>16</xdr:col>
-      <xdr:colOff>304560</xdr:colOff>
+      <xdr:colOff>304200</xdr:colOff>
       <xdr:row>6</xdr:row>
-      <xdr:rowOff>177480</xdr:rowOff>
+      <xdr:rowOff>177120</xdr:rowOff>
     </xdr:to>
     <xdr:sp>
       <xdr:nvSpPr>
@@ -2549,7 +2549,7 @@
       <xdr:spPr>
         <a:xfrm>
           <a:off x="11620440" y="145080"/>
-          <a:ext cx="5009400" cy="1623240"/>
+          <a:ext cx="5009040" cy="1622880"/>
         </a:xfrm>
         <a:prstGeom prst="wedgeRoundRectCallout">
           <a:avLst>
@@ -2715,9 +2715,9 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>16</xdr:col>
-      <xdr:colOff>263880</xdr:colOff>
+      <xdr:colOff>263520</xdr:colOff>
       <xdr:row>6</xdr:row>
-      <xdr:rowOff>159480</xdr:rowOff>
+      <xdr:rowOff>159120</xdr:rowOff>
     </xdr:to>
     <xdr:sp>
       <xdr:nvSpPr>
@@ -2727,7 +2727,7 @@
       <xdr:spPr>
         <a:xfrm>
           <a:off x="11522160" y="89640"/>
-          <a:ext cx="5067000" cy="1660680"/>
+          <a:ext cx="5066640" cy="1660320"/>
         </a:xfrm>
         <a:prstGeom prst="wedgeRoundRectCallout">
           <a:avLst>
@@ -2888,9 +2888,9 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>4</xdr:col>
-      <xdr:colOff>77760</xdr:colOff>
+      <xdr:colOff>77400</xdr:colOff>
       <xdr:row>85</xdr:row>
-      <xdr:rowOff>168480</xdr:rowOff>
+      <xdr:rowOff>168120</xdr:rowOff>
     </xdr:to>
     <xdr:sp>
       <xdr:nvSpPr>
@@ -2900,7 +2900,7 @@
       <xdr:spPr>
         <a:xfrm>
           <a:off x="11283480" y="16295400"/>
-          <a:ext cx="196920" cy="2227680"/>
+          <a:ext cx="196560" cy="2227320"/>
         </a:xfrm>
         <a:prstGeom prst="rightBrace">
           <a:avLst>
@@ -2940,9 +2940,9 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>15</xdr:col>
-      <xdr:colOff>406440</xdr:colOff>
+      <xdr:colOff>406080</xdr:colOff>
       <xdr:row>84</xdr:row>
-      <xdr:rowOff>129240</xdr:rowOff>
+      <xdr:rowOff>128880</xdr:rowOff>
     </xdr:to>
     <xdr:sp>
       <xdr:nvSpPr>
@@ -2952,7 +2952,7 @@
       <xdr:spPr>
         <a:xfrm>
           <a:off x="11702160" y="17115480"/>
-          <a:ext cx="4619160" cy="1158840"/>
+          <a:ext cx="4618800" cy="1158480"/>
         </a:xfrm>
         <a:prstGeom prst="ellipse">
           <a:avLst/>
@@ -3053,9 +3053,9 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>16</xdr:col>
-      <xdr:colOff>241560</xdr:colOff>
+      <xdr:colOff>241200</xdr:colOff>
       <xdr:row>7</xdr:row>
-      <xdr:rowOff>2520</xdr:rowOff>
+      <xdr:rowOff>2160</xdr:rowOff>
     </xdr:to>
     <xdr:sp>
       <xdr:nvSpPr>
@@ -3065,7 +3065,7 @@
       <xdr:spPr>
         <a:xfrm>
           <a:off x="10479960" y="158760"/>
-          <a:ext cx="5030640" cy="1644120"/>
+          <a:ext cx="5030280" cy="1643760"/>
         </a:xfrm>
         <a:prstGeom prst="wedgeRoundRectCallout">
           <a:avLst>
@@ -3231,9 +3231,9 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>16</xdr:col>
-      <xdr:colOff>316080</xdr:colOff>
+      <xdr:colOff>315720</xdr:colOff>
       <xdr:row>13</xdr:row>
-      <xdr:rowOff>205560</xdr:rowOff>
+      <xdr:rowOff>205200</xdr:rowOff>
     </xdr:to>
     <xdr:sp>
       <xdr:nvSpPr>
@@ -3243,7 +3243,7 @@
       <xdr:spPr>
         <a:xfrm>
           <a:off x="11906640" y="156960"/>
-          <a:ext cx="5066640" cy="3106080"/>
+          <a:ext cx="5066280" cy="3105720"/>
         </a:xfrm>
         <a:prstGeom prst="wedgeRoundRectCallout">
           <a:avLst>
@@ -3409,9 +3409,9 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>16</xdr:col>
-      <xdr:colOff>316080</xdr:colOff>
+      <xdr:colOff>315720</xdr:colOff>
       <xdr:row>11</xdr:row>
-      <xdr:rowOff>205560</xdr:rowOff>
+      <xdr:rowOff>205200</xdr:rowOff>
     </xdr:to>
     <xdr:sp>
       <xdr:nvSpPr>
@@ -3421,7 +3421,7 @@
       <xdr:spPr>
         <a:xfrm>
           <a:off x="11906640" y="156960"/>
-          <a:ext cx="5066640" cy="2687040"/>
+          <a:ext cx="5066280" cy="2686680"/>
         </a:xfrm>
         <a:prstGeom prst="wedgeRoundRectCallout">
           <a:avLst>
@@ -3769,10 +3769,10 @@
     <tabColor rgb="FF9DC3E6"/>
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:N28"/>
+  <dimension ref="A1:O28"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="pageBreakPreview" topLeftCell="C7" colorId="64" zoomScale="80" zoomScaleNormal="70" zoomScalePageLayoutView="80" workbookViewId="0">
-      <selection pane="topLeft" activeCell="N29" activeCellId="0" sqref="N29"/>
+      <selection pane="topLeft" activeCell="O29" activeCellId="0" sqref="O29"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.45703125" defaultRowHeight="16.5" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -3870,6 +3870,9 @@
       <c r="N7" s="1" t="n">
         <v>0</v>
       </c>
+      <c r="O7" s="1" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="8" customFormat="false" ht="17" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A8" s="6" t="n">
@@ -3913,6 +3916,9 @@
       <c r="N8" s="1" t="n">
         <v>0</v>
       </c>
+      <c r="O8" s="1" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="9" customFormat="false" ht="17" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A9" s="6" t="n">
@@ -3956,6 +3962,9 @@
       <c r="N9" s="1" t="n">
         <v>0</v>
       </c>
+      <c r="O9" s="1" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="10" customFormat="false" ht="17" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A10" s="6" t="n">
@@ -3999,6 +4008,9 @@
       <c r="N10" s="1" t="n">
         <v>0</v>
       </c>
+      <c r="O10" s="1" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="11" customFormat="false" ht="17" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A11" s="6" t="n">
@@ -4042,6 +4054,9 @@
       <c r="N11" s="1" t="s">
         <v>10</v>
       </c>
+      <c r="O11" s="1" t="s">
+        <v>10</v>
+      </c>
     </row>
     <row r="12" customFormat="false" ht="17" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A12" s="6" t="n">
@@ -4085,6 +4100,9 @@
       <c r="N12" s="1" t="s">
         <v>10</v>
       </c>
+      <c r="O12" s="1" t="s">
+        <v>10</v>
+      </c>
     </row>
     <row r="13" customFormat="false" ht="17" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A13" s="6" t="n">
@@ -4128,6 +4146,9 @@
       <c r="N13" s="1" t="s">
         <v>10</v>
       </c>
+      <c r="O13" s="1" t="s">
+        <v>10</v>
+      </c>
     </row>
     <row r="14" customFormat="false" ht="17" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A14" s="6" t="n">
@@ -4171,6 +4192,9 @@
       <c r="N14" s="1" t="s">
         <v>10</v>
       </c>
+      <c r="O14" s="1" t="s">
+        <v>10</v>
+      </c>
     </row>
     <row r="15" customFormat="false" ht="17" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A15" s="6" t="n">
@@ -4214,6 +4238,9 @@
       <c r="N15" s="1" t="n">
         <v>0</v>
       </c>
+      <c r="O15" s="1" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="16" customFormat="false" ht="17" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A16" s="6" t="n">
@@ -4257,6 +4284,9 @@
       <c r="N16" s="1" t="n">
         <v>0</v>
       </c>
+      <c r="O16" s="1" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="17" customFormat="false" ht="17" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A17" s="6" t="n">
@@ -4300,6 +4330,9 @@
       <c r="N17" s="1" t="n">
         <v>0</v>
       </c>
+      <c r="O17" s="1" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="18" customFormat="false" ht="17" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A18" s="6" t="n">
@@ -4343,6 +4376,9 @@
       <c r="N18" s="1" t="n">
         <v>0</v>
       </c>
+      <c r="O18" s="1" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="19" customFormat="false" ht="17" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A19" s="6" t="n">
@@ -4386,6 +4422,9 @@
       <c r="N19" s="1" t="n">
         <v>0</v>
       </c>
+      <c r="O19" s="1" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="20" customFormat="false" ht="17" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A20" s="6" t="n">
@@ -4429,6 +4468,9 @@
       <c r="N20" s="1" t="n">
         <v>0</v>
       </c>
+      <c r="O20" s="1" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="21" customFormat="false" ht="17" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A21" s="6" t="n">
@@ -4472,6 +4514,9 @@
       <c r="N21" s="1" t="n">
         <v>0</v>
       </c>
+      <c r="O21" s="1" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="22" customFormat="false" ht="17" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A22" s="6" t="n">
@@ -4515,6 +4560,9 @@
       <c r="N22" s="1" t="n">
         <v>0</v>
       </c>
+      <c r="O22" s="1" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="23" customFormat="false" ht="17" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A23" s="6" t="n">
@@ -4558,6 +4606,9 @@
       <c r="N23" s="1" t="n">
         <v>0</v>
       </c>
+      <c r="O23" s="1" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="24" customFormat="false" ht="17" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A24" s="6" t="n">
@@ -4601,6 +4652,9 @@
       <c r="N24" s="1" t="n">
         <v>0</v>
       </c>
+      <c r="O24" s="1" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="25" customFormat="false" ht="17" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A25" s="6" t="n">
@@ -4644,6 +4698,9 @@
       <c r="N25" s="1" t="n">
         <v>0</v>
       </c>
+      <c r="O25" s="1" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="26" customFormat="false" ht="17" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A26" s="6" t="n">
@@ -4687,6 +4744,9 @@
       <c r="N26" s="1" t="n">
         <v>0</v>
       </c>
+      <c r="O26" s="1" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="27" customFormat="false" ht="17" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A27" s="6" t="n">
@@ -4730,6 +4790,9 @@
       <c r="N27" s="1" t="n">
         <v>0</v>
       </c>
+      <c r="O27" s="1" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="28" customFormat="false" ht="17" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A28" s="6" t="n">
@@ -4771,6 +4834,9 @@
         <v>0</v>
       </c>
       <c r="N28" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="O28" s="1" t="n">
         <v>0</v>
       </c>
     </row>

--- a/07 ootareon 目標管理シート.xlsx
+++ b/07 ootareon 目標管理シート.xlsx
@@ -47,7 +47,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="618" uniqueCount="526">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="622" uniqueCount="526">
   <si>
     <t xml:space="preserve">学習目標自己チェックシート(ビジネスマナー)</t>
   </si>
@@ -2181,9 +2181,9 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>20</xdr:col>
-      <xdr:colOff>542160</xdr:colOff>
+      <xdr:colOff>541440</xdr:colOff>
       <xdr:row>6</xdr:row>
-      <xdr:rowOff>32040</xdr:rowOff>
+      <xdr:rowOff>31320</xdr:rowOff>
     </xdr:to>
     <xdr:sp>
       <xdr:nvSpPr>
@@ -2193,7 +2193,7 @@
       <xdr:spPr>
         <a:xfrm>
           <a:off x="14182920" y="0"/>
-          <a:ext cx="5008680" cy="1622880"/>
+          <a:ext cx="5007960" cy="1622160"/>
         </a:xfrm>
         <a:prstGeom prst="wedgeRoundRectCallout">
           <a:avLst>
@@ -2359,9 +2359,9 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>16</xdr:col>
-      <xdr:colOff>304200</xdr:colOff>
+      <xdr:colOff>303480</xdr:colOff>
       <xdr:row>6</xdr:row>
-      <xdr:rowOff>177120</xdr:rowOff>
+      <xdr:rowOff>176400</xdr:rowOff>
     </xdr:to>
     <xdr:sp>
       <xdr:nvSpPr>
@@ -2371,7 +2371,7 @@
       <xdr:spPr>
         <a:xfrm>
           <a:off x="11673360" y="145080"/>
-          <a:ext cx="5008680" cy="1622880"/>
+          <a:ext cx="5007960" cy="1622160"/>
         </a:xfrm>
         <a:prstGeom prst="wedgeRoundRectCallout">
           <a:avLst>
@@ -2537,9 +2537,9 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>16</xdr:col>
-      <xdr:colOff>304200</xdr:colOff>
+      <xdr:colOff>303480</xdr:colOff>
       <xdr:row>6</xdr:row>
-      <xdr:rowOff>177120</xdr:rowOff>
+      <xdr:rowOff>176400</xdr:rowOff>
     </xdr:to>
     <xdr:sp>
       <xdr:nvSpPr>
@@ -2549,7 +2549,7 @@
       <xdr:spPr>
         <a:xfrm>
           <a:off x="11620440" y="145080"/>
-          <a:ext cx="5009040" cy="1622880"/>
+          <a:ext cx="5008320" cy="1622160"/>
         </a:xfrm>
         <a:prstGeom prst="wedgeRoundRectCallout">
           <a:avLst>
@@ -2715,9 +2715,9 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>16</xdr:col>
-      <xdr:colOff>263520</xdr:colOff>
+      <xdr:colOff>262800</xdr:colOff>
       <xdr:row>6</xdr:row>
-      <xdr:rowOff>159120</xdr:rowOff>
+      <xdr:rowOff>158400</xdr:rowOff>
     </xdr:to>
     <xdr:sp>
       <xdr:nvSpPr>
@@ -2727,7 +2727,7 @@
       <xdr:spPr>
         <a:xfrm>
           <a:off x="11522160" y="89640"/>
-          <a:ext cx="5066640" cy="1660320"/>
+          <a:ext cx="5065920" cy="1659600"/>
         </a:xfrm>
         <a:prstGeom prst="wedgeRoundRectCallout">
           <a:avLst>
@@ -2888,9 +2888,9 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>4</xdr:col>
-      <xdr:colOff>77400</xdr:colOff>
+      <xdr:colOff>76680</xdr:colOff>
       <xdr:row>85</xdr:row>
-      <xdr:rowOff>168120</xdr:rowOff>
+      <xdr:rowOff>167400</xdr:rowOff>
     </xdr:to>
     <xdr:sp>
       <xdr:nvSpPr>
@@ -2900,7 +2900,7 @@
       <xdr:spPr>
         <a:xfrm>
           <a:off x="11283480" y="16295400"/>
-          <a:ext cx="196560" cy="2227320"/>
+          <a:ext cx="195840" cy="2226600"/>
         </a:xfrm>
         <a:prstGeom prst="rightBrace">
           <a:avLst>
@@ -2940,9 +2940,9 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>15</xdr:col>
-      <xdr:colOff>406080</xdr:colOff>
+      <xdr:colOff>405360</xdr:colOff>
       <xdr:row>84</xdr:row>
-      <xdr:rowOff>128880</xdr:rowOff>
+      <xdr:rowOff>128160</xdr:rowOff>
     </xdr:to>
     <xdr:sp>
       <xdr:nvSpPr>
@@ -2952,7 +2952,7 @@
       <xdr:spPr>
         <a:xfrm>
           <a:off x="11702160" y="17115480"/>
-          <a:ext cx="4618800" cy="1158480"/>
+          <a:ext cx="4618080" cy="1157760"/>
         </a:xfrm>
         <a:prstGeom prst="ellipse">
           <a:avLst/>
@@ -3053,9 +3053,9 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>16</xdr:col>
-      <xdr:colOff>241200</xdr:colOff>
+      <xdr:colOff>240480</xdr:colOff>
       <xdr:row>7</xdr:row>
-      <xdr:rowOff>2160</xdr:rowOff>
+      <xdr:rowOff>1440</xdr:rowOff>
     </xdr:to>
     <xdr:sp>
       <xdr:nvSpPr>
@@ -3065,7 +3065,7 @@
       <xdr:spPr>
         <a:xfrm>
           <a:off x="10479960" y="158760"/>
-          <a:ext cx="5030280" cy="1643760"/>
+          <a:ext cx="5029560" cy="1643040"/>
         </a:xfrm>
         <a:prstGeom prst="wedgeRoundRectCallout">
           <a:avLst>
@@ -3231,9 +3231,9 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>16</xdr:col>
-      <xdr:colOff>315720</xdr:colOff>
+      <xdr:colOff>315000</xdr:colOff>
       <xdr:row>13</xdr:row>
-      <xdr:rowOff>205200</xdr:rowOff>
+      <xdr:rowOff>204480</xdr:rowOff>
     </xdr:to>
     <xdr:sp>
       <xdr:nvSpPr>
@@ -3243,7 +3243,7 @@
       <xdr:spPr>
         <a:xfrm>
           <a:off x="11906640" y="156960"/>
-          <a:ext cx="5066280" cy="3105720"/>
+          <a:ext cx="5065560" cy="3105000"/>
         </a:xfrm>
         <a:prstGeom prst="wedgeRoundRectCallout">
           <a:avLst>
@@ -3409,9 +3409,9 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>16</xdr:col>
-      <xdr:colOff>315720</xdr:colOff>
+      <xdr:colOff>315000</xdr:colOff>
       <xdr:row>11</xdr:row>
-      <xdr:rowOff>205200</xdr:rowOff>
+      <xdr:rowOff>204480</xdr:rowOff>
     </xdr:to>
     <xdr:sp>
       <xdr:nvSpPr>
@@ -3421,7 +3421,7 @@
       <xdr:spPr>
         <a:xfrm>
           <a:off x="11906640" y="156960"/>
-          <a:ext cx="5066280" cy="2686680"/>
+          <a:ext cx="5065560" cy="2685960"/>
         </a:xfrm>
         <a:prstGeom prst="wedgeRoundRectCallout">
           <a:avLst>
@@ -3769,10 +3769,10 @@
     <tabColor rgb="FF9DC3E6"/>
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:O28"/>
+  <dimension ref="A1:P28"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="pageBreakPreview" topLeftCell="C7" colorId="64" zoomScale="80" zoomScaleNormal="70" zoomScalePageLayoutView="80" workbookViewId="0">
-      <selection pane="topLeft" activeCell="O29" activeCellId="0" sqref="O29"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="pageBreakPreview" topLeftCell="J7" colorId="64" zoomScale="80" zoomScaleNormal="70" zoomScalePageLayoutView="80" workbookViewId="0">
+      <selection pane="topLeft" activeCell="P29" activeCellId="0" sqref="P29"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.45703125" defaultRowHeight="16.5" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -3873,6 +3873,9 @@
       <c r="O7" s="1" t="n">
         <v>0</v>
       </c>
+      <c r="P7" s="1" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="8" customFormat="false" ht="17" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A8" s="6" t="n">
@@ -3919,6 +3922,9 @@
       <c r="O8" s="1" t="n">
         <v>0</v>
       </c>
+      <c r="P8" s="1" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="9" customFormat="false" ht="17" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A9" s="6" t="n">
@@ -3965,6 +3971,9 @@
       <c r="O9" s="1" t="n">
         <v>0</v>
       </c>
+      <c r="P9" s="1" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="10" customFormat="false" ht="17" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A10" s="6" t="n">
@@ -4011,6 +4020,9 @@
       <c r="O10" s="1" t="n">
         <v>0</v>
       </c>
+      <c r="P10" s="1" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="11" customFormat="false" ht="17" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A11" s="6" t="n">
@@ -4057,6 +4069,9 @@
       <c r="O11" s="1" t="s">
         <v>10</v>
       </c>
+      <c r="P11" s="1" t="s">
+        <v>10</v>
+      </c>
     </row>
     <row r="12" customFormat="false" ht="17" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A12" s="6" t="n">
@@ -4103,6 +4118,9 @@
       <c r="O12" s="1" t="s">
         <v>10</v>
       </c>
+      <c r="P12" s="1" t="s">
+        <v>10</v>
+      </c>
     </row>
     <row r="13" customFormat="false" ht="17" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A13" s="6" t="n">
@@ -4149,6 +4167,9 @@
       <c r="O13" s="1" t="s">
         <v>10</v>
       </c>
+      <c r="P13" s="1" t="s">
+        <v>10</v>
+      </c>
     </row>
     <row r="14" customFormat="false" ht="17" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A14" s="6" t="n">
@@ -4195,6 +4216,9 @@
       <c r="O14" s="1" t="s">
         <v>10</v>
       </c>
+      <c r="P14" s="1" t="s">
+        <v>10</v>
+      </c>
     </row>
     <row r="15" customFormat="false" ht="17" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A15" s="6" t="n">
@@ -4241,6 +4265,9 @@
       <c r="O15" s="1" t="n">
         <v>0</v>
       </c>
+      <c r="P15" s="1" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="16" customFormat="false" ht="17" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A16" s="6" t="n">
@@ -4287,6 +4314,9 @@
       <c r="O16" s="1" t="n">
         <v>0</v>
       </c>
+      <c r="P16" s="1" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="17" customFormat="false" ht="17" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A17" s="6" t="n">
@@ -4333,6 +4363,9 @@
       <c r="O17" s="1" t="n">
         <v>0</v>
       </c>
+      <c r="P17" s="1" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="18" customFormat="false" ht="17" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A18" s="6" t="n">
@@ -4379,6 +4412,9 @@
       <c r="O18" s="1" t="n">
         <v>0</v>
       </c>
+      <c r="P18" s="1" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="19" customFormat="false" ht="17" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A19" s="6" t="n">
@@ -4425,6 +4461,9 @@
       <c r="O19" s="1" t="n">
         <v>0</v>
       </c>
+      <c r="P19" s="1" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="20" customFormat="false" ht="17" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A20" s="6" t="n">
@@ -4471,6 +4510,9 @@
       <c r="O20" s="1" t="n">
         <v>0</v>
       </c>
+      <c r="P20" s="1" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="21" customFormat="false" ht="17" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A21" s="6" t="n">
@@ -4517,6 +4559,9 @@
       <c r="O21" s="1" t="n">
         <v>0</v>
       </c>
+      <c r="P21" s="1" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="22" customFormat="false" ht="17" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A22" s="6" t="n">
@@ -4563,6 +4608,9 @@
       <c r="O22" s="1" t="n">
         <v>0</v>
       </c>
+      <c r="P22" s="1" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="23" customFormat="false" ht="17" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A23" s="6" t="n">
@@ -4609,6 +4657,9 @@
       <c r="O23" s="1" t="n">
         <v>0</v>
       </c>
+      <c r="P23" s="1" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="24" customFormat="false" ht="17" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A24" s="6" t="n">
@@ -4655,6 +4706,9 @@
       <c r="O24" s="1" t="n">
         <v>0</v>
       </c>
+      <c r="P24" s="1" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="25" customFormat="false" ht="17" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A25" s="6" t="n">
@@ -4701,6 +4755,9 @@
       <c r="O25" s="1" t="n">
         <v>0</v>
       </c>
+      <c r="P25" s="1" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="26" customFormat="false" ht="17" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A26" s="6" t="n">
@@ -4747,6 +4804,9 @@
       <c r="O26" s="1" t="n">
         <v>0</v>
       </c>
+      <c r="P26" s="1" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="27" customFormat="false" ht="17" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A27" s="6" t="n">
@@ -4793,6 +4853,9 @@
       <c r="O27" s="1" t="n">
         <v>0</v>
       </c>
+      <c r="P27" s="1" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="28" customFormat="false" ht="17" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A28" s="6" t="n">
@@ -4837,6 +4900,9 @@
         <v>0</v>
       </c>
       <c r="O28" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="P28" s="1" t="n">
         <v>0</v>
       </c>
     </row>

--- a/07 ootareon 目標管理シート.xlsx
+++ b/07 ootareon 目標管理シート.xlsx
@@ -5,7 +5,7 @@
   <workbookPr backupFile="false" showObjects="all" date1904="false"/>
   <workbookProtection/>
   <bookViews>
-    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="500" firstSheet="0" activeTab="0"/>
+    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="500" firstSheet="0" activeTab="4"/>
   </bookViews>
   <sheets>
     <sheet name="学習目標チェックシート(ビジネスマナー)" sheetId="1" state="visible" r:id="rId3"/>
@@ -47,7 +47,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="622" uniqueCount="526">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="691" uniqueCount="526">
   <si>
     <t xml:space="preserve">学習目標自己チェックシート(ビジネスマナー)</t>
   </si>
@@ -2181,9 +2181,9 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>20</xdr:col>
-      <xdr:colOff>541440</xdr:colOff>
+      <xdr:colOff>541080</xdr:colOff>
       <xdr:row>6</xdr:row>
-      <xdr:rowOff>31320</xdr:rowOff>
+      <xdr:rowOff>30960</xdr:rowOff>
     </xdr:to>
     <xdr:sp>
       <xdr:nvSpPr>
@@ -2193,7 +2193,7 @@
       <xdr:spPr>
         <a:xfrm>
           <a:off x="14182920" y="0"/>
-          <a:ext cx="5007960" cy="1622160"/>
+          <a:ext cx="5007600" cy="1621800"/>
         </a:xfrm>
         <a:prstGeom prst="wedgeRoundRectCallout">
           <a:avLst>
@@ -2359,9 +2359,9 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>16</xdr:col>
-      <xdr:colOff>303480</xdr:colOff>
+      <xdr:colOff>303120</xdr:colOff>
       <xdr:row>6</xdr:row>
-      <xdr:rowOff>176400</xdr:rowOff>
+      <xdr:rowOff>176040</xdr:rowOff>
     </xdr:to>
     <xdr:sp>
       <xdr:nvSpPr>
@@ -2371,7 +2371,7 @@
       <xdr:spPr>
         <a:xfrm>
           <a:off x="11673360" y="145080"/>
-          <a:ext cx="5007960" cy="1622160"/>
+          <a:ext cx="5007600" cy="1621800"/>
         </a:xfrm>
         <a:prstGeom prst="wedgeRoundRectCallout">
           <a:avLst>
@@ -2537,9 +2537,9 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>16</xdr:col>
-      <xdr:colOff>303480</xdr:colOff>
+      <xdr:colOff>303120</xdr:colOff>
       <xdr:row>6</xdr:row>
-      <xdr:rowOff>176400</xdr:rowOff>
+      <xdr:rowOff>176040</xdr:rowOff>
     </xdr:to>
     <xdr:sp>
       <xdr:nvSpPr>
@@ -2549,7 +2549,7 @@
       <xdr:spPr>
         <a:xfrm>
           <a:off x="11620440" y="145080"/>
-          <a:ext cx="5008320" cy="1622160"/>
+          <a:ext cx="5007960" cy="1621800"/>
         </a:xfrm>
         <a:prstGeom prst="wedgeRoundRectCallout">
           <a:avLst>
@@ -2715,9 +2715,9 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>16</xdr:col>
-      <xdr:colOff>262800</xdr:colOff>
+      <xdr:colOff>262440</xdr:colOff>
       <xdr:row>6</xdr:row>
-      <xdr:rowOff>158400</xdr:rowOff>
+      <xdr:rowOff>158040</xdr:rowOff>
     </xdr:to>
     <xdr:sp>
       <xdr:nvSpPr>
@@ -2727,7 +2727,7 @@
       <xdr:spPr>
         <a:xfrm>
           <a:off x="11522160" y="89640"/>
-          <a:ext cx="5065920" cy="1659600"/>
+          <a:ext cx="5065560" cy="1659240"/>
         </a:xfrm>
         <a:prstGeom prst="wedgeRoundRectCallout">
           <a:avLst>
@@ -2888,9 +2888,9 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>4</xdr:col>
-      <xdr:colOff>76680</xdr:colOff>
+      <xdr:colOff>76320</xdr:colOff>
       <xdr:row>85</xdr:row>
-      <xdr:rowOff>167400</xdr:rowOff>
+      <xdr:rowOff>167040</xdr:rowOff>
     </xdr:to>
     <xdr:sp>
       <xdr:nvSpPr>
@@ -2900,7 +2900,7 @@
       <xdr:spPr>
         <a:xfrm>
           <a:off x="11283480" y="16295400"/>
-          <a:ext cx="195840" cy="2226600"/>
+          <a:ext cx="195480" cy="2226240"/>
         </a:xfrm>
         <a:prstGeom prst="rightBrace">
           <a:avLst>
@@ -2940,9 +2940,9 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>15</xdr:col>
-      <xdr:colOff>405360</xdr:colOff>
+      <xdr:colOff>405000</xdr:colOff>
       <xdr:row>84</xdr:row>
-      <xdr:rowOff>128160</xdr:rowOff>
+      <xdr:rowOff>127800</xdr:rowOff>
     </xdr:to>
     <xdr:sp>
       <xdr:nvSpPr>
@@ -2952,7 +2952,7 @@
       <xdr:spPr>
         <a:xfrm>
           <a:off x="11702160" y="17115480"/>
-          <a:ext cx="4618080" cy="1157760"/>
+          <a:ext cx="4617720" cy="1157400"/>
         </a:xfrm>
         <a:prstGeom prst="ellipse">
           <a:avLst/>
@@ -3053,9 +3053,9 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>16</xdr:col>
-      <xdr:colOff>240480</xdr:colOff>
+      <xdr:colOff>240120</xdr:colOff>
       <xdr:row>7</xdr:row>
-      <xdr:rowOff>1440</xdr:rowOff>
+      <xdr:rowOff>1080</xdr:rowOff>
     </xdr:to>
     <xdr:sp>
       <xdr:nvSpPr>
@@ -3065,7 +3065,7 @@
       <xdr:spPr>
         <a:xfrm>
           <a:off x="10479960" y="158760"/>
-          <a:ext cx="5029560" cy="1643040"/>
+          <a:ext cx="5029200" cy="1648800"/>
         </a:xfrm>
         <a:prstGeom prst="wedgeRoundRectCallout">
           <a:avLst>
@@ -3231,9 +3231,9 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>16</xdr:col>
-      <xdr:colOff>315000</xdr:colOff>
+      <xdr:colOff>314640</xdr:colOff>
       <xdr:row>13</xdr:row>
-      <xdr:rowOff>204480</xdr:rowOff>
+      <xdr:rowOff>204120</xdr:rowOff>
     </xdr:to>
     <xdr:sp>
       <xdr:nvSpPr>
@@ -3243,7 +3243,7 @@
       <xdr:spPr>
         <a:xfrm>
           <a:off x="11906640" y="156960"/>
-          <a:ext cx="5065560" cy="3105000"/>
+          <a:ext cx="5065200" cy="3104640"/>
         </a:xfrm>
         <a:prstGeom prst="wedgeRoundRectCallout">
           <a:avLst>
@@ -3409,9 +3409,9 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>16</xdr:col>
-      <xdr:colOff>315000</xdr:colOff>
+      <xdr:colOff>314640</xdr:colOff>
       <xdr:row>11</xdr:row>
-      <xdr:rowOff>204480</xdr:rowOff>
+      <xdr:rowOff>204120</xdr:rowOff>
     </xdr:to>
     <xdr:sp>
       <xdr:nvSpPr>
@@ -3421,7 +3421,7 @@
       <xdr:spPr>
         <a:xfrm>
           <a:off x="11906640" y="156960"/>
-          <a:ext cx="5065560" cy="2685960"/>
+          <a:ext cx="5065200" cy="2685600"/>
         </a:xfrm>
         <a:prstGeom prst="wedgeRoundRectCallout">
           <a:avLst>
@@ -3771,7 +3771,7 @@
   </sheetPr>
   <dimension ref="A1:P28"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="pageBreakPreview" topLeftCell="J7" colorId="64" zoomScale="80" zoomScaleNormal="70" zoomScalePageLayoutView="80" workbookViewId="0">
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="pageBreakPreview" topLeftCell="C7" colorId="64" zoomScale="80" zoomScaleNormal="70" zoomScalePageLayoutView="80" workbookViewId="0">
       <selection pane="topLeft" activeCell="P29" activeCellId="0" sqref="P29"/>
     </sheetView>
   </sheetViews>
@@ -6785,8 +6785,8 @@
   </sheetPr>
   <dimension ref="A1:D172"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="pageBreakPreview" topLeftCell="A1" colorId="64" zoomScale="80" zoomScaleNormal="85" zoomScalePageLayoutView="80" workbookViewId="0">
-      <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="pageBreakPreview" topLeftCell="A128" colorId="64" zoomScale="80" zoomScaleNormal="85" zoomScalePageLayoutView="80" workbookViewId="0">
+      <selection pane="topLeft" activeCell="D155" activeCellId="0" sqref="D155"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.45703125" defaultRowHeight="16.5" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -6840,7 +6840,7 @@
       <c r="C6" s="5"/>
       <c r="D6" s="5"/>
     </row>
-    <row r="7" customFormat="false" ht="16.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="7" customFormat="false" ht="17" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A7" s="6" t="n">
         <v>1</v>
       </c>
@@ -6850,9 +6850,11 @@
       <c r="C7" s="17" t="s">
         <v>217</v>
       </c>
-      <c r="D7" s="9"/>
-    </row>
-    <row r="8" customFormat="false" ht="16.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="D7" s="9" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="8" customFormat="false" ht="17" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A8" s="6" t="n">
         <v>2</v>
       </c>
@@ -6860,9 +6862,11 @@
       <c r="C8" s="17" t="s">
         <v>218</v>
       </c>
-      <c r="D8" s="9"/>
-    </row>
-    <row r="9" customFormat="false" ht="16.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="D8" s="9" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="9" customFormat="false" ht="17" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A9" s="6" t="n">
         <v>3</v>
       </c>
@@ -6870,9 +6874,11 @@
       <c r="C9" s="17" t="s">
         <v>219</v>
       </c>
-      <c r="D9" s="9"/>
-    </row>
-    <row r="10" customFormat="false" ht="16.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="D9" s="9" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="10" customFormat="false" ht="17" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A10" s="6" t="n">
         <v>5</v>
       </c>
@@ -6882,9 +6888,11 @@
       <c r="C10" s="17" t="s">
         <v>221</v>
       </c>
-      <c r="D10" s="9"/>
-    </row>
-    <row r="11" customFormat="false" ht="16.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="D10" s="9" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="11" customFormat="false" ht="17" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A11" s="6" t="n">
         <v>6</v>
       </c>
@@ -6892,9 +6900,11 @@
       <c r="C11" s="17" t="s">
         <v>222</v>
       </c>
-      <c r="D11" s="9"/>
-    </row>
-    <row r="12" customFormat="false" ht="16.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="D11" s="9" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="12" customFormat="false" ht="17" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A12" s="6" t="n">
         <v>7</v>
       </c>
@@ -6902,9 +6912,11 @@
       <c r="C12" s="17" t="s">
         <v>223</v>
       </c>
-      <c r="D12" s="9"/>
-    </row>
-    <row r="13" customFormat="false" ht="16.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="D12" s="9" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="13" customFormat="false" ht="17" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A13" s="6" t="n">
         <v>8</v>
       </c>
@@ -6912,9 +6924,11 @@
       <c r="C13" s="18" t="s">
         <v>224</v>
       </c>
-      <c r="D13" s="9"/>
-    </row>
-    <row r="14" customFormat="false" ht="16.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="D13" s="9" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" customFormat="false" ht="17" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A14" s="6" t="n">
         <v>9</v>
       </c>
@@ -6922,9 +6936,11 @@
       <c r="C14" s="18" t="s">
         <v>225</v>
       </c>
-      <c r="D14" s="9"/>
-    </row>
-    <row r="15" customFormat="false" ht="16.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="D14" s="9" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="15" customFormat="false" ht="17" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A15" s="6" t="n">
         <v>10</v>
       </c>
@@ -6932,9 +6948,11 @@
       <c r="C15" s="18" t="s">
         <v>226</v>
       </c>
-      <c r="D15" s="9"/>
-    </row>
-    <row r="16" customFormat="false" ht="16.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="D15" s="9" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" customFormat="false" ht="17" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A16" s="6" t="n">
         <v>11</v>
       </c>
@@ -6942,9 +6960,11 @@
       <c r="C16" s="18" t="s">
         <v>227</v>
       </c>
-      <c r="D16" s="9"/>
-    </row>
-    <row r="17" customFormat="false" ht="16.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="D16" s="9" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="17" customFormat="false" ht="17" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A17" s="6" t="n">
         <v>12</v>
       </c>
@@ -6952,9 +6972,11 @@
       <c r="C17" s="18" t="s">
         <v>228</v>
       </c>
-      <c r="D17" s="9"/>
-    </row>
-    <row r="18" customFormat="false" ht="16.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="D17" s="9" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="18" customFormat="false" ht="17" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A18" s="6" t="n">
         <v>13</v>
       </c>
@@ -6962,9 +6984,11 @@
       <c r="C18" s="18" t="s">
         <v>229</v>
       </c>
-      <c r="D18" s="9"/>
-    </row>
-    <row r="19" customFormat="false" ht="16.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="D18" s="9" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="19" customFormat="false" ht="17" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A19" s="6" t="n">
         <v>14</v>
       </c>
@@ -6972,9 +6996,11 @@
       <c r="C19" s="18" t="s">
         <v>230</v>
       </c>
-      <c r="D19" s="9"/>
-    </row>
-    <row r="20" customFormat="false" ht="16.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="D19" s="9" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="20" customFormat="false" ht="17" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A20" s="6" t="n">
         <v>15</v>
       </c>
@@ -6982,9 +7008,11 @@
       <c r="C20" s="18" t="s">
         <v>231</v>
       </c>
-      <c r="D20" s="9"/>
-    </row>
-    <row r="21" customFormat="false" ht="16.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="D20" s="9" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="21" customFormat="false" ht="17" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A21" s="6" t="n">
         <v>16</v>
       </c>
@@ -6992,9 +7020,11 @@
       <c r="C21" s="18" t="s">
         <v>232</v>
       </c>
-      <c r="D21" s="9"/>
-    </row>
-    <row r="22" customFormat="false" ht="16.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="D21" s="9" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="22" customFormat="false" ht="17" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A22" s="6" t="n">
         <v>17</v>
       </c>
@@ -7002,9 +7032,11 @@
       <c r="C22" s="18" t="s">
         <v>233</v>
       </c>
-      <c r="D22" s="9"/>
-    </row>
-    <row r="23" customFormat="false" ht="16.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="D22" s="9" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="23" customFormat="false" ht="17" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A23" s="6" t="n">
         <v>18</v>
       </c>
@@ -7012,9 +7044,11 @@
       <c r="C23" s="18" t="s">
         <v>234</v>
       </c>
-      <c r="D23" s="9"/>
-    </row>
-    <row r="24" customFormat="false" ht="16.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="D23" s="9" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="24" customFormat="false" ht="17" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A24" s="6" t="n">
         <v>19</v>
       </c>
@@ -7022,9 +7056,11 @@
       <c r="C24" s="18" t="s">
         <v>235</v>
       </c>
-      <c r="D24" s="9"/>
-    </row>
-    <row r="25" customFormat="false" ht="16.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="D24" s="9" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="25" customFormat="false" ht="17" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A25" s="6" t="n">
         <v>20</v>
       </c>
@@ -7032,9 +7068,11 @@
       <c r="C25" s="18" t="s">
         <v>236</v>
       </c>
-      <c r="D25" s="9"/>
-    </row>
-    <row r="26" customFormat="false" ht="16.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="D25" s="9" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="26" customFormat="false" ht="17" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A26" s="6" t="n">
         <v>21</v>
       </c>
@@ -7042,9 +7080,11 @@
       <c r="C26" s="18" t="s">
         <v>237</v>
       </c>
-      <c r="D26" s="9"/>
-    </row>
-    <row r="27" customFormat="false" ht="16.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="D26" s="9" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="27" customFormat="false" ht="17" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A27" s="6" t="n">
         <v>22</v>
       </c>
@@ -7052,9 +7092,11 @@
       <c r="C27" s="18" t="s">
         <v>238</v>
       </c>
-      <c r="D27" s="9"/>
-    </row>
-    <row r="28" customFormat="false" ht="16.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="D27" s="9" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="28" customFormat="false" ht="17" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A28" s="6" t="n">
         <v>23</v>
       </c>
@@ -7062,9 +7104,11 @@
       <c r="C28" s="18" t="s">
         <v>239</v>
       </c>
-      <c r="D28" s="9"/>
-    </row>
-    <row r="29" customFormat="false" ht="16.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="D28" s="9" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="29" customFormat="false" ht="17" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A29" s="6" t="n">
         <v>24</v>
       </c>
@@ -7072,9 +7116,11 @@
       <c r="C29" s="18" t="s">
         <v>240</v>
       </c>
-      <c r="D29" s="9"/>
-    </row>
-    <row r="30" customFormat="false" ht="16.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="D29" s="9" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="30" customFormat="false" ht="17" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A30" s="6" t="n">
         <v>25</v>
       </c>
@@ -7082,9 +7128,11 @@
       <c r="C30" s="18" t="s">
         <v>241</v>
       </c>
-      <c r="D30" s="9"/>
-    </row>
-    <row r="31" customFormat="false" ht="16.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="D30" s="9" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31" customFormat="false" ht="17" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A31" s="6" t="n">
         <v>26</v>
       </c>
@@ -7092,9 +7140,11 @@
       <c r="C31" s="18" t="s">
         <v>242</v>
       </c>
-      <c r="D31" s="9"/>
-    </row>
-    <row r="32" customFormat="false" ht="16.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="D31" s="9" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32" customFormat="false" ht="17" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A32" s="6" t="n">
         <v>27</v>
       </c>
@@ -7104,9 +7154,11 @@
       <c r="C32" s="18" t="s">
         <v>244</v>
       </c>
-      <c r="D32" s="9"/>
-    </row>
-    <row r="33" customFormat="false" ht="16.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="D32" s="9" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="33" customFormat="false" ht="17" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A33" s="6" t="n">
         <v>28</v>
       </c>
@@ -7114,9 +7166,11 @@
       <c r="C33" s="18" t="s">
         <v>245</v>
       </c>
-      <c r="D33" s="9"/>
-    </row>
-    <row r="34" customFormat="false" ht="16.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="D33" s="9" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="34" customFormat="false" ht="17" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A34" s="6" t="n">
         <v>29</v>
       </c>
@@ -7124,9 +7178,11 @@
       <c r="C34" s="18" t="s">
         <v>246</v>
       </c>
-      <c r="D34" s="9"/>
-    </row>
-    <row r="35" customFormat="false" ht="16.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="D34" s="9" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35" customFormat="false" ht="17" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A35" s="6" t="n">
         <v>30</v>
       </c>
@@ -7134,9 +7190,11 @@
       <c r="C35" s="18" t="s">
         <v>247</v>
       </c>
-      <c r="D35" s="9"/>
-    </row>
-    <row r="36" customFormat="false" ht="16.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="D35" s="9" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="36" customFormat="false" ht="17" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A36" s="6" t="n">
         <v>31</v>
       </c>
@@ -7144,9 +7202,11 @@
       <c r="C36" s="18" t="s">
         <v>248</v>
       </c>
-      <c r="D36" s="9"/>
-    </row>
-    <row r="37" customFormat="false" ht="16.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="D36" s="9" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="37" customFormat="false" ht="17" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A37" s="6" t="n">
         <v>32</v>
       </c>
@@ -7154,9 +7214,11 @@
       <c r="C37" s="18" t="s">
         <v>249</v>
       </c>
-      <c r="D37" s="9"/>
-    </row>
-    <row r="38" customFormat="false" ht="16.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="D37" s="9" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="38" customFormat="false" ht="17" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A38" s="6" t="n">
         <v>33</v>
       </c>
@@ -7164,9 +7226,11 @@
       <c r="C38" s="18" t="s">
         <v>250</v>
       </c>
-      <c r="D38" s="9"/>
-    </row>
-    <row r="39" customFormat="false" ht="16.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="D38" s="9" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="39" customFormat="false" ht="17" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A39" s="6" t="n">
         <v>34</v>
       </c>
@@ -7174,9 +7238,11 @@
       <c r="C39" s="18" t="s">
         <v>251</v>
       </c>
-      <c r="D39" s="9"/>
-    </row>
-    <row r="40" customFormat="false" ht="16.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="D39" s="9" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="40" customFormat="false" ht="17" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A40" s="6" t="n">
         <v>35</v>
       </c>
@@ -7186,9 +7252,11 @@
       <c r="C40" s="18" t="s">
         <v>253</v>
       </c>
-      <c r="D40" s="9"/>
-    </row>
-    <row r="41" customFormat="false" ht="16.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="D40" s="9" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="41" customFormat="false" ht="17" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A41" s="6" t="n">
         <v>36</v>
       </c>
@@ -7196,9 +7264,11 @@
       <c r="C41" s="18" t="s">
         <v>254</v>
       </c>
-      <c r="D41" s="9"/>
-    </row>
-    <row r="42" customFormat="false" ht="16.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="D41" s="9" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="42" customFormat="false" ht="17" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A42" s="6" t="n">
         <v>37</v>
       </c>
@@ -7208,9 +7278,11 @@
       <c r="C42" s="18" t="s">
         <v>255</v>
       </c>
-      <c r="D42" s="9"/>
-    </row>
-    <row r="43" customFormat="false" ht="16.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="D42" s="9" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="43" customFormat="false" ht="17" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A43" s="6" t="n">
         <v>38</v>
       </c>
@@ -7218,9 +7290,11 @@
       <c r="C43" s="18" t="s">
         <v>256</v>
       </c>
-      <c r="D43" s="9"/>
-    </row>
-    <row r="44" customFormat="false" ht="16.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="D43" s="9" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="44" customFormat="false" ht="17" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A44" s="6" t="n">
         <v>39</v>
       </c>
@@ -7228,9 +7302,11 @@
       <c r="C44" s="18" t="s">
         <v>257</v>
       </c>
-      <c r="D44" s="9"/>
-    </row>
-    <row r="45" customFormat="false" ht="16.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="D44" s="9" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="45" customFormat="false" ht="17" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A45" s="6" t="n">
         <v>40</v>
       </c>
@@ -7238,9 +7314,11 @@
       <c r="C45" s="18" t="s">
         <v>258</v>
       </c>
-      <c r="D45" s="9"/>
-    </row>
-    <row r="46" customFormat="false" ht="16.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="D45" s="9" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="46" customFormat="false" ht="17" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A46" s="6" t="n">
         <v>41</v>
       </c>
@@ -7248,9 +7326,11 @@
       <c r="C46" s="18" t="s">
         <v>259</v>
       </c>
-      <c r="D46" s="9"/>
-    </row>
-    <row r="47" customFormat="false" ht="16.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="D46" s="9" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="47" customFormat="false" ht="17" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A47" s="6" t="n">
         <v>42</v>
       </c>
@@ -7258,9 +7338,11 @@
       <c r="C47" s="18" t="s">
         <v>260</v>
       </c>
-      <c r="D47" s="9"/>
-    </row>
-    <row r="48" customFormat="false" ht="16.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="D47" s="9" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="48" customFormat="false" ht="17" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A48" s="6" t="n">
         <v>43</v>
       </c>
@@ -7268,9 +7350,11 @@
       <c r="C48" s="18" t="s">
         <v>261</v>
       </c>
-      <c r="D48" s="9"/>
-    </row>
-    <row r="49" customFormat="false" ht="16.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="D48" s="9" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="49" customFormat="false" ht="17" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A49" s="6" t="n">
         <v>44</v>
       </c>
@@ -7278,9 +7362,11 @@
       <c r="C49" s="18" t="s">
         <v>262</v>
       </c>
-      <c r="D49" s="9"/>
-    </row>
-    <row r="50" customFormat="false" ht="16.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="D49" s="9" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="50" customFormat="false" ht="17" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A50" s="6" t="n">
         <v>45</v>
       </c>
@@ -7288,9 +7374,11 @@
       <c r="C50" s="18" t="s">
         <v>263</v>
       </c>
-      <c r="D50" s="9"/>
-    </row>
-    <row r="51" customFormat="false" ht="16.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="D50" s="9" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="51" customFormat="false" ht="17" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A51" s="6" t="n">
         <v>46</v>
       </c>
@@ -7298,9 +7386,11 @@
       <c r="C51" s="18" t="s">
         <v>264</v>
       </c>
-      <c r="D51" s="9"/>
-    </row>
-    <row r="52" customFormat="false" ht="16.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="D51" s="9" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="52" customFormat="false" ht="17" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A52" s="6" t="n">
         <v>47</v>
       </c>
@@ -7308,9 +7398,11 @@
       <c r="C52" s="18" t="s">
         <v>265</v>
       </c>
-      <c r="D52" s="9"/>
-    </row>
-    <row r="53" customFormat="false" ht="16.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="D52" s="9" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="53" customFormat="false" ht="17" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A53" s="6" t="n">
         <v>48</v>
       </c>
@@ -7318,9 +7410,11 @@
       <c r="C53" s="18" t="s">
         <v>266</v>
       </c>
-      <c r="D53" s="9"/>
-    </row>
-    <row r="54" customFormat="false" ht="16.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="D53" s="9" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="54" customFormat="false" ht="17" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A54" s="6" t="n">
         <v>49</v>
       </c>
@@ -7330,9 +7424,11 @@
       <c r="C54" s="18" t="s">
         <v>268</v>
       </c>
-      <c r="D54" s="9"/>
-    </row>
-    <row r="55" customFormat="false" ht="16.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="D54" s="9" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="55" customFormat="false" ht="17" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A55" s="6" t="n">
         <v>50</v>
       </c>
@@ -7340,9 +7436,11 @@
       <c r="C55" s="18" t="s">
         <v>269</v>
       </c>
-      <c r="D55" s="9"/>
-    </row>
-    <row r="56" customFormat="false" ht="16.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="D55" s="9" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="56" customFormat="false" ht="17" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A56" s="6" t="n">
         <v>51</v>
       </c>
@@ -7350,9 +7448,11 @@
       <c r="C56" s="18" t="s">
         <v>270</v>
       </c>
-      <c r="D56" s="9"/>
-    </row>
-    <row r="57" customFormat="false" ht="16.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="D56" s="9" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="57" customFormat="false" ht="17" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A57" s="6" t="n">
         <v>52</v>
       </c>
@@ -7360,9 +7460,11 @@
       <c r="C57" s="18" t="s">
         <v>271</v>
       </c>
-      <c r="D57" s="9"/>
-    </row>
-    <row r="58" customFormat="false" ht="16.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="D57" s="9" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="58" customFormat="false" ht="17" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A58" s="6" t="n">
         <v>53</v>
       </c>
@@ -7370,9 +7472,11 @@
       <c r="C58" s="18" t="s">
         <v>272</v>
       </c>
-      <c r="D58" s="9"/>
-    </row>
-    <row r="59" customFormat="false" ht="16.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="D58" s="9" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="59" customFormat="false" ht="17" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A59" s="6" t="n">
         <v>54</v>
       </c>
@@ -7380,9 +7484,11 @@
       <c r="C59" s="18" t="s">
         <v>273</v>
       </c>
-      <c r="D59" s="9"/>
-    </row>
-    <row r="60" customFormat="false" ht="16.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="D59" s="9" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="60" customFormat="false" ht="17" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A60" s="6" t="n">
         <v>55</v>
       </c>
@@ -7392,9 +7498,11 @@
       <c r="C60" s="18" t="s">
         <v>275</v>
       </c>
-      <c r="D60" s="9"/>
-    </row>
-    <row r="61" customFormat="false" ht="16.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="D60" s="9" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="61" customFormat="false" ht="17" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A61" s="6" t="n">
         <v>56</v>
       </c>
@@ -7402,9 +7510,11 @@
       <c r="C61" s="18" t="s">
         <v>276</v>
       </c>
-      <c r="D61" s="9"/>
-    </row>
-    <row r="62" customFormat="false" ht="16.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="D61" s="9" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="62" customFormat="false" ht="17" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A62" s="6" t="n">
         <v>57</v>
       </c>
@@ -7412,9 +7522,11 @@
       <c r="C62" s="18" t="s">
         <v>277</v>
       </c>
-      <c r="D62" s="9"/>
-    </row>
-    <row r="63" customFormat="false" ht="16.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="D62" s="9" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="63" customFormat="false" ht="17" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A63" s="6" t="n">
         <v>58</v>
       </c>
@@ -7422,9 +7534,11 @@
       <c r="C63" s="18" t="s">
         <v>278</v>
       </c>
-      <c r="D63" s="9"/>
-    </row>
-    <row r="64" customFormat="false" ht="16.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="D63" s="9" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="64" customFormat="false" ht="17" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A64" s="6" t="n">
         <v>59</v>
       </c>
@@ -7432,9 +7546,11 @@
       <c r="C64" s="18" t="s">
         <v>279</v>
       </c>
-      <c r="D64" s="9"/>
-    </row>
-    <row r="65" customFormat="false" ht="16.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="D64" s="9" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="65" customFormat="false" ht="17" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A65" s="6" t="n">
         <v>60</v>
       </c>
@@ -7442,9 +7558,11 @@
       <c r="C65" s="18" t="s">
         <v>280</v>
       </c>
-      <c r="D65" s="9"/>
-    </row>
-    <row r="66" customFormat="false" ht="16.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="D65" s="9" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="66" customFormat="false" ht="17" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A66" s="6" t="n">
         <v>61</v>
       </c>
@@ -7452,9 +7570,11 @@
       <c r="C66" s="18" t="s">
         <v>281</v>
       </c>
-      <c r="D66" s="9"/>
-    </row>
-    <row r="67" customFormat="false" ht="16.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="D66" s="9" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="67" customFormat="false" ht="17" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A67" s="6" t="n">
         <v>62</v>
       </c>
@@ -7462,9 +7582,11 @@
       <c r="C67" s="18" t="s">
         <v>282</v>
       </c>
-      <c r="D67" s="9"/>
-    </row>
-    <row r="68" customFormat="false" ht="16.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="D67" s="9" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="68" customFormat="false" ht="17" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A68" s="6" t="n">
         <v>63</v>
       </c>
@@ -7472,9 +7594,11 @@
       <c r="C68" s="18" t="s">
         <v>283</v>
       </c>
-      <c r="D68" s="9"/>
-    </row>
-    <row r="69" customFormat="false" ht="16.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="D68" s="9" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="69" customFormat="false" ht="17" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A69" s="6" t="n">
         <v>64</v>
       </c>
@@ -7482,9 +7606,11 @@
       <c r="C69" s="18" t="s">
         <v>284</v>
       </c>
-      <c r="D69" s="9"/>
-    </row>
-    <row r="70" customFormat="false" ht="16.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="D69" s="9" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="70" customFormat="false" ht="17" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A70" s="6" t="n">
         <v>65</v>
       </c>
@@ -7492,9 +7618,11 @@
       <c r="C70" s="18" t="s">
         <v>285</v>
       </c>
-      <c r="D70" s="9"/>
-    </row>
-    <row r="71" customFormat="false" ht="16.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="D70" s="9" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="71" customFormat="false" ht="17" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A71" s="6" t="n">
         <v>66</v>
       </c>
@@ -7502,9 +7630,11 @@
       <c r="C71" s="18" t="s">
         <v>286</v>
       </c>
-      <c r="D71" s="9"/>
-    </row>
-    <row r="72" customFormat="false" ht="16.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="D71" s="9" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="72" customFormat="false" ht="17" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A72" s="6" t="n">
         <v>67</v>
       </c>
@@ -7512,9 +7642,11 @@
       <c r="C72" s="18" t="s">
         <v>287</v>
       </c>
-      <c r="D72" s="9"/>
-    </row>
-    <row r="73" customFormat="false" ht="16.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="D72" s="9" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="73" customFormat="false" ht="17" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A73" s="6" t="n">
         <v>68</v>
       </c>
@@ -7524,9 +7656,11 @@
       <c r="C73" s="18" t="s">
         <v>289</v>
       </c>
-      <c r="D73" s="9"/>
-    </row>
-    <row r="74" customFormat="false" ht="16.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="D73" s="9" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="74" customFormat="false" ht="17" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A74" s="6" t="n">
         <v>69</v>
       </c>
@@ -7534,9 +7668,11 @@
       <c r="C74" s="18" t="s">
         <v>290</v>
       </c>
-      <c r="D74" s="9"/>
-    </row>
-    <row r="75" customFormat="false" ht="16.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="D74" s="9" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="75" customFormat="false" ht="17" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A75" s="6" t="n">
         <v>70</v>
       </c>
@@ -7544,9 +7680,11 @@
       <c r="C75" s="18" t="s">
         <v>291</v>
       </c>
-      <c r="D75" s="9"/>
-    </row>
-    <row r="76" customFormat="false" ht="16.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="D75" s="9" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="76" customFormat="false" ht="17" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A76" s="6" t="n">
         <v>71</v>
       </c>
@@ -7554,9 +7692,11 @@
       <c r="C76" s="18" t="s">
         <v>292</v>
       </c>
-      <c r="D76" s="9"/>
-    </row>
-    <row r="77" customFormat="false" ht="16.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="D76" s="9" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="77" customFormat="false" ht="17" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A77" s="6" t="n">
         <v>72</v>
       </c>
@@ -7564,9 +7704,11 @@
       <c r="C77" s="18" t="s">
         <v>293</v>
       </c>
-      <c r="D77" s="9"/>
-    </row>
-    <row r="78" customFormat="false" ht="16.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="D77" s="9" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="78" customFormat="false" ht="17" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A78" s="6" t="n">
         <v>73</v>
       </c>
@@ -7574,9 +7716,11 @@
       <c r="C78" s="18" t="s">
         <v>294</v>
       </c>
-      <c r="D78" s="9"/>
-    </row>
-    <row r="79" customFormat="false" ht="16.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="D78" s="9" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="79" customFormat="false" ht="17" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A79" s="6" t="n">
         <v>74</v>
       </c>
@@ -7584,9 +7728,11 @@
       <c r="C79" s="18" t="s">
         <v>295</v>
       </c>
-      <c r="D79" s="9"/>
-    </row>
-    <row r="80" customFormat="false" ht="16.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="D79" s="9" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="80" customFormat="false" ht="17" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A80" s="6" t="n">
         <v>75</v>
       </c>
@@ -7594,9 +7740,11 @@
       <c r="C80" s="18" t="s">
         <v>296</v>
       </c>
-      <c r="D80" s="9"/>
-    </row>
-    <row r="81" customFormat="false" ht="16.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="D80" s="9" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="81" customFormat="false" ht="17" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A81" s="6" t="n">
         <v>76</v>
       </c>
@@ -7606,9 +7754,11 @@
       <c r="C81" s="18" t="s">
         <v>298</v>
       </c>
-      <c r="D81" s="9"/>
-    </row>
-    <row r="82" customFormat="false" ht="16.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="D81" s="9" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="82" customFormat="false" ht="17" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A82" s="6" t="n">
         <v>77</v>
       </c>
@@ -7618,9 +7768,11 @@
       <c r="C82" s="18" t="s">
         <v>300</v>
       </c>
-      <c r="D82" s="9"/>
-    </row>
-    <row r="83" customFormat="false" ht="16.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="D82" s="9" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="83" customFormat="false" ht="17" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A83" s="6" t="n">
         <v>78</v>
       </c>
@@ -7628,9 +7780,11 @@
       <c r="C83" s="18" t="s">
         <v>301</v>
       </c>
-      <c r="D83" s="9"/>
-    </row>
-    <row r="84" customFormat="false" ht="16.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="D83" s="9" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="84" customFormat="false" ht="17" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A84" s="6" t="n">
         <v>79</v>
       </c>
@@ -7638,9 +7792,11 @@
       <c r="C84" s="18" t="s">
         <v>302</v>
       </c>
-      <c r="D84" s="9"/>
-    </row>
-    <row r="85" customFormat="false" ht="16.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="D84" s="9" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="85" customFormat="false" ht="17" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A85" s="6" t="n">
         <v>80</v>
       </c>
@@ -7648,9 +7804,11 @@
       <c r="C85" s="18" t="s">
         <v>303</v>
       </c>
-      <c r="D85" s="9"/>
-    </row>
-    <row r="86" customFormat="false" ht="16.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="D85" s="9" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="86" customFormat="false" ht="17" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A86" s="6" t="n">
         <v>81</v>
       </c>
@@ -7658,9 +7816,11 @@
       <c r="C86" s="18" t="s">
         <v>304</v>
       </c>
-      <c r="D86" s="9"/>
-    </row>
-    <row r="87" customFormat="false" ht="16.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="D86" s="9" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="87" customFormat="false" ht="17" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A87" s="6" t="n">
         <v>82</v>
       </c>
@@ -7668,9 +7828,11 @@
       <c r="C87" s="18" t="s">
         <v>305</v>
       </c>
-      <c r="D87" s="9"/>
-    </row>
-    <row r="88" customFormat="false" ht="16.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="D87" s="9" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="88" customFormat="false" ht="17" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A88" s="6" t="n">
         <v>83</v>
       </c>
@@ -7680,9 +7842,11 @@
       <c r="C88" s="18" t="s">
         <v>307</v>
       </c>
-      <c r="D88" s="9"/>
-    </row>
-    <row r="89" customFormat="false" ht="16.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="D88" s="9" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="89" customFormat="false" ht="17" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A89" s="6" t="n">
         <v>84</v>
       </c>
@@ -7690,9 +7854,11 @@
       <c r="C89" s="18" t="s">
         <v>308</v>
       </c>
-      <c r="D89" s="9"/>
-    </row>
-    <row r="90" customFormat="false" ht="16.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="D89" s="9" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="90" customFormat="false" ht="17" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A90" s="6" t="n">
         <v>85</v>
       </c>
@@ -7700,9 +7866,11 @@
       <c r="C90" s="18" t="s">
         <v>309</v>
       </c>
-      <c r="D90" s="9"/>
-    </row>
-    <row r="91" customFormat="false" ht="16.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="D90" s="9" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="91" customFormat="false" ht="17" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A91" s="6" t="n">
         <v>86</v>
       </c>
@@ -7710,9 +7878,11 @@
       <c r="C91" s="18" t="s">
         <v>310</v>
       </c>
-      <c r="D91" s="9"/>
-    </row>
-    <row r="92" customFormat="false" ht="16.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="D91" s="9" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="92" customFormat="false" ht="17" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A92" s="6" t="n">
         <v>87</v>
       </c>
@@ -7720,9 +7890,11 @@
       <c r="C92" s="18" t="s">
         <v>311</v>
       </c>
-      <c r="D92" s="9"/>
-    </row>
-    <row r="93" customFormat="false" ht="16.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="D92" s="9" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="93" customFormat="false" ht="17" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A93" s="6" t="n">
         <v>88</v>
       </c>
@@ -7730,9 +7902,11 @@
       <c r="C93" s="18" t="s">
         <v>312</v>
       </c>
-      <c r="D93" s="9"/>
-    </row>
-    <row r="94" customFormat="false" ht="16.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="D93" s="9" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="94" customFormat="false" ht="17" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A94" s="6" t="n">
         <v>89</v>
       </c>
@@ -7742,9 +7916,11 @@
       <c r="C94" s="18" t="s">
         <v>314</v>
       </c>
-      <c r="D94" s="9"/>
-    </row>
-    <row r="95" customFormat="false" ht="16.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="D94" s="9" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="95" customFormat="false" ht="17" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A95" s="6" t="n">
         <v>90</v>
       </c>
@@ -7752,9 +7928,11 @@
       <c r="C95" s="18" t="s">
         <v>315</v>
       </c>
-      <c r="D95" s="9"/>
-    </row>
-    <row r="96" customFormat="false" ht="16.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="D95" s="9" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="96" customFormat="false" ht="17" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A96" s="6" t="n">
         <v>91</v>
       </c>
@@ -7762,9 +7940,11 @@
       <c r="C96" s="18" t="s">
         <v>316</v>
       </c>
-      <c r="D96" s="9"/>
-    </row>
-    <row r="97" customFormat="false" ht="16.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="D96" s="9" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="97" customFormat="false" ht="17" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A97" s="6" t="n">
         <v>92</v>
       </c>
@@ -7772,9 +7952,11 @@
       <c r="C97" s="18" t="s">
         <v>317</v>
       </c>
-      <c r="D97" s="9"/>
-    </row>
-    <row r="98" customFormat="false" ht="16.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="D97" s="9" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="98" customFormat="false" ht="17" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A98" s="6" t="n">
         <v>93</v>
       </c>
@@ -7782,9 +7964,11 @@
       <c r="C98" s="18" t="s">
         <v>318</v>
       </c>
-      <c r="D98" s="9"/>
-    </row>
-    <row r="99" customFormat="false" ht="16.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="D98" s="9" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="99" customFormat="false" ht="17" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A99" s="6" t="n">
         <v>94</v>
       </c>
@@ -7792,9 +7976,11 @@
       <c r="C99" s="18" t="s">
         <v>319</v>
       </c>
-      <c r="D99" s="9"/>
-    </row>
-    <row r="100" customFormat="false" ht="16.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="D99" s="9" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="100" customFormat="false" ht="17" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A100" s="6" t="n">
         <v>95</v>
       </c>
@@ -7802,9 +7988,11 @@
       <c r="C100" s="18" t="s">
         <v>320</v>
       </c>
-      <c r="D100" s="9"/>
-    </row>
-    <row r="101" customFormat="false" ht="16.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="D100" s="9" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="101" customFormat="false" ht="17" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A101" s="6" t="n">
         <v>96</v>
       </c>
@@ -7812,9 +8000,11 @@
       <c r="C101" s="18" t="s">
         <v>321</v>
       </c>
-      <c r="D101" s="9"/>
-    </row>
-    <row r="102" customFormat="false" ht="16.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="D101" s="9" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="102" customFormat="false" ht="17" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A102" s="6" t="n">
         <v>97</v>
       </c>
@@ -7824,9 +8014,11 @@
       <c r="C102" s="18" t="s">
         <v>323</v>
       </c>
-      <c r="D102" s="9"/>
-    </row>
-    <row r="103" customFormat="false" ht="16.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="D102" s="9" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="103" customFormat="false" ht="17" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A103" s="6" t="n">
         <v>98</v>
       </c>
@@ -7834,9 +8026,11 @@
       <c r="C103" s="18" t="s">
         <v>324</v>
       </c>
-      <c r="D103" s="9"/>
-    </row>
-    <row r="104" customFormat="false" ht="16.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="D103" s="9" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="104" customFormat="false" ht="17" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A104" s="6" t="n">
         <v>99</v>
       </c>
@@ -7844,9 +8038,11 @@
       <c r="C104" s="18" t="s">
         <v>325</v>
       </c>
-      <c r="D104" s="9"/>
-    </row>
-    <row r="105" customFormat="false" ht="16.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="D104" s="9" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="105" customFormat="false" ht="17" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A105" s="6" t="n">
         <v>100</v>
       </c>
@@ -7854,9 +8050,11 @@
       <c r="C105" s="18" t="s">
         <v>326</v>
       </c>
-      <c r="D105" s="9"/>
-    </row>
-    <row r="106" customFormat="false" ht="16.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="D105" s="9" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="106" customFormat="false" ht="17" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A106" s="6" t="n">
         <v>101</v>
       </c>
@@ -7866,9 +8064,11 @@
       <c r="C106" s="18" t="s">
         <v>328</v>
       </c>
-      <c r="D106" s="9"/>
-    </row>
-    <row r="107" customFormat="false" ht="16.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="D106" s="9" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="107" customFormat="false" ht="17" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A107" s="6" t="n">
         <v>102</v>
       </c>
@@ -7876,9 +8076,11 @@
       <c r="C107" s="18" t="s">
         <v>329</v>
       </c>
-      <c r="D107" s="9"/>
-    </row>
-    <row r="108" customFormat="false" ht="16.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="D107" s="9" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="108" customFormat="false" ht="17" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A108" s="6" t="n">
         <v>103</v>
       </c>
@@ -7888,9 +8090,11 @@
       <c r="C108" s="18" t="s">
         <v>331</v>
       </c>
-      <c r="D108" s="9"/>
-    </row>
-    <row r="109" customFormat="false" ht="16.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="D108" s="9" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="109" customFormat="false" ht="17" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A109" s="6" t="n">
         <v>104</v>
       </c>
@@ -7898,9 +8102,11 @@
       <c r="C109" s="18" t="s">
         <v>332</v>
       </c>
-      <c r="D109" s="9"/>
-    </row>
-    <row r="110" customFormat="false" ht="16.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="D109" s="9" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="110" customFormat="false" ht="17" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A110" s="6" t="n">
         <v>105</v>
       </c>
@@ -7908,9 +8114,11 @@
       <c r="C110" s="18" t="s">
         <v>333</v>
       </c>
-      <c r="D110" s="9"/>
-    </row>
-    <row r="111" customFormat="false" ht="16.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="D110" s="9" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="111" customFormat="false" ht="17" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A111" s="6" t="n">
         <v>106</v>
       </c>
@@ -7918,9 +8126,11 @@
       <c r="C111" s="18" t="s">
         <v>334</v>
       </c>
-      <c r="D111" s="9"/>
-    </row>
-    <row r="112" customFormat="false" ht="16.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="D111" s="9" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="112" customFormat="false" ht="17" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A112" s="6" t="n">
         <v>107</v>
       </c>
@@ -7928,9 +8138,11 @@
       <c r="C112" s="18" t="s">
         <v>335</v>
       </c>
-      <c r="D112" s="9"/>
-    </row>
-    <row r="113" customFormat="false" ht="16.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="D112" s="9" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="113" customFormat="false" ht="17" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A113" s="6" t="n">
         <v>108</v>
       </c>
@@ -7938,9 +8150,11 @@
       <c r="C113" s="18" t="s">
         <v>336</v>
       </c>
-      <c r="D113" s="9"/>
-    </row>
-    <row r="114" customFormat="false" ht="16.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="D113" s="9" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="114" customFormat="false" ht="17" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A114" s="6" t="n">
         <v>109</v>
       </c>
@@ -7950,9 +8164,11 @@
       <c r="C114" s="18" t="s">
         <v>338</v>
       </c>
-      <c r="D114" s="9"/>
-    </row>
-    <row r="115" customFormat="false" ht="16.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="D114" s="9" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="115" customFormat="false" ht="17" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A115" s="6" t="n">
         <v>110</v>
       </c>
@@ -7960,9 +8176,11 @@
       <c r="C115" s="18" t="s">
         <v>339</v>
       </c>
-      <c r="D115" s="9"/>
-    </row>
-    <row r="116" customFormat="false" ht="16.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="D115" s="9" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="116" customFormat="false" ht="17" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A116" s="6" t="n">
         <v>111</v>
       </c>
@@ -7970,9 +8188,11 @@
       <c r="C116" s="18" t="s">
         <v>340</v>
       </c>
-      <c r="D116" s="9"/>
-    </row>
-    <row r="117" customFormat="false" ht="16.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="D116" s="9" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="117" customFormat="false" ht="17" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A117" s="6" t="n">
         <v>112</v>
       </c>
@@ -7980,9 +8200,11 @@
       <c r="C117" s="18" t="s">
         <v>341</v>
       </c>
-      <c r="D117" s="9"/>
-    </row>
-    <row r="118" customFormat="false" ht="16.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="D117" s="9" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="118" customFormat="false" ht="17" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A118" s="6" t="n">
         <v>113</v>
       </c>
@@ -7990,9 +8212,11 @@
       <c r="C118" s="18" t="s">
         <v>342</v>
       </c>
-      <c r="D118" s="9"/>
-    </row>
-    <row r="119" customFormat="false" ht="16.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="D118" s="9" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="119" customFormat="false" ht="17" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A119" s="6" t="n">
         <v>114</v>
       </c>
@@ -8002,9 +8226,11 @@
       <c r="C119" s="18" t="s">
         <v>344</v>
       </c>
-      <c r="D119" s="9"/>
-    </row>
-    <row r="120" customFormat="false" ht="16.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="D119" s="9" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="120" customFormat="false" ht="17" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A120" s="6" t="n">
         <v>115</v>
       </c>
@@ -8012,9 +8238,11 @@
       <c r="C120" s="18" t="s">
         <v>345</v>
       </c>
-      <c r="D120" s="9"/>
-    </row>
-    <row r="121" customFormat="false" ht="16.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="D120" s="9" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="121" customFormat="false" ht="17" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A121" s="6" t="n">
         <v>116</v>
       </c>
@@ -8022,9 +8250,11 @@
       <c r="C121" s="18" t="s">
         <v>346</v>
       </c>
-      <c r="D121" s="9"/>
-    </row>
-    <row r="122" customFormat="false" ht="16.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="D121" s="9" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="122" customFormat="false" ht="17" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A122" s="6" t="n">
         <v>117</v>
       </c>
@@ -8032,9 +8262,11 @@
       <c r="C122" s="18" t="s">
         <v>347</v>
       </c>
-      <c r="D122" s="9"/>
-    </row>
-    <row r="123" customFormat="false" ht="16.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="D122" s="9" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="123" customFormat="false" ht="17" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A123" s="6" t="n">
         <v>118</v>
       </c>
@@ -8042,9 +8274,11 @@
       <c r="C123" s="18" t="s">
         <v>348</v>
       </c>
-      <c r="D123" s="9"/>
-    </row>
-    <row r="124" customFormat="false" ht="16.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="D123" s="9" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="124" customFormat="false" ht="17" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A124" s="6" t="n">
         <v>119</v>
       </c>
@@ -8054,9 +8288,11 @@
       <c r="C124" s="18" t="s">
         <v>350</v>
       </c>
-      <c r="D124" s="9"/>
-    </row>
-    <row r="125" customFormat="false" ht="16.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="D124" s="9" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="125" customFormat="false" ht="17" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A125" s="6" t="n">
         <v>120</v>
       </c>
@@ -8064,9 +8300,11 @@
       <c r="C125" s="18" t="s">
         <v>351</v>
       </c>
-      <c r="D125" s="9"/>
-    </row>
-    <row r="126" customFormat="false" ht="16.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="D125" s="9" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="126" customFormat="false" ht="17" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A126" s="6" t="n">
         <v>121</v>
       </c>
@@ -8074,9 +8312,11 @@
       <c r="C126" s="18" t="s">
         <v>352</v>
       </c>
-      <c r="D126" s="9"/>
-    </row>
-    <row r="127" customFormat="false" ht="16.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="D126" s="9" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="127" customFormat="false" ht="17" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A127" s="6" t="n">
         <v>122</v>
       </c>
@@ -8084,9 +8324,11 @@
       <c r="C127" s="18" t="s">
         <v>353</v>
       </c>
-      <c r="D127" s="9"/>
-    </row>
-    <row r="128" customFormat="false" ht="16.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="D127" s="9" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="128" customFormat="false" ht="17" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A128" s="6" t="n">
         <v>123</v>
       </c>
@@ -8094,9 +8336,11 @@
       <c r="C128" s="18" t="s">
         <v>354</v>
       </c>
-      <c r="D128" s="9"/>
-    </row>
-    <row r="129" customFormat="false" ht="16.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="D128" s="9" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="129" customFormat="false" ht="17" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A129" s="6" t="n">
         <v>124</v>
       </c>
@@ -8104,9 +8348,11 @@
       <c r="C129" s="18" t="s">
         <v>355</v>
       </c>
-      <c r="D129" s="9"/>
-    </row>
-    <row r="130" customFormat="false" ht="16.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="D129" s="9" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="130" customFormat="false" ht="17" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A130" s="6" t="n">
         <v>125</v>
       </c>
@@ -8114,9 +8360,11 @@
       <c r="C130" s="18" t="s">
         <v>356</v>
       </c>
-      <c r="D130" s="9"/>
-    </row>
-    <row r="131" customFormat="false" ht="16.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="D130" s="9" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="131" customFormat="false" ht="17" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A131" s="6" t="n">
         <v>126</v>
       </c>
@@ -8124,9 +8372,11 @@
       <c r="C131" s="18" t="s">
         <v>357</v>
       </c>
-      <c r="D131" s="9"/>
-    </row>
-    <row r="132" customFormat="false" ht="16.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="D131" s="9" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="132" customFormat="false" ht="17" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A132" s="6" t="n">
         <v>127</v>
       </c>
@@ -8134,9 +8384,11 @@
       <c r="C132" s="18" t="s">
         <v>358</v>
       </c>
-      <c r="D132" s="9"/>
-    </row>
-    <row r="133" customFormat="false" ht="16.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="D132" s="9" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="133" customFormat="false" ht="17" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A133" s="6" t="n">
         <v>128</v>
       </c>
@@ -8144,9 +8396,11 @@
       <c r="C133" s="18" t="s">
         <v>359</v>
       </c>
-      <c r="D133" s="9"/>
-    </row>
-    <row r="134" customFormat="false" ht="16.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="D133" s="9" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="134" customFormat="false" ht="17" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A134" s="6" t="n">
         <v>129</v>
       </c>
@@ -8154,9 +8408,11 @@
       <c r="C134" s="18" t="s">
         <v>360</v>
       </c>
-      <c r="D134" s="9"/>
-    </row>
-    <row r="135" customFormat="false" ht="16.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="D134" s="9" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="135" customFormat="false" ht="17" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A135" s="6" t="n">
         <v>130</v>
       </c>
@@ -8164,9 +8420,11 @@
       <c r="C135" s="18" t="s">
         <v>361</v>
       </c>
-      <c r="D135" s="9"/>
-    </row>
-    <row r="136" customFormat="false" ht="16.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="D135" s="9" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="136" customFormat="false" ht="17" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A136" s="6" t="n">
         <v>131</v>
       </c>
@@ -8174,9 +8432,11 @@
       <c r="C136" s="18" t="s">
         <v>362</v>
       </c>
-      <c r="D136" s="9"/>
-    </row>
-    <row r="137" customFormat="false" ht="16.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="D136" s="9" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="137" customFormat="false" ht="17" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A137" s="6" t="n">
         <v>132</v>
       </c>
@@ -8184,9 +8444,11 @@
       <c r="C137" s="18" t="s">
         <v>363</v>
       </c>
-      <c r="D137" s="9"/>
-    </row>
-    <row r="138" customFormat="false" ht="16.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="D137" s="9" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="138" customFormat="false" ht="17" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A138" s="6" t="n">
         <v>133</v>
       </c>
@@ -8194,9 +8456,11 @@
       <c r="C138" s="18" t="s">
         <v>364</v>
       </c>
-      <c r="D138" s="9"/>
-    </row>
-    <row r="139" customFormat="false" ht="16.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="D138" s="9" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="139" customFormat="false" ht="17" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A139" s="6" t="n">
         <v>134</v>
       </c>
@@ -8206,9 +8470,11 @@
       <c r="C139" s="18" t="s">
         <v>366</v>
       </c>
-      <c r="D139" s="9"/>
-    </row>
-    <row r="140" customFormat="false" ht="16.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="D139" s="9" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="140" customFormat="false" ht="17" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A140" s="6" t="n">
         <v>135</v>
       </c>
@@ -8216,9 +8482,11 @@
       <c r="C140" s="18" t="s">
         <v>367</v>
       </c>
-      <c r="D140" s="9"/>
-    </row>
-    <row r="141" customFormat="false" ht="16.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="D140" s="9" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="141" customFormat="false" ht="17" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A141" s="6" t="n">
         <v>136</v>
       </c>
@@ -8226,9 +8494,11 @@
       <c r="C141" s="18" t="s">
         <v>368</v>
       </c>
-      <c r="D141" s="9"/>
-    </row>
-    <row r="142" customFormat="false" ht="16.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="D141" s="9" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="142" customFormat="false" ht="17" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A142" s="6" t="n">
         <v>137</v>
       </c>
@@ -8238,9 +8508,11 @@
       <c r="C142" s="18" t="s">
         <v>370</v>
       </c>
-      <c r="D142" s="9"/>
-    </row>
-    <row r="143" customFormat="false" ht="16.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="D142" s="9" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="143" customFormat="false" ht="17" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A143" s="6" t="n">
         <v>138</v>
       </c>
@@ -8248,9 +8520,11 @@
       <c r="C143" s="18" t="s">
         <v>371</v>
       </c>
-      <c r="D143" s="9"/>
-    </row>
-    <row r="144" customFormat="false" ht="16.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="D143" s="9" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="144" customFormat="false" ht="17" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A144" s="6" t="n">
         <v>139</v>
       </c>
@@ -8258,9 +8532,11 @@
       <c r="C144" s="18" t="s">
         <v>372</v>
       </c>
-      <c r="D144" s="9"/>
-    </row>
-    <row r="145" customFormat="false" ht="16.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="D144" s="9" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="145" customFormat="false" ht="17" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A145" s="6" t="n">
         <v>140</v>
       </c>
@@ -8268,9 +8544,11 @@
       <c r="C145" s="18" t="s">
         <v>373</v>
       </c>
-      <c r="D145" s="9"/>
-    </row>
-    <row r="146" customFormat="false" ht="16.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="D145" s="9" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="146" customFormat="false" ht="17" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A146" s="6" t="n">
         <v>141</v>
       </c>
@@ -8278,9 +8556,11 @@
       <c r="C146" s="18" t="s">
         <v>374</v>
       </c>
-      <c r="D146" s="9"/>
-    </row>
-    <row r="147" customFormat="false" ht="16.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="D146" s="9" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="147" customFormat="false" ht="17" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A147" s="6" t="n">
         <v>142</v>
       </c>
@@ -8288,9 +8568,11 @@
       <c r="C147" s="18" t="s">
         <v>375</v>
       </c>
-      <c r="D147" s="9"/>
-    </row>
-    <row r="148" customFormat="false" ht="16.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="D147" s="9" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="148" customFormat="false" ht="17" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A148" s="6" t="n">
         <v>143</v>
       </c>
@@ -8300,9 +8582,11 @@
       <c r="C148" s="18" t="s">
         <v>377</v>
       </c>
-      <c r="D148" s="9"/>
-    </row>
-    <row r="149" customFormat="false" ht="16.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="D148" s="9" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="149" customFormat="false" ht="17" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A149" s="6" t="n">
         <v>144</v>
       </c>
@@ -8310,9 +8594,11 @@
       <c r="C149" s="18" t="s">
         <v>378</v>
       </c>
-      <c r="D149" s="9"/>
-    </row>
-    <row r="150" customFormat="false" ht="16.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="D149" s="9" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="150" customFormat="false" ht="17" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A150" s="6" t="n">
         <v>145</v>
       </c>
@@ -8320,9 +8606,11 @@
       <c r="C150" s="18" t="s">
         <v>379</v>
       </c>
-      <c r="D150" s="9"/>
-    </row>
-    <row r="151" customFormat="false" ht="16.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="D150" s="9" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="151" customFormat="false" ht="17" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A151" s="6" t="n">
         <v>146</v>
       </c>
@@ -8332,9 +8620,11 @@
       <c r="C151" s="18" t="s">
         <v>381</v>
       </c>
-      <c r="D151" s="9"/>
-    </row>
-    <row r="152" customFormat="false" ht="16.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="D151" s="9" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="152" customFormat="false" ht="17" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A152" s="6" t="n">
         <v>147</v>
       </c>
@@ -8342,9 +8632,11 @@
       <c r="C152" s="18" t="s">
         <v>382</v>
       </c>
-      <c r="D152" s="9"/>
-    </row>
-    <row r="153" customFormat="false" ht="16.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="D152" s="9" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="153" customFormat="false" ht="17" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A153" s="6" t="n">
         <v>148</v>
       </c>
@@ -8352,9 +8644,11 @@
       <c r="C153" s="18" t="s">
         <v>383</v>
       </c>
-      <c r="D153" s="9"/>
-    </row>
-    <row r="154" customFormat="false" ht="16.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="D153" s="9" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="154" customFormat="false" ht="17" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A154" s="6" t="n">
         <v>149</v>
       </c>
@@ -8362,7 +8656,9 @@
       <c r="C154" s="18" t="s">
         <v>384</v>
       </c>
-      <c r="D154" s="9"/>
+      <c r="D154" s="9" t="s">
+        <v>10</v>
+      </c>
     </row>
     <row r="155" customFormat="false" ht="16.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A155" s="6" t="n">

--- a/07 ootareon 目標管理シート.xlsx
+++ b/07 ootareon 目標管理シート.xlsx
@@ -47,7 +47,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="691" uniqueCount="526">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="775" uniqueCount="526">
   <si>
     <t xml:space="preserve">学習目標自己チェックシート(ビジネスマナー)</t>
   </si>
@@ -2181,9 +2181,9 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>20</xdr:col>
-      <xdr:colOff>541080</xdr:colOff>
+      <xdr:colOff>540720</xdr:colOff>
       <xdr:row>6</xdr:row>
-      <xdr:rowOff>30960</xdr:rowOff>
+      <xdr:rowOff>30600</xdr:rowOff>
     </xdr:to>
     <xdr:sp>
       <xdr:nvSpPr>
@@ -2193,7 +2193,7 @@
       <xdr:spPr>
         <a:xfrm>
           <a:off x="14182920" y="0"/>
-          <a:ext cx="5007600" cy="1621800"/>
+          <a:ext cx="5007240" cy="1621440"/>
         </a:xfrm>
         <a:prstGeom prst="wedgeRoundRectCallout">
           <a:avLst>
@@ -2359,9 +2359,9 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>16</xdr:col>
-      <xdr:colOff>303120</xdr:colOff>
+      <xdr:colOff>302760</xdr:colOff>
       <xdr:row>6</xdr:row>
-      <xdr:rowOff>176040</xdr:rowOff>
+      <xdr:rowOff>175680</xdr:rowOff>
     </xdr:to>
     <xdr:sp>
       <xdr:nvSpPr>
@@ -2371,7 +2371,7 @@
       <xdr:spPr>
         <a:xfrm>
           <a:off x="11673360" y="145080"/>
-          <a:ext cx="5007600" cy="1621800"/>
+          <a:ext cx="5007240" cy="1621440"/>
         </a:xfrm>
         <a:prstGeom prst="wedgeRoundRectCallout">
           <a:avLst>
@@ -2537,9 +2537,9 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>16</xdr:col>
-      <xdr:colOff>303120</xdr:colOff>
+      <xdr:colOff>302760</xdr:colOff>
       <xdr:row>6</xdr:row>
-      <xdr:rowOff>176040</xdr:rowOff>
+      <xdr:rowOff>175680</xdr:rowOff>
     </xdr:to>
     <xdr:sp>
       <xdr:nvSpPr>
@@ -2549,7 +2549,7 @@
       <xdr:spPr>
         <a:xfrm>
           <a:off x="11620440" y="145080"/>
-          <a:ext cx="5007960" cy="1621800"/>
+          <a:ext cx="5007600" cy="1621440"/>
         </a:xfrm>
         <a:prstGeom prst="wedgeRoundRectCallout">
           <a:avLst>
@@ -2715,9 +2715,9 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>16</xdr:col>
-      <xdr:colOff>262440</xdr:colOff>
+      <xdr:colOff>262080</xdr:colOff>
       <xdr:row>6</xdr:row>
-      <xdr:rowOff>158040</xdr:rowOff>
+      <xdr:rowOff>157680</xdr:rowOff>
     </xdr:to>
     <xdr:sp>
       <xdr:nvSpPr>
@@ -2727,7 +2727,7 @@
       <xdr:spPr>
         <a:xfrm>
           <a:off x="11522160" y="89640"/>
-          <a:ext cx="5065560" cy="1659240"/>
+          <a:ext cx="5065200" cy="1658880"/>
         </a:xfrm>
         <a:prstGeom prst="wedgeRoundRectCallout">
           <a:avLst>
@@ -2888,9 +2888,9 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>4</xdr:col>
-      <xdr:colOff>76320</xdr:colOff>
+      <xdr:colOff>75960</xdr:colOff>
       <xdr:row>85</xdr:row>
-      <xdr:rowOff>167040</xdr:rowOff>
+      <xdr:rowOff>166680</xdr:rowOff>
     </xdr:to>
     <xdr:sp>
       <xdr:nvSpPr>
@@ -2900,7 +2900,7 @@
       <xdr:spPr>
         <a:xfrm>
           <a:off x="11283480" y="16295400"/>
-          <a:ext cx="195480" cy="2226240"/>
+          <a:ext cx="195120" cy="2225880"/>
         </a:xfrm>
         <a:prstGeom prst="rightBrace">
           <a:avLst>
@@ -2940,9 +2940,9 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>15</xdr:col>
-      <xdr:colOff>405000</xdr:colOff>
+      <xdr:colOff>404640</xdr:colOff>
       <xdr:row>84</xdr:row>
-      <xdr:rowOff>127800</xdr:rowOff>
+      <xdr:rowOff>127440</xdr:rowOff>
     </xdr:to>
     <xdr:sp>
       <xdr:nvSpPr>
@@ -2952,7 +2952,7 @@
       <xdr:spPr>
         <a:xfrm>
           <a:off x="11702160" y="17115480"/>
-          <a:ext cx="4617720" cy="1157400"/>
+          <a:ext cx="4617360" cy="1157040"/>
         </a:xfrm>
         <a:prstGeom prst="ellipse">
           <a:avLst/>
@@ -3046,16 +3046,16 @@
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <xdr:twoCellAnchor editAs="twoCell">
     <xdr:from>
-      <xdr:col>4</xdr:col>
-      <xdr:colOff>133200</xdr:colOff>
+      <xdr:col>10</xdr:col>
+      <xdr:colOff>350280</xdr:colOff>
       <xdr:row>0</xdr:row>
-      <xdr:rowOff>158760</xdr:rowOff>
+      <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>16</xdr:col>
-      <xdr:colOff>240120</xdr:colOff>
-      <xdr:row>7</xdr:row>
-      <xdr:rowOff>1080</xdr:rowOff>
+      <xdr:col>21</xdr:col>
+      <xdr:colOff>26280</xdr:colOff>
+      <xdr:row>6</xdr:row>
+      <xdr:rowOff>57600</xdr:rowOff>
     </xdr:to>
     <xdr:sp>
       <xdr:nvSpPr>
@@ -3064,8 +3064,8 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="10479960" y="158760"/>
-          <a:ext cx="5029200" cy="1648800"/>
+          <a:off x="13158360" y="0"/>
+          <a:ext cx="5028840" cy="1648440"/>
         </a:xfrm>
         <a:prstGeom prst="wedgeRoundRectCallout">
           <a:avLst>
@@ -3231,9 +3231,9 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>16</xdr:col>
-      <xdr:colOff>314640</xdr:colOff>
+      <xdr:colOff>314280</xdr:colOff>
       <xdr:row>13</xdr:row>
-      <xdr:rowOff>204120</xdr:rowOff>
+      <xdr:rowOff>203760</xdr:rowOff>
     </xdr:to>
     <xdr:sp>
       <xdr:nvSpPr>
@@ -3243,7 +3243,7 @@
       <xdr:spPr>
         <a:xfrm>
           <a:off x="11906640" y="156960"/>
-          <a:ext cx="5065200" cy="3104640"/>
+          <a:ext cx="5064840" cy="3104280"/>
         </a:xfrm>
         <a:prstGeom prst="wedgeRoundRectCallout">
           <a:avLst>
@@ -3409,9 +3409,9 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>16</xdr:col>
-      <xdr:colOff>314640</xdr:colOff>
+      <xdr:colOff>314280</xdr:colOff>
       <xdr:row>11</xdr:row>
-      <xdr:rowOff>204120</xdr:rowOff>
+      <xdr:rowOff>203760</xdr:rowOff>
     </xdr:to>
     <xdr:sp>
       <xdr:nvSpPr>
@@ -3421,7 +3421,7 @@
       <xdr:spPr>
         <a:xfrm>
           <a:off x="11906640" y="156960"/>
-          <a:ext cx="5065200" cy="2685600"/>
+          <a:ext cx="5064840" cy="2685240"/>
         </a:xfrm>
         <a:prstGeom prst="wedgeRoundRectCallout">
           <a:avLst>
@@ -6783,10 +6783,10 @@
     <tabColor rgb="FF9DC3E6"/>
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:D172"/>
+  <dimension ref="A1:E172"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="pageBreakPreview" topLeftCell="A128" colorId="64" zoomScale="80" zoomScaleNormal="85" zoomScalePageLayoutView="80" workbookViewId="0">
-      <selection pane="topLeft" activeCell="D155" activeCellId="0" sqref="D155"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="pageBreakPreview" topLeftCell="A150" colorId="64" zoomScale="80" zoomScaleNormal="85" zoomScalePageLayoutView="80" workbookViewId="0">
+      <selection pane="topLeft" activeCell="E171" activeCellId="0" sqref="E171"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.45703125" defaultRowHeight="16.5" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -6853,6 +6853,9 @@
       <c r="D7" s="9" t="s">
         <v>10</v>
       </c>
+      <c r="E7" s="1" t="s">
+        <v>10</v>
+      </c>
     </row>
     <row r="8" customFormat="false" ht="17" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A8" s="6" t="n">
@@ -6865,6 +6868,9 @@
       <c r="D8" s="9" t="s">
         <v>10</v>
       </c>
+      <c r="E8" s="1" t="s">
+        <v>10</v>
+      </c>
     </row>
     <row r="9" customFormat="false" ht="17" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A9" s="6" t="n">
@@ -6877,6 +6883,9 @@
       <c r="D9" s="9" t="n">
         <v>0</v>
       </c>
+      <c r="E9" s="1" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="10" customFormat="false" ht="17" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A10" s="6" t="n">
@@ -6891,6 +6900,9 @@
       <c r="D10" s="9" t="s">
         <v>10</v>
       </c>
+      <c r="E10" s="1" t="s">
+        <v>10</v>
+      </c>
     </row>
     <row r="11" customFormat="false" ht="17" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A11" s="6" t="n">
@@ -6903,6 +6915,9 @@
       <c r="D11" s="9" t="n">
         <v>0</v>
       </c>
+      <c r="E11" s="1" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="12" customFormat="false" ht="17" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A12" s="6" t="n">
@@ -6915,6 +6930,9 @@
       <c r="D12" s="9" t="n">
         <v>0</v>
       </c>
+      <c r="E12" s="1" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="13" customFormat="false" ht="17" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A13" s="6" t="n">
@@ -6927,6 +6945,9 @@
       <c r="D13" s="9" t="n">
         <v>0</v>
       </c>
+      <c r="E13" s="1" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="14" customFormat="false" ht="17" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A14" s="6" t="n">
@@ -6939,6 +6960,9 @@
       <c r="D14" s="9" t="n">
         <v>0</v>
       </c>
+      <c r="E14" s="1" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="15" customFormat="false" ht="17" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A15" s="6" t="n">
@@ -6951,6 +6975,9 @@
       <c r="D15" s="9" t="n">
         <v>0</v>
       </c>
+      <c r="E15" s="1" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="16" customFormat="false" ht="17" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A16" s="6" t="n">
@@ -6963,6 +6990,9 @@
       <c r="D16" s="9" t="n">
         <v>0</v>
       </c>
+      <c r="E16" s="1" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="17" customFormat="false" ht="17" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A17" s="6" t="n">
@@ -6975,6 +7005,9 @@
       <c r="D17" s="9" t="n">
         <v>0</v>
       </c>
+      <c r="E17" s="1" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="18" customFormat="false" ht="17" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A18" s="6" t="n">
@@ -6987,6 +7020,9 @@
       <c r="D18" s="9" t="s">
         <v>10</v>
       </c>
+      <c r="E18" s="1" t="s">
+        <v>10</v>
+      </c>
     </row>
     <row r="19" customFormat="false" ht="17" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A19" s="6" t="n">
@@ -6999,6 +7035,9 @@
       <c r="D19" s="9" t="n">
         <v>0</v>
       </c>
+      <c r="E19" s="1" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="20" customFormat="false" ht="17" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A20" s="6" t="n">
@@ -7011,6 +7050,9 @@
       <c r="D20" s="9" t="n">
         <v>0</v>
       </c>
+      <c r="E20" s="1" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="21" customFormat="false" ht="17" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A21" s="6" t="n">
@@ -7023,6 +7065,9 @@
       <c r="D21" s="9" t="s">
         <v>10</v>
       </c>
+      <c r="E21" s="1" t="s">
+        <v>10</v>
+      </c>
     </row>
     <row r="22" customFormat="false" ht="17" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A22" s="6" t="n">
@@ -7035,6 +7080,9 @@
       <c r="D22" s="9" t="n">
         <v>0</v>
       </c>
+      <c r="E22" s="1" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="23" customFormat="false" ht="17" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A23" s="6" t="n">
@@ -7047,6 +7095,9 @@
       <c r="D23" s="9" t="n">
         <v>0</v>
       </c>
+      <c r="E23" s="1" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="24" customFormat="false" ht="17" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A24" s="6" t="n">
@@ -7059,6 +7110,9 @@
       <c r="D24" s="9" t="s">
         <v>10</v>
       </c>
+      <c r="E24" s="1" t="s">
+        <v>10</v>
+      </c>
     </row>
     <row r="25" customFormat="false" ht="17" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A25" s="6" t="n">
@@ -7071,6 +7125,9 @@
       <c r="D25" s="9" t="s">
         <v>10</v>
       </c>
+      <c r="E25" s="1" t="s">
+        <v>10</v>
+      </c>
     </row>
     <row r="26" customFormat="false" ht="17" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A26" s="6" t="n">
@@ -7083,6 +7140,9 @@
       <c r="D26" s="9" t="s">
         <v>10</v>
       </c>
+      <c r="E26" s="1" t="s">
+        <v>10</v>
+      </c>
     </row>
     <row r="27" customFormat="false" ht="17" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A27" s="6" t="n">
@@ -7095,6 +7155,9 @@
       <c r="D27" s="9" t="s">
         <v>10</v>
       </c>
+      <c r="E27" s="1" t="s">
+        <v>10</v>
+      </c>
     </row>
     <row r="28" customFormat="false" ht="17" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A28" s="6" t="n">
@@ -7107,6 +7170,9 @@
       <c r="D28" s="9" t="s">
         <v>10</v>
       </c>
+      <c r="E28" s="1" t="s">
+        <v>10</v>
+      </c>
     </row>
     <row r="29" customFormat="false" ht="17" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A29" s="6" t="n">
@@ -7119,6 +7185,9 @@
       <c r="D29" s="9" t="n">
         <v>0</v>
       </c>
+      <c r="E29" s="1" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="30" customFormat="false" ht="17" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A30" s="6" t="n">
@@ -7131,6 +7200,9 @@
       <c r="D30" s="9" t="n">
         <v>0</v>
       </c>
+      <c r="E30" s="1" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="31" customFormat="false" ht="17" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A31" s="6" t="n">
@@ -7143,6 +7215,9 @@
       <c r="D31" s="9" t="n">
         <v>0</v>
       </c>
+      <c r="E31" s="1" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="32" customFormat="false" ht="17" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A32" s="6" t="n">
@@ -7157,6 +7232,9 @@
       <c r="D32" s="9" t="n">
         <v>0</v>
       </c>
+      <c r="E32" s="1" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="33" customFormat="false" ht="17" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A33" s="6" t="n">
@@ -7169,6 +7247,9 @@
       <c r="D33" s="9" t="s">
         <v>10</v>
       </c>
+      <c r="E33" s="1" t="s">
+        <v>10</v>
+      </c>
     </row>
     <row r="34" customFormat="false" ht="17" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A34" s="6" t="n">
@@ -7181,6 +7262,9 @@
       <c r="D34" s="9" t="n">
         <v>0</v>
       </c>
+      <c r="E34" s="1" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="35" customFormat="false" ht="17" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A35" s="6" t="n">
@@ -7193,6 +7277,9 @@
       <c r="D35" s="9" t="n">
         <v>0</v>
       </c>
+      <c r="E35" s="1" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="36" customFormat="false" ht="17" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A36" s="6" t="n">
@@ -7205,6 +7292,9 @@
       <c r="D36" s="9" t="n">
         <v>0</v>
       </c>
+      <c r="E36" s="1" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="37" customFormat="false" ht="17" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A37" s="6" t="n">
@@ -7217,6 +7307,9 @@
       <c r="D37" s="9" t="n">
         <v>0</v>
       </c>
+      <c r="E37" s="1" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="38" customFormat="false" ht="17" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A38" s="6" t="n">
@@ -7229,6 +7322,9 @@
       <c r="D38" s="9" t="n">
         <v>0</v>
       </c>
+      <c r="E38" s="1" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="39" customFormat="false" ht="17" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A39" s="6" t="n">
@@ -7241,6 +7337,9 @@
       <c r="D39" s="9" t="n">
         <v>0</v>
       </c>
+      <c r="E39" s="1" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="40" customFormat="false" ht="17" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A40" s="6" t="n">
@@ -7255,6 +7354,9 @@
       <c r="D40" s="9" t="n">
         <v>0</v>
       </c>
+      <c r="E40" s="1" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="41" customFormat="false" ht="17" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A41" s="6" t="n">
@@ -7267,6 +7369,9 @@
       <c r="D41" s="9" t="s">
         <v>10</v>
       </c>
+      <c r="E41" s="1" t="s">
+        <v>10</v>
+      </c>
     </row>
     <row r="42" customFormat="false" ht="17" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A42" s="6" t="n">
@@ -7281,6 +7386,9 @@
       <c r="D42" s="9" t="s">
         <v>10</v>
       </c>
+      <c r="E42" s="1" t="s">
+        <v>10</v>
+      </c>
     </row>
     <row r="43" customFormat="false" ht="17" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A43" s="6" t="n">
@@ -7293,6 +7401,9 @@
       <c r="D43" s="9" t="s">
         <v>10</v>
       </c>
+      <c r="E43" s="1" t="s">
+        <v>10</v>
+      </c>
     </row>
     <row r="44" customFormat="false" ht="17" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A44" s="6" t="n">
@@ -7305,6 +7416,9 @@
       <c r="D44" s="9" t="n">
         <v>0</v>
       </c>
+      <c r="E44" s="1" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="45" customFormat="false" ht="17" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A45" s="6" t="n">
@@ -7317,6 +7431,9 @@
       <c r="D45" s="9" t="n">
         <v>0</v>
       </c>
+      <c r="E45" s="1" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="46" customFormat="false" ht="17" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A46" s="6" t="n">
@@ -7329,6 +7446,9 @@
       <c r="D46" s="9" t="n">
         <v>0</v>
       </c>
+      <c r="E46" s="1" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="47" customFormat="false" ht="17" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A47" s="6" t="n">
@@ -7341,6 +7461,9 @@
       <c r="D47" s="9" t="n">
         <v>0</v>
       </c>
+      <c r="E47" s="1" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="48" customFormat="false" ht="17" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A48" s="6" t="n">
@@ -7353,6 +7476,9 @@
       <c r="D48" s="9" t="s">
         <v>10</v>
       </c>
+      <c r="E48" s="1" t="s">
+        <v>10</v>
+      </c>
     </row>
     <row r="49" customFormat="false" ht="17" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A49" s="6" t="n">
@@ -7365,6 +7491,9 @@
       <c r="D49" s="9" t="n">
         <v>0</v>
       </c>
+      <c r="E49" s="1" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="50" customFormat="false" ht="17" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A50" s="6" t="n">
@@ -7377,6 +7506,9 @@
       <c r="D50" s="9" t="n">
         <v>0</v>
       </c>
+      <c r="E50" s="1" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="51" customFormat="false" ht="17" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A51" s="6" t="n">
@@ -7389,6 +7521,9 @@
       <c r="D51" s="9" t="n">
         <v>0</v>
       </c>
+      <c r="E51" s="1" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="52" customFormat="false" ht="17" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A52" s="6" t="n">
@@ -7401,6 +7536,9 @@
       <c r="D52" s="9" t="s">
         <v>10</v>
       </c>
+      <c r="E52" s="1" t="s">
+        <v>10</v>
+      </c>
     </row>
     <row r="53" customFormat="false" ht="17" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A53" s="6" t="n">
@@ -7413,6 +7551,9 @@
       <c r="D53" s="9" t="n">
         <v>0</v>
       </c>
+      <c r="E53" s="1" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="54" customFormat="false" ht="17" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A54" s="6" t="n">
@@ -7427,6 +7568,9 @@
       <c r="D54" s="9" t="n">
         <v>0</v>
       </c>
+      <c r="E54" s="1" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="55" customFormat="false" ht="17" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A55" s="6" t="n">
@@ -7439,6 +7583,9 @@
       <c r="D55" s="9" t="n">
         <v>0</v>
       </c>
+      <c r="E55" s="1" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="56" customFormat="false" ht="17" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A56" s="6" t="n">
@@ -7451,6 +7598,9 @@
       <c r="D56" s="9" t="n">
         <v>0</v>
       </c>
+      <c r="E56" s="1" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="57" customFormat="false" ht="17" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A57" s="6" t="n">
@@ -7463,6 +7613,9 @@
       <c r="D57" s="9" t="n">
         <v>0</v>
       </c>
+      <c r="E57" s="1" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="58" customFormat="false" ht="17" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A58" s="6" t="n">
@@ -7475,6 +7628,9 @@
       <c r="D58" s="9" t="s">
         <v>10</v>
       </c>
+      <c r="E58" s="1" t="s">
+        <v>10</v>
+      </c>
     </row>
     <row r="59" customFormat="false" ht="17" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A59" s="6" t="n">
@@ -7487,6 +7643,9 @@
       <c r="D59" s="9" t="n">
         <v>0</v>
       </c>
+      <c r="E59" s="1" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="60" customFormat="false" ht="17" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A60" s="6" t="n">
@@ -7501,6 +7660,9 @@
       <c r="D60" s="9" t="n">
         <v>0</v>
       </c>
+      <c r="E60" s="1" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="61" customFormat="false" ht="17" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A61" s="6" t="n">
@@ -7513,6 +7675,9 @@
       <c r="D61" s="9" t="n">
         <v>0</v>
       </c>
+      <c r="E61" s="1" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="62" customFormat="false" ht="17" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A62" s="6" t="n">
@@ -7525,6 +7690,9 @@
       <c r="D62" s="9" t="n">
         <v>0</v>
       </c>
+      <c r="E62" s="1" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="63" customFormat="false" ht="17" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A63" s="6" t="n">
@@ -7537,6 +7705,9 @@
       <c r="D63" s="9" t="n">
         <v>0</v>
       </c>
+      <c r="E63" s="1" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="64" customFormat="false" ht="17" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A64" s="6" t="n">
@@ -7549,6 +7720,9 @@
       <c r="D64" s="9" t="s">
         <v>10</v>
       </c>
+      <c r="E64" s="1" t="s">
+        <v>10</v>
+      </c>
     </row>
     <row r="65" customFormat="false" ht="17" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A65" s="6" t="n">
@@ -7561,6 +7735,9 @@
       <c r="D65" s="9" t="s">
         <v>10</v>
       </c>
+      <c r="E65" s="1" t="s">
+        <v>10</v>
+      </c>
     </row>
     <row r="66" customFormat="false" ht="17" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A66" s="6" t="n">
@@ -7573,6 +7750,9 @@
       <c r="D66" s="9" t="n">
         <v>0</v>
       </c>
+      <c r="E66" s="1" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="67" customFormat="false" ht="17" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A67" s="6" t="n">
@@ -7585,6 +7765,9 @@
       <c r="D67" s="9" t="n">
         <v>0</v>
       </c>
+      <c r="E67" s="1" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="68" customFormat="false" ht="17" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A68" s="6" t="n">
@@ -7597,6 +7780,9 @@
       <c r="D68" s="9" t="n">
         <v>0</v>
       </c>
+      <c r="E68" s="1" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="69" customFormat="false" ht="17" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A69" s="6" t="n">
@@ -7609,6 +7795,9 @@
       <c r="D69" s="9" t="n">
         <v>0</v>
       </c>
+      <c r="E69" s="1" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="70" customFormat="false" ht="17" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A70" s="6" t="n">
@@ -7621,6 +7810,9 @@
       <c r="D70" s="9" t="s">
         <v>10</v>
       </c>
+      <c r="E70" s="1" t="s">
+        <v>10</v>
+      </c>
     </row>
     <row r="71" customFormat="false" ht="17" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A71" s="6" t="n">
@@ -7633,6 +7825,9 @@
       <c r="D71" s="9" t="s">
         <v>10</v>
       </c>
+      <c r="E71" s="1" t="s">
+        <v>10</v>
+      </c>
     </row>
     <row r="72" customFormat="false" ht="17" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A72" s="6" t="n">
@@ -7645,6 +7840,9 @@
       <c r="D72" s="9" t="n">
         <v>0</v>
       </c>
+      <c r="E72" s="1" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="73" customFormat="false" ht="17" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A73" s="6" t="n">
@@ -7659,6 +7857,9 @@
       <c r="D73" s="9" t="n">
         <v>0</v>
       </c>
+      <c r="E73" s="1" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="74" customFormat="false" ht="17" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A74" s="6" t="n">
@@ -7671,6 +7872,9 @@
       <c r="D74" s="9" t="n">
         <v>0</v>
       </c>
+      <c r="E74" s="1" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="75" customFormat="false" ht="17" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A75" s="6" t="n">
@@ -7683,6 +7887,9 @@
       <c r="D75" s="9" t="n">
         <v>0</v>
       </c>
+      <c r="E75" s="1" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="76" customFormat="false" ht="17" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A76" s="6" t="n">
@@ -7695,6 +7902,9 @@
       <c r="D76" s="9" t="n">
         <v>0</v>
       </c>
+      <c r="E76" s="1" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="77" customFormat="false" ht="17" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A77" s="6" t="n">
@@ -7707,6 +7917,9 @@
       <c r="D77" s="9" t="n">
         <v>0</v>
       </c>
+      <c r="E77" s="1" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="78" customFormat="false" ht="17" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A78" s="6" t="n">
@@ -7719,6 +7932,9 @@
       <c r="D78" s="9" t="s">
         <v>10</v>
       </c>
+      <c r="E78" s="1" t="s">
+        <v>10</v>
+      </c>
     </row>
     <row r="79" customFormat="false" ht="17" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A79" s="6" t="n">
@@ -7731,6 +7947,9 @@
       <c r="D79" s="9" t="n">
         <v>0</v>
       </c>
+      <c r="E79" s="1" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="80" customFormat="false" ht="17" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A80" s="6" t="n">
@@ -7743,6 +7962,9 @@
       <c r="D80" s="9" t="s">
         <v>10</v>
       </c>
+      <c r="E80" s="1" t="s">
+        <v>10</v>
+      </c>
     </row>
     <row r="81" customFormat="false" ht="17" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A81" s="6" t="n">
@@ -7757,6 +7979,9 @@
       <c r="D81" s="9" t="s">
         <v>10</v>
       </c>
+      <c r="E81" s="1" t="s">
+        <v>10</v>
+      </c>
     </row>
     <row r="82" customFormat="false" ht="17" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A82" s="6" t="n">
@@ -7771,6 +7996,9 @@
       <c r="D82" s="9" t="n">
         <v>0</v>
       </c>
+      <c r="E82" s="1" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="83" customFormat="false" ht="17" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A83" s="6" t="n">
@@ -7783,6 +8011,9 @@
       <c r="D83" s="9" t="s">
         <v>10</v>
       </c>
+      <c r="E83" s="1" t="s">
+        <v>10</v>
+      </c>
     </row>
     <row r="84" customFormat="false" ht="17" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A84" s="6" t="n">
@@ -7795,6 +8026,9 @@
       <c r="D84" s="9" t="s">
         <v>10</v>
       </c>
+      <c r="E84" s="1" t="s">
+        <v>10</v>
+      </c>
     </row>
     <row r="85" customFormat="false" ht="17" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A85" s="6" t="n">
@@ -7807,6 +8041,9 @@
       <c r="D85" s="9" t="s">
         <v>10</v>
       </c>
+      <c r="E85" s="1" t="s">
+        <v>10</v>
+      </c>
     </row>
     <row r="86" customFormat="false" ht="17" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A86" s="6" t="n">
@@ -7819,6 +8056,9 @@
       <c r="D86" s="9" t="n">
         <v>0</v>
       </c>
+      <c r="E86" s="1" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="87" customFormat="false" ht="17" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A87" s="6" t="n">
@@ -7831,6 +8071,9 @@
       <c r="D87" s="9" t="n">
         <v>0</v>
       </c>
+      <c r="E87" s="1" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="88" customFormat="false" ht="17" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A88" s="6" t="n">
@@ -7845,6 +8088,9 @@
       <c r="D88" s="9" t="n">
         <v>0</v>
       </c>
+      <c r="E88" s="1" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="89" customFormat="false" ht="17" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A89" s="6" t="n">
@@ -7857,6 +8103,9 @@
       <c r="D89" s="9" t="n">
         <v>0</v>
       </c>
+      <c r="E89" s="1" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="90" customFormat="false" ht="17" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A90" s="6" t="n">
@@ -7869,6 +8118,9 @@
       <c r="D90" s="9" t="n">
         <v>0</v>
       </c>
+      <c r="E90" s="1" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="91" customFormat="false" ht="17" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A91" s="6" t="n">
@@ -7881,6 +8133,9 @@
       <c r="D91" s="9" t="s">
         <v>10</v>
       </c>
+      <c r="E91" s="1" t="s">
+        <v>10</v>
+      </c>
     </row>
     <row r="92" customFormat="false" ht="17" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A92" s="6" t="n">
@@ -7893,6 +8148,9 @@
       <c r="D92" s="9" t="s">
         <v>10</v>
       </c>
+      <c r="E92" s="1" t="s">
+        <v>10</v>
+      </c>
     </row>
     <row r="93" customFormat="false" ht="17" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A93" s="6" t="n">
@@ -7905,6 +8163,9 @@
       <c r="D93" s="9" t="s">
         <v>10</v>
       </c>
+      <c r="E93" s="1" t="s">
+        <v>10</v>
+      </c>
     </row>
     <row r="94" customFormat="false" ht="17" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A94" s="6" t="n">
@@ -7919,6 +8180,9 @@
       <c r="D94" s="9" t="n">
         <v>0</v>
       </c>
+      <c r="E94" s="1" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="95" customFormat="false" ht="17" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A95" s="6" t="n">
@@ -7931,6 +8195,9 @@
       <c r="D95" s="9" t="n">
         <v>0</v>
       </c>
+      <c r="E95" s="1" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="96" customFormat="false" ht="17" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A96" s="6" t="n">
@@ -7943,6 +8210,9 @@
       <c r="D96" s="9" t="n">
         <v>0</v>
       </c>
+      <c r="E96" s="1" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="97" customFormat="false" ht="17" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A97" s="6" t="n">
@@ -7955,6 +8225,9 @@
       <c r="D97" s="9" t="n">
         <v>0</v>
       </c>
+      <c r="E97" s="1" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="98" customFormat="false" ht="17" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A98" s="6" t="n">
@@ -7967,6 +8240,9 @@
       <c r="D98" s="9" t="n">
         <v>0</v>
       </c>
+      <c r="E98" s="1" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="99" customFormat="false" ht="17" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A99" s="6" t="n">
@@ -7979,6 +8255,9 @@
       <c r="D99" s="9" t="n">
         <v>0</v>
       </c>
+      <c r="E99" s="1" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="100" customFormat="false" ht="17" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A100" s="6" t="n">
@@ -7991,6 +8270,9 @@
       <c r="D100" s="9" t="n">
         <v>0</v>
       </c>
+      <c r="E100" s="1" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="101" customFormat="false" ht="17" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A101" s="6" t="n">
@@ -8003,6 +8285,9 @@
       <c r="D101" s="9" t="s">
         <v>10</v>
       </c>
+      <c r="E101" s="1" t="s">
+        <v>10</v>
+      </c>
     </row>
     <row r="102" customFormat="false" ht="17" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A102" s="6" t="n">
@@ -8017,6 +8302,9 @@
       <c r="D102" s="9" t="n">
         <v>0</v>
       </c>
+      <c r="E102" s="1" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="103" customFormat="false" ht="17" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A103" s="6" t="n">
@@ -8029,6 +8317,9 @@
       <c r="D103" s="9" t="n">
         <v>0</v>
       </c>
+      <c r="E103" s="1" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="104" customFormat="false" ht="17" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A104" s="6" t="n">
@@ -8041,6 +8332,9 @@
       <c r="D104" s="9" t="s">
         <v>10</v>
       </c>
+      <c r="E104" s="1" t="s">
+        <v>10</v>
+      </c>
     </row>
     <row r="105" customFormat="false" ht="17" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A105" s="6" t="n">
@@ -8053,6 +8347,9 @@
       <c r="D105" s="9" t="n">
         <v>0</v>
       </c>
+      <c r="E105" s="1" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="106" customFormat="false" ht="17" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A106" s="6" t="n">
@@ -8067,6 +8364,9 @@
       <c r="D106" s="9" t="s">
         <v>10</v>
       </c>
+      <c r="E106" s="1" t="s">
+        <v>10</v>
+      </c>
     </row>
     <row r="107" customFormat="false" ht="17" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A107" s="6" t="n">
@@ -8079,6 +8379,9 @@
       <c r="D107" s="9" t="s">
         <v>10</v>
       </c>
+      <c r="E107" s="1" t="s">
+        <v>10</v>
+      </c>
     </row>
     <row r="108" customFormat="false" ht="17" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A108" s="6" t="n">
@@ -8093,6 +8396,9 @@
       <c r="D108" s="9" t="s">
         <v>10</v>
       </c>
+      <c r="E108" s="1" t="s">
+        <v>10</v>
+      </c>
     </row>
     <row r="109" customFormat="false" ht="17" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A109" s="6" t="n">
@@ -8105,6 +8411,9 @@
       <c r="D109" s="9" t="n">
         <v>0</v>
       </c>
+      <c r="E109" s="1" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="110" customFormat="false" ht="17" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A110" s="6" t="n">
@@ -8117,6 +8426,9 @@
       <c r="D110" s="9" t="s">
         <v>10</v>
       </c>
+      <c r="E110" s="1" t="s">
+        <v>10</v>
+      </c>
     </row>
     <row r="111" customFormat="false" ht="17" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A111" s="6" t="n">
@@ -8129,6 +8441,9 @@
       <c r="D111" s="9" t="s">
         <v>10</v>
       </c>
+      <c r="E111" s="1" t="s">
+        <v>10</v>
+      </c>
     </row>
     <row r="112" customFormat="false" ht="17" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A112" s="6" t="n">
@@ -8141,6 +8456,9 @@
       <c r="D112" s="9" t="s">
         <v>10</v>
       </c>
+      <c r="E112" s="1" t="s">
+        <v>10</v>
+      </c>
     </row>
     <row r="113" customFormat="false" ht="17" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A113" s="6" t="n">
@@ -8153,6 +8471,9 @@
       <c r="D113" s="9" t="s">
         <v>10</v>
       </c>
+      <c r="E113" s="1" t="s">
+        <v>10</v>
+      </c>
     </row>
     <row r="114" customFormat="false" ht="17" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A114" s="6" t="n">
@@ -8167,6 +8488,9 @@
       <c r="D114" s="9" t="s">
         <v>10</v>
       </c>
+      <c r="E114" s="1" t="s">
+        <v>10</v>
+      </c>
     </row>
     <row r="115" customFormat="false" ht="17" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A115" s="6" t="n">
@@ -8179,6 +8503,9 @@
       <c r="D115" s="9" t="s">
         <v>10</v>
       </c>
+      <c r="E115" s="1" t="s">
+        <v>10</v>
+      </c>
     </row>
     <row r="116" customFormat="false" ht="17" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A116" s="6" t="n">
@@ -8191,6 +8518,9 @@
       <c r="D116" s="9" t="s">
         <v>10</v>
       </c>
+      <c r="E116" s="1" t="s">
+        <v>10</v>
+      </c>
     </row>
     <row r="117" customFormat="false" ht="17" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A117" s="6" t="n">
@@ -8203,6 +8533,9 @@
       <c r="D117" s="9" t="n">
         <v>0</v>
       </c>
+      <c r="E117" s="1" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="118" customFormat="false" ht="17" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A118" s="6" t="n">
@@ -8215,6 +8548,9 @@
       <c r="D118" s="9" t="s">
         <v>10</v>
       </c>
+      <c r="E118" s="1" t="s">
+        <v>10</v>
+      </c>
     </row>
     <row r="119" customFormat="false" ht="17" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A119" s="6" t="n">
@@ -8229,6 +8565,9 @@
       <c r="D119" s="9" t="n">
         <v>0</v>
       </c>
+      <c r="E119" s="1" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="120" customFormat="false" ht="17" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A120" s="6" t="n">
@@ -8241,6 +8580,9 @@
       <c r="D120" s="9" t="s">
         <v>10</v>
       </c>
+      <c r="E120" s="1" t="s">
+        <v>10</v>
+      </c>
     </row>
     <row r="121" customFormat="false" ht="17" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A121" s="6" t="n">
@@ -8253,6 +8595,9 @@
       <c r="D121" s="9" t="s">
         <v>10</v>
       </c>
+      <c r="E121" s="1" t="s">
+        <v>10</v>
+      </c>
     </row>
     <row r="122" customFormat="false" ht="17" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A122" s="6" t="n">
@@ -8265,6 +8610,9 @@
       <c r="D122" s="9" t="s">
         <v>10</v>
       </c>
+      <c r="E122" s="1" t="s">
+        <v>10</v>
+      </c>
     </row>
     <row r="123" customFormat="false" ht="17" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A123" s="6" t="n">
@@ -8277,6 +8625,9 @@
       <c r="D123" s="9" t="s">
         <v>10</v>
       </c>
+      <c r="E123" s="1" t="s">
+        <v>10</v>
+      </c>
     </row>
     <row r="124" customFormat="false" ht="17" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A124" s="6" t="n">
@@ -8291,6 +8642,9 @@
       <c r="D124" s="9" t="n">
         <v>0</v>
       </c>
+      <c r="E124" s="1" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="125" customFormat="false" ht="17" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A125" s="6" t="n">
@@ -8303,6 +8657,9 @@
       <c r="D125" s="9" t="n">
         <v>0</v>
       </c>
+      <c r="E125" s="1" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="126" customFormat="false" ht="17" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A126" s="6" t="n">
@@ -8315,6 +8672,9 @@
       <c r="D126" s="9" t="n">
         <v>0</v>
       </c>
+      <c r="E126" s="1" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="127" customFormat="false" ht="17" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A127" s="6" t="n">
@@ -8327,6 +8687,9 @@
       <c r="D127" s="9" t="s">
         <v>10</v>
       </c>
+      <c r="E127" s="1" t="s">
+        <v>10</v>
+      </c>
     </row>
     <row r="128" customFormat="false" ht="17" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A128" s="6" t="n">
@@ -8339,6 +8702,9 @@
       <c r="D128" s="9" t="s">
         <v>10</v>
       </c>
+      <c r="E128" s="1" t="s">
+        <v>10</v>
+      </c>
     </row>
     <row r="129" customFormat="false" ht="17" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A129" s="6" t="n">
@@ -8351,6 +8717,9 @@
       <c r="D129" s="9" t="n">
         <v>0</v>
       </c>
+      <c r="E129" s="1" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="130" customFormat="false" ht="17" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A130" s="6" t="n">
@@ -8363,6 +8732,9 @@
       <c r="D130" s="9" t="s">
         <v>10</v>
       </c>
+      <c r="E130" s="1" t="s">
+        <v>10</v>
+      </c>
     </row>
     <row r="131" customFormat="false" ht="17" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A131" s="6" t="n">
@@ -8375,6 +8747,9 @@
       <c r="D131" s="9" t="s">
         <v>10</v>
       </c>
+      <c r="E131" s="1" t="s">
+        <v>10</v>
+      </c>
     </row>
     <row r="132" customFormat="false" ht="17" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A132" s="6" t="n">
@@ -8387,6 +8762,9 @@
       <c r="D132" s="9" t="s">
         <v>10</v>
       </c>
+      <c r="E132" s="1" t="s">
+        <v>10</v>
+      </c>
     </row>
     <row r="133" customFormat="false" ht="17" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A133" s="6" t="n">
@@ -8399,6 +8777,9 @@
       <c r="D133" s="9" t="s">
         <v>10</v>
       </c>
+      <c r="E133" s="1" t="s">
+        <v>10</v>
+      </c>
     </row>
     <row r="134" customFormat="false" ht="17" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A134" s="6" t="n">
@@ -8411,6 +8792,9 @@
       <c r="D134" s="9" t="n">
         <v>0</v>
       </c>
+      <c r="E134" s="1" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="135" customFormat="false" ht="17" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A135" s="6" t="n">
@@ -8423,6 +8807,9 @@
       <c r="D135" s="9" t="n">
         <v>0</v>
       </c>
+      <c r="E135" s="1" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="136" customFormat="false" ht="17" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A136" s="6" t="n">
@@ -8435,6 +8822,9 @@
       <c r="D136" s="9" t="s">
         <v>10</v>
       </c>
+      <c r="E136" s="1" t="s">
+        <v>10</v>
+      </c>
     </row>
     <row r="137" customFormat="false" ht="17" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A137" s="6" t="n">
@@ -8447,6 +8837,9 @@
       <c r="D137" s="9" t="n">
         <v>0</v>
       </c>
+      <c r="E137" s="1" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="138" customFormat="false" ht="17" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A138" s="6" t="n">
@@ -8459,6 +8852,9 @@
       <c r="D138" s="9" t="n">
         <v>0</v>
       </c>
+      <c r="E138" s="1" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="139" customFormat="false" ht="17" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A139" s="6" t="n">
@@ -8473,6 +8869,9 @@
       <c r="D139" s="9" t="s">
         <v>10</v>
       </c>
+      <c r="E139" s="1" t="s">
+        <v>10</v>
+      </c>
     </row>
     <row r="140" customFormat="false" ht="17" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A140" s="6" t="n">
@@ -8485,6 +8884,9 @@
       <c r="D140" s="9" t="s">
         <v>10</v>
       </c>
+      <c r="E140" s="1" t="s">
+        <v>10</v>
+      </c>
     </row>
     <row r="141" customFormat="false" ht="17" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A141" s="6" t="n">
@@ -8497,6 +8899,9 @@
       <c r="D141" s="9" t="s">
         <v>10</v>
       </c>
+      <c r="E141" s="1" t="s">
+        <v>10</v>
+      </c>
     </row>
     <row r="142" customFormat="false" ht="17" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A142" s="6" t="n">
@@ -8511,6 +8916,9 @@
       <c r="D142" s="9" t="s">
         <v>10</v>
       </c>
+      <c r="E142" s="1" t="s">
+        <v>10</v>
+      </c>
     </row>
     <row r="143" customFormat="false" ht="17" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A143" s="6" t="n">
@@ -8523,6 +8931,9 @@
       <c r="D143" s="9" t="s">
         <v>10</v>
       </c>
+      <c r="E143" s="1" t="s">
+        <v>10</v>
+      </c>
     </row>
     <row r="144" customFormat="false" ht="17" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A144" s="6" t="n">
@@ -8535,6 +8946,9 @@
       <c r="D144" s="9" t="s">
         <v>10</v>
       </c>
+      <c r="E144" s="1" t="s">
+        <v>10</v>
+      </c>
     </row>
     <row r="145" customFormat="false" ht="17" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A145" s="6" t="n">
@@ -8547,6 +8961,9 @@
       <c r="D145" s="9" t="s">
         <v>10</v>
       </c>
+      <c r="E145" s="1" t="s">
+        <v>10</v>
+      </c>
     </row>
     <row r="146" customFormat="false" ht="17" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A146" s="6" t="n">
@@ -8559,6 +8976,9 @@
       <c r="D146" s="9" t="s">
         <v>10</v>
       </c>
+      <c r="E146" s="1" t="s">
+        <v>10</v>
+      </c>
     </row>
     <row r="147" customFormat="false" ht="17" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A147" s="6" t="n">
@@ -8571,6 +8991,9 @@
       <c r="D147" s="9" t="s">
         <v>10</v>
       </c>
+      <c r="E147" s="1" t="s">
+        <v>10</v>
+      </c>
     </row>
     <row r="148" customFormat="false" ht="17" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A148" s="6" t="n">
@@ -8585,6 +9008,9 @@
       <c r="D148" s="9" t="s">
         <v>10</v>
       </c>
+      <c r="E148" s="1" t="s">
+        <v>10</v>
+      </c>
     </row>
     <row r="149" customFormat="false" ht="17" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A149" s="6" t="n">
@@ -8597,6 +9023,9 @@
       <c r="D149" s="9" t="n">
         <v>0</v>
       </c>
+      <c r="E149" s="1" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="150" customFormat="false" ht="17" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A150" s="6" t="n">
@@ -8609,6 +9038,9 @@
       <c r="D150" s="9" t="s">
         <v>10</v>
       </c>
+      <c r="E150" s="1" t="s">
+        <v>10</v>
+      </c>
     </row>
     <row r="151" customFormat="false" ht="17" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A151" s="6" t="n">
@@ -8623,6 +9055,9 @@
       <c r="D151" s="9" t="s">
         <v>10</v>
       </c>
+      <c r="E151" s="1" t="s">
+        <v>10</v>
+      </c>
     </row>
     <row r="152" customFormat="false" ht="17" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A152" s="6" t="n">
@@ -8635,6 +9070,9 @@
       <c r="D152" s="9" t="s">
         <v>10</v>
       </c>
+      <c r="E152" s="1" t="s">
+        <v>10</v>
+      </c>
     </row>
     <row r="153" customFormat="false" ht="17" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A153" s="6" t="n">
@@ -8647,6 +9085,9 @@
       <c r="D153" s="9" t="s">
         <v>10</v>
       </c>
+      <c r="E153" s="1" t="s">
+        <v>10</v>
+      </c>
     </row>
     <row r="154" customFormat="false" ht="17" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A154" s="6" t="n">
@@ -8659,6 +9100,9 @@
       <c r="D154" s="9" t="s">
         <v>10</v>
       </c>
+      <c r="E154" s="1" t="s">
+        <v>10</v>
+      </c>
     </row>
     <row r="155" customFormat="false" ht="16.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A155" s="6" t="n">
@@ -8671,6 +9115,9 @@
         <v>386</v>
       </c>
       <c r="D155" s="9"/>
+      <c r="E155" s="1" t="s">
+        <v>10</v>
+      </c>
     </row>
     <row r="156" customFormat="false" ht="16.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A156" s="6" t="n">
@@ -8681,6 +9128,9 @@
         <v>387</v>
       </c>
       <c r="D156" s="9"/>
+      <c r="E156" s="1" t="s">
+        <v>10</v>
+      </c>
     </row>
     <row r="157" customFormat="false" ht="16.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A157" s="6" t="n">
@@ -8691,6 +9141,9 @@
         <v>388</v>
       </c>
       <c r="D157" s="9"/>
+      <c r="E157" s="1" t="s">
+        <v>10</v>
+      </c>
     </row>
     <row r="158" customFormat="false" ht="16.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A158" s="6" t="n">
@@ -8701,6 +9154,9 @@
         <v>389</v>
       </c>
       <c r="D158" s="9"/>
+      <c r="E158" s="1" t="s">
+        <v>10</v>
+      </c>
     </row>
     <row r="159" customFormat="false" ht="16.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A159" s="6" t="n">
@@ -8711,6 +9167,9 @@
         <v>390</v>
       </c>
       <c r="D159" s="9"/>
+      <c r="E159" s="1" t="s">
+        <v>10</v>
+      </c>
     </row>
     <row r="160" customFormat="false" ht="16.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A160" s="6" t="n">
@@ -8721,6 +9180,9 @@
         <v>391</v>
       </c>
       <c r="D160" s="9"/>
+      <c r="E160" s="1" t="s">
+        <v>10</v>
+      </c>
     </row>
     <row r="161" customFormat="false" ht="16.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A161" s="6" t="n">
@@ -8731,6 +9193,9 @@
         <v>392</v>
       </c>
       <c r="D161" s="9"/>
+      <c r="E161" s="1" t="s">
+        <v>10</v>
+      </c>
     </row>
     <row r="162" customFormat="false" ht="16.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A162" s="6" t="n">
@@ -8741,6 +9206,9 @@
         <v>393</v>
       </c>
       <c r="D162" s="9"/>
+      <c r="E162" s="1" t="s">
+        <v>10</v>
+      </c>
     </row>
     <row r="163" customFormat="false" ht="16.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A163" s="6" t="n">
@@ -8753,6 +9221,9 @@
         <v>395</v>
       </c>
       <c r="D163" s="9"/>
+      <c r="E163" s="1" t="s">
+        <v>10</v>
+      </c>
     </row>
     <row r="164" customFormat="false" ht="16.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A164" s="6" t="n">
@@ -8763,6 +9234,9 @@
         <v>396</v>
       </c>
       <c r="D164" s="9"/>
+      <c r="E164" s="1" t="s">
+        <v>10</v>
+      </c>
     </row>
     <row r="165" customFormat="false" ht="16.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A165" s="6" t="n">
@@ -8773,6 +9247,9 @@
         <v>397</v>
       </c>
       <c r="D165" s="9"/>
+      <c r="E165" s="1" t="s">
+        <v>10</v>
+      </c>
     </row>
     <row r="166" customFormat="false" ht="16.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A166" s="6" t="n">
@@ -8783,6 +9260,9 @@
         <v>398</v>
       </c>
       <c r="D166" s="9"/>
+      <c r="E166" s="1" t="s">
+        <v>10</v>
+      </c>
     </row>
     <row r="167" customFormat="false" ht="16.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A167" s="6" t="n">
@@ -8793,6 +9273,9 @@
         <v>399</v>
       </c>
       <c r="D167" s="9"/>
+      <c r="E167" s="1" t="s">
+        <v>10</v>
+      </c>
     </row>
     <row r="168" customFormat="false" ht="16.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A168" s="6" t="n">
@@ -8803,6 +9286,9 @@
         <v>400</v>
       </c>
       <c r="D168" s="9"/>
+      <c r="E168" s="1" t="s">
+        <v>10</v>
+      </c>
     </row>
     <row r="169" customFormat="false" ht="16.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A169" s="6" t="n">
@@ -8815,6 +9301,9 @@
         <v>402</v>
       </c>
       <c r="D169" s="9"/>
+      <c r="E169" s="1" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="170" customFormat="false" ht="16.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A170" s="6" t="n">
@@ -8825,6 +9314,9 @@
         <v>403</v>
       </c>
       <c r="D170" s="9"/>
+      <c r="E170" s="1" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="171" customFormat="false" ht="16.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A171" s="6" t="n">
@@ -8837,6 +9329,9 @@
         <v>405</v>
       </c>
       <c r="D171" s="9"/>
+      <c r="E171" s="1" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="172" customFormat="false" ht="16.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A172" s="6" t="n">
@@ -8847,6 +9342,9 @@
         <v>406</v>
       </c>
       <c r="D172" s="9"/>
+      <c r="E172" s="1" t="s">
+        <v>10</v>
+      </c>
     </row>
   </sheetData>
   <mergeCells count="29">

--- a/07 ootareon 目標管理シート.xlsx
+++ b/07 ootareon 目標管理シート.xlsx
@@ -47,7 +47,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="775" uniqueCount="526">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="859" uniqueCount="526">
   <si>
     <t xml:space="preserve">学習目標自己チェックシート(ビジネスマナー)</t>
   </si>
@@ -2181,9 +2181,9 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>20</xdr:col>
-      <xdr:colOff>540720</xdr:colOff>
+      <xdr:colOff>540360</xdr:colOff>
       <xdr:row>6</xdr:row>
-      <xdr:rowOff>30600</xdr:rowOff>
+      <xdr:rowOff>30240</xdr:rowOff>
     </xdr:to>
     <xdr:sp>
       <xdr:nvSpPr>
@@ -2193,7 +2193,7 @@
       <xdr:spPr>
         <a:xfrm>
           <a:off x="14182920" y="0"/>
-          <a:ext cx="5007240" cy="1621440"/>
+          <a:ext cx="5006880" cy="1621080"/>
         </a:xfrm>
         <a:prstGeom prst="wedgeRoundRectCallout">
           <a:avLst>
@@ -2359,9 +2359,9 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>16</xdr:col>
-      <xdr:colOff>302760</xdr:colOff>
+      <xdr:colOff>302400</xdr:colOff>
       <xdr:row>6</xdr:row>
-      <xdr:rowOff>175680</xdr:rowOff>
+      <xdr:rowOff>175320</xdr:rowOff>
     </xdr:to>
     <xdr:sp>
       <xdr:nvSpPr>
@@ -2371,7 +2371,7 @@
       <xdr:spPr>
         <a:xfrm>
           <a:off x="11673360" y="145080"/>
-          <a:ext cx="5007240" cy="1621440"/>
+          <a:ext cx="5006880" cy="1621080"/>
         </a:xfrm>
         <a:prstGeom prst="wedgeRoundRectCallout">
           <a:avLst>
@@ -2537,9 +2537,9 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>16</xdr:col>
-      <xdr:colOff>302760</xdr:colOff>
+      <xdr:colOff>302400</xdr:colOff>
       <xdr:row>6</xdr:row>
-      <xdr:rowOff>175680</xdr:rowOff>
+      <xdr:rowOff>175320</xdr:rowOff>
     </xdr:to>
     <xdr:sp>
       <xdr:nvSpPr>
@@ -2549,7 +2549,7 @@
       <xdr:spPr>
         <a:xfrm>
           <a:off x="11620440" y="145080"/>
-          <a:ext cx="5007600" cy="1621440"/>
+          <a:ext cx="5007240" cy="1621080"/>
         </a:xfrm>
         <a:prstGeom prst="wedgeRoundRectCallout">
           <a:avLst>
@@ -2715,9 +2715,9 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>16</xdr:col>
-      <xdr:colOff>262080</xdr:colOff>
+      <xdr:colOff>261720</xdr:colOff>
       <xdr:row>6</xdr:row>
-      <xdr:rowOff>157680</xdr:rowOff>
+      <xdr:rowOff>157320</xdr:rowOff>
     </xdr:to>
     <xdr:sp>
       <xdr:nvSpPr>
@@ -2727,7 +2727,7 @@
       <xdr:spPr>
         <a:xfrm>
           <a:off x="11522160" y="89640"/>
-          <a:ext cx="5065200" cy="1658880"/>
+          <a:ext cx="5064840" cy="1658520"/>
         </a:xfrm>
         <a:prstGeom prst="wedgeRoundRectCallout">
           <a:avLst>
@@ -2888,9 +2888,9 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>4</xdr:col>
-      <xdr:colOff>75960</xdr:colOff>
+      <xdr:colOff>75600</xdr:colOff>
       <xdr:row>85</xdr:row>
-      <xdr:rowOff>166680</xdr:rowOff>
+      <xdr:rowOff>166320</xdr:rowOff>
     </xdr:to>
     <xdr:sp>
       <xdr:nvSpPr>
@@ -2900,7 +2900,7 @@
       <xdr:spPr>
         <a:xfrm>
           <a:off x="11283480" y="16295400"/>
-          <a:ext cx="195120" cy="2225880"/>
+          <a:ext cx="194760" cy="2225520"/>
         </a:xfrm>
         <a:prstGeom prst="rightBrace">
           <a:avLst>
@@ -2940,9 +2940,9 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>15</xdr:col>
-      <xdr:colOff>404640</xdr:colOff>
+      <xdr:colOff>404280</xdr:colOff>
       <xdr:row>84</xdr:row>
-      <xdr:rowOff>127440</xdr:rowOff>
+      <xdr:rowOff>127080</xdr:rowOff>
     </xdr:to>
     <xdr:sp>
       <xdr:nvSpPr>
@@ -2952,7 +2952,7 @@
       <xdr:spPr>
         <a:xfrm>
           <a:off x="11702160" y="17115480"/>
-          <a:ext cx="4617360" cy="1157040"/>
+          <a:ext cx="4617000" cy="1156680"/>
         </a:xfrm>
         <a:prstGeom prst="ellipse">
           <a:avLst/>
@@ -3053,9 +3053,9 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>21</xdr:col>
-      <xdr:colOff>26280</xdr:colOff>
+      <xdr:colOff>25920</xdr:colOff>
       <xdr:row>6</xdr:row>
-      <xdr:rowOff>57600</xdr:rowOff>
+      <xdr:rowOff>57240</xdr:rowOff>
     </xdr:to>
     <xdr:sp>
       <xdr:nvSpPr>
@@ -3065,7 +3065,7 @@
       <xdr:spPr>
         <a:xfrm>
           <a:off x="13158360" y="0"/>
-          <a:ext cx="5028840" cy="1648440"/>
+          <a:ext cx="5028480" cy="1648080"/>
         </a:xfrm>
         <a:prstGeom prst="wedgeRoundRectCallout">
           <a:avLst>
@@ -3231,9 +3231,9 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>16</xdr:col>
-      <xdr:colOff>314280</xdr:colOff>
+      <xdr:colOff>313920</xdr:colOff>
       <xdr:row>13</xdr:row>
-      <xdr:rowOff>203760</xdr:rowOff>
+      <xdr:rowOff>203400</xdr:rowOff>
     </xdr:to>
     <xdr:sp>
       <xdr:nvSpPr>
@@ -3243,7 +3243,7 @@
       <xdr:spPr>
         <a:xfrm>
           <a:off x="11906640" y="156960"/>
-          <a:ext cx="5064840" cy="3104280"/>
+          <a:ext cx="5064480" cy="3103920"/>
         </a:xfrm>
         <a:prstGeom prst="wedgeRoundRectCallout">
           <a:avLst>
@@ -3409,9 +3409,9 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>16</xdr:col>
-      <xdr:colOff>314280</xdr:colOff>
+      <xdr:colOff>313920</xdr:colOff>
       <xdr:row>11</xdr:row>
-      <xdr:rowOff>203760</xdr:rowOff>
+      <xdr:rowOff>203400</xdr:rowOff>
     </xdr:to>
     <xdr:sp>
       <xdr:nvSpPr>
@@ -3421,7 +3421,7 @@
       <xdr:spPr>
         <a:xfrm>
           <a:off x="11906640" y="156960"/>
-          <a:ext cx="5064840" cy="2685240"/>
+          <a:ext cx="5064480" cy="2684880"/>
         </a:xfrm>
         <a:prstGeom prst="wedgeRoundRectCallout">
           <a:avLst>
@@ -6783,10 +6783,10 @@
     <tabColor rgb="FF9DC3E6"/>
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:E172"/>
+  <dimension ref="A1:F232"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="pageBreakPreview" topLeftCell="A150" colorId="64" zoomScale="80" zoomScaleNormal="85" zoomScalePageLayoutView="80" workbookViewId="0">
-      <selection pane="topLeft" activeCell="E171" activeCellId="0" sqref="E171"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="pageBreakPreview" topLeftCell="A133" colorId="64" zoomScale="80" zoomScaleNormal="85" zoomScalePageLayoutView="80" workbookViewId="0">
+      <selection pane="topLeft" activeCell="H25" activeCellId="0" sqref="H25"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.45703125" defaultRowHeight="16.5" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -6840,7 +6840,7 @@
       <c r="C6" s="5"/>
       <c r="D6" s="5"/>
     </row>
-    <row r="7" customFormat="false" ht="17" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="7" customFormat="false" ht="16.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A7" s="6" t="n">
         <v>1</v>
       </c>
@@ -6856,8 +6856,11 @@
       <c r="E7" s="1" t="s">
         <v>10</v>
       </c>
-    </row>
-    <row r="8" customFormat="false" ht="17" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="F7" s="1" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="8" customFormat="false" ht="16.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A8" s="6" t="n">
         <v>2</v>
       </c>
@@ -6871,8 +6874,11 @@
       <c r="E8" s="1" t="s">
         <v>10</v>
       </c>
-    </row>
-    <row r="9" customFormat="false" ht="17" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="F8" s="1" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="9" customFormat="false" ht="16.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A9" s="6" t="n">
         <v>3</v>
       </c>
@@ -6886,8 +6892,11 @@
       <c r="E9" s="1" t="n">
         <v>0</v>
       </c>
-    </row>
-    <row r="10" customFormat="false" ht="17" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="F9" s="1" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="10" customFormat="false" ht="16.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A10" s="6" t="n">
         <v>5</v>
       </c>
@@ -6903,8 +6912,11 @@
       <c r="E10" s="1" t="s">
         <v>10</v>
       </c>
-    </row>
-    <row r="11" customFormat="false" ht="17" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="F10" s="1" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="11" customFormat="false" ht="16.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A11" s="6" t="n">
         <v>6</v>
       </c>
@@ -6918,8 +6930,11 @@
       <c r="E11" s="1" t="n">
         <v>0</v>
       </c>
-    </row>
-    <row r="12" customFormat="false" ht="17" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="F11" s="1" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="12" customFormat="false" ht="16.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A12" s="6" t="n">
         <v>7</v>
       </c>
@@ -6933,8 +6948,11 @@
       <c r="E12" s="1" t="n">
         <v>0</v>
       </c>
-    </row>
-    <row r="13" customFormat="false" ht="17" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="F12" s="1" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="13" customFormat="false" ht="16.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A13" s="6" t="n">
         <v>8</v>
       </c>
@@ -6948,8 +6966,11 @@
       <c r="E13" s="1" t="n">
         <v>0</v>
       </c>
-    </row>
-    <row r="14" customFormat="false" ht="17" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="F13" s="1" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" customFormat="false" ht="16.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A14" s="6" t="n">
         <v>9</v>
       </c>
@@ -6963,8 +6984,11 @@
       <c r="E14" s="1" t="n">
         <v>0</v>
       </c>
-    </row>
-    <row r="15" customFormat="false" ht="17" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="F14" s="1" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="15" customFormat="false" ht="16.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A15" s="6" t="n">
         <v>10</v>
       </c>
@@ -6978,8 +7002,11 @@
       <c r="E15" s="1" t="n">
         <v>0</v>
       </c>
-    </row>
-    <row r="16" customFormat="false" ht="17" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="F15" s="1" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" customFormat="false" ht="16.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A16" s="6" t="n">
         <v>11</v>
       </c>
@@ -6993,8 +7020,11 @@
       <c r="E16" s="1" t="n">
         <v>0</v>
       </c>
-    </row>
-    <row r="17" customFormat="false" ht="17" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="F16" s="1" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="17" customFormat="false" ht="16.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A17" s="6" t="n">
         <v>12</v>
       </c>
@@ -7008,8 +7038,11 @@
       <c r="E17" s="1" t="n">
         <v>0</v>
       </c>
-    </row>
-    <row r="18" customFormat="false" ht="17" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="F17" s="1" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="18" customFormat="false" ht="16.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A18" s="6" t="n">
         <v>13</v>
       </c>
@@ -7023,8 +7056,11 @@
       <c r="E18" s="1" t="s">
         <v>10</v>
       </c>
-    </row>
-    <row r="19" customFormat="false" ht="17" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="F18" s="1" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="19" customFormat="false" ht="16.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A19" s="6" t="n">
         <v>14</v>
       </c>
@@ -7038,8 +7074,11 @@
       <c r="E19" s="1" t="n">
         <v>0</v>
       </c>
-    </row>
-    <row r="20" customFormat="false" ht="17" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="F19" s="1" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="20" customFormat="false" ht="16.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A20" s="6" t="n">
         <v>15</v>
       </c>
@@ -7053,8 +7092,11 @@
       <c r="E20" s="1" t="n">
         <v>0</v>
       </c>
-    </row>
-    <row r="21" customFormat="false" ht="17" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="F20" s="1" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="21" customFormat="false" ht="16.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A21" s="6" t="n">
         <v>16</v>
       </c>
@@ -7068,8 +7110,11 @@
       <c r="E21" s="1" t="s">
         <v>10</v>
       </c>
-    </row>
-    <row r="22" customFormat="false" ht="17" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="F21" s="1" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="22" customFormat="false" ht="16.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A22" s="6" t="n">
         <v>17</v>
       </c>
@@ -7083,8 +7128,11 @@
       <c r="E22" s="1" t="n">
         <v>0</v>
       </c>
-    </row>
-    <row r="23" customFormat="false" ht="17" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="F22" s="1" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="23" customFormat="false" ht="16.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A23" s="6" t="n">
         <v>18</v>
       </c>
@@ -7098,8 +7146,11 @@
       <c r="E23" s="1" t="n">
         <v>0</v>
       </c>
-    </row>
-    <row r="24" customFormat="false" ht="17" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="F23" s="1" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="24" customFormat="false" ht="16.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A24" s="6" t="n">
         <v>19</v>
       </c>
@@ -7113,8 +7164,11 @@
       <c r="E24" s="1" t="s">
         <v>10</v>
       </c>
-    </row>
-    <row r="25" customFormat="false" ht="17" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="F24" s="1" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="25" customFormat="false" ht="16.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A25" s="6" t="n">
         <v>20</v>
       </c>
@@ -7128,8 +7182,11 @@
       <c r="E25" s="1" t="s">
         <v>10</v>
       </c>
-    </row>
-    <row r="26" customFormat="false" ht="17" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="F25" s="1" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="26" customFormat="false" ht="16.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A26" s="6" t="n">
         <v>21</v>
       </c>
@@ -7143,8 +7200,11 @@
       <c r="E26" s="1" t="s">
         <v>10</v>
       </c>
-    </row>
-    <row r="27" customFormat="false" ht="17" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="F26" s="1" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="27" customFormat="false" ht="16.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A27" s="6" t="n">
         <v>22</v>
       </c>
@@ -7158,8 +7218,11 @@
       <c r="E27" s="1" t="s">
         <v>10</v>
       </c>
-    </row>
-    <row r="28" customFormat="false" ht="17" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="F27" s="1" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="28" customFormat="false" ht="16.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A28" s="6" t="n">
         <v>23</v>
       </c>
@@ -7173,8 +7236,11 @@
       <c r="E28" s="1" t="s">
         <v>10</v>
       </c>
-    </row>
-    <row r="29" customFormat="false" ht="17" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="F28" s="1" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="29" customFormat="false" ht="16.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A29" s="6" t="n">
         <v>24</v>
       </c>
@@ -7188,8 +7254,11 @@
       <c r="E29" s="1" t="n">
         <v>0</v>
       </c>
-    </row>
-    <row r="30" customFormat="false" ht="17" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="F29" s="1" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="30" customFormat="false" ht="16.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A30" s="6" t="n">
         <v>25</v>
       </c>
@@ -7203,8 +7272,11 @@
       <c r="E30" s="1" t="n">
         <v>0</v>
       </c>
-    </row>
-    <row r="31" customFormat="false" ht="17" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="F30" s="1" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31" customFormat="false" ht="16.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A31" s="6" t="n">
         <v>26</v>
       </c>
@@ -7218,8 +7290,11 @@
       <c r="E31" s="1" t="n">
         <v>0</v>
       </c>
-    </row>
-    <row r="32" customFormat="false" ht="17" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="F31" s="1" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32" customFormat="false" ht="16.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A32" s="6" t="n">
         <v>27</v>
       </c>
@@ -7235,8 +7310,11 @@
       <c r="E32" s="1" t="n">
         <v>0</v>
       </c>
-    </row>
-    <row r="33" customFormat="false" ht="17" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="F32" s="1" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="33" customFormat="false" ht="16.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A33" s="6" t="n">
         <v>28</v>
       </c>
@@ -7250,8 +7328,11 @@
       <c r="E33" s="1" t="s">
         <v>10</v>
       </c>
-    </row>
-    <row r="34" customFormat="false" ht="17" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="F33" s="1" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="34" customFormat="false" ht="16.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A34" s="6" t="n">
         <v>29</v>
       </c>
@@ -7265,8 +7346,11 @@
       <c r="E34" s="1" t="n">
         <v>0</v>
       </c>
-    </row>
-    <row r="35" customFormat="false" ht="17" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="F34" s="1" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35" customFormat="false" ht="16.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A35" s="6" t="n">
         <v>30</v>
       </c>
@@ -7280,8 +7364,11 @@
       <c r="E35" s="1" t="n">
         <v>0</v>
       </c>
-    </row>
-    <row r="36" customFormat="false" ht="17" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="F35" s="1" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="36" customFormat="false" ht="16.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A36" s="6" t="n">
         <v>31</v>
       </c>
@@ -7295,8 +7382,11 @@
       <c r="E36" s="1" t="n">
         <v>0</v>
       </c>
-    </row>
-    <row r="37" customFormat="false" ht="17" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="F36" s="1" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="37" customFormat="false" ht="16.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A37" s="6" t="n">
         <v>32</v>
       </c>
@@ -7310,8 +7400,11 @@
       <c r="E37" s="1" t="n">
         <v>0</v>
       </c>
-    </row>
-    <row r="38" customFormat="false" ht="17" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="F37" s="1" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="38" customFormat="false" ht="16.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A38" s="6" t="n">
         <v>33</v>
       </c>
@@ -7325,8 +7418,11 @@
       <c r="E38" s="1" t="n">
         <v>0</v>
       </c>
-    </row>
-    <row r="39" customFormat="false" ht="17" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="F38" s="1" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="39" customFormat="false" ht="16.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A39" s="6" t="n">
         <v>34</v>
       </c>
@@ -7340,8 +7436,11 @@
       <c r="E39" s="1" t="n">
         <v>0</v>
       </c>
-    </row>
-    <row r="40" customFormat="false" ht="17" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="F39" s="1" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="40" customFormat="false" ht="16.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A40" s="6" t="n">
         <v>35</v>
       </c>
@@ -7357,8 +7456,11 @@
       <c r="E40" s="1" t="n">
         <v>0</v>
       </c>
-    </row>
-    <row r="41" customFormat="false" ht="17" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="F40" s="1" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="41" customFormat="false" ht="16.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A41" s="6" t="n">
         <v>36</v>
       </c>
@@ -7372,8 +7474,11 @@
       <c r="E41" s="1" t="s">
         <v>10</v>
       </c>
-    </row>
-    <row r="42" customFormat="false" ht="17" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="F41" s="1" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="42" customFormat="false" ht="16.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A42" s="6" t="n">
         <v>37</v>
       </c>
@@ -7389,8 +7494,11 @@
       <c r="E42" s="1" t="s">
         <v>10</v>
       </c>
-    </row>
-    <row r="43" customFormat="false" ht="17" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="F42" s="1" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="43" customFormat="false" ht="16.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A43" s="6" t="n">
         <v>38</v>
       </c>
@@ -7404,8 +7512,11 @@
       <c r="E43" s="1" t="s">
         <v>10</v>
       </c>
-    </row>
-    <row r="44" customFormat="false" ht="17" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="F43" s="1" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="44" customFormat="false" ht="16.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A44" s="6" t="n">
         <v>39</v>
       </c>
@@ -7419,8 +7530,11 @@
       <c r="E44" s="1" t="n">
         <v>0</v>
       </c>
-    </row>
-    <row r="45" customFormat="false" ht="17" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="F44" s="1" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="45" customFormat="false" ht="16.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A45" s="6" t="n">
         <v>40</v>
       </c>
@@ -7434,8 +7548,11 @@
       <c r="E45" s="1" t="n">
         <v>0</v>
       </c>
-    </row>
-    <row r="46" customFormat="false" ht="17" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="F45" s="1" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="46" customFormat="false" ht="16.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A46" s="6" t="n">
         <v>41</v>
       </c>
@@ -7449,8 +7566,11 @@
       <c r="E46" s="1" t="n">
         <v>0</v>
       </c>
-    </row>
-    <row r="47" customFormat="false" ht="17" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="F46" s="1" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="47" customFormat="false" ht="16.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A47" s="6" t="n">
         <v>42</v>
       </c>
@@ -7464,8 +7584,11 @@
       <c r="E47" s="1" t="n">
         <v>0</v>
       </c>
-    </row>
-    <row r="48" customFormat="false" ht="17" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="F47" s="1" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="48" customFormat="false" ht="16.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A48" s="6" t="n">
         <v>43</v>
       </c>
@@ -7479,8 +7602,11 @@
       <c r="E48" s="1" t="s">
         <v>10</v>
       </c>
-    </row>
-    <row r="49" customFormat="false" ht="17" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="F48" s="1" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="49" customFormat="false" ht="16.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A49" s="6" t="n">
         <v>44</v>
       </c>
@@ -7494,8 +7620,11 @@
       <c r="E49" s="1" t="n">
         <v>0</v>
       </c>
-    </row>
-    <row r="50" customFormat="false" ht="17" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="F49" s="1" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="50" customFormat="false" ht="16.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A50" s="6" t="n">
         <v>45</v>
       </c>
@@ -7509,8 +7638,11 @@
       <c r="E50" s="1" t="n">
         <v>0</v>
       </c>
-    </row>
-    <row r="51" customFormat="false" ht="17" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="F50" s="1" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="51" customFormat="false" ht="16.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A51" s="6" t="n">
         <v>46</v>
       </c>
@@ -7524,8 +7656,11 @@
       <c r="E51" s="1" t="n">
         <v>0</v>
       </c>
-    </row>
-    <row r="52" customFormat="false" ht="17" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="F51" s="1" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="52" customFormat="false" ht="16.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A52" s="6" t="n">
         <v>47</v>
       </c>
@@ -7539,8 +7674,11 @@
       <c r="E52" s="1" t="s">
         <v>10</v>
       </c>
-    </row>
-    <row r="53" customFormat="false" ht="17" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="F52" s="1" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="53" customFormat="false" ht="16.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A53" s="6" t="n">
         <v>48</v>
       </c>
@@ -7554,8 +7692,11 @@
       <c r="E53" s="1" t="n">
         <v>0</v>
       </c>
-    </row>
-    <row r="54" customFormat="false" ht="17" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="F53" s="1" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="54" customFormat="false" ht="16.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A54" s="6" t="n">
         <v>49</v>
       </c>
@@ -7571,8 +7712,11 @@
       <c r="E54" s="1" t="n">
         <v>0</v>
       </c>
-    </row>
-    <row r="55" customFormat="false" ht="17" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="F54" s="1" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="55" customFormat="false" ht="16.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A55" s="6" t="n">
         <v>50</v>
       </c>
@@ -7586,8 +7730,11 @@
       <c r="E55" s="1" t="n">
         <v>0</v>
       </c>
-    </row>
-    <row r="56" customFormat="false" ht="17" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="F55" s="1" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="56" customFormat="false" ht="16.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A56" s="6" t="n">
         <v>51</v>
       </c>
@@ -7601,8 +7748,11 @@
       <c r="E56" s="1" t="n">
         <v>0</v>
       </c>
-    </row>
-    <row r="57" customFormat="false" ht="17" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="F56" s="1" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="57" customFormat="false" ht="16.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A57" s="6" t="n">
         <v>52</v>
       </c>
@@ -7616,8 +7766,11 @@
       <c r="E57" s="1" t="n">
         <v>0</v>
       </c>
-    </row>
-    <row r="58" customFormat="false" ht="17" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="F57" s="1" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="58" customFormat="false" ht="16.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A58" s="6" t="n">
         <v>53</v>
       </c>
@@ -7631,8 +7784,11 @@
       <c r="E58" s="1" t="s">
         <v>10</v>
       </c>
-    </row>
-    <row r="59" customFormat="false" ht="17" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="F58" s="1" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="59" customFormat="false" ht="16.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A59" s="6" t="n">
         <v>54</v>
       </c>
@@ -7646,8 +7802,11 @@
       <c r="E59" s="1" t="n">
         <v>0</v>
       </c>
-    </row>
-    <row r="60" customFormat="false" ht="17" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="F59" s="1" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="60" customFormat="false" ht="16.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A60" s="6" t="n">
         <v>55</v>
       </c>
@@ -7663,8 +7822,11 @@
       <c r="E60" s="1" t="n">
         <v>0</v>
       </c>
-    </row>
-    <row r="61" customFormat="false" ht="17" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="F60" s="1" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="61" customFormat="false" ht="16.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A61" s="6" t="n">
         <v>56</v>
       </c>
@@ -7678,8 +7840,11 @@
       <c r="E61" s="1" t="n">
         <v>0</v>
       </c>
-    </row>
-    <row r="62" customFormat="false" ht="17" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="F61" s="1" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="62" customFormat="false" ht="16.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A62" s="6" t="n">
         <v>57</v>
       </c>
@@ -7693,8 +7858,11 @@
       <c r="E62" s="1" t="n">
         <v>0</v>
       </c>
-    </row>
-    <row r="63" customFormat="false" ht="17" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="F62" s="1" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="63" customFormat="false" ht="16.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A63" s="6" t="n">
         <v>58</v>
       </c>
@@ -7708,8 +7876,11 @@
       <c r="E63" s="1" t="n">
         <v>0</v>
       </c>
-    </row>
-    <row r="64" customFormat="false" ht="17" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="F63" s="1" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="64" customFormat="false" ht="16.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A64" s="6" t="n">
         <v>59</v>
       </c>
@@ -7723,8 +7894,11 @@
       <c r="E64" s="1" t="s">
         <v>10</v>
       </c>
-    </row>
-    <row r="65" customFormat="false" ht="17" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="F64" s="1" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="65" customFormat="false" ht="16.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A65" s="6" t="n">
         <v>60</v>
       </c>
@@ -7738,8 +7912,11 @@
       <c r="E65" s="1" t="s">
         <v>10</v>
       </c>
-    </row>
-    <row r="66" customFormat="false" ht="17" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="F65" s="1" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="66" customFormat="false" ht="16.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A66" s="6" t="n">
         <v>61</v>
       </c>
@@ -7753,8 +7930,11 @@
       <c r="E66" s="1" t="n">
         <v>0</v>
       </c>
-    </row>
-    <row r="67" customFormat="false" ht="17" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="F66" s="1" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="67" customFormat="false" ht="16.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A67" s="6" t="n">
         <v>62</v>
       </c>
@@ -7768,8 +7948,11 @@
       <c r="E67" s="1" t="n">
         <v>0</v>
       </c>
-    </row>
-    <row r="68" customFormat="false" ht="17" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="F67" s="1" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="68" customFormat="false" ht="16.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A68" s="6" t="n">
         <v>63</v>
       </c>
@@ -7783,8 +7966,11 @@
       <c r="E68" s="1" t="n">
         <v>0</v>
       </c>
-    </row>
-    <row r="69" customFormat="false" ht="17" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="F68" s="1" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="69" customFormat="false" ht="16.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A69" s="6" t="n">
         <v>64</v>
       </c>
@@ -7798,8 +7984,11 @@
       <c r="E69" s="1" t="n">
         <v>0</v>
       </c>
-    </row>
-    <row r="70" customFormat="false" ht="17" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="F69" s="1" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="70" customFormat="false" ht="16.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A70" s="6" t="n">
         <v>65</v>
       </c>
@@ -7813,8 +8002,11 @@
       <c r="E70" s="1" t="s">
         <v>10</v>
       </c>
-    </row>
-    <row r="71" customFormat="false" ht="17" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="F70" s="1" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="71" customFormat="false" ht="16.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A71" s="6" t="n">
         <v>66</v>
       </c>
@@ -7828,8 +8020,11 @@
       <c r="E71" s="1" t="s">
         <v>10</v>
       </c>
-    </row>
-    <row r="72" customFormat="false" ht="17" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="F71" s="1" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="72" customFormat="false" ht="16.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A72" s="6" t="n">
         <v>67</v>
       </c>
@@ -7843,8 +8038,11 @@
       <c r="E72" s="1" t="n">
         <v>0</v>
       </c>
-    </row>
-    <row r="73" customFormat="false" ht="17" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="F72" s="1" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="73" customFormat="false" ht="16.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A73" s="6" t="n">
         <v>68</v>
       </c>
@@ -7860,8 +8058,11 @@
       <c r="E73" s="1" t="n">
         <v>0</v>
       </c>
-    </row>
-    <row r="74" customFormat="false" ht="17" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="F73" s="1" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="74" customFormat="false" ht="16.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A74" s="6" t="n">
         <v>69</v>
       </c>
@@ -7875,8 +8076,11 @@
       <c r="E74" s="1" t="n">
         <v>0</v>
       </c>
-    </row>
-    <row r="75" customFormat="false" ht="17" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="F74" s="1" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="75" customFormat="false" ht="16.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A75" s="6" t="n">
         <v>70</v>
       </c>
@@ -7890,8 +8094,11 @@
       <c r="E75" s="1" t="n">
         <v>0</v>
       </c>
-    </row>
-    <row r="76" customFormat="false" ht="17" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="F75" s="1" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="76" customFormat="false" ht="16.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A76" s="6" t="n">
         <v>71</v>
       </c>
@@ -7905,8 +8112,11 @@
       <c r="E76" s="1" t="n">
         <v>0</v>
       </c>
-    </row>
-    <row r="77" customFormat="false" ht="17" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="F76" s="1" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="77" customFormat="false" ht="16.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A77" s="6" t="n">
         <v>72</v>
       </c>
@@ -7920,8 +8130,11 @@
       <c r="E77" s="1" t="n">
         <v>0</v>
       </c>
-    </row>
-    <row r="78" customFormat="false" ht="17" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="F77" s="1" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="78" customFormat="false" ht="16.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A78" s="6" t="n">
         <v>73</v>
       </c>
@@ -7935,8 +8148,11 @@
       <c r="E78" s="1" t="s">
         <v>10</v>
       </c>
-    </row>
-    <row r="79" customFormat="false" ht="17" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="F78" s="1" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="79" customFormat="false" ht="16.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A79" s="6" t="n">
         <v>74</v>
       </c>
@@ -7950,8 +8166,11 @@
       <c r="E79" s="1" t="n">
         <v>0</v>
       </c>
-    </row>
-    <row r="80" customFormat="false" ht="17" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="F79" s="1" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="80" customFormat="false" ht="16.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A80" s="6" t="n">
         <v>75</v>
       </c>
@@ -7965,8 +8184,11 @@
       <c r="E80" s="1" t="s">
         <v>10</v>
       </c>
-    </row>
-    <row r="81" customFormat="false" ht="17" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="F80" s="1" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="81" customFormat="false" ht="16.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A81" s="6" t="n">
         <v>76</v>
       </c>
@@ -7982,8 +8204,11 @@
       <c r="E81" s="1" t="s">
         <v>10</v>
       </c>
-    </row>
-    <row r="82" customFormat="false" ht="17" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="F81" s="1" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="82" customFormat="false" ht="16.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A82" s="6" t="n">
         <v>77</v>
       </c>
@@ -7999,8 +8224,11 @@
       <c r="E82" s="1" t="n">
         <v>0</v>
       </c>
-    </row>
-    <row r="83" customFormat="false" ht="17" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="F82" s="1" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="83" customFormat="false" ht="16.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A83" s="6" t="n">
         <v>78</v>
       </c>
@@ -8014,8 +8242,11 @@
       <c r="E83" s="1" t="s">
         <v>10</v>
       </c>
-    </row>
-    <row r="84" customFormat="false" ht="17" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="F83" s="1" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="84" customFormat="false" ht="16.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A84" s="6" t="n">
         <v>79</v>
       </c>
@@ -8029,8 +8260,11 @@
       <c r="E84" s="1" t="s">
         <v>10</v>
       </c>
-    </row>
-    <row r="85" customFormat="false" ht="17" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="F84" s="1" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="85" customFormat="false" ht="16.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A85" s="6" t="n">
         <v>80</v>
       </c>
@@ -8044,8 +8278,11 @@
       <c r="E85" s="1" t="s">
         <v>10</v>
       </c>
-    </row>
-    <row r="86" customFormat="false" ht="17" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="F85" s="1" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="86" customFormat="false" ht="16.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A86" s="6" t="n">
         <v>81</v>
       </c>
@@ -8059,8 +8296,11 @@
       <c r="E86" s="1" t="n">
         <v>0</v>
       </c>
-    </row>
-    <row r="87" customFormat="false" ht="17" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="F86" s="1" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="87" customFormat="false" ht="16.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A87" s="6" t="n">
         <v>82</v>
       </c>
@@ -8074,8 +8314,11 @@
       <c r="E87" s="1" t="n">
         <v>0</v>
       </c>
-    </row>
-    <row r="88" customFormat="false" ht="17" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="F87" s="1" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="88" customFormat="false" ht="16.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A88" s="6" t="n">
         <v>83</v>
       </c>
@@ -8091,8 +8334,11 @@
       <c r="E88" s="1" t="n">
         <v>0</v>
       </c>
-    </row>
-    <row r="89" customFormat="false" ht="17" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="F88" s="1" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="89" customFormat="false" ht="16.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A89" s="6" t="n">
         <v>84</v>
       </c>
@@ -8106,8 +8352,11 @@
       <c r="E89" s="1" t="n">
         <v>0</v>
       </c>
-    </row>
-    <row r="90" customFormat="false" ht="17" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="F89" s="1" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="90" customFormat="false" ht="16.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A90" s="6" t="n">
         <v>85</v>
       </c>
@@ -8121,8 +8370,11 @@
       <c r="E90" s="1" t="n">
         <v>0</v>
       </c>
-    </row>
-    <row r="91" customFormat="false" ht="17" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="F90" s="1" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="91" customFormat="false" ht="16.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A91" s="6" t="n">
         <v>86</v>
       </c>
@@ -8136,8 +8388,11 @@
       <c r="E91" s="1" t="s">
         <v>10</v>
       </c>
-    </row>
-    <row r="92" customFormat="false" ht="17" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="F91" s="1" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="92" customFormat="false" ht="16.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A92" s="6" t="n">
         <v>87</v>
       </c>
@@ -8151,8 +8406,11 @@
       <c r="E92" s="1" t="s">
         <v>10</v>
       </c>
-    </row>
-    <row r="93" customFormat="false" ht="17" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="F92" s="1" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="93" customFormat="false" ht="16.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A93" s="6" t="n">
         <v>88</v>
       </c>
@@ -8166,8 +8424,11 @@
       <c r="E93" s="1" t="s">
         <v>10</v>
       </c>
-    </row>
-    <row r="94" customFormat="false" ht="17" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="F93" s="1" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="94" customFormat="false" ht="16.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A94" s="6" t="n">
         <v>89</v>
       </c>
@@ -8183,8 +8444,11 @@
       <c r="E94" s="1" t="n">
         <v>0</v>
       </c>
-    </row>
-    <row r="95" customFormat="false" ht="17" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="F94" s="1" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="95" customFormat="false" ht="16.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A95" s="6" t="n">
         <v>90</v>
       </c>
@@ -8198,8 +8462,11 @@
       <c r="E95" s="1" t="n">
         <v>0</v>
       </c>
-    </row>
-    <row r="96" customFormat="false" ht="17" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="F95" s="1" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="96" customFormat="false" ht="16.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A96" s="6" t="n">
         <v>91</v>
       </c>
@@ -8213,8 +8480,11 @@
       <c r="E96" s="1" t="n">
         <v>0</v>
       </c>
-    </row>
-    <row r="97" customFormat="false" ht="17" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="F96" s="1" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="97" customFormat="false" ht="16.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A97" s="6" t="n">
         <v>92</v>
       </c>
@@ -8228,8 +8498,11 @@
       <c r="E97" s="1" t="n">
         <v>0</v>
       </c>
-    </row>
-    <row r="98" customFormat="false" ht="17" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="F97" s="1" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="98" customFormat="false" ht="16.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A98" s="6" t="n">
         <v>93</v>
       </c>
@@ -8243,8 +8516,11 @@
       <c r="E98" s="1" t="n">
         <v>0</v>
       </c>
-    </row>
-    <row r="99" customFormat="false" ht="17" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="F98" s="1" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="99" customFormat="false" ht="16.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A99" s="6" t="n">
         <v>94</v>
       </c>
@@ -8258,8 +8534,11 @@
       <c r="E99" s="1" t="n">
         <v>0</v>
       </c>
-    </row>
-    <row r="100" customFormat="false" ht="17" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="F99" s="1" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="100" customFormat="false" ht="16.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A100" s="6" t="n">
         <v>95</v>
       </c>
@@ -8273,8 +8552,11 @@
       <c r="E100" s="1" t="n">
         <v>0</v>
       </c>
-    </row>
-    <row r="101" customFormat="false" ht="17" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="F100" s="1" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="101" customFormat="false" ht="16.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A101" s="6" t="n">
         <v>96</v>
       </c>
@@ -8288,8 +8570,11 @@
       <c r="E101" s="1" t="s">
         <v>10</v>
       </c>
-    </row>
-    <row r="102" customFormat="false" ht="17" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="F101" s="1" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="102" customFormat="false" ht="16.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A102" s="6" t="n">
         <v>97</v>
       </c>
@@ -8305,8 +8590,11 @@
       <c r="E102" s="1" t="n">
         <v>0</v>
       </c>
-    </row>
-    <row r="103" customFormat="false" ht="17" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="F102" s="1" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="103" customFormat="false" ht="16.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A103" s="6" t="n">
         <v>98</v>
       </c>
@@ -8320,8 +8608,11 @@
       <c r="E103" s="1" t="n">
         <v>0</v>
       </c>
-    </row>
-    <row r="104" customFormat="false" ht="17" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="F103" s="1" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="104" customFormat="false" ht="16.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A104" s="6" t="n">
         <v>99</v>
       </c>
@@ -8335,8 +8626,11 @@
       <c r="E104" s="1" t="s">
         <v>10</v>
       </c>
-    </row>
-    <row r="105" customFormat="false" ht="17" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="F104" s="1" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="105" customFormat="false" ht="16.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A105" s="6" t="n">
         <v>100</v>
       </c>
@@ -8350,8 +8644,11 @@
       <c r="E105" s="1" t="n">
         <v>0</v>
       </c>
-    </row>
-    <row r="106" customFormat="false" ht="17" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="F105" s="1" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="106" customFormat="false" ht="16.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A106" s="6" t="n">
         <v>101</v>
       </c>
@@ -8367,8 +8664,11 @@
       <c r="E106" s="1" t="s">
         <v>10</v>
       </c>
-    </row>
-    <row r="107" customFormat="false" ht="17" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="F106" s="1" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="107" customFormat="false" ht="16.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A107" s="6" t="n">
         <v>102</v>
       </c>
@@ -8382,8 +8682,11 @@
       <c r="E107" s="1" t="s">
         <v>10</v>
       </c>
-    </row>
-    <row r="108" customFormat="false" ht="17" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="F107" s="1" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="108" customFormat="false" ht="16.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A108" s="6" t="n">
         <v>103</v>
       </c>
@@ -8399,8 +8702,11 @@
       <c r="E108" s="1" t="s">
         <v>10</v>
       </c>
-    </row>
-    <row r="109" customFormat="false" ht="17" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="F108" s="1" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="109" customFormat="false" ht="16.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A109" s="6" t="n">
         <v>104</v>
       </c>
@@ -8414,8 +8720,11 @@
       <c r="E109" s="1" t="n">
         <v>0</v>
       </c>
-    </row>
-    <row r="110" customFormat="false" ht="17" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="F109" s="1" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="110" customFormat="false" ht="16.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A110" s="6" t="n">
         <v>105</v>
       </c>
@@ -8429,8 +8738,11 @@
       <c r="E110" s="1" t="s">
         <v>10</v>
       </c>
-    </row>
-    <row r="111" customFormat="false" ht="17" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="F110" s="1" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="111" customFormat="false" ht="16.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A111" s="6" t="n">
         <v>106</v>
       </c>
@@ -8444,8 +8756,11 @@
       <c r="E111" s="1" t="s">
         <v>10</v>
       </c>
-    </row>
-    <row r="112" customFormat="false" ht="17" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="F111" s="1" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="112" customFormat="false" ht="16.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A112" s="6" t="n">
         <v>107</v>
       </c>
@@ -8459,8 +8774,11 @@
       <c r="E112" s="1" t="s">
         <v>10</v>
       </c>
-    </row>
-    <row r="113" customFormat="false" ht="17" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="F112" s="1" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="113" customFormat="false" ht="16.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A113" s="6" t="n">
         <v>108</v>
       </c>
@@ -8474,8 +8792,11 @@
       <c r="E113" s="1" t="s">
         <v>10</v>
       </c>
-    </row>
-    <row r="114" customFormat="false" ht="17" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="F113" s="1" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="114" customFormat="false" ht="16.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A114" s="6" t="n">
         <v>109</v>
       </c>
@@ -8491,8 +8812,11 @@
       <c r="E114" s="1" t="s">
         <v>10</v>
       </c>
-    </row>
-    <row r="115" customFormat="false" ht="17" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="F114" s="1" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="115" customFormat="false" ht="16.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A115" s="6" t="n">
         <v>110</v>
       </c>
@@ -8506,8 +8830,11 @@
       <c r="E115" s="1" t="s">
         <v>10</v>
       </c>
-    </row>
-    <row r="116" customFormat="false" ht="17" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="F115" s="1" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="116" customFormat="false" ht="16.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A116" s="6" t="n">
         <v>111</v>
       </c>
@@ -8521,8 +8848,11 @@
       <c r="E116" s="1" t="s">
         <v>10</v>
       </c>
-    </row>
-    <row r="117" customFormat="false" ht="17" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="F116" s="1" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="117" customFormat="false" ht="16.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A117" s="6" t="n">
         <v>112</v>
       </c>
@@ -8536,8 +8866,11 @@
       <c r="E117" s="1" t="n">
         <v>0</v>
       </c>
-    </row>
-    <row r="118" customFormat="false" ht="17" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="F117" s="1" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="118" customFormat="false" ht="16.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A118" s="6" t="n">
         <v>113</v>
       </c>
@@ -8551,8 +8884,11 @@
       <c r="E118" s="1" t="s">
         <v>10</v>
       </c>
-    </row>
-    <row r="119" customFormat="false" ht="17" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="F118" s="1" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="119" customFormat="false" ht="16.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A119" s="6" t="n">
         <v>114</v>
       </c>
@@ -8568,8 +8904,11 @@
       <c r="E119" s="1" t="n">
         <v>0</v>
       </c>
-    </row>
-    <row r="120" customFormat="false" ht="17" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="F119" s="1" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="120" customFormat="false" ht="16.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A120" s="6" t="n">
         <v>115</v>
       </c>
@@ -8583,8 +8922,11 @@
       <c r="E120" s="1" t="s">
         <v>10</v>
       </c>
-    </row>
-    <row r="121" customFormat="false" ht="17" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="F120" s="1" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="121" customFormat="false" ht="16.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A121" s="6" t="n">
         <v>116</v>
       </c>
@@ -8598,8 +8940,11 @@
       <c r="E121" s="1" t="s">
         <v>10</v>
       </c>
-    </row>
-    <row r="122" customFormat="false" ht="17" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="F121" s="1" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="122" customFormat="false" ht="16.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A122" s="6" t="n">
         <v>117</v>
       </c>
@@ -8613,8 +8958,11 @@
       <c r="E122" s="1" t="s">
         <v>10</v>
       </c>
-    </row>
-    <row r="123" customFormat="false" ht="17" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="F122" s="1" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="123" customFormat="false" ht="16.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A123" s="6" t="n">
         <v>118</v>
       </c>
@@ -8628,8 +8976,11 @@
       <c r="E123" s="1" t="s">
         <v>10</v>
       </c>
-    </row>
-    <row r="124" customFormat="false" ht="17" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="F123" s="1" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="124" customFormat="false" ht="16.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A124" s="6" t="n">
         <v>119</v>
       </c>
@@ -8645,8 +8996,11 @@
       <c r="E124" s="1" t="n">
         <v>0</v>
       </c>
-    </row>
-    <row r="125" customFormat="false" ht="17" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="F124" s="1" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="125" customFormat="false" ht="16.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A125" s="6" t="n">
         <v>120</v>
       </c>
@@ -8660,8 +9014,11 @@
       <c r="E125" s="1" t="n">
         <v>0</v>
       </c>
-    </row>
-    <row r="126" customFormat="false" ht="17" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="F125" s="1" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="126" customFormat="false" ht="16.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A126" s="6" t="n">
         <v>121</v>
       </c>
@@ -8675,8 +9032,11 @@
       <c r="E126" s="1" t="n">
         <v>0</v>
       </c>
-    </row>
-    <row r="127" customFormat="false" ht="17" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="F126" s="1" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="127" customFormat="false" ht="16.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A127" s="6" t="n">
         <v>122</v>
       </c>
@@ -8690,8 +9050,11 @@
       <c r="E127" s="1" t="s">
         <v>10</v>
       </c>
-    </row>
-    <row r="128" customFormat="false" ht="17" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="F127" s="1" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="128" customFormat="false" ht="16.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A128" s="6" t="n">
         <v>123</v>
       </c>
@@ -8705,8 +9068,11 @@
       <c r="E128" s="1" t="s">
         <v>10</v>
       </c>
-    </row>
-    <row r="129" customFormat="false" ht="17" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="F128" s="1" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="129" customFormat="false" ht="16.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A129" s="6" t="n">
         <v>124</v>
       </c>
@@ -8720,8 +9086,11 @@
       <c r="E129" s="1" t="n">
         <v>0</v>
       </c>
-    </row>
-    <row r="130" customFormat="false" ht="17" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="F129" s="1" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="130" customFormat="false" ht="16.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A130" s="6" t="n">
         <v>125</v>
       </c>
@@ -8735,8 +9104,11 @@
       <c r="E130" s="1" t="s">
         <v>10</v>
       </c>
-    </row>
-    <row r="131" customFormat="false" ht="17" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="F130" s="1" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="131" customFormat="false" ht="16.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A131" s="6" t="n">
         <v>126</v>
       </c>
@@ -8750,8 +9122,11 @@
       <c r="E131" s="1" t="s">
         <v>10</v>
       </c>
-    </row>
-    <row r="132" customFormat="false" ht="17" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="F131" s="1" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="132" customFormat="false" ht="16.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A132" s="6" t="n">
         <v>127</v>
       </c>
@@ -8765,8 +9140,11 @@
       <c r="E132" s="1" t="s">
         <v>10</v>
       </c>
-    </row>
-    <row r="133" customFormat="false" ht="17" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="F132" s="1" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="133" customFormat="false" ht="16.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A133" s="6" t="n">
         <v>128</v>
       </c>
@@ -8780,8 +9158,11 @@
       <c r="E133" s="1" t="s">
         <v>10</v>
       </c>
-    </row>
-    <row r="134" customFormat="false" ht="17" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="F133" s="1" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="134" customFormat="false" ht="16.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A134" s="6" t="n">
         <v>129</v>
       </c>
@@ -8795,8 +9176,11 @@
       <c r="E134" s="1" t="n">
         <v>0</v>
       </c>
-    </row>
-    <row r="135" customFormat="false" ht="17" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="F134" s="1" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="135" customFormat="false" ht="16.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A135" s="6" t="n">
         <v>130</v>
       </c>
@@ -8810,8 +9194,11 @@
       <c r="E135" s="1" t="n">
         <v>0</v>
       </c>
-    </row>
-    <row r="136" customFormat="false" ht="17" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="F135" s="1" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="136" customFormat="false" ht="16.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A136" s="6" t="n">
         <v>131</v>
       </c>
@@ -8825,8 +9212,11 @@
       <c r="E136" s="1" t="s">
         <v>10</v>
       </c>
-    </row>
-    <row r="137" customFormat="false" ht="17" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="F136" s="1" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="137" customFormat="false" ht="16.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A137" s="6" t="n">
         <v>132</v>
       </c>
@@ -8840,8 +9230,11 @@
       <c r="E137" s="1" t="n">
         <v>0</v>
       </c>
-    </row>
-    <row r="138" customFormat="false" ht="17" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="F137" s="1" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="138" customFormat="false" ht="16.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A138" s="6" t="n">
         <v>133</v>
       </c>
@@ -8855,8 +9248,11 @@
       <c r="E138" s="1" t="n">
         <v>0</v>
       </c>
-    </row>
-    <row r="139" customFormat="false" ht="17" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="F138" s="1" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="139" customFormat="false" ht="16.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A139" s="6" t="n">
         <v>134</v>
       </c>
@@ -8872,8 +9268,11 @@
       <c r="E139" s="1" t="s">
         <v>10</v>
       </c>
-    </row>
-    <row r="140" customFormat="false" ht="17" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="F139" s="1" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="140" customFormat="false" ht="16.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A140" s="6" t="n">
         <v>135</v>
       </c>
@@ -8887,8 +9286,11 @@
       <c r="E140" s="1" t="s">
         <v>10</v>
       </c>
-    </row>
-    <row r="141" customFormat="false" ht="17" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="F140" s="1" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="141" customFormat="false" ht="16.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A141" s="6" t="n">
         <v>136</v>
       </c>
@@ -8902,8 +9304,11 @@
       <c r="E141" s="1" t="s">
         <v>10</v>
       </c>
-    </row>
-    <row r="142" customFormat="false" ht="17" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="F141" s="1" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="142" customFormat="false" ht="16.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A142" s="6" t="n">
         <v>137</v>
       </c>
@@ -8919,8 +9324,11 @@
       <c r="E142" s="1" t="s">
         <v>10</v>
       </c>
-    </row>
-    <row r="143" customFormat="false" ht="17" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="F142" s="1" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="143" customFormat="false" ht="16.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A143" s="6" t="n">
         <v>138</v>
       </c>
@@ -8934,8 +9342,11 @@
       <c r="E143" s="1" t="s">
         <v>10</v>
       </c>
-    </row>
-    <row r="144" customFormat="false" ht="17" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="F143" s="1" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="144" customFormat="false" ht="16.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A144" s="6" t="n">
         <v>139</v>
       </c>
@@ -8949,8 +9360,11 @@
       <c r="E144" s="1" t="s">
         <v>10</v>
       </c>
-    </row>
-    <row r="145" customFormat="false" ht="17" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="F144" s="1" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="145" customFormat="false" ht="16.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A145" s="6" t="n">
         <v>140</v>
       </c>
@@ -8964,8 +9378,11 @@
       <c r="E145" s="1" t="s">
         <v>10</v>
       </c>
-    </row>
-    <row r="146" customFormat="false" ht="17" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="F145" s="1" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="146" customFormat="false" ht="16.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A146" s="6" t="n">
         <v>141</v>
       </c>
@@ -8979,8 +9396,11 @@
       <c r="E146" s="1" t="s">
         <v>10</v>
       </c>
-    </row>
-    <row r="147" customFormat="false" ht="17" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="F146" s="1" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="147" customFormat="false" ht="16.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A147" s="6" t="n">
         <v>142</v>
       </c>
@@ -8994,8 +9414,11 @@
       <c r="E147" s="1" t="s">
         <v>10</v>
       </c>
-    </row>
-    <row r="148" customFormat="false" ht="17" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="F147" s="1" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="148" customFormat="false" ht="16.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A148" s="6" t="n">
         <v>143</v>
       </c>
@@ -9011,8 +9434,11 @@
       <c r="E148" s="1" t="s">
         <v>10</v>
       </c>
-    </row>
-    <row r="149" customFormat="false" ht="17" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="F148" s="1" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="149" customFormat="false" ht="16.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A149" s="6" t="n">
         <v>144</v>
       </c>
@@ -9026,8 +9452,11 @@
       <c r="E149" s="1" t="n">
         <v>0</v>
       </c>
-    </row>
-    <row r="150" customFormat="false" ht="17" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="F149" s="1" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="150" customFormat="false" ht="16.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A150" s="6" t="n">
         <v>145</v>
       </c>
@@ -9041,8 +9470,11 @@
       <c r="E150" s="1" t="s">
         <v>10</v>
       </c>
-    </row>
-    <row r="151" customFormat="false" ht="17" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="F150" s="1" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="151" customFormat="false" ht="16.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A151" s="6" t="n">
         <v>146</v>
       </c>
@@ -9058,8 +9490,11 @@
       <c r="E151" s="1" t="s">
         <v>10</v>
       </c>
-    </row>
-    <row r="152" customFormat="false" ht="17" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="F151" s="1" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="152" customFormat="false" ht="16.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A152" s="6" t="n">
         <v>147</v>
       </c>
@@ -9073,8 +9508,11 @@
       <c r="E152" s="1" t="s">
         <v>10</v>
       </c>
-    </row>
-    <row r="153" customFormat="false" ht="17" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="F152" s="1" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="153" customFormat="false" ht="16.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A153" s="6" t="n">
         <v>148</v>
       </c>
@@ -9088,8 +9526,11 @@
       <c r="E153" s="1" t="s">
         <v>10</v>
       </c>
-    </row>
-    <row r="154" customFormat="false" ht="17" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="F153" s="1" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="154" customFormat="false" ht="16.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A154" s="6" t="n">
         <v>149</v>
       </c>
@@ -9103,8 +9544,11 @@
       <c r="E154" s="1" t="s">
         <v>10</v>
       </c>
-    </row>
-    <row r="155" customFormat="false" ht="16.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="F154" s="1" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="155" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A155" s="6" t="n">
         <v>150</v>
       </c>
@@ -9118,8 +9562,11 @@
       <c r="E155" s="1" t="s">
         <v>10</v>
       </c>
-    </row>
-    <row r="156" customFormat="false" ht="16.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="F155" s="1" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="156" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A156" s="6" t="n">
         <v>151</v>
       </c>
@@ -9131,8 +9578,11 @@
       <c r="E156" s="1" t="s">
         <v>10</v>
       </c>
-    </row>
-    <row r="157" customFormat="false" ht="16.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="F156" s="1" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="157" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A157" s="6" t="n">
         <v>152</v>
       </c>
@@ -9144,8 +9594,11 @@
       <c r="E157" s="1" t="s">
         <v>10</v>
       </c>
-    </row>
-    <row r="158" customFormat="false" ht="16.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="F157" s="1" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="158" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A158" s="6" t="n">
         <v>153</v>
       </c>
@@ -9157,8 +9610,11 @@
       <c r="E158" s="1" t="s">
         <v>10</v>
       </c>
-    </row>
-    <row r="159" customFormat="false" ht="16.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="F158" s="1" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="159" customFormat="false" ht="16.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A159" s="6" t="n">
         <v>154</v>
       </c>
@@ -9170,8 +9626,11 @@
       <c r="E159" s="1" t="s">
         <v>10</v>
       </c>
-    </row>
-    <row r="160" customFormat="false" ht="16.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="F159" s="1" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="160" customFormat="false" ht="16.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A160" s="6" t="n">
         <v>155</v>
       </c>
@@ -9183,8 +9642,11 @@
       <c r="E160" s="1" t="s">
         <v>10</v>
       </c>
-    </row>
-    <row r="161" customFormat="false" ht="16.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="F160" s="1" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="161" customFormat="false" ht="16.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A161" s="6" t="n">
         <v>156</v>
       </c>
@@ -9196,8 +9658,11 @@
       <c r="E161" s="1" t="s">
         <v>10</v>
       </c>
-    </row>
-    <row r="162" customFormat="false" ht="16.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="F161" s="1" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="162" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A162" s="6" t="n">
         <v>157</v>
       </c>
@@ -9209,8 +9674,11 @@
       <c r="E162" s="1" t="s">
         <v>10</v>
       </c>
-    </row>
-    <row r="163" customFormat="false" ht="16.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="F162" s="1" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="163" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A163" s="6" t="n">
         <v>158</v>
       </c>
@@ -9224,8 +9692,11 @@
       <c r="E163" s="1" t="s">
         <v>10</v>
       </c>
-    </row>
-    <row r="164" customFormat="false" ht="16.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="F163" s="1" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="164" customFormat="false" ht="16.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A164" s="6" t="n">
         <v>159</v>
       </c>
@@ -9237,8 +9708,11 @@
       <c r="E164" s="1" t="s">
         <v>10</v>
       </c>
-    </row>
-    <row r="165" customFormat="false" ht="16.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="F164" s="1" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="165" customFormat="false" ht="16.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A165" s="6" t="n">
         <v>160</v>
       </c>
@@ -9250,8 +9724,11 @@
       <c r="E165" s="1" t="s">
         <v>10</v>
       </c>
-    </row>
-    <row r="166" customFormat="false" ht="16.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="F165" s="1" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="166" customFormat="false" ht="16.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A166" s="6" t="n">
         <v>161</v>
       </c>
@@ -9263,8 +9740,11 @@
       <c r="E166" s="1" t="s">
         <v>10</v>
       </c>
-    </row>
-    <row r="167" customFormat="false" ht="16.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="F166" s="1" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="167" customFormat="false" ht="16.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A167" s="6" t="n">
         <v>162</v>
       </c>
@@ -9276,8 +9756,11 @@
       <c r="E167" s="1" t="s">
         <v>10</v>
       </c>
-    </row>
-    <row r="168" customFormat="false" ht="16.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="F167" s="1" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="168" customFormat="false" ht="16.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A168" s="6" t="n">
         <v>163</v>
       </c>
@@ -9289,8 +9772,11 @@
       <c r="E168" s="1" t="s">
         <v>10</v>
       </c>
-    </row>
-    <row r="169" customFormat="false" ht="16.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="F168" s="1" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="169" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A169" s="6" t="n">
         <v>164</v>
       </c>
@@ -9304,8 +9790,11 @@
       <c r="E169" s="1" t="n">
         <v>0</v>
       </c>
-    </row>
-    <row r="170" customFormat="false" ht="16.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="F169" s="1" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="170" customFormat="false" ht="16.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A170" s="6" t="n">
         <v>165</v>
       </c>
@@ -9317,8 +9806,11 @@
       <c r="E170" s="1" t="n">
         <v>0</v>
       </c>
-    </row>
-    <row r="171" customFormat="false" ht="16.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="F170" s="1" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="171" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A171" s="6" t="n">
         <v>166</v>
       </c>
@@ -9332,8 +9824,11 @@
       <c r="E171" s="1" t="n">
         <v>0</v>
       </c>
-    </row>
-    <row r="172" customFormat="false" ht="16.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="F171" s="1" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="172" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A172" s="6" t="n">
         <v>167</v>
       </c>
@@ -9345,7 +9840,70 @@
       <c r="E172" s="1" t="s">
         <v>10</v>
       </c>
-    </row>
+      <c r="F172" s="1" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="173" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="174" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="175" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="176" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="177" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="178" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="179" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="180" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="181" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="182" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="183" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="184" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="185" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="186" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="187" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="188" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="189" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="190" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="191" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="192" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="193" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="194" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="195" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="196" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="197" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="198" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="199" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="200" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="201" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="202" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="203" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="204" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="205" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="206" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="207" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="208" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="209" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="210" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="211" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="212" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="213" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="214" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="215" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="216" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="217" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="218" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="219" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="220" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="221" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="222" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="223" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="224" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="225" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="226" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="227" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="228" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="229" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="230" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="231" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="232" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
   </sheetData>
   <mergeCells count="29">
     <mergeCell ref="A5:A6"/>

--- a/07 ootareon 目標管理シート.xlsx
+++ b/07 ootareon 目標管理シート.xlsx
@@ -5,7 +5,7 @@
   <workbookPr backupFile="false" showObjects="all" date1904="false"/>
   <workbookProtection/>
   <bookViews>
-    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="500" firstSheet="0" activeTab="4"/>
+    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="500" firstSheet="0" activeTab="3"/>
   </bookViews>
   <sheets>
     <sheet name="学習目標チェックシート(ビジネスマナー)" sheetId="1" state="visible" r:id="rId3"/>
@@ -47,7 +47,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="859" uniqueCount="526">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="928" uniqueCount="526">
   <si>
     <t xml:space="preserve">学習目標自己チェックシート(ビジネスマナー)</t>
   </si>
@@ -2181,9 +2181,9 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>20</xdr:col>
-      <xdr:colOff>540360</xdr:colOff>
+      <xdr:colOff>540000</xdr:colOff>
       <xdr:row>6</xdr:row>
-      <xdr:rowOff>30240</xdr:rowOff>
+      <xdr:rowOff>29880</xdr:rowOff>
     </xdr:to>
     <xdr:sp>
       <xdr:nvSpPr>
@@ -2193,7 +2193,7 @@
       <xdr:spPr>
         <a:xfrm>
           <a:off x="14182920" y="0"/>
-          <a:ext cx="5006880" cy="1621080"/>
+          <a:ext cx="5006520" cy="1620720"/>
         </a:xfrm>
         <a:prstGeom prst="wedgeRoundRectCallout">
           <a:avLst>
@@ -2359,9 +2359,9 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>16</xdr:col>
-      <xdr:colOff>302400</xdr:colOff>
+      <xdr:colOff>302040</xdr:colOff>
       <xdr:row>6</xdr:row>
-      <xdr:rowOff>175320</xdr:rowOff>
+      <xdr:rowOff>174960</xdr:rowOff>
     </xdr:to>
     <xdr:sp>
       <xdr:nvSpPr>
@@ -2371,7 +2371,7 @@
       <xdr:spPr>
         <a:xfrm>
           <a:off x="11673360" y="145080"/>
-          <a:ext cx="5006880" cy="1621080"/>
+          <a:ext cx="5006520" cy="1620720"/>
         </a:xfrm>
         <a:prstGeom prst="wedgeRoundRectCallout">
           <a:avLst>
@@ -2537,9 +2537,9 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>16</xdr:col>
-      <xdr:colOff>302400</xdr:colOff>
+      <xdr:colOff>302040</xdr:colOff>
       <xdr:row>6</xdr:row>
-      <xdr:rowOff>175320</xdr:rowOff>
+      <xdr:rowOff>174960</xdr:rowOff>
     </xdr:to>
     <xdr:sp>
       <xdr:nvSpPr>
@@ -2549,7 +2549,7 @@
       <xdr:spPr>
         <a:xfrm>
           <a:off x="11620440" y="145080"/>
-          <a:ext cx="5007240" cy="1621080"/>
+          <a:ext cx="5006880" cy="1620720"/>
         </a:xfrm>
         <a:prstGeom prst="wedgeRoundRectCallout">
           <a:avLst>
@@ -2715,9 +2715,9 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>16</xdr:col>
-      <xdr:colOff>261720</xdr:colOff>
+      <xdr:colOff>261360</xdr:colOff>
       <xdr:row>6</xdr:row>
-      <xdr:rowOff>157320</xdr:rowOff>
+      <xdr:rowOff>156960</xdr:rowOff>
     </xdr:to>
     <xdr:sp>
       <xdr:nvSpPr>
@@ -2727,7 +2727,7 @@
       <xdr:spPr>
         <a:xfrm>
           <a:off x="11522160" y="89640"/>
-          <a:ext cx="5064840" cy="1658520"/>
+          <a:ext cx="5064480" cy="1658160"/>
         </a:xfrm>
         <a:prstGeom prst="wedgeRoundRectCallout">
           <a:avLst>
@@ -2888,9 +2888,9 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>4</xdr:col>
-      <xdr:colOff>75600</xdr:colOff>
+      <xdr:colOff>75240</xdr:colOff>
       <xdr:row>85</xdr:row>
-      <xdr:rowOff>166320</xdr:rowOff>
+      <xdr:rowOff>165960</xdr:rowOff>
     </xdr:to>
     <xdr:sp>
       <xdr:nvSpPr>
@@ -2899,8 +2899,8 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="11283480" y="16295400"/>
-          <a:ext cx="194760" cy="2225520"/>
+          <a:off x="11283480" y="16242120"/>
+          <a:ext cx="194400" cy="2225160"/>
         </a:xfrm>
         <a:prstGeom prst="rightBrace">
           <a:avLst>
@@ -2940,9 +2940,9 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>15</xdr:col>
-      <xdr:colOff>404280</xdr:colOff>
+      <xdr:colOff>403920</xdr:colOff>
       <xdr:row>84</xdr:row>
-      <xdr:rowOff>127080</xdr:rowOff>
+      <xdr:rowOff>126720</xdr:rowOff>
     </xdr:to>
     <xdr:sp>
       <xdr:nvSpPr>
@@ -2951,8 +2951,8 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="11702160" y="17115480"/>
-          <a:ext cx="4617000" cy="1156680"/>
+          <a:off x="11702160" y="17062200"/>
+          <a:ext cx="4616640" cy="1156320"/>
         </a:xfrm>
         <a:prstGeom prst="ellipse">
           <a:avLst/>
@@ -3053,9 +3053,9 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>21</xdr:col>
-      <xdr:colOff>25920</xdr:colOff>
+      <xdr:colOff>25560</xdr:colOff>
       <xdr:row>6</xdr:row>
-      <xdr:rowOff>57240</xdr:rowOff>
+      <xdr:rowOff>56880</xdr:rowOff>
     </xdr:to>
     <xdr:sp>
       <xdr:nvSpPr>
@@ -3065,7 +3065,7 @@
       <xdr:spPr>
         <a:xfrm>
           <a:off x="13158360" y="0"/>
-          <a:ext cx="5028480" cy="1648080"/>
+          <a:ext cx="5028120" cy="1647720"/>
         </a:xfrm>
         <a:prstGeom prst="wedgeRoundRectCallout">
           <a:avLst>
@@ -3231,9 +3231,9 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>16</xdr:col>
-      <xdr:colOff>313920</xdr:colOff>
+      <xdr:colOff>313560</xdr:colOff>
       <xdr:row>13</xdr:row>
-      <xdr:rowOff>203400</xdr:rowOff>
+      <xdr:rowOff>203040</xdr:rowOff>
     </xdr:to>
     <xdr:sp>
       <xdr:nvSpPr>
@@ -3243,7 +3243,7 @@
       <xdr:spPr>
         <a:xfrm>
           <a:off x="11906640" y="156960"/>
-          <a:ext cx="5064480" cy="3103920"/>
+          <a:ext cx="5064120" cy="3103560"/>
         </a:xfrm>
         <a:prstGeom prst="wedgeRoundRectCallout">
           <a:avLst>
@@ -3409,9 +3409,9 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>16</xdr:col>
-      <xdr:colOff>313920</xdr:colOff>
+      <xdr:colOff>313560</xdr:colOff>
       <xdr:row>11</xdr:row>
-      <xdr:rowOff>203400</xdr:rowOff>
+      <xdr:rowOff>203040</xdr:rowOff>
     </xdr:to>
     <xdr:sp>
       <xdr:nvSpPr>
@@ -3421,7 +3421,7 @@
       <xdr:spPr>
         <a:xfrm>
           <a:off x="11906640" y="156960"/>
-          <a:ext cx="5064480" cy="2684880"/>
+          <a:ext cx="5064120" cy="2684520"/>
         </a:xfrm>
         <a:prstGeom prst="wedgeRoundRectCallout">
           <a:avLst>
@@ -5827,8 +5827,8 @@
   </sheetPr>
   <dimension ref="A1:D86"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="pageBreakPreview" topLeftCell="A1" colorId="64" zoomScale="80" zoomScaleNormal="70" zoomScalePageLayoutView="80" workbookViewId="0">
-      <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="pageBreakPreview" topLeftCell="A1" colorId="64" zoomScale="80" zoomScaleNormal="70" zoomScalePageLayoutView="80" workbookViewId="0">
+      <selection pane="topLeft" activeCell="F9" activeCellId="0" sqref="F9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.45703125" defaultRowHeight="16.5" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -5892,9 +5892,11 @@
       <c r="C7" s="17" t="s">
         <v>112</v>
       </c>
-      <c r="D7" s="9"/>
-    </row>
-    <row r="8" customFormat="false" ht="16.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="D7" s="9" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="8" customFormat="false" ht="17" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A8" s="6" t="n">
         <v>2</v>
       </c>
@@ -5902,9 +5904,11 @@
       <c r="C8" s="17" t="s">
         <v>113</v>
       </c>
-      <c r="D8" s="9"/>
-    </row>
-    <row r="9" customFormat="false" ht="16.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="D8" s="9" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="9" customFormat="false" ht="17" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A9" s="6" t="n">
         <v>3</v>
       </c>
@@ -5912,9 +5916,11 @@
       <c r="C9" s="17" t="s">
         <v>114</v>
       </c>
-      <c r="D9" s="9"/>
-    </row>
-    <row r="10" customFormat="false" ht="16.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="D9" s="9" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="10" customFormat="false" ht="17" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A10" s="6" t="n">
         <v>4</v>
       </c>
@@ -5922,7 +5928,9 @@
       <c r="C10" s="17" t="s">
         <v>115</v>
       </c>
-      <c r="D10" s="9"/>
+      <c r="D10" s="9" t="s">
+        <v>10</v>
+      </c>
     </row>
     <row r="11" customFormat="false" ht="16.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A11" s="6" t="n">
@@ -5934,9 +5942,11 @@
       <c r="C11" s="17" t="s">
         <v>117</v>
       </c>
-      <c r="D11" s="9"/>
-    </row>
-    <row r="12" customFormat="false" ht="16.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="D11" s="9" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="12" customFormat="false" ht="16.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A12" s="6" t="n">
         <v>6</v>
       </c>
@@ -5944,9 +5954,11 @@
       <c r="C12" s="17" t="s">
         <v>118</v>
       </c>
-      <c r="D12" s="9"/>
-    </row>
-    <row r="13" customFormat="false" ht="16.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="D12" s="9" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="13" customFormat="false" ht="16.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A13" s="6" t="n">
         <v>7</v>
       </c>
@@ -5954,9 +5966,11 @@
       <c r="C13" s="17" t="s">
         <v>119</v>
       </c>
-      <c r="D13" s="9"/>
-    </row>
-    <row r="14" customFormat="false" ht="16.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="D13" s="9" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="14" customFormat="false" ht="16.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A14" s="6" t="n">
         <v>8</v>
       </c>
@@ -5964,9 +5978,11 @@
       <c r="C14" s="17" t="s">
         <v>120</v>
       </c>
-      <c r="D14" s="9"/>
-    </row>
-    <row r="15" customFormat="false" ht="33" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="D14" s="9" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="15" customFormat="false" ht="31.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A15" s="6" t="n">
         <v>9</v>
       </c>
@@ -5976,9 +5992,11 @@
       <c r="C15" s="17" t="s">
         <v>122</v>
       </c>
-      <c r="D15" s="9"/>
-    </row>
-    <row r="16" customFormat="false" ht="16.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="D15" s="9" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="16" customFormat="false" ht="16.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A16" s="6" t="n">
         <v>10</v>
       </c>
@@ -5986,9 +6004,11 @@
       <c r="C16" s="17" t="s">
         <v>123</v>
       </c>
-      <c r="D16" s="9"/>
-    </row>
-    <row r="17" customFormat="false" ht="16.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="D16" s="9" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="17" customFormat="false" ht="16.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A17" s="6" t="n">
         <v>11</v>
       </c>
@@ -5996,9 +6016,11 @@
       <c r="C17" s="17" t="s">
         <v>124</v>
       </c>
-      <c r="D17" s="9"/>
-    </row>
-    <row r="18" customFormat="false" ht="16.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="D17" s="9" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="18" customFormat="false" ht="16.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A18" s="6" t="n">
         <v>12</v>
       </c>
@@ -6006,9 +6028,11 @@
       <c r="C18" s="17" t="s">
         <v>125</v>
       </c>
-      <c r="D18" s="9"/>
-    </row>
-    <row r="19" customFormat="false" ht="16.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="D18" s="9" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="19" customFormat="false" ht="16.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A19" s="6" t="n">
         <v>13</v>
       </c>
@@ -6016,9 +6040,11 @@
       <c r="C19" s="17" t="s">
         <v>126</v>
       </c>
-      <c r="D19" s="9"/>
-    </row>
-    <row r="20" customFormat="false" ht="16.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="D19" s="9" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="20" customFormat="false" ht="16.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A20" s="6" t="n">
         <v>14</v>
       </c>
@@ -6026,9 +6052,11 @@
       <c r="C20" s="17" t="s">
         <v>127</v>
       </c>
-      <c r="D20" s="9"/>
-    </row>
-    <row r="21" customFormat="false" ht="16.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="D20" s="9" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="21" customFormat="false" ht="16.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A21" s="6" t="n">
         <v>15</v>
       </c>
@@ -6038,9 +6066,11 @@
       <c r="C21" s="17" t="s">
         <v>129</v>
       </c>
-      <c r="D21" s="9"/>
-    </row>
-    <row r="22" customFormat="false" ht="16.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="D21" s="9" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="22" customFormat="false" ht="16.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A22" s="6" t="n">
         <v>16</v>
       </c>
@@ -6048,9 +6078,11 @@
       <c r="C22" s="17" t="s">
         <v>130</v>
       </c>
-      <c r="D22" s="9"/>
-    </row>
-    <row r="23" customFormat="false" ht="16.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="D22" s="9" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="23" customFormat="false" ht="16.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A23" s="6" t="n">
         <v>17</v>
       </c>
@@ -6060,9 +6092,11 @@
       <c r="C23" s="17" t="s">
         <v>132</v>
       </c>
-      <c r="D23" s="9"/>
-    </row>
-    <row r="24" customFormat="false" ht="16.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="D23" s="9" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="24" customFormat="false" ht="16.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A24" s="6" t="n">
         <v>18</v>
       </c>
@@ -6070,9 +6104,11 @@
       <c r="C24" s="17" t="s">
         <v>133</v>
       </c>
-      <c r="D24" s="9"/>
-    </row>
-    <row r="25" customFormat="false" ht="16.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="D24" s="9" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="25" customFormat="false" ht="16.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A25" s="6" t="n">
         <v>19</v>
       </c>
@@ -6080,9 +6116,11 @@
       <c r="C25" s="17" t="s">
         <v>134</v>
       </c>
-      <c r="D25" s="9"/>
-    </row>
-    <row r="26" customFormat="false" ht="16.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="D25" s="9" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="26" customFormat="false" ht="16.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A26" s="6" t="n">
         <v>20</v>
       </c>
@@ -6090,9 +6128,11 @@
       <c r="C26" s="17" t="s">
         <v>135</v>
       </c>
-      <c r="D26" s="9"/>
-    </row>
-    <row r="27" customFormat="false" ht="16.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="D26" s="9" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="27" customFormat="false" ht="16.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A27" s="6" t="n">
         <v>21</v>
       </c>
@@ -6100,9 +6140,11 @@
       <c r="C27" s="17" t="s">
         <v>136</v>
       </c>
-      <c r="D27" s="9"/>
-    </row>
-    <row r="28" customFormat="false" ht="16.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="D27" s="9" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="28" customFormat="false" ht="16.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A28" s="6" t="n">
         <v>22</v>
       </c>
@@ -6110,9 +6152,11 @@
       <c r="C28" s="17" t="s">
         <v>137</v>
       </c>
-      <c r="D28" s="9"/>
-    </row>
-    <row r="29" customFormat="false" ht="16.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="D28" s="9" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="29" customFormat="false" ht="16.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A29" s="6" t="n">
         <v>23</v>
       </c>
@@ -6120,9 +6164,11 @@
       <c r="C29" s="17" t="s">
         <v>138</v>
       </c>
-      <c r="D29" s="9"/>
-    </row>
-    <row r="30" customFormat="false" ht="16.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="D29" s="9" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="30" customFormat="false" ht="16.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A30" s="6" t="n">
         <v>24</v>
       </c>
@@ -6132,9 +6178,11 @@
       <c r="C30" s="17" t="s">
         <v>140</v>
       </c>
-      <c r="D30" s="9"/>
-    </row>
-    <row r="31" customFormat="false" ht="16.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="D30" s="9" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="31" customFormat="false" ht="16.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A31" s="6" t="n">
         <v>25</v>
       </c>
@@ -6142,9 +6190,11 @@
       <c r="C31" s="17" t="s">
         <v>141</v>
       </c>
-      <c r="D31" s="9"/>
-    </row>
-    <row r="32" customFormat="false" ht="16.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="D31" s="9" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="32" customFormat="false" ht="16.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A32" s="6" t="n">
         <v>26</v>
       </c>
@@ -6154,9 +6204,11 @@
       <c r="C32" s="17" t="s">
         <v>143</v>
       </c>
-      <c r="D32" s="9"/>
-    </row>
-    <row r="33" customFormat="false" ht="16.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="D32" s="9" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="33" customFormat="false" ht="16.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A33" s="6" t="n">
         <v>27</v>
       </c>
@@ -6164,9 +6216,11 @@
       <c r="C33" s="17" t="s">
         <v>144</v>
       </c>
-      <c r="D33" s="9"/>
-    </row>
-    <row r="34" customFormat="false" ht="16.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="D33" s="9" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="34" customFormat="false" ht="16.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A34" s="6" t="n">
         <v>28</v>
       </c>
@@ -6174,9 +6228,11 @@
       <c r="C34" s="17" t="s">
         <v>145</v>
       </c>
-      <c r="D34" s="9"/>
-    </row>
-    <row r="35" customFormat="false" ht="16.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="D34" s="9" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="35" customFormat="false" ht="16.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A35" s="6" t="n">
         <v>29</v>
       </c>
@@ -6186,9 +6242,11 @@
       <c r="C35" s="17" t="s">
         <v>147</v>
       </c>
-      <c r="D35" s="9"/>
-    </row>
-    <row r="36" customFormat="false" ht="16.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="D35" s="9" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="36" customFormat="false" ht="16.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A36" s="6" t="n">
         <v>30</v>
       </c>
@@ -6196,9 +6254,11 @@
       <c r="C36" s="17" t="s">
         <v>148</v>
       </c>
-      <c r="D36" s="9"/>
-    </row>
-    <row r="37" customFormat="false" ht="16.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="D36" s="9" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="37" customFormat="false" ht="16.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A37" s="6" t="n">
         <v>31</v>
       </c>
@@ -6206,9 +6266,11 @@
       <c r="C37" s="17" t="s">
         <v>149</v>
       </c>
-      <c r="D37" s="9"/>
-    </row>
-    <row r="38" customFormat="false" ht="16.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="D37" s="9" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="38" customFormat="false" ht="16.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A38" s="6" t="n">
         <v>32</v>
       </c>
@@ -6216,9 +6278,11 @@
       <c r="C38" s="17" t="s">
         <v>150</v>
       </c>
-      <c r="D38" s="9"/>
-    </row>
-    <row r="39" customFormat="false" ht="16.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="D38" s="9" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="39" customFormat="false" ht="16.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A39" s="6" t="n">
         <v>33</v>
       </c>
@@ -6226,9 +6290,11 @@
       <c r="C39" s="17" t="s">
         <v>151</v>
       </c>
-      <c r="D39" s="9"/>
-    </row>
-    <row r="40" customFormat="false" ht="16.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="D39" s="9" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="40" customFormat="false" ht="16.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A40" s="6" t="n">
         <v>34</v>
       </c>
@@ -6236,9 +6302,11 @@
       <c r="C40" s="17" t="s">
         <v>152</v>
       </c>
-      <c r="D40" s="9"/>
-    </row>
-    <row r="41" customFormat="false" ht="16.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="D40" s="9" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="41" customFormat="false" ht="16.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A41" s="6" t="n">
         <v>35</v>
       </c>
@@ -6248,9 +6316,11 @@
       <c r="C41" s="17" t="s">
         <v>154</v>
       </c>
-      <c r="D41" s="9"/>
-    </row>
-    <row r="42" customFormat="false" ht="16.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="D41" s="9" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="42" customFormat="false" ht="16.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A42" s="6" t="n">
         <v>36</v>
       </c>
@@ -6258,9 +6328,11 @@
       <c r="C42" s="17" t="s">
         <v>155</v>
       </c>
-      <c r="D42" s="9"/>
-    </row>
-    <row r="43" customFormat="false" ht="16.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="D42" s="9" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="43" customFormat="false" ht="16.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A43" s="6" t="n">
         <v>37</v>
       </c>
@@ -6268,9 +6340,11 @@
       <c r="C43" s="17" t="s">
         <v>156</v>
       </c>
-      <c r="D43" s="9"/>
-    </row>
-    <row r="44" customFormat="false" ht="16.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="D43" s="9" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="44" customFormat="false" ht="16.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A44" s="6" t="n">
         <v>38</v>
       </c>
@@ -6278,9 +6352,11 @@
       <c r="C44" s="17" t="s">
         <v>157</v>
       </c>
-      <c r="D44" s="9"/>
-    </row>
-    <row r="45" customFormat="false" ht="16.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="D44" s="9" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="45" customFormat="false" ht="16.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A45" s="6" t="n">
         <v>39</v>
       </c>
@@ -6288,9 +6364,11 @@
       <c r="C45" s="17" t="s">
         <v>158</v>
       </c>
-      <c r="D45" s="9"/>
-    </row>
-    <row r="46" customFormat="false" ht="16.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="D45" s="9" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="46" customFormat="false" ht="16.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A46" s="6" t="n">
         <v>40</v>
       </c>
@@ -6298,9 +6376,11 @@
       <c r="C46" s="17" t="s">
         <v>159</v>
       </c>
-      <c r="D46" s="9"/>
-    </row>
-    <row r="47" customFormat="false" ht="16.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="D46" s="9" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="47" customFormat="false" ht="16.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A47" s="6" t="n">
         <v>41</v>
       </c>
@@ -6308,9 +6388,11 @@
       <c r="C47" s="17" t="s">
         <v>160</v>
       </c>
-      <c r="D47" s="9"/>
-    </row>
-    <row r="48" customFormat="false" ht="16.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="D47" s="9" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="48" customFormat="false" ht="16.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A48" s="6" t="n">
         <v>42</v>
       </c>
@@ -6318,9 +6400,11 @@
       <c r="C48" s="17" t="s">
         <v>161</v>
       </c>
-      <c r="D48" s="9"/>
-    </row>
-    <row r="49" customFormat="false" ht="16.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="D48" s="9" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="49" customFormat="false" ht="16.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A49" s="6" t="n">
         <v>43</v>
       </c>
@@ -6328,9 +6412,11 @@
       <c r="C49" s="17" t="s">
         <v>162</v>
       </c>
-      <c r="D49" s="9"/>
-    </row>
-    <row r="50" customFormat="false" ht="16.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="D49" s="9" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="50" customFormat="false" ht="16.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A50" s="6" t="n">
         <v>44</v>
       </c>
@@ -6338,9 +6424,11 @@
       <c r="C50" s="17" t="s">
         <v>163</v>
       </c>
-      <c r="D50" s="9"/>
-    </row>
-    <row r="51" customFormat="false" ht="16.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="D50" s="9" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="51" customFormat="false" ht="16.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A51" s="6" t="n">
         <v>45</v>
       </c>
@@ -6350,9 +6438,11 @@
       <c r="C51" s="17" t="s">
         <v>165</v>
       </c>
-      <c r="D51" s="9"/>
-    </row>
-    <row r="52" customFormat="false" ht="16.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="D51" s="9" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="52" customFormat="false" ht="16.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A52" s="6" t="n">
         <v>46</v>
       </c>
@@ -6360,9 +6450,11 @@
       <c r="C52" s="17" t="s">
         <v>166</v>
       </c>
-      <c r="D52" s="9"/>
-    </row>
-    <row r="53" customFormat="false" ht="16.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="D52" s="9" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="53" customFormat="false" ht="16.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A53" s="6" t="n">
         <v>47</v>
       </c>
@@ -6370,9 +6462,11 @@
       <c r="C53" s="17" t="s">
         <v>167</v>
       </c>
-      <c r="D53" s="9"/>
-    </row>
-    <row r="54" customFormat="false" ht="16.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="D53" s="9" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="54" customFormat="false" ht="16.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A54" s="6" t="n">
         <v>48</v>
       </c>
@@ -6380,9 +6474,11 @@
       <c r="C54" s="17" t="s">
         <v>168</v>
       </c>
-      <c r="D54" s="9"/>
-    </row>
-    <row r="55" customFormat="false" ht="16.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="D54" s="9" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="55" customFormat="false" ht="16.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A55" s="6" t="n">
         <v>49</v>
       </c>
@@ -6390,9 +6486,11 @@
       <c r="C55" s="17" t="s">
         <v>169</v>
       </c>
-      <c r="D55" s="9"/>
-    </row>
-    <row r="56" customFormat="false" ht="16.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="D55" s="9" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="56" customFormat="false" ht="16.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A56" s="6" t="n">
         <v>50</v>
       </c>
@@ -6402,9 +6500,11 @@
       <c r="C56" s="17" t="s">
         <v>171</v>
       </c>
-      <c r="D56" s="9"/>
-    </row>
-    <row r="57" customFormat="false" ht="16.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="D56" s="9" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="57" customFormat="false" ht="16.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A57" s="6" t="n">
         <v>51</v>
       </c>
@@ -6412,9 +6512,11 @@
       <c r="C57" s="17" t="s">
         <v>172</v>
       </c>
-      <c r="D57" s="9"/>
-    </row>
-    <row r="58" customFormat="false" ht="16.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="D57" s="9" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="58" customFormat="false" ht="16.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A58" s="6" t="n">
         <v>52</v>
       </c>
@@ -6422,9 +6524,11 @@
       <c r="C58" s="17" t="s">
         <v>173</v>
       </c>
-      <c r="D58" s="9"/>
-    </row>
-    <row r="59" customFormat="false" ht="16.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="D58" s="9" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="59" customFormat="false" ht="16.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A59" s="6" t="n">
         <v>53</v>
       </c>
@@ -6432,9 +6536,11 @@
       <c r="C59" s="17" t="s">
         <v>174</v>
       </c>
-      <c r="D59" s="9"/>
-    </row>
-    <row r="60" customFormat="false" ht="16.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="D59" s="9" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="60" customFormat="false" ht="16.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A60" s="6" t="n">
         <v>54</v>
       </c>
@@ -6444,9 +6550,11 @@
       <c r="C60" s="17" t="s">
         <v>176</v>
       </c>
-      <c r="D60" s="9"/>
-    </row>
-    <row r="61" customFormat="false" ht="16.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="D60" s="9" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="61" customFormat="false" ht="16.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A61" s="6" t="n">
         <v>55</v>
       </c>
@@ -6454,9 +6562,11 @@
       <c r="C61" s="17" t="s">
         <v>177</v>
       </c>
-      <c r="D61" s="9"/>
-    </row>
-    <row r="62" customFormat="false" ht="16.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="D61" s="9" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="62" customFormat="false" ht="16.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A62" s="6" t="n">
         <v>56</v>
       </c>
@@ -6466,9 +6576,11 @@
       <c r="C62" s="17" t="s">
         <v>179</v>
       </c>
-      <c r="D62" s="9"/>
-    </row>
-    <row r="63" customFormat="false" ht="16.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="D62" s="9" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="63" customFormat="false" ht="16.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A63" s="6" t="n">
         <v>57</v>
       </c>
@@ -6476,9 +6588,11 @@
       <c r="C63" s="17" t="s">
         <v>180</v>
       </c>
-      <c r="D63" s="9"/>
-    </row>
-    <row r="64" customFormat="false" ht="16.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="D63" s="9" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="64" customFormat="false" ht="16.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A64" s="6" t="n">
         <v>58</v>
       </c>
@@ -6486,9 +6600,11 @@
       <c r="C64" s="17" t="s">
         <v>181</v>
       </c>
-      <c r="D64" s="9"/>
-    </row>
-    <row r="65" customFormat="false" ht="16.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="D64" s="9" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="65" customFormat="false" ht="16.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A65" s="6" t="n">
         <v>59</v>
       </c>
@@ -6496,9 +6612,11 @@
       <c r="C65" s="17" t="s">
         <v>182</v>
       </c>
-      <c r="D65" s="9"/>
-    </row>
-    <row r="66" customFormat="false" ht="16.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="D65" s="9" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="66" customFormat="false" ht="16.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A66" s="6" t="n">
         <v>60</v>
       </c>
@@ -6508,9 +6626,11 @@
       <c r="C66" s="17" t="s">
         <v>184</v>
       </c>
-      <c r="D66" s="9"/>
-    </row>
-    <row r="67" customFormat="false" ht="16.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="D66" s="9" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="67" customFormat="false" ht="16.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A67" s="6" t="n">
         <v>61</v>
       </c>
@@ -6518,9 +6638,11 @@
       <c r="C67" s="17" t="s">
         <v>185</v>
       </c>
-      <c r="D67" s="9"/>
-    </row>
-    <row r="68" customFormat="false" ht="16.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="D67" s="9" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="68" customFormat="false" ht="16.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A68" s="6" t="n">
         <v>62</v>
       </c>
@@ -6528,9 +6650,11 @@
       <c r="C68" s="17" t="s">
         <v>186</v>
       </c>
-      <c r="D68" s="9"/>
-    </row>
-    <row r="69" customFormat="false" ht="16.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="D68" s="9" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="69" customFormat="false" ht="16.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A69" s="6" t="n">
         <v>63</v>
       </c>
@@ -6538,9 +6662,11 @@
       <c r="C69" s="17" t="s">
         <v>187</v>
       </c>
-      <c r="D69" s="9"/>
-    </row>
-    <row r="70" customFormat="false" ht="16.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="D69" s="9" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="70" customFormat="false" ht="16.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A70" s="6" t="n">
         <v>64</v>
       </c>
@@ -6550,9 +6676,11 @@
       <c r="C70" s="17" t="s">
         <v>189</v>
       </c>
-      <c r="D70" s="9"/>
-    </row>
-    <row r="71" customFormat="false" ht="16.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="D70" s="9" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="71" customFormat="false" ht="16.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A71" s="6" t="n">
         <v>65</v>
       </c>
@@ -6560,9 +6688,11 @@
       <c r="C71" s="17" t="s">
         <v>190</v>
       </c>
-      <c r="D71" s="9"/>
-    </row>
-    <row r="72" customFormat="false" ht="16.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="D71" s="9" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="72" customFormat="false" ht="16.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A72" s="6" t="n">
         <v>66</v>
       </c>
@@ -6572,9 +6702,11 @@
       <c r="C72" s="17" t="s">
         <v>192</v>
       </c>
-      <c r="D72" s="9"/>
-    </row>
-    <row r="73" customFormat="false" ht="16.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="D72" s="9" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="73" customFormat="false" ht="16.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A73" s="6" t="n">
         <v>67</v>
       </c>
@@ -6582,9 +6714,11 @@
       <c r="C73" s="17" t="s">
         <v>193</v>
       </c>
-      <c r="D73" s="9"/>
-    </row>
-    <row r="74" customFormat="false" ht="16.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="D73" s="9" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="74" customFormat="false" ht="16.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A74" s="6" t="n">
         <v>68</v>
       </c>
@@ -6592,9 +6726,11 @@
       <c r="C74" s="17" t="s">
         <v>194</v>
       </c>
-      <c r="D74" s="9"/>
-    </row>
-    <row r="75" customFormat="false" ht="16.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="D74" s="9" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="75" customFormat="false" ht="31.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A75" s="6" t="n">
         <v>69</v>
       </c>
@@ -6602,7 +6738,9 @@
       <c r="C75" s="17" t="s">
         <v>195</v>
       </c>
-      <c r="D75" s="9"/>
+      <c r="D75" s="9" t="s">
+        <v>10</v>
+      </c>
     </row>
     <row r="76" customFormat="false" ht="16.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A76" s="6" t="n">
@@ -6785,7 +6923,7 @@
   </sheetPr>
   <dimension ref="A1:F232"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="pageBreakPreview" topLeftCell="A133" colorId="64" zoomScale="80" zoomScaleNormal="85" zoomScalePageLayoutView="80" workbookViewId="0">
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="pageBreakPreview" topLeftCell="A133" colorId="64" zoomScale="80" zoomScaleNormal="85" zoomScalePageLayoutView="80" workbookViewId="0">
       <selection pane="topLeft" activeCell="H25" activeCellId="0" sqref="H25"/>
     </sheetView>
   </sheetViews>

--- a/07 ootareon 目標管理シート.xlsx
+++ b/07 ootareon 目標管理シート.xlsx
@@ -47,7 +47,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="928" uniqueCount="526">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="987" uniqueCount="526">
   <si>
     <t xml:space="preserve">学習目標自己チェックシート(ビジネスマナー)</t>
   </si>
@@ -2181,9 +2181,9 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>20</xdr:col>
-      <xdr:colOff>540000</xdr:colOff>
+      <xdr:colOff>539640</xdr:colOff>
       <xdr:row>6</xdr:row>
-      <xdr:rowOff>29880</xdr:rowOff>
+      <xdr:rowOff>29520</xdr:rowOff>
     </xdr:to>
     <xdr:sp>
       <xdr:nvSpPr>
@@ -2193,7 +2193,7 @@
       <xdr:spPr>
         <a:xfrm>
           <a:off x="14182920" y="0"/>
-          <a:ext cx="5006520" cy="1620720"/>
+          <a:ext cx="5006160" cy="1620360"/>
         </a:xfrm>
         <a:prstGeom prst="wedgeRoundRectCallout">
           <a:avLst>
@@ -2359,9 +2359,9 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>16</xdr:col>
-      <xdr:colOff>302040</xdr:colOff>
+      <xdr:colOff>301680</xdr:colOff>
       <xdr:row>6</xdr:row>
-      <xdr:rowOff>174960</xdr:rowOff>
+      <xdr:rowOff>174600</xdr:rowOff>
     </xdr:to>
     <xdr:sp>
       <xdr:nvSpPr>
@@ -2371,7 +2371,7 @@
       <xdr:spPr>
         <a:xfrm>
           <a:off x="11673360" y="145080"/>
-          <a:ext cx="5006520" cy="1620720"/>
+          <a:ext cx="5006160" cy="1620360"/>
         </a:xfrm>
         <a:prstGeom prst="wedgeRoundRectCallout">
           <a:avLst>
@@ -2537,9 +2537,9 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>16</xdr:col>
-      <xdr:colOff>302040</xdr:colOff>
+      <xdr:colOff>301680</xdr:colOff>
       <xdr:row>6</xdr:row>
-      <xdr:rowOff>174960</xdr:rowOff>
+      <xdr:rowOff>174600</xdr:rowOff>
     </xdr:to>
     <xdr:sp>
       <xdr:nvSpPr>
@@ -2549,7 +2549,7 @@
       <xdr:spPr>
         <a:xfrm>
           <a:off x="11620440" y="145080"/>
-          <a:ext cx="5006880" cy="1620720"/>
+          <a:ext cx="5006520" cy="1620360"/>
         </a:xfrm>
         <a:prstGeom prst="wedgeRoundRectCallout">
           <a:avLst>
@@ -2708,16 +2708,16 @@
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <xdr:twoCellAnchor editAs="twoCell">
     <xdr:from>
-      <xdr:col>4</xdr:col>
-      <xdr:colOff>119520</xdr:colOff>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>321120</xdr:colOff>
       <xdr:row>0</xdr:row>
-      <xdr:rowOff>89640</xdr:rowOff>
+      <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>16</xdr:col>
-      <xdr:colOff>261360</xdr:colOff>
+      <xdr:col>19</xdr:col>
+      <xdr:colOff>452520</xdr:colOff>
       <xdr:row>6</xdr:row>
-      <xdr:rowOff>156960</xdr:rowOff>
+      <xdr:rowOff>66960</xdr:rowOff>
     </xdr:to>
     <xdr:sp>
       <xdr:nvSpPr>
@@ -2726,8 +2726,8 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="11522160" y="89640"/>
-          <a:ext cx="5064480" cy="1658160"/>
+          <a:off x="13364640" y="0"/>
+          <a:ext cx="5064120" cy="1657800"/>
         </a:xfrm>
         <a:prstGeom prst="wedgeRoundRectCallout">
           <a:avLst>
@@ -2888,9 +2888,9 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>4</xdr:col>
-      <xdr:colOff>75240</xdr:colOff>
+      <xdr:colOff>74880</xdr:colOff>
       <xdr:row>85</xdr:row>
-      <xdr:rowOff>165960</xdr:rowOff>
+      <xdr:rowOff>165600</xdr:rowOff>
     </xdr:to>
     <xdr:sp>
       <xdr:nvSpPr>
@@ -2900,7 +2900,7 @@
       <xdr:spPr>
         <a:xfrm>
           <a:off x="11283480" y="16242120"/>
-          <a:ext cx="194400" cy="2225160"/>
+          <a:ext cx="194040" cy="2224800"/>
         </a:xfrm>
         <a:prstGeom prst="rightBrace">
           <a:avLst>
@@ -2940,9 +2940,9 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>15</xdr:col>
-      <xdr:colOff>403920</xdr:colOff>
+      <xdr:colOff>403560</xdr:colOff>
       <xdr:row>84</xdr:row>
-      <xdr:rowOff>126720</xdr:rowOff>
+      <xdr:rowOff>126360</xdr:rowOff>
     </xdr:to>
     <xdr:sp>
       <xdr:nvSpPr>
@@ -2952,7 +2952,7 @@
       <xdr:spPr>
         <a:xfrm>
           <a:off x="11702160" y="17062200"/>
-          <a:ext cx="4616640" cy="1156320"/>
+          <a:ext cx="4616280" cy="1155960"/>
         </a:xfrm>
         <a:prstGeom prst="ellipse">
           <a:avLst/>
@@ -3053,9 +3053,9 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>21</xdr:col>
-      <xdr:colOff>25560</xdr:colOff>
+      <xdr:colOff>25200</xdr:colOff>
       <xdr:row>6</xdr:row>
-      <xdr:rowOff>56880</xdr:rowOff>
+      <xdr:rowOff>56520</xdr:rowOff>
     </xdr:to>
     <xdr:sp>
       <xdr:nvSpPr>
@@ -3065,7 +3065,7 @@
       <xdr:spPr>
         <a:xfrm>
           <a:off x="13158360" y="0"/>
-          <a:ext cx="5028120" cy="1647720"/>
+          <a:ext cx="5027760" cy="1647360"/>
         </a:xfrm>
         <a:prstGeom prst="wedgeRoundRectCallout">
           <a:avLst>
@@ -3231,9 +3231,9 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>16</xdr:col>
-      <xdr:colOff>313560</xdr:colOff>
+      <xdr:colOff>313200</xdr:colOff>
       <xdr:row>13</xdr:row>
-      <xdr:rowOff>203040</xdr:rowOff>
+      <xdr:rowOff>202680</xdr:rowOff>
     </xdr:to>
     <xdr:sp>
       <xdr:nvSpPr>
@@ -3243,7 +3243,7 @@
       <xdr:spPr>
         <a:xfrm>
           <a:off x="11906640" y="156960"/>
-          <a:ext cx="5064120" cy="3103560"/>
+          <a:ext cx="5063760" cy="3103200"/>
         </a:xfrm>
         <a:prstGeom prst="wedgeRoundRectCallout">
           <a:avLst>
@@ -3409,9 +3409,9 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>16</xdr:col>
-      <xdr:colOff>313560</xdr:colOff>
+      <xdr:colOff>313200</xdr:colOff>
       <xdr:row>11</xdr:row>
-      <xdr:rowOff>203040</xdr:rowOff>
+      <xdr:rowOff>202680</xdr:rowOff>
     </xdr:to>
     <xdr:sp>
       <xdr:nvSpPr>
@@ -3421,7 +3421,7 @@
       <xdr:spPr>
         <a:xfrm>
           <a:off x="11906640" y="156960"/>
-          <a:ext cx="5064120" cy="2684520"/>
+          <a:ext cx="5063760" cy="2684160"/>
         </a:xfrm>
         <a:prstGeom prst="wedgeRoundRectCallout">
           <a:avLst>
@@ -5825,10 +5825,10 @@
     <tabColor rgb="FF9DC3E6"/>
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:D86"/>
+  <dimension ref="A1:E86"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="pageBreakPreview" topLeftCell="A1" colorId="64" zoomScale="80" zoomScaleNormal="70" zoomScalePageLayoutView="80" workbookViewId="0">
-      <selection pane="topLeft" activeCell="F9" activeCellId="0" sqref="F9"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="pageBreakPreview" topLeftCell="C53" colorId="64" zoomScale="80" zoomScaleNormal="70" zoomScalePageLayoutView="80" workbookViewId="0">
+      <selection pane="topLeft" activeCell="E76" activeCellId="0" sqref="E76"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.45703125" defaultRowHeight="16.5" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -5895,6 +5895,9 @@
       <c r="D7" s="9" t="s">
         <v>10</v>
       </c>
+      <c r="E7" s="1" t="s">
+        <v>10</v>
+      </c>
     </row>
     <row r="8" customFormat="false" ht="17" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A8" s="6" t="n">
@@ -5907,6 +5910,9 @@
       <c r="D8" s="9" t="s">
         <v>10</v>
       </c>
+      <c r="E8" s="1" t="s">
+        <v>10</v>
+      </c>
     </row>
     <row r="9" customFormat="false" ht="17" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A9" s="6" t="n">
@@ -5919,6 +5925,9 @@
       <c r="D9" s="9" t="s">
         <v>10</v>
       </c>
+      <c r="E9" s="1" t="s">
+        <v>10</v>
+      </c>
     </row>
     <row r="10" customFormat="false" ht="17" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A10" s="6" t="n">
@@ -5931,6 +5940,9 @@
       <c r="D10" s="9" t="s">
         <v>10</v>
       </c>
+      <c r="E10" s="1" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="11" customFormat="false" ht="16.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A11" s="6" t="n">
@@ -5945,6 +5957,9 @@
       <c r="D11" s="9" t="s">
         <v>10</v>
       </c>
+      <c r="E11" s="1" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="12" customFormat="false" ht="16.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A12" s="6" t="n">
@@ -5957,6 +5972,9 @@
       <c r="D12" s="9" t="s">
         <v>10</v>
       </c>
+      <c r="E12" s="1" t="s">
+        <v>10</v>
+      </c>
     </row>
     <row r="13" customFormat="false" ht="16.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A13" s="6" t="n">
@@ -5969,6 +5987,9 @@
       <c r="D13" s="9" t="s">
         <v>10</v>
       </c>
+      <c r="E13" s="1" t="s">
+        <v>10</v>
+      </c>
     </row>
     <row r="14" customFormat="false" ht="16.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A14" s="6" t="n">
@@ -5981,6 +6002,9 @@
       <c r="D14" s="9" t="s">
         <v>10</v>
       </c>
+      <c r="E14" s="1" t="s">
+        <v>10</v>
+      </c>
     </row>
     <row r="15" customFormat="false" ht="31.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A15" s="6" t="n">
@@ -5995,6 +6019,9 @@
       <c r="D15" s="9" t="s">
         <v>10</v>
       </c>
+      <c r="E15" s="1" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="16" customFormat="false" ht="16.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A16" s="6" t="n">
@@ -6007,6 +6034,9 @@
       <c r="D16" s="9" t="s">
         <v>10</v>
       </c>
+      <c r="E16" s="1" t="s">
+        <v>10</v>
+      </c>
     </row>
     <row r="17" customFormat="false" ht="16.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A17" s="6" t="n">
@@ -6019,6 +6049,9 @@
       <c r="D17" s="9" t="s">
         <v>10</v>
       </c>
+      <c r="E17" s="1" t="s">
+        <v>10</v>
+      </c>
     </row>
     <row r="18" customFormat="false" ht="16.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A18" s="6" t="n">
@@ -6031,6 +6064,9 @@
       <c r="D18" s="9" t="s">
         <v>10</v>
       </c>
+      <c r="E18" s="1" t="s">
+        <v>10</v>
+      </c>
     </row>
     <row r="19" customFormat="false" ht="16.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A19" s="6" t="n">
@@ -6043,6 +6079,9 @@
       <c r="D19" s="9" t="s">
         <v>10</v>
       </c>
+      <c r="E19" s="1" t="s">
+        <v>10</v>
+      </c>
     </row>
     <row r="20" customFormat="false" ht="16.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A20" s="6" t="n">
@@ -6055,6 +6094,9 @@
       <c r="D20" s="9" t="s">
         <v>10</v>
       </c>
+      <c r="E20" s="1" t="s">
+        <v>10</v>
+      </c>
     </row>
     <row r="21" customFormat="false" ht="16.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A21" s="6" t="n">
@@ -6069,6 +6111,9 @@
       <c r="D21" s="9" t="s">
         <v>10</v>
       </c>
+      <c r="E21" s="1" t="s">
+        <v>10</v>
+      </c>
     </row>
     <row r="22" customFormat="false" ht="16.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A22" s="6" t="n">
@@ -6081,6 +6126,9 @@
       <c r="D22" s="9" t="s">
         <v>10</v>
       </c>
+      <c r="E22" s="1" t="s">
+        <v>10</v>
+      </c>
     </row>
     <row r="23" customFormat="false" ht="16.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A23" s="6" t="n">
@@ -6095,6 +6143,9 @@
       <c r="D23" s="9" t="s">
         <v>10</v>
       </c>
+      <c r="E23" s="1" t="s">
+        <v>10</v>
+      </c>
     </row>
     <row r="24" customFormat="false" ht="16.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A24" s="6" t="n">
@@ -6107,6 +6158,9 @@
       <c r="D24" s="9" t="s">
         <v>10</v>
       </c>
+      <c r="E24" s="1" t="s">
+        <v>10</v>
+      </c>
     </row>
     <row r="25" customFormat="false" ht="16.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A25" s="6" t="n">
@@ -6119,6 +6173,9 @@
       <c r="D25" s="9" t="s">
         <v>10</v>
       </c>
+      <c r="E25" s="1" t="s">
+        <v>10</v>
+      </c>
     </row>
     <row r="26" customFormat="false" ht="16.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A26" s="6" t="n">
@@ -6131,6 +6188,9 @@
       <c r="D26" s="9" t="s">
         <v>10</v>
       </c>
+      <c r="E26" s="1" t="s">
+        <v>10</v>
+      </c>
     </row>
     <row r="27" customFormat="false" ht="16.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A27" s="6" t="n">
@@ -6143,6 +6203,9 @@
       <c r="D27" s="9" t="s">
         <v>10</v>
       </c>
+      <c r="E27" s="1" t="s">
+        <v>10</v>
+      </c>
     </row>
     <row r="28" customFormat="false" ht="16.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A28" s="6" t="n">
@@ -6155,6 +6218,9 @@
       <c r="D28" s="9" t="s">
         <v>10</v>
       </c>
+      <c r="E28" s="1" t="s">
+        <v>10</v>
+      </c>
     </row>
     <row r="29" customFormat="false" ht="16.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A29" s="6" t="n">
@@ -6167,6 +6233,9 @@
       <c r="D29" s="9" t="s">
         <v>10</v>
       </c>
+      <c r="E29" s="1" t="s">
+        <v>10</v>
+      </c>
     </row>
     <row r="30" customFormat="false" ht="16.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A30" s="6" t="n">
@@ -6181,6 +6250,9 @@
       <c r="D30" s="9" t="s">
         <v>10</v>
       </c>
+      <c r="E30" s="1" t="s">
+        <v>10</v>
+      </c>
     </row>
     <row r="31" customFormat="false" ht="16.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A31" s="6" t="n">
@@ -6193,6 +6265,9 @@
       <c r="D31" s="9" t="s">
         <v>10</v>
       </c>
+      <c r="E31" s="1" t="s">
+        <v>10</v>
+      </c>
     </row>
     <row r="32" customFormat="false" ht="16.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A32" s="6" t="n">
@@ -6207,6 +6282,9 @@
       <c r="D32" s="9" t="s">
         <v>10</v>
       </c>
+      <c r="E32" s="1" t="s">
+        <v>10</v>
+      </c>
     </row>
     <row r="33" customFormat="false" ht="16.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A33" s="6" t="n">
@@ -6219,6 +6297,9 @@
       <c r="D33" s="9" t="s">
         <v>10</v>
       </c>
+      <c r="E33" s="1" t="s">
+        <v>10</v>
+      </c>
     </row>
     <row r="34" customFormat="false" ht="16.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A34" s="6" t="n">
@@ -6231,6 +6312,9 @@
       <c r="D34" s="9" t="s">
         <v>10</v>
       </c>
+      <c r="E34" s="1" t="s">
+        <v>10</v>
+      </c>
     </row>
     <row r="35" customFormat="false" ht="16.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A35" s="6" t="n">
@@ -6245,6 +6329,9 @@
       <c r="D35" s="9" t="s">
         <v>10</v>
       </c>
+      <c r="E35" s="1" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="36" customFormat="false" ht="16.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A36" s="6" t="n">
@@ -6257,6 +6344,9 @@
       <c r="D36" s="9" t="s">
         <v>10</v>
       </c>
+      <c r="E36" s="1" t="s">
+        <v>10</v>
+      </c>
     </row>
     <row r="37" customFormat="false" ht="16.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A37" s="6" t="n">
@@ -6269,6 +6359,9 @@
       <c r="D37" s="9" t="s">
         <v>10</v>
       </c>
+      <c r="E37" s="1" t="s">
+        <v>10</v>
+      </c>
     </row>
     <row r="38" customFormat="false" ht="16.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A38" s="6" t="n">
@@ -6281,6 +6374,9 @@
       <c r="D38" s="9" t="s">
         <v>10</v>
       </c>
+      <c r="E38" s="1" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="39" customFormat="false" ht="16.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A39" s="6" t="n">
@@ -6293,6 +6389,9 @@
       <c r="D39" s="9" t="s">
         <v>10</v>
       </c>
+      <c r="E39" s="1" t="s">
+        <v>10</v>
+      </c>
     </row>
     <row r="40" customFormat="false" ht="16.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A40" s="6" t="n">
@@ -6305,6 +6404,9 @@
       <c r="D40" s="9" t="s">
         <v>10</v>
       </c>
+      <c r="E40" s="1" t="s">
+        <v>10</v>
+      </c>
     </row>
     <row r="41" customFormat="false" ht="16.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A41" s="6" t="n">
@@ -6319,6 +6421,9 @@
       <c r="D41" s="9" t="s">
         <v>10</v>
       </c>
+      <c r="E41" s="1" t="s">
+        <v>10</v>
+      </c>
     </row>
     <row r="42" customFormat="false" ht="16.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A42" s="6" t="n">
@@ -6331,6 +6436,9 @@
       <c r="D42" s="9" t="s">
         <v>10</v>
       </c>
+      <c r="E42" s="1" t="s">
+        <v>10</v>
+      </c>
     </row>
     <row r="43" customFormat="false" ht="16.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A43" s="6" t="n">
@@ -6343,6 +6451,9 @@
       <c r="D43" s="9" t="s">
         <v>10</v>
       </c>
+      <c r="E43" s="1" t="s">
+        <v>10</v>
+      </c>
     </row>
     <row r="44" customFormat="false" ht="16.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A44" s="6" t="n">
@@ -6355,6 +6466,9 @@
       <c r="D44" s="9" t="s">
         <v>10</v>
       </c>
+      <c r="E44" s="1" t="s">
+        <v>10</v>
+      </c>
     </row>
     <row r="45" customFormat="false" ht="16.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A45" s="6" t="n">
@@ -6367,6 +6481,9 @@
       <c r="D45" s="9" t="s">
         <v>10</v>
       </c>
+      <c r="E45" s="1" t="s">
+        <v>10</v>
+      </c>
     </row>
     <row r="46" customFormat="false" ht="16.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A46" s="6" t="n">
@@ -6379,6 +6496,9 @@
       <c r="D46" s="9" t="s">
         <v>10</v>
       </c>
+      <c r="E46" s="1" t="s">
+        <v>10</v>
+      </c>
     </row>
     <row r="47" customFormat="false" ht="16.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A47" s="6" t="n">
@@ -6391,6 +6511,9 @@
       <c r="D47" s="9" t="s">
         <v>10</v>
       </c>
+      <c r="E47" s="1" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="48" customFormat="false" ht="16.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A48" s="6" t="n">
@@ -6403,6 +6526,9 @@
       <c r="D48" s="9" t="s">
         <v>10</v>
       </c>
+      <c r="E48" s="1" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="49" customFormat="false" ht="16.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A49" s="6" t="n">
@@ -6415,6 +6541,9 @@
       <c r="D49" s="9" t="s">
         <v>10</v>
       </c>
+      <c r="E49" s="1" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="50" customFormat="false" ht="16.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A50" s="6" t="n">
@@ -6427,6 +6556,9 @@
       <c r="D50" s="9" t="s">
         <v>10</v>
       </c>
+      <c r="E50" s="1" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="51" customFormat="false" ht="16.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A51" s="6" t="n">
@@ -6441,6 +6573,9 @@
       <c r="D51" s="9" t="s">
         <v>10</v>
       </c>
+      <c r="E51" s="1" t="s">
+        <v>10</v>
+      </c>
     </row>
     <row r="52" customFormat="false" ht="16.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A52" s="6" t="n">
@@ -6453,6 +6588,9 @@
       <c r="D52" s="9" t="s">
         <v>10</v>
       </c>
+      <c r="E52" s="1" t="s">
+        <v>10</v>
+      </c>
     </row>
     <row r="53" customFormat="false" ht="16.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A53" s="6" t="n">
@@ -6465,6 +6603,9 @@
       <c r="D53" s="9" t="s">
         <v>10</v>
       </c>
+      <c r="E53" s="1" t="s">
+        <v>10</v>
+      </c>
     </row>
     <row r="54" customFormat="false" ht="16.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A54" s="6" t="n">
@@ -6477,6 +6618,9 @@
       <c r="D54" s="9" t="s">
         <v>10</v>
       </c>
+      <c r="E54" s="1" t="s">
+        <v>10</v>
+      </c>
     </row>
     <row r="55" customFormat="false" ht="16.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A55" s="6" t="n">
@@ -6489,6 +6633,9 @@
       <c r="D55" s="9" t="s">
         <v>10</v>
       </c>
+      <c r="E55" s="1" t="s">
+        <v>10</v>
+      </c>
     </row>
     <row r="56" customFormat="false" ht="16.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A56" s="6" t="n">
@@ -6503,6 +6650,9 @@
       <c r="D56" s="9" t="s">
         <v>10</v>
       </c>
+      <c r="E56" s="1" t="s">
+        <v>10</v>
+      </c>
     </row>
     <row r="57" customFormat="false" ht="16.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A57" s="6" t="n">
@@ -6515,6 +6665,9 @@
       <c r="D57" s="9" t="s">
         <v>10</v>
       </c>
+      <c r="E57" s="1" t="s">
+        <v>10</v>
+      </c>
     </row>
     <row r="58" customFormat="false" ht="16.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A58" s="6" t="n">
@@ -6527,6 +6680,9 @@
       <c r="D58" s="9" t="s">
         <v>10</v>
       </c>
+      <c r="E58" s="1" t="s">
+        <v>10</v>
+      </c>
     </row>
     <row r="59" customFormat="false" ht="16.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A59" s="6" t="n">
@@ -6539,6 +6695,9 @@
       <c r="D59" s="9" t="s">
         <v>10</v>
       </c>
+      <c r="E59" s="1" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="60" customFormat="false" ht="16.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A60" s="6" t="n">
@@ -6553,6 +6712,9 @@
       <c r="D60" s="9" t="s">
         <v>10</v>
       </c>
+      <c r="E60" s="1" t="s">
+        <v>10</v>
+      </c>
     </row>
     <row r="61" customFormat="false" ht="16.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A61" s="6" t="n">
@@ -6565,6 +6727,9 @@
       <c r="D61" s="9" t="s">
         <v>10</v>
       </c>
+      <c r="E61" s="1" t="s">
+        <v>10</v>
+      </c>
     </row>
     <row r="62" customFormat="false" ht="16.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A62" s="6" t="n">
@@ -6579,6 +6744,9 @@
       <c r="D62" s="9" t="s">
         <v>10</v>
       </c>
+      <c r="E62" s="1" t="s">
+        <v>10</v>
+      </c>
     </row>
     <row r="63" customFormat="false" ht="16.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A63" s="6" t="n">
@@ -6591,6 +6759,9 @@
       <c r="D63" s="9" t="s">
         <v>10</v>
       </c>
+      <c r="E63" s="1" t="s">
+        <v>10</v>
+      </c>
     </row>
     <row r="64" customFormat="false" ht="16.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A64" s="6" t="n">
@@ -6603,6 +6774,9 @@
       <c r="D64" s="9" t="s">
         <v>10</v>
       </c>
+      <c r="E64" s="1" t="s">
+        <v>10</v>
+      </c>
     </row>
     <row r="65" customFormat="false" ht="16.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A65" s="6" t="n">
@@ -6615,6 +6789,9 @@
       <c r="D65" s="9" t="s">
         <v>10</v>
       </c>
+      <c r="E65" s="1" t="s">
+        <v>10</v>
+      </c>
     </row>
     <row r="66" customFormat="false" ht="16.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A66" s="6" t="n">
@@ -6629,6 +6806,9 @@
       <c r="D66" s="9" t="s">
         <v>10</v>
       </c>
+      <c r="E66" s="1" t="s">
+        <v>10</v>
+      </c>
     </row>
     <row r="67" customFormat="false" ht="16.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A67" s="6" t="n">
@@ -6641,6 +6821,9 @@
       <c r="D67" s="9" t="s">
         <v>10</v>
       </c>
+      <c r="E67" s="1" t="s">
+        <v>10</v>
+      </c>
     </row>
     <row r="68" customFormat="false" ht="16.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A68" s="6" t="n">
@@ -6653,6 +6836,9 @@
       <c r="D68" s="9" t="s">
         <v>10</v>
       </c>
+      <c r="E68" s="1" t="s">
+        <v>10</v>
+      </c>
     </row>
     <row r="69" customFormat="false" ht="16.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A69" s="6" t="n">
@@ -6665,6 +6851,9 @@
       <c r="D69" s="9" t="s">
         <v>10</v>
       </c>
+      <c r="E69" s="1" t="s">
+        <v>10</v>
+      </c>
     </row>
     <row r="70" customFormat="false" ht="16.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A70" s="6" t="n">
@@ -6679,6 +6868,9 @@
       <c r="D70" s="9" t="s">
         <v>10</v>
       </c>
+      <c r="E70" s="1" t="s">
+        <v>10</v>
+      </c>
     </row>
     <row r="71" customFormat="false" ht="16.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A71" s="6" t="n">
@@ -6691,6 +6883,9 @@
       <c r="D71" s="9" t="s">
         <v>10</v>
       </c>
+      <c r="E71" s="1" t="s">
+        <v>10</v>
+      </c>
     </row>
     <row r="72" customFormat="false" ht="16.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A72" s="6" t="n">
@@ -6705,6 +6900,9 @@
       <c r="D72" s="9" t="s">
         <v>10</v>
       </c>
+      <c r="E72" s="1" t="s">
+        <v>10</v>
+      </c>
     </row>
     <row r="73" customFormat="false" ht="16.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A73" s="6" t="n">
@@ -6717,6 +6915,9 @@
       <c r="D73" s="9" t="s">
         <v>10</v>
       </c>
+      <c r="E73" s="1" t="s">
+        <v>10</v>
+      </c>
     </row>
     <row r="74" customFormat="false" ht="16.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A74" s="6" t="n">
@@ -6729,6 +6930,9 @@
       <c r="D74" s="9" t="s">
         <v>10</v>
       </c>
+      <c r="E74" s="1" t="s">
+        <v>10</v>
+      </c>
     </row>
     <row r="75" customFormat="false" ht="31.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A75" s="6" t="n">
@@ -6739,6 +6943,9 @@
         <v>195</v>
       </c>
       <c r="D75" s="9" t="s">
+        <v>10</v>
+      </c>
+      <c r="E75" s="1" t="s">
         <v>10</v>
       </c>
     </row>

--- a/07 ootareon 目標管理シート.xlsx
+++ b/07 ootareon 目標管理シート.xlsx
@@ -5,7 +5,7 @@
   <workbookPr backupFile="false" showObjects="all" date1904="false"/>
   <workbookProtection/>
   <bookViews>
-    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="500" firstSheet="0" activeTab="3"/>
+    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="500" firstSheet="0" activeTab="5"/>
   </bookViews>
   <sheets>
     <sheet name="学習目標チェックシート(ビジネスマナー)" sheetId="1" state="visible" r:id="rId3"/>
@@ -47,7 +47,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="987" uniqueCount="526">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1010" uniqueCount="526">
   <si>
     <t xml:space="preserve">学習目標自己チェックシート(ビジネスマナー)</t>
   </si>
@@ -2181,9 +2181,9 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>20</xdr:col>
-      <xdr:colOff>539640</xdr:colOff>
+      <xdr:colOff>539280</xdr:colOff>
       <xdr:row>6</xdr:row>
-      <xdr:rowOff>29520</xdr:rowOff>
+      <xdr:rowOff>29160</xdr:rowOff>
     </xdr:to>
     <xdr:sp>
       <xdr:nvSpPr>
@@ -2193,7 +2193,7 @@
       <xdr:spPr>
         <a:xfrm>
           <a:off x="14182920" y="0"/>
-          <a:ext cx="5006160" cy="1620360"/>
+          <a:ext cx="5005800" cy="1620000"/>
         </a:xfrm>
         <a:prstGeom prst="wedgeRoundRectCallout">
           <a:avLst>
@@ -2359,9 +2359,9 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>16</xdr:col>
-      <xdr:colOff>301680</xdr:colOff>
+      <xdr:colOff>301320</xdr:colOff>
       <xdr:row>6</xdr:row>
-      <xdr:rowOff>174600</xdr:rowOff>
+      <xdr:rowOff>174240</xdr:rowOff>
     </xdr:to>
     <xdr:sp>
       <xdr:nvSpPr>
@@ -2371,7 +2371,7 @@
       <xdr:spPr>
         <a:xfrm>
           <a:off x="11673360" y="145080"/>
-          <a:ext cx="5006160" cy="1620360"/>
+          <a:ext cx="5005800" cy="1620000"/>
         </a:xfrm>
         <a:prstGeom prst="wedgeRoundRectCallout">
           <a:avLst>
@@ -2537,9 +2537,9 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>16</xdr:col>
-      <xdr:colOff>301680</xdr:colOff>
+      <xdr:colOff>301320</xdr:colOff>
       <xdr:row>6</xdr:row>
-      <xdr:rowOff>174600</xdr:rowOff>
+      <xdr:rowOff>174240</xdr:rowOff>
     </xdr:to>
     <xdr:sp>
       <xdr:nvSpPr>
@@ -2549,7 +2549,7 @@
       <xdr:spPr>
         <a:xfrm>
           <a:off x="11620440" y="145080"/>
-          <a:ext cx="5006520" cy="1620360"/>
+          <a:ext cx="5006160" cy="1620000"/>
         </a:xfrm>
         <a:prstGeom prst="wedgeRoundRectCallout">
           <a:avLst>
@@ -2715,9 +2715,9 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>19</xdr:col>
-      <xdr:colOff>452520</xdr:colOff>
+      <xdr:colOff>452160</xdr:colOff>
       <xdr:row>6</xdr:row>
-      <xdr:rowOff>66960</xdr:rowOff>
+      <xdr:rowOff>66600</xdr:rowOff>
     </xdr:to>
     <xdr:sp>
       <xdr:nvSpPr>
@@ -2727,7 +2727,7 @@
       <xdr:spPr>
         <a:xfrm>
           <a:off x="13364640" y="0"/>
-          <a:ext cx="5064120" cy="1657800"/>
+          <a:ext cx="5063760" cy="1657440"/>
         </a:xfrm>
         <a:prstGeom prst="wedgeRoundRectCallout">
           <a:avLst>
@@ -2888,9 +2888,9 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>4</xdr:col>
-      <xdr:colOff>74880</xdr:colOff>
+      <xdr:colOff>74520</xdr:colOff>
       <xdr:row>85</xdr:row>
-      <xdr:rowOff>165600</xdr:rowOff>
+      <xdr:rowOff>165240</xdr:rowOff>
     </xdr:to>
     <xdr:sp>
       <xdr:nvSpPr>
@@ -2900,7 +2900,7 @@
       <xdr:spPr>
         <a:xfrm>
           <a:off x="11283480" y="16242120"/>
-          <a:ext cx="194040" cy="2224800"/>
+          <a:ext cx="193680" cy="2224440"/>
         </a:xfrm>
         <a:prstGeom prst="rightBrace">
           <a:avLst>
@@ -2940,9 +2940,9 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>15</xdr:col>
-      <xdr:colOff>403560</xdr:colOff>
+      <xdr:colOff>403200</xdr:colOff>
       <xdr:row>84</xdr:row>
-      <xdr:rowOff>126360</xdr:rowOff>
+      <xdr:rowOff>126000</xdr:rowOff>
     </xdr:to>
     <xdr:sp>
       <xdr:nvSpPr>
@@ -2952,7 +2952,7 @@
       <xdr:spPr>
         <a:xfrm>
           <a:off x="11702160" y="17062200"/>
-          <a:ext cx="4616280" cy="1155960"/>
+          <a:ext cx="4615920" cy="1155600"/>
         </a:xfrm>
         <a:prstGeom prst="ellipse">
           <a:avLst/>
@@ -3053,9 +3053,9 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>21</xdr:col>
-      <xdr:colOff>25200</xdr:colOff>
+      <xdr:colOff>24840</xdr:colOff>
       <xdr:row>6</xdr:row>
-      <xdr:rowOff>56520</xdr:rowOff>
+      <xdr:rowOff>56160</xdr:rowOff>
     </xdr:to>
     <xdr:sp>
       <xdr:nvSpPr>
@@ -3065,7 +3065,7 @@
       <xdr:spPr>
         <a:xfrm>
           <a:off x="13158360" y="0"/>
-          <a:ext cx="5027760" cy="1647360"/>
+          <a:ext cx="5027400" cy="1647000"/>
         </a:xfrm>
         <a:prstGeom prst="wedgeRoundRectCallout">
           <a:avLst>
@@ -3224,16 +3224,16 @@
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <xdr:twoCellAnchor editAs="twoCell">
     <xdr:from>
-      <xdr:col>4</xdr:col>
-      <xdr:colOff>171720</xdr:colOff>
+      <xdr:col>34</xdr:col>
+      <xdr:colOff>528120</xdr:colOff>
       <xdr:row>0</xdr:row>
-      <xdr:rowOff>156960</xdr:rowOff>
+      <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>16</xdr:col>
-      <xdr:colOff>313200</xdr:colOff>
+      <xdr:col>43</xdr:col>
+      <xdr:colOff>7920</xdr:colOff>
       <xdr:row>13</xdr:row>
-      <xdr:rowOff>202680</xdr:rowOff>
+      <xdr:rowOff>45360</xdr:rowOff>
     </xdr:to>
     <xdr:sp>
       <xdr:nvSpPr>
@@ -3242,8 +3242,8 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="11906640" y="156960"/>
-          <a:ext cx="5063760" cy="3103200"/>
+          <a:off x="28142280" y="0"/>
+          <a:ext cx="5063400" cy="3141000"/>
         </a:xfrm>
         <a:prstGeom prst="wedgeRoundRectCallout">
           <a:avLst>
@@ -3409,9 +3409,9 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>16</xdr:col>
-      <xdr:colOff>313200</xdr:colOff>
+      <xdr:colOff>312840</xdr:colOff>
       <xdr:row>11</xdr:row>
-      <xdr:rowOff>202680</xdr:rowOff>
+      <xdr:rowOff>202320</xdr:rowOff>
     </xdr:to>
     <xdr:sp>
       <xdr:nvSpPr>
@@ -3421,7 +3421,7 @@
       <xdr:spPr>
         <a:xfrm>
           <a:off x="11906640" y="156960"/>
-          <a:ext cx="5063760" cy="2684160"/>
+          <a:ext cx="5063400" cy="2683800"/>
         </a:xfrm>
         <a:prstGeom prst="wedgeRoundRectCallout">
           <a:avLst>
@@ -5827,7 +5827,7 @@
   </sheetPr>
   <dimension ref="A1:E86"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="pageBreakPreview" topLeftCell="C53" colorId="64" zoomScale="80" zoomScaleNormal="70" zoomScalePageLayoutView="80" workbookViewId="0">
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="pageBreakPreview" topLeftCell="C53" colorId="64" zoomScale="80" zoomScaleNormal="70" zoomScalePageLayoutView="80" workbookViewId="0">
       <selection pane="topLeft" activeCell="E76" activeCellId="0" sqref="E76"/>
     </sheetView>
   </sheetViews>
@@ -10311,8 +10311,8 @@
   </sheetPr>
   <dimension ref="A1:D79"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="pageBreakPreview" topLeftCell="A1" colorId="64" zoomScale="80" zoomScaleNormal="85" zoomScalePageLayoutView="80" workbookViewId="0">
-      <selection pane="topLeft" activeCell="C32" activeCellId="0" sqref="C32"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="pageBreakPreview" topLeftCell="A32" colorId="64" zoomScale="80" zoomScaleNormal="85" zoomScalePageLayoutView="80" workbookViewId="0">
+      <selection pane="topLeft" activeCell="D39" activeCellId="0" sqref="D39"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.45703125" defaultRowHeight="16.5" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -10377,9 +10377,11 @@
       <c r="C7" s="18" t="s">
         <v>408</v>
       </c>
-      <c r="D7" s="9"/>
-    </row>
-    <row r="8" customFormat="false" ht="16.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="D7" s="9" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="8" customFormat="false" ht="17" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A8" s="6" t="n">
         <f aca="false">ROW()-6</f>
         <v>2</v>
@@ -10388,9 +10390,11 @@
       <c r="C8" s="17" t="s">
         <v>409</v>
       </c>
-      <c r="D8" s="9"/>
-    </row>
-    <row r="9" customFormat="false" ht="16.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="D8" s="9" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="9" customFormat="false" ht="17" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A9" s="6" t="n">
         <f aca="false">ROW()-6</f>
         <v>3</v>
@@ -10399,9 +10403,11 @@
       <c r="C9" s="17" t="s">
         <v>410</v>
       </c>
-      <c r="D9" s="9"/>
-    </row>
-    <row r="10" customFormat="false" ht="16.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="D9" s="9" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="10" customFormat="false" ht="17" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A10" s="6" t="n">
         <f aca="false">ROW()-6</f>
         <v>4</v>
@@ -10410,9 +10416,11 @@
       <c r="C10" s="17" t="s">
         <v>411</v>
       </c>
-      <c r="D10" s="9"/>
-    </row>
-    <row r="11" customFormat="false" ht="16.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="D10" s="9" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="11" customFormat="false" ht="17" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A11" s="6" t="n">
         <f aca="false">ROW()-6</f>
         <v>5</v>
@@ -10421,9 +10429,11 @@
       <c r="C11" s="17" t="s">
         <v>412</v>
       </c>
-      <c r="D11" s="9"/>
-    </row>
-    <row r="12" customFormat="false" ht="16.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="D11" s="9" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="12" customFormat="false" ht="17" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A12" s="6" t="n">
         <f aca="false">ROW()-6</f>
         <v>6</v>
@@ -10432,9 +10442,11 @@
       <c r="C12" s="17" t="s">
         <v>413</v>
       </c>
-      <c r="D12" s="9"/>
-    </row>
-    <row r="13" customFormat="false" ht="16.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="D12" s="9" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="13" customFormat="false" ht="17" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A13" s="6" t="n">
         <f aca="false">ROW()-6</f>
         <v>7</v>
@@ -10443,9 +10455,11 @@
       <c r="C13" s="17" t="s">
         <v>414</v>
       </c>
-      <c r="D13" s="9"/>
-    </row>
-    <row r="14" customFormat="false" ht="16.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="D13" s="9" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="14" customFormat="false" ht="17" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A14" s="6" t="n">
         <f aca="false">ROW()-6</f>
         <v>8</v>
@@ -10454,7 +10468,9 @@
       <c r="C14" s="17" t="s">
         <v>415</v>
       </c>
-      <c r="D14" s="9"/>
+      <c r="D14" s="9" t="s">
+        <v>10</v>
+      </c>
     </row>
     <row r="15" customFormat="false" ht="16.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A15" s="6" t="n">
@@ -10467,9 +10483,11 @@
       <c r="C15" s="17" t="s">
         <v>417</v>
       </c>
-      <c r="D15" s="9"/>
-    </row>
-    <row r="16" customFormat="false" ht="16.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="D15" s="9" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" customFormat="false" ht="17" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A16" s="6" t="n">
         <f aca="false">ROW()-6</f>
         <v>10</v>
@@ -10478,9 +10496,11 @@
       <c r="C16" s="17" t="s">
         <v>418</v>
       </c>
-      <c r="D16" s="9"/>
-    </row>
-    <row r="17" customFormat="false" ht="16.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="D16" s="9" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="17" customFormat="false" ht="17" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A17" s="6" t="n">
         <f aca="false">ROW()-6</f>
         <v>11</v>
@@ -10489,9 +10509,11 @@
       <c r="C17" s="17" t="s">
         <v>419</v>
       </c>
-      <c r="D17" s="9"/>
-    </row>
-    <row r="18" customFormat="false" ht="16.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="D17" s="9" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="18" customFormat="false" ht="17" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A18" s="6" t="n">
         <f aca="false">ROW()-6</f>
         <v>12</v>
@@ -10500,9 +10522,11 @@
       <c r="C18" s="17" t="s">
         <v>420</v>
       </c>
-      <c r="D18" s="9"/>
-    </row>
-    <row r="19" customFormat="false" ht="16.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="D18" s="9" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="19" customFormat="false" ht="17" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A19" s="6" t="n">
         <f aca="false">ROW()-6</f>
         <v>13</v>
@@ -10511,9 +10535,11 @@
       <c r="C19" s="17" t="s">
         <v>421</v>
       </c>
-      <c r="D19" s="9"/>
-    </row>
-    <row r="20" customFormat="false" ht="16.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="D19" s="9" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="20" customFormat="false" ht="17" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A20" s="6" t="n">
         <f aca="false">ROW()-6</f>
         <v>14</v>
@@ -10522,9 +10548,11 @@
       <c r="C20" s="17" t="s">
         <v>422</v>
       </c>
-      <c r="D20" s="9"/>
-    </row>
-    <row r="21" customFormat="false" ht="16.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="D20" s="9" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="21" customFormat="false" ht="17" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A21" s="6" t="n">
         <f aca="false">ROW()-6</f>
         <v>15</v>
@@ -10533,9 +10561,11 @@
       <c r="C21" s="17" t="s">
         <v>423</v>
       </c>
-      <c r="D21" s="9"/>
-    </row>
-    <row r="22" customFormat="false" ht="16.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="D21" s="9" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="22" customFormat="false" ht="17" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A22" s="6" t="n">
         <f aca="false">ROW()-6</f>
         <v>16</v>
@@ -10544,9 +10574,11 @@
       <c r="C22" s="17" t="s">
         <v>424</v>
       </c>
-      <c r="D22" s="9"/>
-    </row>
-    <row r="23" customFormat="false" ht="16.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="D22" s="9" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="23" customFormat="false" ht="17" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A23" s="6" t="n">
         <f aca="false">ROW()-6</f>
         <v>17</v>
@@ -10555,9 +10587,11 @@
       <c r="C23" s="17" t="s">
         <v>425</v>
       </c>
-      <c r="D23" s="9"/>
-    </row>
-    <row r="24" customFormat="false" ht="16.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="D23" s="9" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="24" customFormat="false" ht="17" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A24" s="6" t="n">
         <f aca="false">ROW()-6</f>
         <v>18</v>
@@ -10566,9 +10600,11 @@
       <c r="C24" s="17" t="s">
         <v>426</v>
       </c>
-      <c r="D24" s="9"/>
-    </row>
-    <row r="25" customFormat="false" ht="16.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="D24" s="9" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="25" customFormat="false" ht="17" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A25" s="6" t="n">
         <f aca="false">ROW()-6</f>
         <v>19</v>
@@ -10577,9 +10613,11 @@
       <c r="C25" s="17" t="s">
         <v>427</v>
       </c>
-      <c r="D25" s="9"/>
-    </row>
-    <row r="26" customFormat="false" ht="16.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="D25" s="9" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="26" customFormat="false" ht="17" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A26" s="6" t="n">
         <f aca="false">ROW()-6</f>
         <v>20</v>
@@ -10588,9 +10626,11 @@
       <c r="C26" s="17" t="s">
         <v>428</v>
       </c>
-      <c r="D26" s="9"/>
-    </row>
-    <row r="27" customFormat="false" ht="16.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="D26" s="9" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="27" customFormat="false" ht="17" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A27" s="6" t="n">
         <f aca="false">ROW()-6</f>
         <v>21</v>
@@ -10599,7 +10639,9 @@
       <c r="C27" s="17" t="s">
         <v>429</v>
       </c>
-      <c r="D27" s="9"/>
+      <c r="D27" s="9" t="s">
+        <v>10</v>
+      </c>
     </row>
     <row r="28" customFormat="false" ht="16.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A28" s="6" t="n">
@@ -10612,9 +10654,11 @@
       <c r="C28" s="17" t="s">
         <v>431</v>
       </c>
-      <c r="D28" s="9"/>
-    </row>
-    <row r="29" customFormat="false" ht="16.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="D28" s="9" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29" customFormat="false" ht="17" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A29" s="6" t="n">
         <f aca="false">ROW()-6</f>
         <v>23</v>
@@ -10623,9 +10667,11 @@
       <c r="C29" s="17" t="s">
         <v>432</v>
       </c>
-      <c r="D29" s="9"/>
-    </row>
-    <row r="30" customFormat="false" ht="16.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="D29" s="9" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="30" customFormat="false" ht="17" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A30" s="6" t="n">
         <f aca="false">ROW()-6</f>
         <v>24</v>
@@ -10634,7 +10680,9 @@
       <c r="C30" s="17" t="s">
         <v>433</v>
       </c>
-      <c r="D30" s="9"/>
+      <c r="D30" s="9" t="s">
+        <v>10</v>
+      </c>
     </row>
     <row r="31" s="1" customFormat="true" ht="16.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A31" s="6" t="n">
@@ -10647,9 +10695,11 @@
       <c r="C31" s="17" t="s">
         <v>435</v>
       </c>
-      <c r="D31" s="9"/>
-    </row>
-    <row r="32" s="1" customFormat="true" ht="16.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="D31" s="9" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="32" s="1" customFormat="true" ht="17" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A32" s="6" t="n">
         <f aca="false">ROW()-6</f>
         <v>26</v>
@@ -10658,9 +10708,11 @@
       <c r="C32" s="17" t="s">
         <v>436</v>
       </c>
-      <c r="D32" s="9"/>
-    </row>
-    <row r="33" s="1" customFormat="true" ht="16.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="D32" s="9" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="33" s="1" customFormat="true" ht="17" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A33" s="6" t="n">
         <f aca="false">ROW()-6</f>
         <v>27</v>
@@ -10669,9 +10721,11 @@
       <c r="C33" s="17" t="s">
         <v>437</v>
       </c>
-      <c r="D33" s="9"/>
-    </row>
-    <row r="34" s="1" customFormat="true" ht="16.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="D33" s="9" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="34" s="1" customFormat="true" ht="17" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A34" s="6" t="n">
         <f aca="false">ROW()-6</f>
         <v>28</v>
@@ -10680,9 +10734,11 @@
       <c r="C34" s="17" t="s">
         <v>438</v>
       </c>
-      <c r="D34" s="9"/>
-    </row>
-    <row r="35" s="1" customFormat="true" ht="16.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="D34" s="9" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="35" s="1" customFormat="true" ht="17" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A35" s="6" t="n">
         <f aca="false">ROW()-6</f>
         <v>29</v>
@@ -10691,9 +10747,11 @@
       <c r="C35" s="17" t="s">
         <v>439</v>
       </c>
-      <c r="D35" s="9"/>
-    </row>
-    <row r="36" s="1" customFormat="true" ht="16.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="D35" s="9" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="36" s="1" customFormat="true" ht="17" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A36" s="6" t="n">
         <f aca="false">ROW()-6</f>
         <v>30</v>
@@ -10702,9 +10760,11 @@
       <c r="C36" s="17" t="s">
         <v>440</v>
       </c>
-      <c r="D36" s="9"/>
-    </row>
-    <row r="37" s="1" customFormat="true" ht="16.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="D36" s="9" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="37" s="1" customFormat="true" ht="17" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A37" s="6" t="n">
         <f aca="false">ROW()-6</f>
         <v>31</v>
@@ -10713,9 +10773,11 @@
       <c r="C37" s="17" t="s">
         <v>441</v>
       </c>
-      <c r="D37" s="9"/>
-    </row>
-    <row r="38" s="1" customFormat="true" ht="16.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="D37" s="9" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="38" s="1" customFormat="true" ht="17" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A38" s="6" t="n">
         <f aca="false">ROW()-6</f>
         <v>32</v>
@@ -10724,7 +10786,9 @@
       <c r="C38" s="17" t="s">
         <v>442</v>
       </c>
-      <c r="D38" s="9"/>
+      <c r="D38" s="9" t="s">
+        <v>10</v>
+      </c>
     </row>
     <row r="39" s="1" customFormat="true" ht="16.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A39" s="6" t="n">

--- a/07 ootareon 目標管理シート.xlsx
+++ b/07 ootareon 目標管理シート.xlsx
@@ -47,7 +47,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1010" uniqueCount="526">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1052" uniqueCount="526">
   <si>
     <t xml:space="preserve">学習目標自己チェックシート(ビジネスマナー)</t>
   </si>
@@ -2181,9 +2181,9 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>20</xdr:col>
-      <xdr:colOff>539280</xdr:colOff>
+      <xdr:colOff>538920</xdr:colOff>
       <xdr:row>6</xdr:row>
-      <xdr:rowOff>29160</xdr:rowOff>
+      <xdr:rowOff>28800</xdr:rowOff>
     </xdr:to>
     <xdr:sp>
       <xdr:nvSpPr>
@@ -2193,7 +2193,7 @@
       <xdr:spPr>
         <a:xfrm>
           <a:off x="14182920" y="0"/>
-          <a:ext cx="5005800" cy="1620000"/>
+          <a:ext cx="5005440" cy="1619640"/>
         </a:xfrm>
         <a:prstGeom prst="wedgeRoundRectCallout">
           <a:avLst>
@@ -2359,9 +2359,9 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>16</xdr:col>
-      <xdr:colOff>301320</xdr:colOff>
+      <xdr:colOff>300960</xdr:colOff>
       <xdr:row>6</xdr:row>
-      <xdr:rowOff>174240</xdr:rowOff>
+      <xdr:rowOff>173880</xdr:rowOff>
     </xdr:to>
     <xdr:sp>
       <xdr:nvSpPr>
@@ -2371,7 +2371,7 @@
       <xdr:spPr>
         <a:xfrm>
           <a:off x="11673360" y="145080"/>
-          <a:ext cx="5005800" cy="1620000"/>
+          <a:ext cx="5005440" cy="1619640"/>
         </a:xfrm>
         <a:prstGeom prst="wedgeRoundRectCallout">
           <a:avLst>
@@ -2537,9 +2537,9 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>16</xdr:col>
-      <xdr:colOff>301320</xdr:colOff>
+      <xdr:colOff>300960</xdr:colOff>
       <xdr:row>6</xdr:row>
-      <xdr:rowOff>174240</xdr:rowOff>
+      <xdr:rowOff>173880</xdr:rowOff>
     </xdr:to>
     <xdr:sp>
       <xdr:nvSpPr>
@@ -2549,7 +2549,7 @@
       <xdr:spPr>
         <a:xfrm>
           <a:off x="11620440" y="145080"/>
-          <a:ext cx="5006160" cy="1620000"/>
+          <a:ext cx="5005800" cy="1619640"/>
         </a:xfrm>
         <a:prstGeom prst="wedgeRoundRectCallout">
           <a:avLst>
@@ -2715,9 +2715,9 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>19</xdr:col>
-      <xdr:colOff>452160</xdr:colOff>
+      <xdr:colOff>451800</xdr:colOff>
       <xdr:row>6</xdr:row>
-      <xdr:rowOff>66600</xdr:rowOff>
+      <xdr:rowOff>66240</xdr:rowOff>
     </xdr:to>
     <xdr:sp>
       <xdr:nvSpPr>
@@ -2727,7 +2727,7 @@
       <xdr:spPr>
         <a:xfrm>
           <a:off x="13364640" y="0"/>
-          <a:ext cx="5063760" cy="1657440"/>
+          <a:ext cx="5063400" cy="1657080"/>
         </a:xfrm>
         <a:prstGeom prst="wedgeRoundRectCallout">
           <a:avLst>
@@ -2888,9 +2888,9 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>4</xdr:col>
-      <xdr:colOff>74520</xdr:colOff>
+      <xdr:colOff>74160</xdr:colOff>
       <xdr:row>85</xdr:row>
-      <xdr:rowOff>165240</xdr:rowOff>
+      <xdr:rowOff>164880</xdr:rowOff>
     </xdr:to>
     <xdr:sp>
       <xdr:nvSpPr>
@@ -2900,7 +2900,7 @@
       <xdr:spPr>
         <a:xfrm>
           <a:off x="11283480" y="16242120"/>
-          <a:ext cx="193680" cy="2224440"/>
+          <a:ext cx="193320" cy="2224080"/>
         </a:xfrm>
         <a:prstGeom prst="rightBrace">
           <a:avLst>
@@ -2940,9 +2940,9 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>15</xdr:col>
-      <xdr:colOff>403200</xdr:colOff>
+      <xdr:colOff>402840</xdr:colOff>
       <xdr:row>84</xdr:row>
-      <xdr:rowOff>126000</xdr:rowOff>
+      <xdr:rowOff>125640</xdr:rowOff>
     </xdr:to>
     <xdr:sp>
       <xdr:nvSpPr>
@@ -2952,7 +2952,7 @@
       <xdr:spPr>
         <a:xfrm>
           <a:off x="11702160" y="17062200"/>
-          <a:ext cx="4615920" cy="1155600"/>
+          <a:ext cx="4615560" cy="1155240"/>
         </a:xfrm>
         <a:prstGeom prst="ellipse">
           <a:avLst/>
@@ -3053,9 +3053,9 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>21</xdr:col>
-      <xdr:colOff>24840</xdr:colOff>
+      <xdr:colOff>24480</xdr:colOff>
       <xdr:row>6</xdr:row>
-      <xdr:rowOff>56160</xdr:rowOff>
+      <xdr:rowOff>55800</xdr:rowOff>
     </xdr:to>
     <xdr:sp>
       <xdr:nvSpPr>
@@ -3065,7 +3065,7 @@
       <xdr:spPr>
         <a:xfrm>
           <a:off x="13158360" y="0"/>
-          <a:ext cx="5027400" cy="1647000"/>
+          <a:ext cx="5027040" cy="1646640"/>
         </a:xfrm>
         <a:prstGeom prst="wedgeRoundRectCallout">
           <a:avLst>
@@ -3231,9 +3231,9 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>43</xdr:col>
-      <xdr:colOff>7920</xdr:colOff>
+      <xdr:colOff>7560</xdr:colOff>
       <xdr:row>13</xdr:row>
-      <xdr:rowOff>45360</xdr:rowOff>
+      <xdr:rowOff>45000</xdr:rowOff>
     </xdr:to>
     <xdr:sp>
       <xdr:nvSpPr>
@@ -3243,7 +3243,7 @@
       <xdr:spPr>
         <a:xfrm>
           <a:off x="28142280" y="0"/>
-          <a:ext cx="5063400" cy="3141000"/>
+          <a:ext cx="5063040" cy="3140640"/>
         </a:xfrm>
         <a:prstGeom prst="wedgeRoundRectCallout">
           <a:avLst>
@@ -3409,9 +3409,9 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>16</xdr:col>
-      <xdr:colOff>312840</xdr:colOff>
+      <xdr:colOff>312480</xdr:colOff>
       <xdr:row>11</xdr:row>
-      <xdr:rowOff>202320</xdr:rowOff>
+      <xdr:rowOff>201960</xdr:rowOff>
     </xdr:to>
     <xdr:sp>
       <xdr:nvSpPr>
@@ -3421,7 +3421,7 @@
       <xdr:spPr>
         <a:xfrm>
           <a:off x="11906640" y="156960"/>
-          <a:ext cx="5063400" cy="2683800"/>
+          <a:ext cx="5063040" cy="2683440"/>
         </a:xfrm>
         <a:prstGeom prst="wedgeRoundRectCallout">
           <a:avLst>
@@ -10309,10 +10309,10 @@
     <tabColor rgb="FF9DC3E6"/>
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:D79"/>
+  <dimension ref="A1:E79"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="pageBreakPreview" topLeftCell="A32" colorId="64" zoomScale="80" zoomScaleNormal="85" zoomScalePageLayoutView="80" workbookViewId="0">
-      <selection pane="topLeft" activeCell="D39" activeCellId="0" sqref="D39"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="pageBreakPreview" topLeftCell="A38" colorId="64" zoomScale="80" zoomScaleNormal="85" zoomScalePageLayoutView="80" workbookViewId="0">
+      <selection pane="topLeft" activeCell="E60" activeCellId="0" sqref="E60"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.45703125" defaultRowHeight="16.5" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -10380,6 +10380,9 @@
       <c r="D7" s="9" t="n">
         <v>0</v>
       </c>
+      <c r="E7" s="1" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="8" customFormat="false" ht="17" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A8" s="6" t="n">
@@ -10393,6 +10396,9 @@
       <c r="D8" s="9" t="n">
         <v>0</v>
       </c>
+      <c r="E8" s="1" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="9" customFormat="false" ht="17" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A9" s="6" t="n">
@@ -10406,6 +10412,9 @@
       <c r="D9" s="9" t="n">
         <v>0</v>
       </c>
+      <c r="E9" s="1" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="10" customFormat="false" ht="17" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A10" s="6" t="n">
@@ -10419,6 +10428,9 @@
       <c r="D10" s="9" t="s">
         <v>10</v>
       </c>
+      <c r="E10" s="1" t="s">
+        <v>10</v>
+      </c>
     </row>
     <row r="11" customFormat="false" ht="17" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A11" s="6" t="n">
@@ -10432,6 +10444,9 @@
       <c r="D11" s="9" t="s">
         <v>10</v>
       </c>
+      <c r="E11" s="1" t="s">
+        <v>10</v>
+      </c>
     </row>
     <row r="12" customFormat="false" ht="17" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A12" s="6" t="n">
@@ -10445,6 +10460,9 @@
       <c r="D12" s="9" t="s">
         <v>10</v>
       </c>
+      <c r="E12" s="1" t="s">
+        <v>10</v>
+      </c>
     </row>
     <row r="13" customFormat="false" ht="17" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A13" s="6" t="n">
@@ -10458,6 +10476,9 @@
       <c r="D13" s="9" t="s">
         <v>10</v>
       </c>
+      <c r="E13" s="1" t="s">
+        <v>10</v>
+      </c>
     </row>
     <row r="14" customFormat="false" ht="17" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A14" s="6" t="n">
@@ -10471,6 +10492,9 @@
       <c r="D14" s="9" t="s">
         <v>10</v>
       </c>
+      <c r="E14" s="1" t="s">
+        <v>10</v>
+      </c>
     </row>
     <row r="15" customFormat="false" ht="16.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A15" s="6" t="n">
@@ -10484,6 +10508,9 @@
         <v>417</v>
       </c>
       <c r="D15" s="9" t="n">
+        <v>0</v>
+      </c>
+      <c r="E15" s="1" t="n">
         <v>0</v>
       </c>
     </row>
@@ -10499,6 +10526,9 @@
       <c r="D16" s="9" t="s">
         <v>10</v>
       </c>
+      <c r="E16" s="1" t="s">
+        <v>10</v>
+      </c>
     </row>
     <row r="17" customFormat="false" ht="17" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A17" s="6" t="n">
@@ -10512,6 +10542,9 @@
       <c r="D17" s="9" t="s">
         <v>10</v>
       </c>
+      <c r="E17" s="1" t="s">
+        <v>10</v>
+      </c>
     </row>
     <row r="18" customFormat="false" ht="17" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A18" s="6" t="n">
@@ -10525,6 +10558,9 @@
       <c r="D18" s="9" t="s">
         <v>10</v>
       </c>
+      <c r="E18" s="1" t="s">
+        <v>10</v>
+      </c>
     </row>
     <row r="19" customFormat="false" ht="17" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A19" s="6" t="n">
@@ -10538,6 +10574,9 @@
       <c r="D19" s="9" t="s">
         <v>10</v>
       </c>
+      <c r="E19" s="1" t="s">
+        <v>10</v>
+      </c>
     </row>
     <row r="20" customFormat="false" ht="17" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A20" s="6" t="n">
@@ -10551,6 +10590,9 @@
       <c r="D20" s="9" t="n">
         <v>0</v>
       </c>
+      <c r="E20" s="1" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="21" customFormat="false" ht="17" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A21" s="6" t="n">
@@ -10564,6 +10606,9 @@
       <c r="D21" s="9" t="s">
         <v>10</v>
       </c>
+      <c r="E21" s="1" t="s">
+        <v>10</v>
+      </c>
     </row>
     <row r="22" customFormat="false" ht="17" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A22" s="6" t="n">
@@ -10577,6 +10622,9 @@
       <c r="D22" s="9" t="s">
         <v>10</v>
       </c>
+      <c r="E22" s="1" t="s">
+        <v>10</v>
+      </c>
     </row>
     <row r="23" customFormat="false" ht="17" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A23" s="6" t="n">
@@ -10590,6 +10638,9 @@
       <c r="D23" s="9" t="s">
         <v>10</v>
       </c>
+      <c r="E23" s="1" t="s">
+        <v>10</v>
+      </c>
     </row>
     <row r="24" customFormat="false" ht="17" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A24" s="6" t="n">
@@ -10603,6 +10654,9 @@
       <c r="D24" s="9" t="s">
         <v>10</v>
       </c>
+      <c r="E24" s="1" t="s">
+        <v>10</v>
+      </c>
     </row>
     <row r="25" customFormat="false" ht="17" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A25" s="6" t="n">
@@ -10616,6 +10670,9 @@
       <c r="D25" s="9" t="s">
         <v>10</v>
       </c>
+      <c r="E25" s="1" t="s">
+        <v>10</v>
+      </c>
     </row>
     <row r="26" customFormat="false" ht="17" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A26" s="6" t="n">
@@ -10629,6 +10686,9 @@
       <c r="D26" s="9" t="s">
         <v>10</v>
       </c>
+      <c r="E26" s="1" t="s">
+        <v>10</v>
+      </c>
     </row>
     <row r="27" customFormat="false" ht="17" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A27" s="6" t="n">
@@ -10642,6 +10702,9 @@
       <c r="D27" s="9" t="s">
         <v>10</v>
       </c>
+      <c r="E27" s="1" t="s">
+        <v>10</v>
+      </c>
     </row>
     <row r="28" customFormat="false" ht="16.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A28" s="6" t="n">
@@ -10655,6 +10718,9 @@
         <v>431</v>
       </c>
       <c r="D28" s="9" t="n">
+        <v>0</v>
+      </c>
+      <c r="E28" s="1" t="n">
         <v>0</v>
       </c>
     </row>
@@ -10670,6 +10736,9 @@
       <c r="D29" s="9" t="s">
         <v>10</v>
       </c>
+      <c r="E29" s="1" t="s">
+        <v>10</v>
+      </c>
     </row>
     <row r="30" customFormat="false" ht="17" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A30" s="6" t="n">
@@ -10683,6 +10752,9 @@
       <c r="D30" s="9" t="s">
         <v>10</v>
       </c>
+      <c r="E30" s="1" t="s">
+        <v>10</v>
+      </c>
     </row>
     <row r="31" s="1" customFormat="true" ht="16.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A31" s="6" t="n">
@@ -10696,6 +10768,9 @@
         <v>435</v>
       </c>
       <c r="D31" s="9" t="s">
+        <v>10</v>
+      </c>
+      <c r="E31" s="1" t="s">
         <v>10</v>
       </c>
     </row>
@@ -10711,6 +10786,9 @@
       <c r="D32" s="9" t="s">
         <v>10</v>
       </c>
+      <c r="E32" s="1" t="s">
+        <v>10</v>
+      </c>
     </row>
     <row r="33" s="1" customFormat="true" ht="17" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A33" s="6" t="n">
@@ -10724,6 +10802,9 @@
       <c r="D33" s="9" t="n">
         <v>0</v>
       </c>
+      <c r="E33" s="1" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="34" s="1" customFormat="true" ht="17" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A34" s="6" t="n">
@@ -10737,6 +10818,9 @@
       <c r="D34" s="9" t="s">
         <v>10</v>
       </c>
+      <c r="E34" s="1" t="s">
+        <v>10</v>
+      </c>
     </row>
     <row r="35" s="1" customFormat="true" ht="17" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A35" s="6" t="n">
@@ -10750,6 +10834,9 @@
       <c r="D35" s="9" t="n">
         <v>0</v>
       </c>
+      <c r="E35" s="1" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="36" s="1" customFormat="true" ht="17" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A36" s="6" t="n">
@@ -10763,6 +10850,9 @@
       <c r="D36" s="9" t="s">
         <v>10</v>
       </c>
+      <c r="E36" s="1" t="s">
+        <v>10</v>
+      </c>
     </row>
     <row r="37" s="1" customFormat="true" ht="17" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A37" s="6" t="n">
@@ -10776,6 +10866,9 @@
       <c r="D37" s="9" t="n">
         <v>0</v>
       </c>
+      <c r="E37" s="1" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="38" s="1" customFormat="true" ht="17" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A38" s="6" t="n">
@@ -10789,6 +10882,9 @@
       <c r="D38" s="9" t="s">
         <v>10</v>
       </c>
+      <c r="E38" s="1" t="s">
+        <v>10</v>
+      </c>
     </row>
     <row r="39" s="1" customFormat="true" ht="16.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A39" s="6" t="n">
@@ -10802,6 +10898,9 @@
         <v>444</v>
       </c>
       <c r="D39" s="9"/>
+      <c r="E39" s="1" t="s">
+        <v>10</v>
+      </c>
     </row>
     <row r="40" s="1" customFormat="true" ht="16.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A40" s="6" t="n">
@@ -10813,6 +10912,9 @@
         <v>445</v>
       </c>
       <c r="D40" s="9"/>
+      <c r="E40" s="1" t="s">
+        <v>10</v>
+      </c>
     </row>
     <row r="41" s="1" customFormat="true" ht="16.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A41" s="6" t="n">
@@ -10824,6 +10926,9 @@
         <v>446</v>
       </c>
       <c r="D41" s="9"/>
+      <c r="E41" s="1" t="s">
+        <v>10</v>
+      </c>
     </row>
     <row r="42" s="1" customFormat="true" ht="16.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A42" s="6" t="n">
@@ -10835,6 +10940,9 @@
         <v>447</v>
       </c>
       <c r="D42" s="9"/>
+      <c r="E42" s="1" t="s">
+        <v>10</v>
+      </c>
     </row>
     <row r="43" s="1" customFormat="true" ht="16.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A43" s="6" t="n">
@@ -10846,6 +10954,9 @@
         <v>448</v>
       </c>
       <c r="D43" s="9"/>
+      <c r="E43" s="1" t="s">
+        <v>10</v>
+      </c>
     </row>
     <row r="44" s="1" customFormat="true" ht="16.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A44" s="6" t="n">
@@ -10857,6 +10968,9 @@
         <v>449</v>
       </c>
       <c r="D44" s="9"/>
+      <c r="E44" s="1" t="s">
+        <v>10</v>
+      </c>
     </row>
     <row r="45" s="1" customFormat="true" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A45" s="6" t="n">
@@ -10870,6 +10984,9 @@
         <v>451</v>
       </c>
       <c r="D45" s="9"/>
+      <c r="E45" s="1" t="s">
+        <v>10</v>
+      </c>
     </row>
     <row r="46" s="1" customFormat="true" ht="16.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A46" s="6" t="n">
@@ -10881,6 +10998,9 @@
         <v>452</v>
       </c>
       <c r="D46" s="9"/>
+      <c r="E46" s="1" t="s">
+        <v>10</v>
+      </c>
     </row>
     <row r="47" s="1" customFormat="true" ht="16.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A47" s="6" t="n">
@@ -10892,6 +11012,9 @@
         <v>453</v>
       </c>
       <c r="D47" s="9"/>
+      <c r="E47" s="1" t="s">
+        <v>10</v>
+      </c>
     </row>
     <row r="48" s="1" customFormat="true" ht="16.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A48" s="6" t="n">
@@ -10903,6 +11026,9 @@
         <v>454</v>
       </c>
       <c r="D48" s="9"/>
+      <c r="E48" s="1" t="s">
+        <v>10</v>
+      </c>
     </row>
     <row r="49" s="1" customFormat="true" ht="16.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A49" s="6" t="n">
@@ -10914,6 +11040,9 @@
         <v>455</v>
       </c>
       <c r="D49" s="9"/>
+      <c r="E49" s="1" t="s">
+        <v>10</v>
+      </c>
     </row>
     <row r="50" s="1" customFormat="true" ht="16.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A50" s="6" t="n">
@@ -10925,6 +11054,9 @@
         <v>456</v>
       </c>
       <c r="D50" s="9"/>
+      <c r="E50" s="1" t="s">
+        <v>10</v>
+      </c>
     </row>
     <row r="51" s="1" customFormat="true" ht="16.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A51" s="6" t="n">
@@ -10936,6 +11068,9 @@
         <v>457</v>
       </c>
       <c r="D51" s="9"/>
+      <c r="E51" s="1" t="s">
+        <v>10</v>
+      </c>
     </row>
     <row r="52" s="1" customFormat="true" ht="16.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A52" s="6" t="n">
@@ -10947,6 +11082,9 @@
         <v>458</v>
       </c>
       <c r="D52" s="9"/>
+      <c r="E52" s="1" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="53" s="1" customFormat="true" ht="16.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A53" s="6" t="n">
@@ -10958,6 +11096,9 @@
         <v>459</v>
       </c>
       <c r="D53" s="9"/>
+      <c r="E53" s="1" t="s">
+        <v>10</v>
+      </c>
     </row>
     <row r="54" s="1" customFormat="true" ht="33" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A54" s="6" t="n">
@@ -10969,6 +11110,9 @@
         <v>460</v>
       </c>
       <c r="D54" s="9"/>
+      <c r="E54" s="1" t="s">
+        <v>10</v>
+      </c>
     </row>
     <row r="55" s="1" customFormat="true" ht="16.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A55" s="6" t="n">
@@ -10982,6 +11126,9 @@
         <v>462</v>
       </c>
       <c r="D55" s="9"/>
+      <c r="E55" s="1" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="56" s="1" customFormat="true" ht="16.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A56" s="6" t="n">
@@ -10993,6 +11140,9 @@
         <v>463</v>
       </c>
       <c r="D56" s="9"/>
+      <c r="E56" s="1" t="s">
+        <v>10</v>
+      </c>
     </row>
     <row r="57" s="1" customFormat="true" ht="16.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A57" s="6" t="n">
@@ -11004,6 +11154,9 @@
         <v>464</v>
       </c>
       <c r="D57" s="9"/>
+      <c r="E57" s="1" t="s">
+        <v>10</v>
+      </c>
     </row>
     <row r="58" s="1" customFormat="true" ht="16.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A58" s="6" t="n">
@@ -11015,6 +11168,9 @@
         <v>465</v>
       </c>
       <c r="D58" s="9"/>
+      <c r="E58" s="1" t="s">
+        <v>10</v>
+      </c>
     </row>
     <row r="59" s="1" customFormat="true" ht="16.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A59" s="6" t="n">
@@ -11026,6 +11182,9 @@
         <v>466</v>
       </c>
       <c r="D59" s="9"/>
+      <c r="E59" s="1" t="s">
+        <v>10</v>
+      </c>
     </row>
     <row r="60" s="1" customFormat="true" ht="16.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A60" s="6" t="n">

--- a/07 ootareon 目標管理シート.xlsx
+++ b/07 ootareon 目標管理シート.xlsx
@@ -47,7 +47,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1052" uniqueCount="526">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1113" uniqueCount="526">
   <si>
     <t xml:space="preserve">学習目標自己チェックシート(ビジネスマナー)</t>
   </si>
@@ -2181,9 +2181,9 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>20</xdr:col>
-      <xdr:colOff>538920</xdr:colOff>
+      <xdr:colOff>538560</xdr:colOff>
       <xdr:row>6</xdr:row>
-      <xdr:rowOff>28800</xdr:rowOff>
+      <xdr:rowOff>28440</xdr:rowOff>
     </xdr:to>
     <xdr:sp>
       <xdr:nvSpPr>
@@ -2193,7 +2193,7 @@
       <xdr:spPr>
         <a:xfrm>
           <a:off x="14182920" y="0"/>
-          <a:ext cx="5005440" cy="1619640"/>
+          <a:ext cx="5005080" cy="1619280"/>
         </a:xfrm>
         <a:prstGeom prst="wedgeRoundRectCallout">
           <a:avLst>
@@ -2359,9 +2359,9 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>16</xdr:col>
-      <xdr:colOff>300960</xdr:colOff>
+      <xdr:colOff>300600</xdr:colOff>
       <xdr:row>6</xdr:row>
-      <xdr:rowOff>173880</xdr:rowOff>
+      <xdr:rowOff>173520</xdr:rowOff>
     </xdr:to>
     <xdr:sp>
       <xdr:nvSpPr>
@@ -2371,7 +2371,7 @@
       <xdr:spPr>
         <a:xfrm>
           <a:off x="11673360" y="145080"/>
-          <a:ext cx="5005440" cy="1619640"/>
+          <a:ext cx="5005080" cy="1619280"/>
         </a:xfrm>
         <a:prstGeom prst="wedgeRoundRectCallout">
           <a:avLst>
@@ -2537,9 +2537,9 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>16</xdr:col>
-      <xdr:colOff>300960</xdr:colOff>
+      <xdr:colOff>300600</xdr:colOff>
       <xdr:row>6</xdr:row>
-      <xdr:rowOff>173880</xdr:rowOff>
+      <xdr:rowOff>173520</xdr:rowOff>
     </xdr:to>
     <xdr:sp>
       <xdr:nvSpPr>
@@ -2549,7 +2549,7 @@
       <xdr:spPr>
         <a:xfrm>
           <a:off x="11620440" y="145080"/>
-          <a:ext cx="5005800" cy="1619640"/>
+          <a:ext cx="5005440" cy="1619280"/>
         </a:xfrm>
         <a:prstGeom prst="wedgeRoundRectCallout">
           <a:avLst>
@@ -2715,9 +2715,9 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>19</xdr:col>
-      <xdr:colOff>451800</xdr:colOff>
+      <xdr:colOff>451440</xdr:colOff>
       <xdr:row>6</xdr:row>
-      <xdr:rowOff>66240</xdr:rowOff>
+      <xdr:rowOff>65880</xdr:rowOff>
     </xdr:to>
     <xdr:sp>
       <xdr:nvSpPr>
@@ -2727,7 +2727,7 @@
       <xdr:spPr>
         <a:xfrm>
           <a:off x="13364640" y="0"/>
-          <a:ext cx="5063400" cy="1657080"/>
+          <a:ext cx="5063040" cy="1656720"/>
         </a:xfrm>
         <a:prstGeom prst="wedgeRoundRectCallout">
           <a:avLst>
@@ -2888,9 +2888,9 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>4</xdr:col>
-      <xdr:colOff>74160</xdr:colOff>
+      <xdr:colOff>73800</xdr:colOff>
       <xdr:row>85</xdr:row>
-      <xdr:rowOff>164880</xdr:rowOff>
+      <xdr:rowOff>164520</xdr:rowOff>
     </xdr:to>
     <xdr:sp>
       <xdr:nvSpPr>
@@ -2900,7 +2900,7 @@
       <xdr:spPr>
         <a:xfrm>
           <a:off x="11283480" y="16242120"/>
-          <a:ext cx="193320" cy="2224080"/>
+          <a:ext cx="192960" cy="2223720"/>
         </a:xfrm>
         <a:prstGeom prst="rightBrace">
           <a:avLst>
@@ -2940,9 +2940,9 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>15</xdr:col>
-      <xdr:colOff>402840</xdr:colOff>
+      <xdr:colOff>402480</xdr:colOff>
       <xdr:row>84</xdr:row>
-      <xdr:rowOff>125640</xdr:rowOff>
+      <xdr:rowOff>125280</xdr:rowOff>
     </xdr:to>
     <xdr:sp>
       <xdr:nvSpPr>
@@ -2952,7 +2952,7 @@
       <xdr:spPr>
         <a:xfrm>
           <a:off x="11702160" y="17062200"/>
-          <a:ext cx="4615560" cy="1155240"/>
+          <a:ext cx="4615200" cy="1154880"/>
         </a:xfrm>
         <a:prstGeom prst="ellipse">
           <a:avLst/>
@@ -3053,9 +3053,9 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>21</xdr:col>
-      <xdr:colOff>24480</xdr:colOff>
+      <xdr:colOff>24120</xdr:colOff>
       <xdr:row>6</xdr:row>
-      <xdr:rowOff>55800</xdr:rowOff>
+      <xdr:rowOff>55440</xdr:rowOff>
     </xdr:to>
     <xdr:sp>
       <xdr:nvSpPr>
@@ -3065,7 +3065,7 @@
       <xdr:spPr>
         <a:xfrm>
           <a:off x="13158360" y="0"/>
-          <a:ext cx="5027040" cy="1646640"/>
+          <a:ext cx="5026680" cy="1646280"/>
         </a:xfrm>
         <a:prstGeom prst="wedgeRoundRectCallout">
           <a:avLst>
@@ -3231,9 +3231,9 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>43</xdr:col>
-      <xdr:colOff>7560</xdr:colOff>
+      <xdr:colOff>7200</xdr:colOff>
       <xdr:row>13</xdr:row>
-      <xdr:rowOff>45000</xdr:rowOff>
+      <xdr:rowOff>44640</xdr:rowOff>
     </xdr:to>
     <xdr:sp>
       <xdr:nvSpPr>
@@ -3243,7 +3243,7 @@
       <xdr:spPr>
         <a:xfrm>
           <a:off x="28142280" y="0"/>
-          <a:ext cx="5063040" cy="3140640"/>
+          <a:ext cx="5062680" cy="3079440"/>
         </a:xfrm>
         <a:prstGeom prst="wedgeRoundRectCallout">
           <a:avLst>
@@ -3409,9 +3409,9 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>16</xdr:col>
-      <xdr:colOff>312480</xdr:colOff>
+      <xdr:colOff>312120</xdr:colOff>
       <xdr:row>11</xdr:row>
-      <xdr:rowOff>201960</xdr:rowOff>
+      <xdr:rowOff>201600</xdr:rowOff>
     </xdr:to>
     <xdr:sp>
       <xdr:nvSpPr>
@@ -3421,7 +3421,7 @@
       <xdr:spPr>
         <a:xfrm>
           <a:off x="11906640" y="156960"/>
-          <a:ext cx="5063040" cy="2683440"/>
+          <a:ext cx="5062680" cy="2683080"/>
         </a:xfrm>
         <a:prstGeom prst="wedgeRoundRectCallout">
           <a:avLst>
@@ -10309,10 +10309,10 @@
     <tabColor rgb="FF9DC3E6"/>
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:E79"/>
+  <dimension ref="A1:F79"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="pageBreakPreview" topLeftCell="A38" colorId="64" zoomScale="80" zoomScaleNormal="85" zoomScalePageLayoutView="80" workbookViewId="0">
-      <selection pane="topLeft" activeCell="E60" activeCellId="0" sqref="E60"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="pageBreakPreview" topLeftCell="A57" colorId="64" zoomScale="80" zoomScaleNormal="85" zoomScalePageLayoutView="80" workbookViewId="0">
+      <selection pane="topLeft" activeCell="F80" activeCellId="0" sqref="F80"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.45703125" defaultRowHeight="16.5" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -10383,8 +10383,11 @@
       <c r="E7" s="1" t="n">
         <v>0</v>
       </c>
-    </row>
-    <row r="8" customFormat="false" ht="17" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="F7" s="1" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="8" customFormat="false" ht="16.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A8" s="6" t="n">
         <f aca="false">ROW()-6</f>
         <v>2</v>
@@ -10399,8 +10402,11 @@
       <c r="E8" s="1" t="n">
         <v>0</v>
       </c>
-    </row>
-    <row r="9" customFormat="false" ht="17" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="F8" s="1" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="9" customFormat="false" ht="16.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A9" s="6" t="n">
         <f aca="false">ROW()-6</f>
         <v>3</v>
@@ -10415,8 +10421,11 @@
       <c r="E9" s="1" t="n">
         <v>0</v>
       </c>
-    </row>
-    <row r="10" customFormat="false" ht="17" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="F9" s="1" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="10" customFormat="false" ht="16.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A10" s="6" t="n">
         <f aca="false">ROW()-6</f>
         <v>4</v>
@@ -10431,8 +10440,11 @@
       <c r="E10" s="1" t="s">
         <v>10</v>
       </c>
-    </row>
-    <row r="11" customFormat="false" ht="17" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="F10" s="1" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="11" customFormat="false" ht="16.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A11" s="6" t="n">
         <f aca="false">ROW()-6</f>
         <v>5</v>
@@ -10447,8 +10459,11 @@
       <c r="E11" s="1" t="s">
         <v>10</v>
       </c>
-    </row>
-    <row r="12" customFormat="false" ht="17" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="F11" s="1" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="12" customFormat="false" ht="16.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A12" s="6" t="n">
         <f aca="false">ROW()-6</f>
         <v>6</v>
@@ -10463,8 +10478,11 @@
       <c r="E12" s="1" t="s">
         <v>10</v>
       </c>
-    </row>
-    <row r="13" customFormat="false" ht="17" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="F12" s="1" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="13" customFormat="false" ht="16.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A13" s="6" t="n">
         <f aca="false">ROW()-6</f>
         <v>7</v>
@@ -10479,8 +10497,11 @@
       <c r="E13" s="1" t="s">
         <v>10</v>
       </c>
-    </row>
-    <row r="14" customFormat="false" ht="17" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="F13" s="1" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="14" customFormat="false" ht="16.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A14" s="6" t="n">
         <f aca="false">ROW()-6</f>
         <v>8</v>
@@ -10495,6 +10516,9 @@
       <c r="E14" s="1" t="s">
         <v>10</v>
       </c>
+      <c r="F14" s="1" t="s">
+        <v>10</v>
+      </c>
     </row>
     <row r="15" customFormat="false" ht="16.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A15" s="6" t="n">
@@ -10513,8 +10537,11 @@
       <c r="E15" s="1" t="n">
         <v>0</v>
       </c>
-    </row>
-    <row r="16" customFormat="false" ht="17" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="F15" s="1" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" customFormat="false" ht="16.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A16" s="6" t="n">
         <f aca="false">ROW()-6</f>
         <v>10</v>
@@ -10529,8 +10556,11 @@
       <c r="E16" s="1" t="s">
         <v>10</v>
       </c>
-    </row>
-    <row r="17" customFormat="false" ht="17" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="F16" s="1" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="17" customFormat="false" ht="16.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A17" s="6" t="n">
         <f aca="false">ROW()-6</f>
         <v>11</v>
@@ -10545,8 +10575,11 @@
       <c r="E17" s="1" t="s">
         <v>10</v>
       </c>
-    </row>
-    <row r="18" customFormat="false" ht="17" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="F17" s="1" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="18" customFormat="false" ht="16.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A18" s="6" t="n">
         <f aca="false">ROW()-6</f>
         <v>12</v>
@@ -10561,8 +10594,11 @@
       <c r="E18" s="1" t="s">
         <v>10</v>
       </c>
-    </row>
-    <row r="19" customFormat="false" ht="17" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="F18" s="1" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="19" customFormat="false" ht="16.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A19" s="6" t="n">
         <f aca="false">ROW()-6</f>
         <v>13</v>
@@ -10577,8 +10613,11 @@
       <c r="E19" s="1" t="s">
         <v>10</v>
       </c>
-    </row>
-    <row r="20" customFormat="false" ht="17" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="F19" s="1" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="20" customFormat="false" ht="16.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A20" s="6" t="n">
         <f aca="false">ROW()-6</f>
         <v>14</v>
@@ -10593,8 +10632,11 @@
       <c r="E20" s="1" t="n">
         <v>0</v>
       </c>
-    </row>
-    <row r="21" customFormat="false" ht="17" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="F20" s="1" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="21" customFormat="false" ht="16.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A21" s="6" t="n">
         <f aca="false">ROW()-6</f>
         <v>15</v>
@@ -10609,8 +10651,11 @@
       <c r="E21" s="1" t="s">
         <v>10</v>
       </c>
-    </row>
-    <row r="22" customFormat="false" ht="17" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="F21" s="1" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="22" customFormat="false" ht="16.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A22" s="6" t="n">
         <f aca="false">ROW()-6</f>
         <v>16</v>
@@ -10625,8 +10670,11 @@
       <c r="E22" s="1" t="s">
         <v>10</v>
       </c>
-    </row>
-    <row r="23" customFormat="false" ht="17" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="F22" s="1" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="23" customFormat="false" ht="16.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A23" s="6" t="n">
         <f aca="false">ROW()-6</f>
         <v>17</v>
@@ -10641,8 +10689,11 @@
       <c r="E23" s="1" t="s">
         <v>10</v>
       </c>
-    </row>
-    <row r="24" customFormat="false" ht="17" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="F23" s="1" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="24" customFormat="false" ht="16.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A24" s="6" t="n">
         <f aca="false">ROW()-6</f>
         <v>18</v>
@@ -10657,8 +10708,11 @@
       <c r="E24" s="1" t="s">
         <v>10</v>
       </c>
-    </row>
-    <row r="25" customFormat="false" ht="17" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="F24" s="1" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="25" customFormat="false" ht="16.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A25" s="6" t="n">
         <f aca="false">ROW()-6</f>
         <v>19</v>
@@ -10673,8 +10727,11 @@
       <c r="E25" s="1" t="s">
         <v>10</v>
       </c>
-    </row>
-    <row r="26" customFormat="false" ht="17" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="F25" s="1" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="26" customFormat="false" ht="16.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A26" s="6" t="n">
         <f aca="false">ROW()-6</f>
         <v>20</v>
@@ -10689,8 +10746,11 @@
       <c r="E26" s="1" t="s">
         <v>10</v>
       </c>
-    </row>
-    <row r="27" customFormat="false" ht="17" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="F26" s="1" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="27" customFormat="false" ht="16.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A27" s="6" t="n">
         <f aca="false">ROW()-6</f>
         <v>21</v>
@@ -10705,6 +10765,9 @@
       <c r="E27" s="1" t="s">
         <v>10</v>
       </c>
+      <c r="F27" s="1" t="s">
+        <v>10</v>
+      </c>
     </row>
     <row r="28" customFormat="false" ht="16.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A28" s="6" t="n">
@@ -10723,8 +10786,11 @@
       <c r="E28" s="1" t="n">
         <v>0</v>
       </c>
-    </row>
-    <row r="29" customFormat="false" ht="17" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="F28" s="1" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29" customFormat="false" ht="16.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A29" s="6" t="n">
         <f aca="false">ROW()-6</f>
         <v>23</v>
@@ -10739,8 +10805,11 @@
       <c r="E29" s="1" t="s">
         <v>10</v>
       </c>
-    </row>
-    <row r="30" customFormat="false" ht="17" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="F29" s="1" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="30" customFormat="false" ht="16.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A30" s="6" t="n">
         <f aca="false">ROW()-6</f>
         <v>24</v>
@@ -10755,6 +10824,9 @@
       <c r="E30" s="1" t="s">
         <v>10</v>
       </c>
+      <c r="F30" s="1" t="s">
+        <v>10</v>
+      </c>
     </row>
     <row r="31" s="1" customFormat="true" ht="16.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A31" s="6" t="n">
@@ -10773,8 +10845,11 @@
       <c r="E31" s="1" t="s">
         <v>10</v>
       </c>
-    </row>
-    <row r="32" s="1" customFormat="true" ht="17" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="F31" s="1" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="32" s="1" customFormat="true" ht="16.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A32" s="6" t="n">
         <f aca="false">ROW()-6</f>
         <v>26</v>
@@ -10789,8 +10864,11 @@
       <c r="E32" s="1" t="s">
         <v>10</v>
       </c>
-    </row>
-    <row r="33" s="1" customFormat="true" ht="17" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="F32" s="1" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="33" s="1" customFormat="true" ht="16.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A33" s="6" t="n">
         <f aca="false">ROW()-6</f>
         <v>27</v>
@@ -10805,8 +10883,11 @@
       <c r="E33" s="1" t="n">
         <v>0</v>
       </c>
-    </row>
-    <row r="34" s="1" customFormat="true" ht="17" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="F33" s="1" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="34" s="1" customFormat="true" ht="16.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A34" s="6" t="n">
         <f aca="false">ROW()-6</f>
         <v>28</v>
@@ -10821,8 +10902,11 @@
       <c r="E34" s="1" t="s">
         <v>10</v>
       </c>
-    </row>
-    <row r="35" s="1" customFormat="true" ht="17" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="F34" s="1" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="35" s="1" customFormat="true" ht="16.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A35" s="6" t="n">
         <f aca="false">ROW()-6</f>
         <v>29</v>
@@ -10837,8 +10921,11 @@
       <c r="E35" s="1" t="n">
         <v>0</v>
       </c>
-    </row>
-    <row r="36" s="1" customFormat="true" ht="17" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="F35" s="1" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="36" s="1" customFormat="true" ht="16.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A36" s="6" t="n">
         <f aca="false">ROW()-6</f>
         <v>30</v>
@@ -10853,8 +10940,11 @@
       <c r="E36" s="1" t="s">
         <v>10</v>
       </c>
-    </row>
-    <row r="37" s="1" customFormat="true" ht="17" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="F36" s="1" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="37" s="1" customFormat="true" ht="16.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A37" s="6" t="n">
         <f aca="false">ROW()-6</f>
         <v>31</v>
@@ -10869,8 +10959,11 @@
       <c r="E37" s="1" t="n">
         <v>0</v>
       </c>
-    </row>
-    <row r="38" s="1" customFormat="true" ht="17" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="F37" s="1" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="38" s="1" customFormat="true" ht="16.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A38" s="6" t="n">
         <f aca="false">ROW()-6</f>
         <v>32</v>
@@ -10885,6 +10978,9 @@
       <c r="E38" s="1" t="s">
         <v>10</v>
       </c>
+      <c r="F38" s="1" t="s">
+        <v>10</v>
+      </c>
     </row>
     <row r="39" s="1" customFormat="true" ht="16.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A39" s="6" t="n">
@@ -10901,8 +10997,11 @@
       <c r="E39" s="1" t="s">
         <v>10</v>
       </c>
-    </row>
-    <row r="40" s="1" customFormat="true" ht="16.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="F39" s="1" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="40" s="1" customFormat="true" ht="16.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A40" s="6" t="n">
         <f aca="false">ROW()-6</f>
         <v>34</v>
@@ -10915,8 +11014,11 @@
       <c r="E40" s="1" t="s">
         <v>10</v>
       </c>
-    </row>
-    <row r="41" s="1" customFormat="true" ht="16.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="F40" s="1" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="41" s="1" customFormat="true" ht="16.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A41" s="6" t="n">
         <f aca="false">ROW()-6</f>
         <v>35</v>
@@ -10929,8 +11031,11 @@
       <c r="E41" s="1" t="s">
         <v>10</v>
       </c>
-    </row>
-    <row r="42" s="1" customFormat="true" ht="16.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="F41" s="1" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="42" s="1" customFormat="true" ht="16.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A42" s="6" t="n">
         <f aca="false">ROW()-6</f>
         <v>36</v>
@@ -10943,8 +11048,11 @@
       <c r="E42" s="1" t="s">
         <v>10</v>
       </c>
-    </row>
-    <row r="43" s="1" customFormat="true" ht="16.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="F42" s="1" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="43" s="1" customFormat="true" ht="31.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A43" s="6" t="n">
         <f aca="false">ROW()-6</f>
         <v>37</v>
@@ -10957,8 +11065,11 @@
       <c r="E43" s="1" t="s">
         <v>10</v>
       </c>
-    </row>
-    <row r="44" s="1" customFormat="true" ht="16.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="F43" s="1" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="44" s="1" customFormat="true" ht="16.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A44" s="6" t="n">
         <f aca="false">ROW()-6</f>
         <v>38</v>
@@ -10971,6 +11082,9 @@
       <c r="E44" s="1" t="s">
         <v>10</v>
       </c>
+      <c r="F44" s="1" t="s">
+        <v>10</v>
+      </c>
     </row>
     <row r="45" s="1" customFormat="true" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A45" s="6" t="n">
@@ -10987,8 +11101,11 @@
       <c r="E45" s="1" t="s">
         <v>10</v>
       </c>
-    </row>
-    <row r="46" s="1" customFormat="true" ht="16.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="F45" s="1" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="46" s="1" customFormat="true" ht="16.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A46" s="6" t="n">
         <f aca="false">ROW()-6</f>
         <v>40</v>
@@ -11001,8 +11118,11 @@
       <c r="E46" s="1" t="s">
         <v>10</v>
       </c>
-    </row>
-    <row r="47" s="1" customFormat="true" ht="16.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="F46" s="1" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="47" s="1" customFormat="true" ht="16.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A47" s="6" t="n">
         <f aca="false">ROW()-6</f>
         <v>41</v>
@@ -11015,8 +11135,11 @@
       <c r="E47" s="1" t="s">
         <v>10</v>
       </c>
-    </row>
-    <row r="48" s="1" customFormat="true" ht="16.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="F47" s="1" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="48" s="1" customFormat="true" ht="16.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A48" s="6" t="n">
         <f aca="false">ROW()-6</f>
         <v>42</v>
@@ -11029,8 +11152,11 @@
       <c r="E48" s="1" t="s">
         <v>10</v>
       </c>
-    </row>
-    <row r="49" s="1" customFormat="true" ht="16.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="F48" s="1" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="49" s="1" customFormat="true" ht="16.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A49" s="6" t="n">
         <f aca="false">ROW()-6</f>
         <v>43</v>
@@ -11043,8 +11169,11 @@
       <c r="E49" s="1" t="s">
         <v>10</v>
       </c>
-    </row>
-    <row r="50" s="1" customFormat="true" ht="16.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="F49" s="1" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="50" s="1" customFormat="true" ht="16.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A50" s="6" t="n">
         <f aca="false">ROW()-6</f>
         <v>44</v>
@@ -11057,8 +11186,11 @@
       <c r="E50" s="1" t="s">
         <v>10</v>
       </c>
-    </row>
-    <row r="51" s="1" customFormat="true" ht="16.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="F50" s="1" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="51" s="1" customFormat="true" ht="16.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A51" s="6" t="n">
         <f aca="false">ROW()-6</f>
         <v>45</v>
@@ -11071,8 +11203,11 @@
       <c r="E51" s="1" t="s">
         <v>10</v>
       </c>
-    </row>
-    <row r="52" s="1" customFormat="true" ht="16.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="F51" s="1" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="52" s="1" customFormat="true" ht="16.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A52" s="6" t="n">
         <f aca="false">ROW()-6</f>
         <v>46</v>
@@ -11085,8 +11220,11 @@
       <c r="E52" s="1" t="n">
         <v>0</v>
       </c>
-    </row>
-    <row r="53" s="1" customFormat="true" ht="16.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="F52" s="1" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="53" s="1" customFormat="true" ht="16.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A53" s="6" t="n">
         <f aca="false">ROW()-6</f>
         <v>47</v>
@@ -11099,8 +11237,11 @@
       <c r="E53" s="1" t="s">
         <v>10</v>
       </c>
-    </row>
-    <row r="54" s="1" customFormat="true" ht="33" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="F53" s="1" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="54" s="1" customFormat="true" ht="31.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A54" s="6" t="n">
         <f aca="false">ROW()-6</f>
         <v>48</v>
@@ -11113,6 +11254,9 @@
       <c r="E54" s="1" t="s">
         <v>10</v>
       </c>
+      <c r="F54" s="1" t="s">
+        <v>10</v>
+      </c>
     </row>
     <row r="55" s="1" customFormat="true" ht="16.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A55" s="6" t="n">
@@ -11129,8 +11273,11 @@
       <c r="E55" s="1" t="n">
         <v>0</v>
       </c>
-    </row>
-    <row r="56" s="1" customFormat="true" ht="16.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="F55" s="1" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="56" s="1" customFormat="true" ht="16.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A56" s="6" t="n">
         <f aca="false">ROW()-6</f>
         <v>50</v>
@@ -11143,8 +11290,11 @@
       <c r="E56" s="1" t="s">
         <v>10</v>
       </c>
-    </row>
-    <row r="57" s="1" customFormat="true" ht="16.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="F56" s="1" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="57" s="1" customFormat="true" ht="16.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A57" s="6" t="n">
         <f aca="false">ROW()-6</f>
         <v>51</v>
@@ -11157,8 +11307,11 @@
       <c r="E57" s="1" t="s">
         <v>10</v>
       </c>
-    </row>
-    <row r="58" s="1" customFormat="true" ht="16.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="F57" s="1" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="58" s="1" customFormat="true" ht="16.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A58" s="6" t="n">
         <f aca="false">ROW()-6</f>
         <v>52</v>
@@ -11171,8 +11324,11 @@
       <c r="E58" s="1" t="s">
         <v>10</v>
       </c>
-    </row>
-    <row r="59" s="1" customFormat="true" ht="16.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="F58" s="1" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="59" s="1" customFormat="true" ht="16.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A59" s="6" t="n">
         <f aca="false">ROW()-6</f>
         <v>53</v>
@@ -11185,6 +11341,9 @@
       <c r="E59" s="1" t="s">
         <v>10</v>
       </c>
+      <c r="F59" s="1" t="s">
+        <v>10</v>
+      </c>
     </row>
     <row r="60" s="1" customFormat="true" ht="16.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A60" s="6" t="n">
@@ -11198,6 +11357,9 @@
         <v>468</v>
       </c>
       <c r="D60" s="9"/>
+      <c r="F60" s="1" t="s">
+        <v>10</v>
+      </c>
     </row>
     <row r="61" s="1" customFormat="true" ht="16.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A61" s="6" t="n">
@@ -11209,6 +11371,9 @@
         <v>469</v>
       </c>
       <c r="D61" s="9"/>
+      <c r="F61" s="1" t="s">
+        <v>10</v>
+      </c>
     </row>
     <row r="62" s="1" customFormat="true" ht="16.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A62" s="6" t="n">
@@ -11220,6 +11385,9 @@
         <v>470</v>
       </c>
       <c r="D62" s="9"/>
+      <c r="F62" s="1" t="s">
+        <v>10</v>
+      </c>
     </row>
     <row r="63" s="1" customFormat="true" ht="16.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A63" s="6" t="n">
@@ -11231,6 +11399,9 @@
         <v>471</v>
       </c>
       <c r="D63" s="9"/>
+      <c r="F63" s="1" t="s">
+        <v>10</v>
+      </c>
     </row>
     <row r="64" s="1" customFormat="true" ht="16.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A64" s="6" t="n">
@@ -11242,6 +11413,9 @@
         <v>472</v>
       </c>
       <c r="D64" s="9"/>
+      <c r="F64" s="1" t="s">
+        <v>10</v>
+      </c>
     </row>
     <row r="65" s="1" customFormat="true" ht="16.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A65" s="6" t="n">
@@ -11253,6 +11427,9 @@
         <v>473</v>
       </c>
       <c r="D65" s="9"/>
+      <c r="F65" s="1" t="s">
+        <v>10</v>
+      </c>
     </row>
     <row r="66" s="1" customFormat="true" ht="16.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A66" s="6" t="n">
@@ -11264,6 +11441,9 @@
         <v>474</v>
       </c>
       <c r="D66" s="9"/>
+      <c r="F66" s="1" t="s">
+        <v>10</v>
+      </c>
     </row>
     <row r="67" s="1" customFormat="true" ht="16.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A67" s="6" t="n">
@@ -11275,6 +11455,9 @@
         <v>475</v>
       </c>
       <c r="D67" s="9"/>
+      <c r="F67" s="1" t="s">
+        <v>10</v>
+      </c>
     </row>
     <row r="68" s="1" customFormat="true" ht="16.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A68" s="6" t="n">
@@ -11288,6 +11471,9 @@
         <v>477</v>
       </c>
       <c r="D68" s="9"/>
+      <c r="F68" s="1" t="s">
+        <v>10</v>
+      </c>
     </row>
     <row r="69" s="1" customFormat="true" ht="16.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A69" s="6" t="n">
@@ -11301,8 +11487,11 @@
         <v>479</v>
       </c>
       <c r="D69" s="9"/>
-    </row>
-    <row r="70" s="1" customFormat="true" ht="16.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="F69" s="1" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="70" s="1" customFormat="true" ht="17" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A70" s="6" t="n">
         <f aca="false">ROW()-6</f>
         <v>64</v>
@@ -11312,6 +11501,9 @@
         <v>480</v>
       </c>
       <c r="D70" s="9"/>
+      <c r="F70" s="1" t="s">
+        <v>10</v>
+      </c>
     </row>
     <row r="71" s="1" customFormat="true" ht="16.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A71" s="6" t="n">
@@ -11323,6 +11515,9 @@
         <v>481</v>
       </c>
       <c r="D71" s="9"/>
+      <c r="F71" s="1" t="s">
+        <v>10</v>
+      </c>
     </row>
     <row r="72" s="1" customFormat="true" ht="16.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A72" s="6" t="n">
@@ -11334,6 +11529,9 @@
         <v>482</v>
       </c>
       <c r="D72" s="9"/>
+      <c r="F72" s="1" t="s">
+        <v>10</v>
+      </c>
     </row>
     <row r="73" s="1" customFormat="true" ht="16.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A73" s="6" t="n">
@@ -11345,6 +11543,9 @@
         <v>483</v>
       </c>
       <c r="D73" s="9"/>
+      <c r="F73" s="1" t="s">
+        <v>10</v>
+      </c>
     </row>
     <row r="74" s="1" customFormat="true" ht="16.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A74" s="6" t="n">
@@ -11356,6 +11557,9 @@
         <v>484</v>
       </c>
       <c r="D74" s="9"/>
+      <c r="F74" s="1" t="s">
+        <v>10</v>
+      </c>
     </row>
     <row r="75" s="1" customFormat="true" ht="16.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A75" s="6" t="n">
@@ -11367,6 +11571,9 @@
         <v>485</v>
       </c>
       <c r="D75" s="9"/>
+      <c r="F75" s="1" t="s">
+        <v>10</v>
+      </c>
     </row>
     <row r="76" s="1" customFormat="true" ht="16.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A76" s="6" t="n">
@@ -11378,6 +11585,9 @@
         <v>486</v>
       </c>
       <c r="D76" s="9"/>
+      <c r="F76" s="1" t="s">
+        <v>10</v>
+      </c>
     </row>
     <row r="77" s="1" customFormat="true" ht="16.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A77" s="6" t="n">
@@ -11389,6 +11599,9 @@
         <v>487</v>
       </c>
       <c r="D77" s="9"/>
+      <c r="F77" s="1" t="s">
+        <v>10</v>
+      </c>
     </row>
     <row r="78" s="1" customFormat="true" ht="16.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A78" s="6" t="n">
@@ -11400,6 +11613,9 @@
         <v>488</v>
       </c>
       <c r="D78" s="9"/>
+      <c r="F78" s="1" t="s">
+        <v>10</v>
+      </c>
     </row>
     <row r="79" s="1" customFormat="true" ht="16.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A79" s="6" t="n">
@@ -11411,6 +11627,9 @@
         <v>489</v>
       </c>
       <c r="D79" s="9"/>
+      <c r="F79" s="1" t="s">
+        <v>10</v>
+      </c>
     </row>
   </sheetData>
   <mergeCells count="13">

--- a/07 ootareon 目標管理シート.xlsx
+++ b/07 ootareon 目標管理シート.xlsx
@@ -47,7 +47,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1113" uniqueCount="526">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1171" uniqueCount="526">
   <si>
     <t xml:space="preserve">学習目標自己チェックシート(ビジネスマナー)</t>
   </si>
@@ -2181,9 +2181,9 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>20</xdr:col>
-      <xdr:colOff>538560</xdr:colOff>
+      <xdr:colOff>538200</xdr:colOff>
       <xdr:row>6</xdr:row>
-      <xdr:rowOff>28440</xdr:rowOff>
+      <xdr:rowOff>28080</xdr:rowOff>
     </xdr:to>
     <xdr:sp>
       <xdr:nvSpPr>
@@ -2193,7 +2193,7 @@
       <xdr:spPr>
         <a:xfrm>
           <a:off x="14182920" y="0"/>
-          <a:ext cx="5005080" cy="1619280"/>
+          <a:ext cx="5004720" cy="1618920"/>
         </a:xfrm>
         <a:prstGeom prst="wedgeRoundRectCallout">
           <a:avLst>
@@ -2359,9 +2359,9 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>16</xdr:col>
-      <xdr:colOff>300600</xdr:colOff>
+      <xdr:colOff>300240</xdr:colOff>
       <xdr:row>6</xdr:row>
-      <xdr:rowOff>173520</xdr:rowOff>
+      <xdr:rowOff>173160</xdr:rowOff>
     </xdr:to>
     <xdr:sp>
       <xdr:nvSpPr>
@@ -2371,7 +2371,7 @@
       <xdr:spPr>
         <a:xfrm>
           <a:off x="11673360" y="145080"/>
-          <a:ext cx="5005080" cy="1619280"/>
+          <a:ext cx="5004720" cy="1618920"/>
         </a:xfrm>
         <a:prstGeom prst="wedgeRoundRectCallout">
           <a:avLst>
@@ -2537,9 +2537,9 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>16</xdr:col>
-      <xdr:colOff>300600</xdr:colOff>
+      <xdr:colOff>300240</xdr:colOff>
       <xdr:row>6</xdr:row>
-      <xdr:rowOff>173520</xdr:rowOff>
+      <xdr:rowOff>173160</xdr:rowOff>
     </xdr:to>
     <xdr:sp>
       <xdr:nvSpPr>
@@ -2549,7 +2549,7 @@
       <xdr:spPr>
         <a:xfrm>
           <a:off x="11620440" y="145080"/>
-          <a:ext cx="5005440" cy="1619280"/>
+          <a:ext cx="5005080" cy="1618920"/>
         </a:xfrm>
         <a:prstGeom prst="wedgeRoundRectCallout">
           <a:avLst>
@@ -2715,9 +2715,9 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>19</xdr:col>
-      <xdr:colOff>451440</xdr:colOff>
+      <xdr:colOff>451080</xdr:colOff>
       <xdr:row>6</xdr:row>
-      <xdr:rowOff>65880</xdr:rowOff>
+      <xdr:rowOff>65520</xdr:rowOff>
     </xdr:to>
     <xdr:sp>
       <xdr:nvSpPr>
@@ -2727,7 +2727,7 @@
       <xdr:spPr>
         <a:xfrm>
           <a:off x="13364640" y="0"/>
-          <a:ext cx="5063040" cy="1656720"/>
+          <a:ext cx="5062680" cy="1656360"/>
         </a:xfrm>
         <a:prstGeom prst="wedgeRoundRectCallout">
           <a:avLst>
@@ -2888,9 +2888,9 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>4</xdr:col>
-      <xdr:colOff>73800</xdr:colOff>
+      <xdr:colOff>73440</xdr:colOff>
       <xdr:row>85</xdr:row>
-      <xdr:rowOff>164520</xdr:rowOff>
+      <xdr:rowOff>164160</xdr:rowOff>
     </xdr:to>
     <xdr:sp>
       <xdr:nvSpPr>
@@ -2900,7 +2900,7 @@
       <xdr:spPr>
         <a:xfrm>
           <a:off x="11283480" y="16242120"/>
-          <a:ext cx="192960" cy="2223720"/>
+          <a:ext cx="192600" cy="2223360"/>
         </a:xfrm>
         <a:prstGeom prst="rightBrace">
           <a:avLst>
@@ -2940,9 +2940,9 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>15</xdr:col>
-      <xdr:colOff>402480</xdr:colOff>
+      <xdr:colOff>402120</xdr:colOff>
       <xdr:row>84</xdr:row>
-      <xdr:rowOff>125280</xdr:rowOff>
+      <xdr:rowOff>124920</xdr:rowOff>
     </xdr:to>
     <xdr:sp>
       <xdr:nvSpPr>
@@ -2952,7 +2952,7 @@
       <xdr:spPr>
         <a:xfrm>
           <a:off x="11702160" y="17062200"/>
-          <a:ext cx="4615200" cy="1154880"/>
+          <a:ext cx="4614840" cy="1154520"/>
         </a:xfrm>
         <a:prstGeom prst="ellipse">
           <a:avLst/>
@@ -3053,9 +3053,9 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>21</xdr:col>
-      <xdr:colOff>24120</xdr:colOff>
+      <xdr:colOff>23760</xdr:colOff>
       <xdr:row>6</xdr:row>
-      <xdr:rowOff>55440</xdr:rowOff>
+      <xdr:rowOff>55080</xdr:rowOff>
     </xdr:to>
     <xdr:sp>
       <xdr:nvSpPr>
@@ -3065,7 +3065,7 @@
       <xdr:spPr>
         <a:xfrm>
           <a:off x="13158360" y="0"/>
-          <a:ext cx="5026680" cy="1646280"/>
+          <a:ext cx="5026320" cy="1645920"/>
         </a:xfrm>
         <a:prstGeom prst="wedgeRoundRectCallout">
           <a:avLst>
@@ -3231,9 +3231,9 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>43</xdr:col>
-      <xdr:colOff>7200</xdr:colOff>
+      <xdr:colOff>6840</xdr:colOff>
       <xdr:row>13</xdr:row>
-      <xdr:rowOff>44640</xdr:rowOff>
+      <xdr:rowOff>44280</xdr:rowOff>
     </xdr:to>
     <xdr:sp>
       <xdr:nvSpPr>
@@ -3243,7 +3243,7 @@
       <xdr:spPr>
         <a:xfrm>
           <a:off x="28142280" y="0"/>
-          <a:ext cx="5062680" cy="3079440"/>
+          <a:ext cx="5062320" cy="3079080"/>
         </a:xfrm>
         <a:prstGeom prst="wedgeRoundRectCallout">
           <a:avLst>
@@ -3409,9 +3409,9 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>16</xdr:col>
-      <xdr:colOff>312120</xdr:colOff>
+      <xdr:colOff>311760</xdr:colOff>
       <xdr:row>11</xdr:row>
-      <xdr:rowOff>201600</xdr:rowOff>
+      <xdr:rowOff>201240</xdr:rowOff>
     </xdr:to>
     <xdr:sp>
       <xdr:nvSpPr>
@@ -3421,7 +3421,7 @@
       <xdr:spPr>
         <a:xfrm>
           <a:off x="11906640" y="156960"/>
-          <a:ext cx="5062680" cy="2683080"/>
+          <a:ext cx="5062320" cy="2682720"/>
         </a:xfrm>
         <a:prstGeom prst="wedgeRoundRectCallout">
           <a:avLst>
@@ -10309,10 +10309,10 @@
     <tabColor rgb="FF9DC3E6"/>
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:F79"/>
+  <dimension ref="A1:G79"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="pageBreakPreview" topLeftCell="A57" colorId="64" zoomScale="80" zoomScaleNormal="85" zoomScalePageLayoutView="80" workbookViewId="0">
-      <selection pane="topLeft" activeCell="F80" activeCellId="0" sqref="F80"/>
+      <selection pane="topLeft" activeCell="G80" activeCellId="0" sqref="G80"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.45703125" defaultRowHeight="16.5" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -10386,6 +10386,9 @@
       <c r="F7" s="1" t="n">
         <v>0</v>
       </c>
+      <c r="G7" s="1" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="8" customFormat="false" ht="16.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A8" s="6" t="n">
@@ -10405,6 +10408,9 @@
       <c r="F8" s="1" t="n">
         <v>0</v>
       </c>
+      <c r="G8" s="1" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="9" customFormat="false" ht="16.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A9" s="6" t="n">
@@ -10424,6 +10430,9 @@
       <c r="F9" s="1" t="n">
         <v>0</v>
       </c>
+      <c r="G9" s="1" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="10" customFormat="false" ht="16.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A10" s="6" t="n">
@@ -10443,6 +10452,9 @@
       <c r="F10" s="1" t="s">
         <v>10</v>
       </c>
+      <c r="G10" s="1" t="s">
+        <v>10</v>
+      </c>
     </row>
     <row r="11" customFormat="false" ht="16.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A11" s="6" t="n">
@@ -10462,6 +10474,9 @@
       <c r="F11" s="1" t="s">
         <v>10</v>
       </c>
+      <c r="G11" s="1" t="s">
+        <v>10</v>
+      </c>
     </row>
     <row r="12" customFormat="false" ht="16.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A12" s="6" t="n">
@@ -10481,6 +10496,9 @@
       <c r="F12" s="1" t="s">
         <v>10</v>
       </c>
+      <c r="G12" s="1" t="s">
+        <v>10</v>
+      </c>
     </row>
     <row r="13" customFormat="false" ht="16.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A13" s="6" t="n">
@@ -10500,6 +10518,9 @@
       <c r="F13" s="1" t="s">
         <v>10</v>
       </c>
+      <c r="G13" s="1" t="s">
+        <v>10</v>
+      </c>
     </row>
     <row r="14" customFormat="false" ht="16.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A14" s="6" t="n">
@@ -10519,6 +10540,9 @@
       <c r="F14" s="1" t="s">
         <v>10</v>
       </c>
+      <c r="G14" s="1" t="s">
+        <v>10</v>
+      </c>
     </row>
     <row r="15" customFormat="false" ht="16.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A15" s="6" t="n">
@@ -10540,6 +10564,9 @@
       <c r="F15" s="1" t="n">
         <v>0</v>
       </c>
+      <c r="G15" s="1" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="16" customFormat="false" ht="16.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A16" s="6" t="n">
@@ -10557,6 +10584,9 @@
         <v>10</v>
       </c>
       <c r="F16" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="G16" s="1" t="s">
         <v>10</v>
       </c>
     </row>
@@ -10578,6 +10608,9 @@
       <c r="F17" s="1" t="s">
         <v>10</v>
       </c>
+      <c r="G17" s="1" t="s">
+        <v>10</v>
+      </c>
     </row>
     <row r="18" customFormat="false" ht="16.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A18" s="6" t="n">
@@ -10597,6 +10630,9 @@
       <c r="F18" s="1" t="s">
         <v>10</v>
       </c>
+      <c r="G18" s="1" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="19" customFormat="false" ht="16.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A19" s="6" t="n">
@@ -10616,6 +10652,9 @@
       <c r="F19" s="1" t="s">
         <v>10</v>
       </c>
+      <c r="G19" s="1" t="s">
+        <v>10</v>
+      </c>
     </row>
     <row r="20" customFormat="false" ht="16.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A20" s="6" t="n">
@@ -10635,6 +10674,9 @@
       <c r="F20" s="1" t="n">
         <v>0</v>
       </c>
+      <c r="G20" s="1" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="21" customFormat="false" ht="16.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A21" s="6" t="n">
@@ -10654,6 +10696,9 @@
       <c r="F21" s="1" t="s">
         <v>10</v>
       </c>
+      <c r="G21" s="1" t="s">
+        <v>10</v>
+      </c>
     </row>
     <row r="22" customFormat="false" ht="16.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A22" s="6" t="n">
@@ -10673,6 +10718,9 @@
       <c r="F22" s="1" t="s">
         <v>10</v>
       </c>
+      <c r="G22" s="1" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="23" customFormat="false" ht="16.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A23" s="6" t="n">
@@ -10692,6 +10740,9 @@
       <c r="F23" s="1" t="s">
         <v>10</v>
       </c>
+      <c r="G23" s="1" t="s">
+        <v>10</v>
+      </c>
     </row>
     <row r="24" customFormat="false" ht="16.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A24" s="6" t="n">
@@ -10711,6 +10762,9 @@
       <c r="F24" s="1" t="s">
         <v>10</v>
       </c>
+      <c r="G24" s="1" t="s">
+        <v>10</v>
+      </c>
     </row>
     <row r="25" customFormat="false" ht="16.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A25" s="6" t="n">
@@ -10730,6 +10784,9 @@
       <c r="F25" s="1" t="s">
         <v>10</v>
       </c>
+      <c r="G25" s="1" t="s">
+        <v>10</v>
+      </c>
     </row>
     <row r="26" customFormat="false" ht="16.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A26" s="6" t="n">
@@ -10749,6 +10806,9 @@
       <c r="F26" s="1" t="s">
         <v>10</v>
       </c>
+      <c r="G26" s="1" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="27" customFormat="false" ht="16.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A27" s="6" t="n">
@@ -10768,6 +10828,9 @@
       <c r="F27" s="1" t="s">
         <v>10</v>
       </c>
+      <c r="G27" s="1" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="28" customFormat="false" ht="16.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A28" s="6" t="n">
@@ -10789,6 +10852,9 @@
       <c r="F28" s="1" t="n">
         <v>0</v>
       </c>
+      <c r="G28" s="1" t="s">
+        <v>10</v>
+      </c>
     </row>
     <row r="29" customFormat="false" ht="16.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A29" s="6" t="n">
@@ -10808,6 +10874,9 @@
       <c r="F29" s="1" t="s">
         <v>10</v>
       </c>
+      <c r="G29" s="1" t="s">
+        <v>10</v>
+      </c>
     </row>
     <row r="30" customFormat="false" ht="16.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A30" s="6" t="n">
@@ -10827,6 +10896,9 @@
       <c r="F30" s="1" t="s">
         <v>10</v>
       </c>
+      <c r="G30" s="1" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="31" s="1" customFormat="true" ht="16.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A31" s="6" t="n">
@@ -10848,6 +10920,9 @@
       <c r="F31" s="1" t="s">
         <v>10</v>
       </c>
+      <c r="G31" s="1" t="s">
+        <v>10</v>
+      </c>
     </row>
     <row r="32" s="1" customFormat="true" ht="16.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A32" s="6" t="n">
@@ -10867,6 +10942,9 @@
       <c r="F32" s="1" t="s">
         <v>10</v>
       </c>
+      <c r="G32" s="1" t="s">
+        <v>10</v>
+      </c>
     </row>
     <row r="33" s="1" customFormat="true" ht="16.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A33" s="6" t="n">
@@ -10886,6 +10964,9 @@
       <c r="F33" s="1" t="n">
         <v>0</v>
       </c>
+      <c r="G33" s="1" t="s">
+        <v>10</v>
+      </c>
     </row>
     <row r="34" s="1" customFormat="true" ht="16.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A34" s="6" t="n">
@@ -10905,6 +10986,9 @@
       <c r="F34" s="1" t="s">
         <v>10</v>
       </c>
+      <c r="G34" s="1" t="s">
+        <v>10</v>
+      </c>
     </row>
     <row r="35" s="1" customFormat="true" ht="16.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A35" s="6" t="n">
@@ -10924,6 +11008,9 @@
       <c r="F35" s="1" t="n">
         <v>0</v>
       </c>
+      <c r="G35" s="1" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="36" s="1" customFormat="true" ht="16.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A36" s="6" t="n">
@@ -10943,6 +11030,9 @@
       <c r="F36" s="1" t="s">
         <v>10</v>
       </c>
+      <c r="G36" s="1" t="s">
+        <v>10</v>
+      </c>
     </row>
     <row r="37" s="1" customFormat="true" ht="16.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A37" s="6" t="n">
@@ -10962,6 +11052,9 @@
       <c r="F37" s="1" t="n">
         <v>0</v>
       </c>
+      <c r="G37" s="1" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="38" s="1" customFormat="true" ht="16.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A38" s="6" t="n">
@@ -10981,6 +11074,9 @@
       <c r="F38" s="1" t="s">
         <v>10</v>
       </c>
+      <c r="G38" s="1" t="s">
+        <v>10</v>
+      </c>
     </row>
     <row r="39" s="1" customFormat="true" ht="16.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A39" s="6" t="n">
@@ -11000,6 +11096,9 @@
       <c r="F39" s="1" t="s">
         <v>10</v>
       </c>
+      <c r="G39" s="1" t="s">
+        <v>10</v>
+      </c>
     </row>
     <row r="40" s="1" customFormat="true" ht="16.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A40" s="6" t="n">
@@ -11017,6 +11116,9 @@
       <c r="F40" s="1" t="s">
         <v>10</v>
       </c>
+      <c r="G40" s="1" t="s">
+        <v>10</v>
+      </c>
     </row>
     <row r="41" s="1" customFormat="true" ht="16.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A41" s="6" t="n">
@@ -11034,6 +11136,9 @@
       <c r="F41" s="1" t="s">
         <v>10</v>
       </c>
+      <c r="G41" s="1" t="s">
+        <v>10</v>
+      </c>
     </row>
     <row r="42" s="1" customFormat="true" ht="16.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A42" s="6" t="n">
@@ -11051,6 +11156,9 @@
       <c r="F42" s="1" t="s">
         <v>10</v>
       </c>
+      <c r="G42" s="1" t="s">
+        <v>10</v>
+      </c>
     </row>
     <row r="43" s="1" customFormat="true" ht="31.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A43" s="6" t="n">
@@ -11068,6 +11176,9 @@
       <c r="F43" s="1" t="s">
         <v>10</v>
       </c>
+      <c r="G43" s="1" t="s">
+        <v>10</v>
+      </c>
     </row>
     <row r="44" s="1" customFormat="true" ht="16.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A44" s="6" t="n">
@@ -11085,6 +11196,9 @@
       <c r="F44" s="1" t="s">
         <v>10</v>
       </c>
+      <c r="G44" s="1" t="s">
+        <v>10</v>
+      </c>
     </row>
     <row r="45" s="1" customFormat="true" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A45" s="6" t="n">
@@ -11104,6 +11218,9 @@
       <c r="F45" s="1" t="s">
         <v>10</v>
       </c>
+      <c r="G45" s="1" t="s">
+        <v>10</v>
+      </c>
     </row>
     <row r="46" s="1" customFormat="true" ht="16.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A46" s="6" t="n">
@@ -11121,6 +11238,9 @@
       <c r="F46" s="1" t="s">
         <v>10</v>
       </c>
+      <c r="G46" s="1" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="47" s="1" customFormat="true" ht="16.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A47" s="6" t="n">
@@ -11138,6 +11258,9 @@
       <c r="F47" s="1" t="s">
         <v>10</v>
       </c>
+      <c r="G47" s="1" t="s">
+        <v>10</v>
+      </c>
     </row>
     <row r="48" s="1" customFormat="true" ht="16.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A48" s="6" t="n">
@@ -11155,6 +11278,9 @@
       <c r="F48" s="1" t="s">
         <v>10</v>
       </c>
+      <c r="G48" s="1" t="s">
+        <v>10</v>
+      </c>
     </row>
     <row r="49" s="1" customFormat="true" ht="16.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A49" s="6" t="n">
@@ -11172,6 +11298,9 @@
       <c r="F49" s="1" t="s">
         <v>10</v>
       </c>
+      <c r="G49" s="1" t="s">
+        <v>10</v>
+      </c>
     </row>
     <row r="50" s="1" customFormat="true" ht="16.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A50" s="6" t="n">
@@ -11189,6 +11318,9 @@
       <c r="F50" s="1" t="s">
         <v>10</v>
       </c>
+      <c r="G50" s="1" t="s">
+        <v>10</v>
+      </c>
     </row>
     <row r="51" s="1" customFormat="true" ht="16.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A51" s="6" t="n">
@@ -11206,6 +11338,9 @@
       <c r="F51" s="1" t="s">
         <v>10</v>
       </c>
+      <c r="G51" s="1" t="s">
+        <v>10</v>
+      </c>
     </row>
     <row r="52" s="1" customFormat="true" ht="16.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A52" s="6" t="n">
@@ -11223,6 +11358,9 @@
       <c r="F52" s="1" t="n">
         <v>0</v>
       </c>
+      <c r="G52" s="1" t="s">
+        <v>10</v>
+      </c>
     </row>
     <row r="53" s="1" customFormat="true" ht="16.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A53" s="6" t="n">
@@ -11240,6 +11378,9 @@
       <c r="F53" s="1" t="s">
         <v>10</v>
       </c>
+      <c r="G53" s="1" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="54" s="1" customFormat="true" ht="31.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A54" s="6" t="n">
@@ -11257,6 +11398,9 @@
       <c r="F54" s="1" t="s">
         <v>10</v>
       </c>
+      <c r="G54" s="1" t="s">
+        <v>10</v>
+      </c>
     </row>
     <row r="55" s="1" customFormat="true" ht="16.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A55" s="6" t="n">
@@ -11276,6 +11420,9 @@
       <c r="F55" s="1" t="n">
         <v>0</v>
       </c>
+      <c r="G55" s="1" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="56" s="1" customFormat="true" ht="16.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A56" s="6" t="n">
@@ -11293,6 +11440,9 @@
       <c r="F56" s="1" t="s">
         <v>10</v>
       </c>
+      <c r="G56" s="1" t="s">
+        <v>10</v>
+      </c>
     </row>
     <row r="57" s="1" customFormat="true" ht="16.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A57" s="6" t="n">
@@ -11310,6 +11460,9 @@
       <c r="F57" s="1" t="s">
         <v>10</v>
       </c>
+      <c r="G57" s="1" t="s">
+        <v>10</v>
+      </c>
     </row>
     <row r="58" s="1" customFormat="true" ht="16.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A58" s="6" t="n">
@@ -11327,6 +11480,9 @@
       <c r="F58" s="1" t="s">
         <v>10</v>
       </c>
+      <c r="G58" s="1" t="s">
+        <v>10</v>
+      </c>
     </row>
     <row r="59" s="1" customFormat="true" ht="16.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A59" s="6" t="n">
@@ -11344,6 +11500,9 @@
       <c r="F59" s="1" t="s">
         <v>10</v>
       </c>
+      <c r="G59" s="1" t="s">
+        <v>10</v>
+      </c>
     </row>
     <row r="60" s="1" customFormat="true" ht="16.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A60" s="6" t="n">
@@ -11360,6 +11519,9 @@
       <c r="F60" s="1" t="s">
         <v>10</v>
       </c>
+      <c r="G60" s="1" t="s">
+        <v>10</v>
+      </c>
     </row>
     <row r="61" s="1" customFormat="true" ht="16.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A61" s="6" t="n">
@@ -11374,6 +11536,9 @@
       <c r="F61" s="1" t="s">
         <v>10</v>
       </c>
+      <c r="G61" s="1" t="s">
+        <v>10</v>
+      </c>
     </row>
     <row r="62" s="1" customFormat="true" ht="16.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A62" s="6" t="n">
@@ -11388,6 +11553,9 @@
       <c r="F62" s="1" t="s">
         <v>10</v>
       </c>
+      <c r="G62" s="1" t="s">
+        <v>10</v>
+      </c>
     </row>
     <row r="63" s="1" customFormat="true" ht="16.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A63" s="6" t="n">
@@ -11402,6 +11570,9 @@
       <c r="F63" s="1" t="s">
         <v>10</v>
       </c>
+      <c r="G63" s="1" t="s">
+        <v>10</v>
+      </c>
     </row>
     <row r="64" s="1" customFormat="true" ht="16.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A64" s="6" t="n">
@@ -11416,6 +11587,9 @@
       <c r="F64" s="1" t="s">
         <v>10</v>
       </c>
+      <c r="G64" s="1" t="s">
+        <v>10</v>
+      </c>
     </row>
     <row r="65" s="1" customFormat="true" ht="16.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A65" s="6" t="n">
@@ -11430,6 +11604,9 @@
       <c r="F65" s="1" t="s">
         <v>10</v>
       </c>
+      <c r="G65" s="1" t="s">
+        <v>10</v>
+      </c>
     </row>
     <row r="66" s="1" customFormat="true" ht="16.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A66" s="6" t="n">
@@ -11444,6 +11621,9 @@
       <c r="F66" s="1" t="s">
         <v>10</v>
       </c>
+      <c r="G66" s="1" t="s">
+        <v>10</v>
+      </c>
     </row>
     <row r="67" s="1" customFormat="true" ht="16.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A67" s="6" t="n">
@@ -11458,6 +11638,9 @@
       <c r="F67" s="1" t="s">
         <v>10</v>
       </c>
+      <c r="G67" s="1" t="s">
+        <v>10</v>
+      </c>
     </row>
     <row r="68" s="1" customFormat="true" ht="16.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A68" s="6" t="n">
@@ -11474,6 +11657,9 @@
       <c r="F68" s="1" t="s">
         <v>10</v>
       </c>
+      <c r="G68" s="1" t="s">
+        <v>10</v>
+      </c>
     </row>
     <row r="69" s="1" customFormat="true" ht="16.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A69" s="6" t="n">
@@ -11490,6 +11676,9 @@
       <c r="F69" s="1" t="n">
         <v>0</v>
       </c>
+      <c r="G69" s="1" t="s">
+        <v>10</v>
+      </c>
     </row>
     <row r="70" s="1" customFormat="true" ht="17" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A70" s="6" t="n">
@@ -11504,6 +11693,9 @@
       <c r="F70" s="1" t="s">
         <v>10</v>
       </c>
+      <c r="G70" s="1" t="s">
+        <v>10</v>
+      </c>
     </row>
     <row r="71" s="1" customFormat="true" ht="16.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A71" s="6" t="n">
@@ -11518,6 +11710,9 @@
       <c r="F71" s="1" t="s">
         <v>10</v>
       </c>
+      <c r="G71" s="1" t="s">
+        <v>10</v>
+      </c>
     </row>
     <row r="72" s="1" customFormat="true" ht="16.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A72" s="6" t="n">
@@ -11532,6 +11727,9 @@
       <c r="F72" s="1" t="s">
         <v>10</v>
       </c>
+      <c r="G72" s="1" t="s">
+        <v>10</v>
+      </c>
     </row>
     <row r="73" s="1" customFormat="true" ht="16.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A73" s="6" t="n">
@@ -11546,6 +11744,9 @@
       <c r="F73" s="1" t="s">
         <v>10</v>
       </c>
+      <c r="G73" s="1" t="s">
+        <v>10</v>
+      </c>
     </row>
     <row r="74" s="1" customFormat="true" ht="16.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A74" s="6" t="n">
@@ -11560,6 +11761,9 @@
       <c r="F74" s="1" t="s">
         <v>10</v>
       </c>
+      <c r="G74" s="1" t="s">
+        <v>10</v>
+      </c>
     </row>
     <row r="75" s="1" customFormat="true" ht="16.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A75" s="6" t="n">
@@ -11574,6 +11778,9 @@
       <c r="F75" s="1" t="s">
         <v>10</v>
       </c>
+      <c r="G75" s="1" t="s">
+        <v>10</v>
+      </c>
     </row>
     <row r="76" s="1" customFormat="true" ht="16.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A76" s="6" t="n">
@@ -11588,6 +11795,9 @@
       <c r="F76" s="1" t="s">
         <v>10</v>
       </c>
+      <c r="G76" s="1" t="s">
+        <v>10</v>
+      </c>
     </row>
     <row r="77" s="1" customFormat="true" ht="16.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A77" s="6" t="n">
@@ -11602,6 +11812,9 @@
       <c r="F77" s="1" t="s">
         <v>10</v>
       </c>
+      <c r="G77" s="1" t="s">
+        <v>10</v>
+      </c>
     </row>
     <row r="78" s="1" customFormat="true" ht="16.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A78" s="6" t="n">
@@ -11616,6 +11829,9 @@
       <c r="F78" s="1" t="s">
         <v>10</v>
       </c>
+      <c r="G78" s="1" t="s">
+        <v>10</v>
+      </c>
     </row>
     <row r="79" s="1" customFormat="true" ht="16.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A79" s="6" t="n">
@@ -11628,6 +11844,9 @@
       </c>
       <c r="D79" s="9"/>
       <c r="F79" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="G79" s="1" t="s">
         <v>10</v>
       </c>
     </row>

--- a/07 ootareon 目標管理シート.xlsx
+++ b/07 ootareon 目標管理シート.xlsx
@@ -47,7 +47,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1171" uniqueCount="526">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1224" uniqueCount="526">
   <si>
     <t xml:space="preserve">学習目標自己チェックシート(ビジネスマナー)</t>
   </si>
@@ -2181,9 +2181,9 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>20</xdr:col>
-      <xdr:colOff>538200</xdr:colOff>
+      <xdr:colOff>537840</xdr:colOff>
       <xdr:row>6</xdr:row>
-      <xdr:rowOff>28080</xdr:rowOff>
+      <xdr:rowOff>27720</xdr:rowOff>
     </xdr:to>
     <xdr:sp>
       <xdr:nvSpPr>
@@ -2193,7 +2193,7 @@
       <xdr:spPr>
         <a:xfrm>
           <a:off x="14182920" y="0"/>
-          <a:ext cx="5004720" cy="1618920"/>
+          <a:ext cx="5004360" cy="1618560"/>
         </a:xfrm>
         <a:prstGeom prst="wedgeRoundRectCallout">
           <a:avLst>
@@ -2359,9 +2359,9 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>16</xdr:col>
-      <xdr:colOff>300240</xdr:colOff>
+      <xdr:colOff>299880</xdr:colOff>
       <xdr:row>6</xdr:row>
-      <xdr:rowOff>173160</xdr:rowOff>
+      <xdr:rowOff>172800</xdr:rowOff>
     </xdr:to>
     <xdr:sp>
       <xdr:nvSpPr>
@@ -2371,7 +2371,7 @@
       <xdr:spPr>
         <a:xfrm>
           <a:off x="11673360" y="145080"/>
-          <a:ext cx="5004720" cy="1618920"/>
+          <a:ext cx="5004360" cy="1618560"/>
         </a:xfrm>
         <a:prstGeom prst="wedgeRoundRectCallout">
           <a:avLst>
@@ -2537,9 +2537,9 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>16</xdr:col>
-      <xdr:colOff>300240</xdr:colOff>
+      <xdr:colOff>299880</xdr:colOff>
       <xdr:row>6</xdr:row>
-      <xdr:rowOff>173160</xdr:rowOff>
+      <xdr:rowOff>172800</xdr:rowOff>
     </xdr:to>
     <xdr:sp>
       <xdr:nvSpPr>
@@ -2549,7 +2549,7 @@
       <xdr:spPr>
         <a:xfrm>
           <a:off x="11620440" y="145080"/>
-          <a:ext cx="5005080" cy="1618920"/>
+          <a:ext cx="5004720" cy="1618560"/>
         </a:xfrm>
         <a:prstGeom prst="wedgeRoundRectCallout">
           <a:avLst>
@@ -2715,9 +2715,9 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>19</xdr:col>
-      <xdr:colOff>451080</xdr:colOff>
+      <xdr:colOff>450720</xdr:colOff>
       <xdr:row>6</xdr:row>
-      <xdr:rowOff>65520</xdr:rowOff>
+      <xdr:rowOff>65160</xdr:rowOff>
     </xdr:to>
     <xdr:sp>
       <xdr:nvSpPr>
@@ -2727,7 +2727,7 @@
       <xdr:spPr>
         <a:xfrm>
           <a:off x="13364640" y="0"/>
-          <a:ext cx="5062680" cy="1656360"/>
+          <a:ext cx="5062320" cy="1656000"/>
         </a:xfrm>
         <a:prstGeom prst="wedgeRoundRectCallout">
           <a:avLst>
@@ -2888,9 +2888,9 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>4</xdr:col>
-      <xdr:colOff>73440</xdr:colOff>
+      <xdr:colOff>73080</xdr:colOff>
       <xdr:row>85</xdr:row>
-      <xdr:rowOff>164160</xdr:rowOff>
+      <xdr:rowOff>163800</xdr:rowOff>
     </xdr:to>
     <xdr:sp>
       <xdr:nvSpPr>
@@ -2900,7 +2900,7 @@
       <xdr:spPr>
         <a:xfrm>
           <a:off x="11283480" y="16242120"/>
-          <a:ext cx="192600" cy="2223360"/>
+          <a:ext cx="192240" cy="2223000"/>
         </a:xfrm>
         <a:prstGeom prst="rightBrace">
           <a:avLst>
@@ -2940,9 +2940,9 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>15</xdr:col>
-      <xdr:colOff>402120</xdr:colOff>
+      <xdr:colOff>401760</xdr:colOff>
       <xdr:row>84</xdr:row>
-      <xdr:rowOff>124920</xdr:rowOff>
+      <xdr:rowOff>124560</xdr:rowOff>
     </xdr:to>
     <xdr:sp>
       <xdr:nvSpPr>
@@ -2952,7 +2952,7 @@
       <xdr:spPr>
         <a:xfrm>
           <a:off x="11702160" y="17062200"/>
-          <a:ext cx="4614840" cy="1154520"/>
+          <a:ext cx="4614480" cy="1154160"/>
         </a:xfrm>
         <a:prstGeom prst="ellipse">
           <a:avLst/>
@@ -3053,9 +3053,9 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>21</xdr:col>
-      <xdr:colOff>23760</xdr:colOff>
+      <xdr:colOff>23400</xdr:colOff>
       <xdr:row>6</xdr:row>
-      <xdr:rowOff>55080</xdr:rowOff>
+      <xdr:rowOff>54720</xdr:rowOff>
     </xdr:to>
     <xdr:sp>
       <xdr:nvSpPr>
@@ -3065,7 +3065,7 @@
       <xdr:spPr>
         <a:xfrm>
           <a:off x="13158360" y="0"/>
-          <a:ext cx="5026320" cy="1645920"/>
+          <a:ext cx="5025960" cy="1645560"/>
         </a:xfrm>
         <a:prstGeom prst="wedgeRoundRectCallout">
           <a:avLst>
@@ -3231,9 +3231,9 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>43</xdr:col>
-      <xdr:colOff>6840</xdr:colOff>
+      <xdr:colOff>6480</xdr:colOff>
       <xdr:row>13</xdr:row>
-      <xdr:rowOff>44280</xdr:rowOff>
+      <xdr:rowOff>43920</xdr:rowOff>
     </xdr:to>
     <xdr:sp>
       <xdr:nvSpPr>
@@ -3243,7 +3243,7 @@
       <xdr:spPr>
         <a:xfrm>
           <a:off x="28142280" y="0"/>
-          <a:ext cx="5062320" cy="3079080"/>
+          <a:ext cx="5061960" cy="3078720"/>
         </a:xfrm>
         <a:prstGeom prst="wedgeRoundRectCallout">
           <a:avLst>
@@ -3409,9 +3409,9 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>16</xdr:col>
-      <xdr:colOff>311760</xdr:colOff>
+      <xdr:colOff>311400</xdr:colOff>
       <xdr:row>11</xdr:row>
-      <xdr:rowOff>201240</xdr:rowOff>
+      <xdr:rowOff>200880</xdr:rowOff>
     </xdr:to>
     <xdr:sp>
       <xdr:nvSpPr>
@@ -3421,7 +3421,7 @@
       <xdr:spPr>
         <a:xfrm>
           <a:off x="11906640" y="156960"/>
-          <a:ext cx="5062320" cy="2682720"/>
+          <a:ext cx="5061960" cy="2682360"/>
         </a:xfrm>
         <a:prstGeom prst="wedgeRoundRectCallout">
           <a:avLst>
@@ -10309,10 +10309,10 @@
     <tabColor rgb="FF9DC3E6"/>
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:G79"/>
+  <dimension ref="A1:H79"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="pageBreakPreview" topLeftCell="A57" colorId="64" zoomScale="80" zoomScaleNormal="85" zoomScalePageLayoutView="80" workbookViewId="0">
-      <selection pane="topLeft" activeCell="G80" activeCellId="0" sqref="G80"/>
+      <selection pane="topLeft" activeCell="H80" activeCellId="0" sqref="H80"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.45703125" defaultRowHeight="16.5" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -10389,6 +10389,9 @@
       <c r="G7" s="1" t="n">
         <v>0</v>
       </c>
+      <c r="H7" s="1" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="8" customFormat="false" ht="16.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A8" s="6" t="n">
@@ -10411,6 +10414,9 @@
       <c r="G8" s="1" t="n">
         <v>0</v>
       </c>
+      <c r="H8" s="1" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="9" customFormat="false" ht="16.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A9" s="6" t="n">
@@ -10433,6 +10439,9 @@
       <c r="G9" s="1" t="n">
         <v>0</v>
       </c>
+      <c r="H9" s="1" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="10" customFormat="false" ht="16.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A10" s="6" t="n">
@@ -10455,6 +10464,9 @@
       <c r="G10" s="1" t="s">
         <v>10</v>
       </c>
+      <c r="H10" s="1" t="s">
+        <v>10</v>
+      </c>
     </row>
     <row r="11" customFormat="false" ht="16.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A11" s="6" t="n">
@@ -10477,6 +10489,9 @@
       <c r="G11" s="1" t="s">
         <v>10</v>
       </c>
+      <c r="H11" s="1" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="12" customFormat="false" ht="16.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A12" s="6" t="n">
@@ -10499,6 +10514,9 @@
       <c r="G12" s="1" t="s">
         <v>10</v>
       </c>
+      <c r="H12" s="1" t="s">
+        <v>10</v>
+      </c>
     </row>
     <row r="13" customFormat="false" ht="16.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A13" s="6" t="n">
@@ -10521,6 +10539,9 @@
       <c r="G13" s="1" t="s">
         <v>10</v>
       </c>
+      <c r="H13" s="1" t="s">
+        <v>10</v>
+      </c>
     </row>
     <row r="14" customFormat="false" ht="16.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A14" s="6" t="n">
@@ -10543,6 +10564,9 @@
       <c r="G14" s="1" t="s">
         <v>10</v>
       </c>
+      <c r="H14" s="1" t="s">
+        <v>10</v>
+      </c>
     </row>
     <row r="15" customFormat="false" ht="16.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A15" s="6" t="n">
@@ -10567,6 +10591,9 @@
       <c r="G15" s="1" t="n">
         <v>0</v>
       </c>
+      <c r="H15" s="1" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="16" customFormat="false" ht="16.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A16" s="6" t="n">
@@ -10588,6 +10615,9 @@
       </c>
       <c r="G16" s="1" t="s">
         <v>10</v>
+      </c>
+      <c r="H16" s="1" t="n">
+        <v>0</v>
       </c>
     </row>
     <row r="17" customFormat="false" ht="16.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -10611,6 +10641,9 @@
       <c r="G17" s="1" t="s">
         <v>10</v>
       </c>
+      <c r="H17" s="1" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="18" customFormat="false" ht="16.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A18" s="6" t="n">
@@ -10633,6 +10666,9 @@
       <c r="G18" s="1" t="n">
         <v>0</v>
       </c>
+      <c r="H18" s="1" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="19" customFormat="false" ht="16.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A19" s="6" t="n">
@@ -10655,6 +10691,9 @@
       <c r="G19" s="1" t="s">
         <v>10</v>
       </c>
+      <c r="H19" s="1" t="s">
+        <v>10</v>
+      </c>
     </row>
     <row r="20" customFormat="false" ht="16.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A20" s="6" t="n">
@@ -10677,6 +10716,9 @@
       <c r="G20" s="1" t="n">
         <v>0</v>
       </c>
+      <c r="H20" s="1" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="21" customFormat="false" ht="16.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A21" s="6" t="n">
@@ -10699,6 +10741,9 @@
       <c r="G21" s="1" t="s">
         <v>10</v>
       </c>
+      <c r="H21" s="1" t="s">
+        <v>10</v>
+      </c>
     </row>
     <row r="22" customFormat="false" ht="16.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A22" s="6" t="n">
@@ -10721,6 +10766,9 @@
       <c r="G22" s="1" t="n">
         <v>0</v>
       </c>
+      <c r="H22" s="1" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="23" customFormat="false" ht="16.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A23" s="6" t="n">
@@ -10743,6 +10791,9 @@
       <c r="G23" s="1" t="s">
         <v>10</v>
       </c>
+      <c r="H23" s="1" t="s">
+        <v>10</v>
+      </c>
     </row>
     <row r="24" customFormat="false" ht="16.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A24" s="6" t="n">
@@ -10765,6 +10816,9 @@
       <c r="G24" s="1" t="s">
         <v>10</v>
       </c>
+      <c r="H24" s="1" t="s">
+        <v>10</v>
+      </c>
     </row>
     <row r="25" customFormat="false" ht="16.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A25" s="6" t="n">
@@ -10787,6 +10841,9 @@
       <c r="G25" s="1" t="s">
         <v>10</v>
       </c>
+      <c r="H25" s="1" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="26" customFormat="false" ht="16.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A26" s="6" t="n">
@@ -10809,6 +10866,9 @@
       <c r="G26" s="1" t="n">
         <v>0</v>
       </c>
+      <c r="H26" s="1" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="27" customFormat="false" ht="16.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A27" s="6" t="n">
@@ -10831,6 +10891,9 @@
       <c r="G27" s="1" t="n">
         <v>0</v>
       </c>
+      <c r="H27" s="1" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="28" customFormat="false" ht="16.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A28" s="6" t="n">
@@ -10855,6 +10918,9 @@
       <c r="G28" s="1" t="s">
         <v>10</v>
       </c>
+      <c r="H28" s="1" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="29" customFormat="false" ht="16.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A29" s="6" t="n">
@@ -10877,6 +10943,9 @@
       <c r="G29" s="1" t="s">
         <v>10</v>
       </c>
+      <c r="H29" s="1" t="s">
+        <v>10</v>
+      </c>
     </row>
     <row r="30" customFormat="false" ht="16.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A30" s="6" t="n">
@@ -10899,6 +10968,9 @@
       <c r="G30" s="1" t="n">
         <v>0</v>
       </c>
+      <c r="H30" s="1" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="31" s="1" customFormat="true" ht="16.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A31" s="6" t="n">
@@ -10923,6 +10995,9 @@
       <c r="G31" s="1" t="s">
         <v>10</v>
       </c>
+      <c r="H31" s="1" t="s">
+        <v>10</v>
+      </c>
     </row>
     <row r="32" s="1" customFormat="true" ht="16.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A32" s="6" t="n">
@@ -10945,6 +11020,9 @@
       <c r="G32" s="1" t="s">
         <v>10</v>
       </c>
+      <c r="H32" s="1" t="s">
+        <v>10</v>
+      </c>
     </row>
     <row r="33" s="1" customFormat="true" ht="16.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A33" s="6" t="n">
@@ -10967,6 +11045,9 @@
       <c r="G33" s="1" t="s">
         <v>10</v>
       </c>
+      <c r="H33" s="1" t="s">
+        <v>10</v>
+      </c>
     </row>
     <row r="34" s="1" customFormat="true" ht="16.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A34" s="6" t="n">
@@ -10989,6 +11070,9 @@
       <c r="G34" s="1" t="s">
         <v>10</v>
       </c>
+      <c r="H34" s="1" t="s">
+        <v>10</v>
+      </c>
     </row>
     <row r="35" s="1" customFormat="true" ht="16.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A35" s="6" t="n">
@@ -11011,6 +11095,9 @@
       <c r="G35" s="1" t="n">
         <v>0</v>
       </c>
+      <c r="H35" s="1" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="36" s="1" customFormat="true" ht="16.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A36" s="6" t="n">
@@ -11033,6 +11120,9 @@
       <c r="G36" s="1" t="s">
         <v>10</v>
       </c>
+      <c r="H36" s="1" t="s">
+        <v>10</v>
+      </c>
     </row>
     <row r="37" s="1" customFormat="true" ht="16.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A37" s="6" t="n">
@@ -11055,6 +11145,9 @@
       <c r="G37" s="1" t="n">
         <v>0</v>
       </c>
+      <c r="H37" s="1" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="38" s="1" customFormat="true" ht="16.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A38" s="6" t="n">
@@ -11077,6 +11170,9 @@
       <c r="G38" s="1" t="s">
         <v>10</v>
       </c>
+      <c r="H38" s="1" t="s">
+        <v>10</v>
+      </c>
     </row>
     <row r="39" s="1" customFormat="true" ht="16.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A39" s="6" t="n">
@@ -11099,6 +11195,9 @@
       <c r="G39" s="1" t="s">
         <v>10</v>
       </c>
+      <c r="H39" s="1" t="s">
+        <v>10</v>
+      </c>
     </row>
     <row r="40" s="1" customFormat="true" ht="16.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A40" s="6" t="n">
@@ -11119,6 +11218,9 @@
       <c r="G40" s="1" t="s">
         <v>10</v>
       </c>
+      <c r="H40" s="1" t="s">
+        <v>10</v>
+      </c>
     </row>
     <row r="41" s="1" customFormat="true" ht="16.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A41" s="6" t="n">
@@ -11139,6 +11241,9 @@
       <c r="G41" s="1" t="s">
         <v>10</v>
       </c>
+      <c r="H41" s="1" t="s">
+        <v>10</v>
+      </c>
     </row>
     <row r="42" s="1" customFormat="true" ht="16.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A42" s="6" t="n">
@@ -11159,6 +11264,9 @@
       <c r="G42" s="1" t="s">
         <v>10</v>
       </c>
+      <c r="H42" s="1" t="s">
+        <v>10</v>
+      </c>
     </row>
     <row r="43" s="1" customFormat="true" ht="31.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A43" s="6" t="n">
@@ -11179,6 +11287,9 @@
       <c r="G43" s="1" t="s">
         <v>10</v>
       </c>
+      <c r="H43" s="1" t="s">
+        <v>10</v>
+      </c>
     </row>
     <row r="44" s="1" customFormat="true" ht="16.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A44" s="6" t="n">
@@ -11199,6 +11310,9 @@
       <c r="G44" s="1" t="s">
         <v>10</v>
       </c>
+      <c r="H44" s="1" t="s">
+        <v>10</v>
+      </c>
     </row>
     <row r="45" s="1" customFormat="true" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A45" s="6" t="n">
@@ -11221,6 +11335,9 @@
       <c r="G45" s="1" t="s">
         <v>10</v>
       </c>
+      <c r="H45" s="1" t="s">
+        <v>10</v>
+      </c>
     </row>
     <row r="46" s="1" customFormat="true" ht="16.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A46" s="6" t="n">
@@ -11241,6 +11358,9 @@
       <c r="G46" s="1" t="n">
         <v>0</v>
       </c>
+      <c r="H46" s="1" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="47" s="1" customFormat="true" ht="16.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A47" s="6" t="n">
@@ -11261,6 +11381,9 @@
       <c r="G47" s="1" t="s">
         <v>10</v>
       </c>
+      <c r="H47" s="1" t="s">
+        <v>10</v>
+      </c>
     </row>
     <row r="48" s="1" customFormat="true" ht="16.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A48" s="6" t="n">
@@ -11281,6 +11404,9 @@
       <c r="G48" s="1" t="s">
         <v>10</v>
       </c>
+      <c r="H48" s="1" t="s">
+        <v>10</v>
+      </c>
     </row>
     <row r="49" s="1" customFormat="true" ht="16.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A49" s="6" t="n">
@@ -11301,6 +11427,9 @@
       <c r="G49" s="1" t="s">
         <v>10</v>
       </c>
+      <c r="H49" s="1" t="s">
+        <v>10</v>
+      </c>
     </row>
     <row r="50" s="1" customFormat="true" ht="16.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A50" s="6" t="n">
@@ -11321,6 +11450,9 @@
       <c r="G50" s="1" t="s">
         <v>10</v>
       </c>
+      <c r="H50" s="1" t="s">
+        <v>10</v>
+      </c>
     </row>
     <row r="51" s="1" customFormat="true" ht="16.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A51" s="6" t="n">
@@ -11341,6 +11473,9 @@
       <c r="G51" s="1" t="s">
         <v>10</v>
       </c>
+      <c r="H51" s="1" t="s">
+        <v>10</v>
+      </c>
     </row>
     <row r="52" s="1" customFormat="true" ht="16.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A52" s="6" t="n">
@@ -11361,6 +11496,9 @@
       <c r="G52" s="1" t="s">
         <v>10</v>
       </c>
+      <c r="H52" s="1" t="s">
+        <v>10</v>
+      </c>
     </row>
     <row r="53" s="1" customFormat="true" ht="16.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A53" s="6" t="n">
@@ -11381,6 +11519,9 @@
       <c r="G53" s="1" t="n">
         <v>0</v>
       </c>
+      <c r="H53" s="1" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="54" s="1" customFormat="true" ht="31.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A54" s="6" t="n">
@@ -11401,6 +11542,9 @@
       <c r="G54" s="1" t="s">
         <v>10</v>
       </c>
+      <c r="H54" s="1" t="s">
+        <v>10</v>
+      </c>
     </row>
     <row r="55" s="1" customFormat="true" ht="16.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A55" s="6" t="n">
@@ -11423,6 +11567,9 @@
       <c r="G55" s="1" t="n">
         <v>0</v>
       </c>
+      <c r="H55" s="1" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="56" s="1" customFormat="true" ht="16.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A56" s="6" t="n">
@@ -11443,6 +11590,9 @@
       <c r="G56" s="1" t="s">
         <v>10</v>
       </c>
+      <c r="H56" s="1" t="s">
+        <v>10</v>
+      </c>
     </row>
     <row r="57" s="1" customFormat="true" ht="16.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A57" s="6" t="n">
@@ -11463,6 +11613,9 @@
       <c r="G57" s="1" t="s">
         <v>10</v>
       </c>
+      <c r="H57" s="1" t="s">
+        <v>10</v>
+      </c>
     </row>
     <row r="58" s="1" customFormat="true" ht="16.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A58" s="6" t="n">
@@ -11483,6 +11636,9 @@
       <c r="G58" s="1" t="s">
         <v>10</v>
       </c>
+      <c r="H58" s="1" t="s">
+        <v>10</v>
+      </c>
     </row>
     <row r="59" s="1" customFormat="true" ht="16.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A59" s="6" t="n">
@@ -11503,6 +11659,9 @@
       <c r="G59" s="1" t="s">
         <v>10</v>
       </c>
+      <c r="H59" s="1" t="s">
+        <v>10</v>
+      </c>
     </row>
     <row r="60" s="1" customFormat="true" ht="16.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A60" s="6" t="n">
@@ -11522,6 +11681,9 @@
       <c r="G60" s="1" t="s">
         <v>10</v>
       </c>
+      <c r="H60" s="1" t="s">
+        <v>10</v>
+      </c>
     </row>
     <row r="61" s="1" customFormat="true" ht="16.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A61" s="6" t="n">
@@ -11539,6 +11701,9 @@
       <c r="G61" s="1" t="s">
         <v>10</v>
       </c>
+      <c r="H61" s="1" t="s">
+        <v>10</v>
+      </c>
     </row>
     <row r="62" s="1" customFormat="true" ht="16.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A62" s="6" t="n">
@@ -11556,6 +11721,9 @@
       <c r="G62" s="1" t="s">
         <v>10</v>
       </c>
+      <c r="H62" s="1" t="s">
+        <v>10</v>
+      </c>
     </row>
     <row r="63" s="1" customFormat="true" ht="16.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A63" s="6" t="n">
@@ -11573,6 +11741,9 @@
       <c r="G63" s="1" t="s">
         <v>10</v>
       </c>
+      <c r="H63" s="1" t="s">
+        <v>10</v>
+      </c>
     </row>
     <row r="64" s="1" customFormat="true" ht="16.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A64" s="6" t="n">
@@ -11590,6 +11761,9 @@
       <c r="G64" s="1" t="s">
         <v>10</v>
       </c>
+      <c r="H64" s="1" t="s">
+        <v>10</v>
+      </c>
     </row>
     <row r="65" s="1" customFormat="true" ht="16.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A65" s="6" t="n">
@@ -11607,6 +11781,9 @@
       <c r="G65" s="1" t="s">
         <v>10</v>
       </c>
+      <c r="H65" s="1" t="s">
+        <v>10</v>
+      </c>
     </row>
     <row r="66" s="1" customFormat="true" ht="16.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A66" s="6" t="n">
@@ -11624,6 +11801,9 @@
       <c r="G66" s="1" t="s">
         <v>10</v>
       </c>
+      <c r="H66" s="1" t="s">
+        <v>10</v>
+      </c>
     </row>
     <row r="67" s="1" customFormat="true" ht="16.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A67" s="6" t="n">
@@ -11641,6 +11821,9 @@
       <c r="G67" s="1" t="s">
         <v>10</v>
       </c>
+      <c r="H67" s="1" t="s">
+        <v>10</v>
+      </c>
     </row>
     <row r="68" s="1" customFormat="true" ht="16.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A68" s="6" t="n">
@@ -11660,6 +11843,9 @@
       <c r="G68" s="1" t="s">
         <v>10</v>
       </c>
+      <c r="H68" s="1" t="s">
+        <v>10</v>
+      </c>
     </row>
     <row r="69" s="1" customFormat="true" ht="16.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A69" s="6" t="n">
@@ -11679,6 +11865,9 @@
       <c r="G69" s="1" t="s">
         <v>10</v>
       </c>
+      <c r="H69" s="1" t="s">
+        <v>10</v>
+      </c>
     </row>
     <row r="70" s="1" customFormat="true" ht="17" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A70" s="6" t="n">
@@ -11696,6 +11885,9 @@
       <c r="G70" s="1" t="s">
         <v>10</v>
       </c>
+      <c r="H70" s="1" t="s">
+        <v>10</v>
+      </c>
     </row>
     <row r="71" s="1" customFormat="true" ht="16.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A71" s="6" t="n">
@@ -11713,6 +11905,9 @@
       <c r="G71" s="1" t="s">
         <v>10</v>
       </c>
+      <c r="H71" s="1" t="s">
+        <v>10</v>
+      </c>
     </row>
     <row r="72" s="1" customFormat="true" ht="16.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A72" s="6" t="n">
@@ -11730,6 +11925,9 @@
       <c r="G72" s="1" t="s">
         <v>10</v>
       </c>
+      <c r="H72" s="1" t="s">
+        <v>10</v>
+      </c>
     </row>
     <row r="73" s="1" customFormat="true" ht="16.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A73" s="6" t="n">
@@ -11747,6 +11945,9 @@
       <c r="G73" s="1" t="s">
         <v>10</v>
       </c>
+      <c r="H73" s="1" t="s">
+        <v>10</v>
+      </c>
     </row>
     <row r="74" s="1" customFormat="true" ht="16.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A74" s="6" t="n">
@@ -11764,6 +11965,9 @@
       <c r="G74" s="1" t="s">
         <v>10</v>
       </c>
+      <c r="H74" s="1" t="s">
+        <v>10</v>
+      </c>
     </row>
     <row r="75" s="1" customFormat="true" ht="16.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A75" s="6" t="n">
@@ -11781,6 +11985,9 @@
       <c r="G75" s="1" t="s">
         <v>10</v>
       </c>
+      <c r="H75" s="1" t="s">
+        <v>10</v>
+      </c>
     </row>
     <row r="76" s="1" customFormat="true" ht="16.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A76" s="6" t="n">
@@ -11798,6 +12005,9 @@
       <c r="G76" s="1" t="s">
         <v>10</v>
       </c>
+      <c r="H76" s="1" t="s">
+        <v>10</v>
+      </c>
     </row>
     <row r="77" s="1" customFormat="true" ht="16.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A77" s="6" t="n">
@@ -11815,6 +12025,9 @@
       <c r="G77" s="1" t="s">
         <v>10</v>
       </c>
+      <c r="H77" s="1" t="s">
+        <v>10</v>
+      </c>
     </row>
     <row r="78" s="1" customFormat="true" ht="16.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A78" s="6" t="n">
@@ -11832,6 +12045,9 @@
       <c r="G78" s="1" t="s">
         <v>10</v>
       </c>
+      <c r="H78" s="1" t="s">
+        <v>10</v>
+      </c>
     </row>
     <row r="79" s="1" customFormat="true" ht="16.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A79" s="6" t="n">
@@ -11847,6 +12063,9 @@
         <v>10</v>
       </c>
       <c r="G79" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="H79" s="1" t="s">
         <v>10</v>
       </c>
     </row>

--- a/07 ootareon 目標管理シート.xlsx
+++ b/07 ootareon 目標管理シート.xlsx
@@ -47,7 +47,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1224" uniqueCount="526">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1277" uniqueCount="526">
   <si>
     <t xml:space="preserve">学習目標自己チェックシート(ビジネスマナー)</t>
   </si>
@@ -2181,9 +2181,9 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>20</xdr:col>
-      <xdr:colOff>537840</xdr:colOff>
+      <xdr:colOff>537480</xdr:colOff>
       <xdr:row>6</xdr:row>
-      <xdr:rowOff>27720</xdr:rowOff>
+      <xdr:rowOff>27360</xdr:rowOff>
     </xdr:to>
     <xdr:sp>
       <xdr:nvSpPr>
@@ -2193,7 +2193,7 @@
       <xdr:spPr>
         <a:xfrm>
           <a:off x="14182920" y="0"/>
-          <a:ext cx="5004360" cy="1618560"/>
+          <a:ext cx="5004000" cy="1618200"/>
         </a:xfrm>
         <a:prstGeom prst="wedgeRoundRectCallout">
           <a:avLst>
@@ -2359,9 +2359,9 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>16</xdr:col>
-      <xdr:colOff>299880</xdr:colOff>
+      <xdr:colOff>299520</xdr:colOff>
       <xdr:row>6</xdr:row>
-      <xdr:rowOff>172800</xdr:rowOff>
+      <xdr:rowOff>172440</xdr:rowOff>
     </xdr:to>
     <xdr:sp>
       <xdr:nvSpPr>
@@ -2371,7 +2371,7 @@
       <xdr:spPr>
         <a:xfrm>
           <a:off x="11673360" y="145080"/>
-          <a:ext cx="5004360" cy="1618560"/>
+          <a:ext cx="5004000" cy="1618200"/>
         </a:xfrm>
         <a:prstGeom prst="wedgeRoundRectCallout">
           <a:avLst>
@@ -2537,9 +2537,9 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>16</xdr:col>
-      <xdr:colOff>299880</xdr:colOff>
+      <xdr:colOff>299520</xdr:colOff>
       <xdr:row>6</xdr:row>
-      <xdr:rowOff>172800</xdr:rowOff>
+      <xdr:rowOff>172440</xdr:rowOff>
     </xdr:to>
     <xdr:sp>
       <xdr:nvSpPr>
@@ -2549,7 +2549,7 @@
       <xdr:spPr>
         <a:xfrm>
           <a:off x="11620440" y="145080"/>
-          <a:ext cx="5004720" cy="1618560"/>
+          <a:ext cx="5004360" cy="1618200"/>
         </a:xfrm>
         <a:prstGeom prst="wedgeRoundRectCallout">
           <a:avLst>
@@ -2715,9 +2715,9 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>19</xdr:col>
-      <xdr:colOff>450720</xdr:colOff>
+      <xdr:colOff>450360</xdr:colOff>
       <xdr:row>6</xdr:row>
-      <xdr:rowOff>65160</xdr:rowOff>
+      <xdr:rowOff>64800</xdr:rowOff>
     </xdr:to>
     <xdr:sp>
       <xdr:nvSpPr>
@@ -2727,7 +2727,7 @@
       <xdr:spPr>
         <a:xfrm>
           <a:off x="13364640" y="0"/>
-          <a:ext cx="5062320" cy="1656000"/>
+          <a:ext cx="5061960" cy="1655640"/>
         </a:xfrm>
         <a:prstGeom prst="wedgeRoundRectCallout">
           <a:avLst>
@@ -2888,9 +2888,9 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>4</xdr:col>
-      <xdr:colOff>73080</xdr:colOff>
+      <xdr:colOff>72720</xdr:colOff>
       <xdr:row>85</xdr:row>
-      <xdr:rowOff>163800</xdr:rowOff>
+      <xdr:rowOff>163440</xdr:rowOff>
     </xdr:to>
     <xdr:sp>
       <xdr:nvSpPr>
@@ -2900,7 +2900,7 @@
       <xdr:spPr>
         <a:xfrm>
           <a:off x="11283480" y="16242120"/>
-          <a:ext cx="192240" cy="2223000"/>
+          <a:ext cx="191880" cy="2222640"/>
         </a:xfrm>
         <a:prstGeom prst="rightBrace">
           <a:avLst>
@@ -2940,9 +2940,9 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>15</xdr:col>
-      <xdr:colOff>401760</xdr:colOff>
+      <xdr:colOff>401400</xdr:colOff>
       <xdr:row>84</xdr:row>
-      <xdr:rowOff>124560</xdr:rowOff>
+      <xdr:rowOff>124200</xdr:rowOff>
     </xdr:to>
     <xdr:sp>
       <xdr:nvSpPr>
@@ -2952,7 +2952,7 @@
       <xdr:spPr>
         <a:xfrm>
           <a:off x="11702160" y="17062200"/>
-          <a:ext cx="4614480" cy="1154160"/>
+          <a:ext cx="4614120" cy="1153800"/>
         </a:xfrm>
         <a:prstGeom prst="ellipse">
           <a:avLst/>
@@ -3053,9 +3053,9 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>21</xdr:col>
-      <xdr:colOff>23400</xdr:colOff>
+      <xdr:colOff>23040</xdr:colOff>
       <xdr:row>6</xdr:row>
-      <xdr:rowOff>54720</xdr:rowOff>
+      <xdr:rowOff>54360</xdr:rowOff>
     </xdr:to>
     <xdr:sp>
       <xdr:nvSpPr>
@@ -3065,7 +3065,7 @@
       <xdr:spPr>
         <a:xfrm>
           <a:off x="13158360" y="0"/>
-          <a:ext cx="5025960" cy="1645560"/>
+          <a:ext cx="5025600" cy="1645200"/>
         </a:xfrm>
         <a:prstGeom prst="wedgeRoundRectCallout">
           <a:avLst>
@@ -3231,9 +3231,9 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>43</xdr:col>
-      <xdr:colOff>6480</xdr:colOff>
+      <xdr:colOff>6120</xdr:colOff>
       <xdr:row>13</xdr:row>
-      <xdr:rowOff>43920</xdr:rowOff>
+      <xdr:rowOff>43560</xdr:rowOff>
     </xdr:to>
     <xdr:sp>
       <xdr:nvSpPr>
@@ -3243,7 +3243,7 @@
       <xdr:spPr>
         <a:xfrm>
           <a:off x="28142280" y="0"/>
-          <a:ext cx="5061960" cy="3078720"/>
+          <a:ext cx="5061600" cy="3078360"/>
         </a:xfrm>
         <a:prstGeom prst="wedgeRoundRectCallout">
           <a:avLst>
@@ -3409,9 +3409,9 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>16</xdr:col>
-      <xdr:colOff>311400</xdr:colOff>
+      <xdr:colOff>311040</xdr:colOff>
       <xdr:row>11</xdr:row>
-      <xdr:rowOff>200880</xdr:rowOff>
+      <xdr:rowOff>200520</xdr:rowOff>
     </xdr:to>
     <xdr:sp>
       <xdr:nvSpPr>
@@ -3421,7 +3421,7 @@
       <xdr:spPr>
         <a:xfrm>
           <a:off x="11906640" y="156960"/>
-          <a:ext cx="5061960" cy="2682360"/>
+          <a:ext cx="5061600" cy="2682000"/>
         </a:xfrm>
         <a:prstGeom prst="wedgeRoundRectCallout">
           <a:avLst>
@@ -10309,10 +10309,10 @@
     <tabColor rgb="FF9DC3E6"/>
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:H79"/>
+  <dimension ref="A1:I79"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="pageBreakPreview" topLeftCell="A57" colorId="64" zoomScale="80" zoomScaleNormal="85" zoomScalePageLayoutView="80" workbookViewId="0">
-      <selection pane="topLeft" activeCell="H80" activeCellId="0" sqref="H80"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="pageBreakPreview" topLeftCell="C3" colorId="64" zoomScale="80" zoomScaleNormal="85" zoomScalePageLayoutView="80" workbookViewId="0">
+      <selection pane="topLeft" activeCell="J8" activeCellId="0" sqref="J8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.45703125" defaultRowHeight="16.5" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -10392,6 +10392,9 @@
       <c r="H7" s="1" t="n">
         <v>0</v>
       </c>
+      <c r="I7" s="1" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="8" customFormat="false" ht="16.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A8" s="6" t="n">
@@ -10417,6 +10420,9 @@
       <c r="H8" s="1" t="n">
         <v>0</v>
       </c>
+      <c r="I8" s="1" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="9" customFormat="false" ht="16.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A9" s="6" t="n">
@@ -10442,6 +10448,9 @@
       <c r="H9" s="1" t="n">
         <v>0</v>
       </c>
+      <c r="I9" s="1" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="10" customFormat="false" ht="16.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A10" s="6" t="n">
@@ -10467,6 +10476,9 @@
       <c r="H10" s="1" t="s">
         <v>10</v>
       </c>
+      <c r="I10" s="1" t="s">
+        <v>10</v>
+      </c>
     </row>
     <row r="11" customFormat="false" ht="16.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A11" s="6" t="n">
@@ -10492,6 +10504,9 @@
       <c r="H11" s="1" t="n">
         <v>0</v>
       </c>
+      <c r="I11" s="1" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="12" customFormat="false" ht="16.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A12" s="6" t="n">
@@ -10517,6 +10532,9 @@
       <c r="H12" s="1" t="s">
         <v>10</v>
       </c>
+      <c r="I12" s="1" t="s">
+        <v>10</v>
+      </c>
     </row>
     <row r="13" customFormat="false" ht="16.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A13" s="6" t="n">
@@ -10542,6 +10560,9 @@
       <c r="H13" s="1" t="s">
         <v>10</v>
       </c>
+      <c r="I13" s="1" t="s">
+        <v>10</v>
+      </c>
     </row>
     <row r="14" customFormat="false" ht="16.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A14" s="6" t="n">
@@ -10567,6 +10588,9 @@
       <c r="H14" s="1" t="s">
         <v>10</v>
       </c>
+      <c r="I14" s="1" t="s">
+        <v>10</v>
+      </c>
     </row>
     <row r="15" customFormat="false" ht="16.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A15" s="6" t="n">
@@ -10594,6 +10618,9 @@
       <c r="H15" s="1" t="n">
         <v>0</v>
       </c>
+      <c r="I15" s="1" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="16" customFormat="false" ht="16.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A16" s="6" t="n">
@@ -10617,6 +10644,9 @@
         <v>10</v>
       </c>
       <c r="H16" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="I16" s="1" t="n">
         <v>0</v>
       </c>
     </row>
@@ -10644,6 +10674,9 @@
       <c r="H17" s="1" t="n">
         <v>0</v>
       </c>
+      <c r="I17" s="1" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="18" customFormat="false" ht="16.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A18" s="6" t="n">
@@ -10669,6 +10702,9 @@
       <c r="H18" s="1" t="n">
         <v>0</v>
       </c>
+      <c r="I18" s="1" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="19" customFormat="false" ht="16.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A19" s="6" t="n">
@@ -10694,6 +10730,9 @@
       <c r="H19" s="1" t="s">
         <v>10</v>
       </c>
+      <c r="I19" s="1" t="s">
+        <v>10</v>
+      </c>
     </row>
     <row r="20" customFormat="false" ht="16.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A20" s="6" t="n">
@@ -10719,6 +10758,9 @@
       <c r="H20" s="1" t="n">
         <v>0</v>
       </c>
+      <c r="I20" s="1" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="21" customFormat="false" ht="16.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A21" s="6" t="n">
@@ -10744,6 +10786,9 @@
       <c r="H21" s="1" t="s">
         <v>10</v>
       </c>
+      <c r="I21" s="1" t="s">
+        <v>10</v>
+      </c>
     </row>
     <row r="22" customFormat="false" ht="16.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A22" s="6" t="n">
@@ -10769,6 +10814,9 @@
       <c r="H22" s="1" t="n">
         <v>0</v>
       </c>
+      <c r="I22" s="1" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="23" customFormat="false" ht="16.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A23" s="6" t="n">
@@ -10794,6 +10842,9 @@
       <c r="H23" s="1" t="s">
         <v>10</v>
       </c>
+      <c r="I23" s="1" t="s">
+        <v>10</v>
+      </c>
     </row>
     <row r="24" customFormat="false" ht="16.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A24" s="6" t="n">
@@ -10819,6 +10870,9 @@
       <c r="H24" s="1" t="s">
         <v>10</v>
       </c>
+      <c r="I24" s="1" t="s">
+        <v>10</v>
+      </c>
     </row>
     <row r="25" customFormat="false" ht="16.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A25" s="6" t="n">
@@ -10844,6 +10898,9 @@
       <c r="H25" s="1" t="n">
         <v>0</v>
       </c>
+      <c r="I25" s="1" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="26" customFormat="false" ht="16.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A26" s="6" t="n">
@@ -10869,6 +10926,9 @@
       <c r="H26" s="1" t="n">
         <v>0</v>
       </c>
+      <c r="I26" s="1" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="27" customFormat="false" ht="16.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A27" s="6" t="n">
@@ -10894,6 +10954,9 @@
       <c r="H27" s="1" t="n">
         <v>0</v>
       </c>
+      <c r="I27" s="1" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="28" customFormat="false" ht="16.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A28" s="6" t="n">
@@ -10921,6 +10984,9 @@
       <c r="H28" s="1" t="n">
         <v>0</v>
       </c>
+      <c r="I28" s="1" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="29" customFormat="false" ht="16.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A29" s="6" t="n">
@@ -10946,6 +11012,9 @@
       <c r="H29" s="1" t="s">
         <v>10</v>
       </c>
+      <c r="I29" s="1" t="s">
+        <v>10</v>
+      </c>
     </row>
     <row r="30" customFormat="false" ht="16.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A30" s="6" t="n">
@@ -10971,6 +11040,9 @@
       <c r="H30" s="1" t="n">
         <v>0</v>
       </c>
+      <c r="I30" s="1" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="31" s="1" customFormat="true" ht="16.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A31" s="6" t="n">
@@ -10998,6 +11070,9 @@
       <c r="H31" s="1" t="s">
         <v>10</v>
       </c>
+      <c r="I31" s="1" t="s">
+        <v>10</v>
+      </c>
     </row>
     <row r="32" s="1" customFormat="true" ht="16.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A32" s="6" t="n">
@@ -11023,6 +11098,9 @@
       <c r="H32" s="1" t="s">
         <v>10</v>
       </c>
+      <c r="I32" s="1" t="s">
+        <v>10</v>
+      </c>
     </row>
     <row r="33" s="1" customFormat="true" ht="16.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A33" s="6" t="n">
@@ -11048,6 +11126,9 @@
       <c r="H33" s="1" t="s">
         <v>10</v>
       </c>
+      <c r="I33" s="1" t="s">
+        <v>10</v>
+      </c>
     </row>
     <row r="34" s="1" customFormat="true" ht="16.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A34" s="6" t="n">
@@ -11073,6 +11154,9 @@
       <c r="H34" s="1" t="s">
         <v>10</v>
       </c>
+      <c r="I34" s="1" t="s">
+        <v>10</v>
+      </c>
     </row>
     <row r="35" s="1" customFormat="true" ht="16.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A35" s="6" t="n">
@@ -11098,6 +11182,9 @@
       <c r="H35" s="1" t="n">
         <v>0</v>
       </c>
+      <c r="I35" s="1" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="36" s="1" customFormat="true" ht="16.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A36" s="6" t="n">
@@ -11123,6 +11210,9 @@
       <c r="H36" s="1" t="s">
         <v>10</v>
       </c>
+      <c r="I36" s="1" t="s">
+        <v>10</v>
+      </c>
     </row>
     <row r="37" s="1" customFormat="true" ht="16.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A37" s="6" t="n">
@@ -11148,6 +11238,9 @@
       <c r="H37" s="1" t="n">
         <v>0</v>
       </c>
+      <c r="I37" s="1" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="38" s="1" customFormat="true" ht="16.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A38" s="6" t="n">
@@ -11173,6 +11266,9 @@
       <c r="H38" s="1" t="s">
         <v>10</v>
       </c>
+      <c r="I38" s="1" t="s">
+        <v>10</v>
+      </c>
     </row>
     <row r="39" s="1" customFormat="true" ht="16.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A39" s="6" t="n">
@@ -11198,6 +11294,9 @@
       <c r="H39" s="1" t="s">
         <v>10</v>
       </c>
+      <c r="I39" s="1" t="s">
+        <v>10</v>
+      </c>
     </row>
     <row r="40" s="1" customFormat="true" ht="16.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A40" s="6" t="n">
@@ -11221,6 +11320,9 @@
       <c r="H40" s="1" t="s">
         <v>10</v>
       </c>
+      <c r="I40" s="1" t="s">
+        <v>10</v>
+      </c>
     </row>
     <row r="41" s="1" customFormat="true" ht="16.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A41" s="6" t="n">
@@ -11244,6 +11346,9 @@
       <c r="H41" s="1" t="s">
         <v>10</v>
       </c>
+      <c r="I41" s="1" t="s">
+        <v>10</v>
+      </c>
     </row>
     <row r="42" s="1" customFormat="true" ht="16.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A42" s="6" t="n">
@@ -11267,6 +11372,9 @@
       <c r="H42" s="1" t="s">
         <v>10</v>
       </c>
+      <c r="I42" s="1" t="s">
+        <v>10</v>
+      </c>
     </row>
     <row r="43" s="1" customFormat="true" ht="31.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A43" s="6" t="n">
@@ -11290,6 +11398,9 @@
       <c r="H43" s="1" t="s">
         <v>10</v>
       </c>
+      <c r="I43" s="1" t="s">
+        <v>10</v>
+      </c>
     </row>
     <row r="44" s="1" customFormat="true" ht="16.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A44" s="6" t="n">
@@ -11313,6 +11424,9 @@
       <c r="H44" s="1" t="s">
         <v>10</v>
       </c>
+      <c r="I44" s="1" t="s">
+        <v>10</v>
+      </c>
     </row>
     <row r="45" s="1" customFormat="true" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A45" s="6" t="n">
@@ -11338,6 +11452,9 @@
       <c r="H45" s="1" t="s">
         <v>10</v>
       </c>
+      <c r="I45" s="1" t="s">
+        <v>10</v>
+      </c>
     </row>
     <row r="46" s="1" customFormat="true" ht="16.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A46" s="6" t="n">
@@ -11361,6 +11478,9 @@
       <c r="H46" s="1" t="n">
         <v>0</v>
       </c>
+      <c r="I46" s="1" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="47" s="1" customFormat="true" ht="16.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A47" s="6" t="n">
@@ -11384,6 +11504,9 @@
       <c r="H47" s="1" t="s">
         <v>10</v>
       </c>
+      <c r="I47" s="1" t="s">
+        <v>10</v>
+      </c>
     </row>
     <row r="48" s="1" customFormat="true" ht="16.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A48" s="6" t="n">
@@ -11407,6 +11530,9 @@
       <c r="H48" s="1" t="s">
         <v>10</v>
       </c>
+      <c r="I48" s="1" t="s">
+        <v>10</v>
+      </c>
     </row>
     <row r="49" s="1" customFormat="true" ht="16.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A49" s="6" t="n">
@@ -11430,6 +11556,9 @@
       <c r="H49" s="1" t="s">
         <v>10</v>
       </c>
+      <c r="I49" s="1" t="s">
+        <v>10</v>
+      </c>
     </row>
     <row r="50" s="1" customFormat="true" ht="16.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A50" s="6" t="n">
@@ -11453,6 +11582,9 @@
       <c r="H50" s="1" t="s">
         <v>10</v>
       </c>
+      <c r="I50" s="1" t="s">
+        <v>10</v>
+      </c>
     </row>
     <row r="51" s="1" customFormat="true" ht="16.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A51" s="6" t="n">
@@ -11476,6 +11608,9 @@
       <c r="H51" s="1" t="s">
         <v>10</v>
       </c>
+      <c r="I51" s="1" t="s">
+        <v>10</v>
+      </c>
     </row>
     <row r="52" s="1" customFormat="true" ht="16.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A52" s="6" t="n">
@@ -11499,6 +11634,9 @@
       <c r="H52" s="1" t="s">
         <v>10</v>
       </c>
+      <c r="I52" s="1" t="s">
+        <v>10</v>
+      </c>
     </row>
     <row r="53" s="1" customFormat="true" ht="16.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A53" s="6" t="n">
@@ -11522,6 +11660,9 @@
       <c r="H53" s="1" t="n">
         <v>0</v>
       </c>
+      <c r="I53" s="1" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="54" s="1" customFormat="true" ht="31.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A54" s="6" t="n">
@@ -11545,6 +11686,9 @@
       <c r="H54" s="1" t="s">
         <v>10</v>
       </c>
+      <c r="I54" s="1" t="s">
+        <v>10</v>
+      </c>
     </row>
     <row r="55" s="1" customFormat="true" ht="16.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A55" s="6" t="n">
@@ -11570,6 +11714,9 @@
       <c r="H55" s="1" t="n">
         <v>0</v>
       </c>
+      <c r="I55" s="1" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="56" s="1" customFormat="true" ht="16.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A56" s="6" t="n">
@@ -11593,6 +11740,9 @@
       <c r="H56" s="1" t="s">
         <v>10</v>
       </c>
+      <c r="I56" s="1" t="s">
+        <v>10</v>
+      </c>
     </row>
     <row r="57" s="1" customFormat="true" ht="16.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A57" s="6" t="n">
@@ -11616,6 +11766,9 @@
       <c r="H57" s="1" t="s">
         <v>10</v>
       </c>
+      <c r="I57" s="1" t="s">
+        <v>10</v>
+      </c>
     </row>
     <row r="58" s="1" customFormat="true" ht="16.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A58" s="6" t="n">
@@ -11639,6 +11792,9 @@
       <c r="H58" s="1" t="s">
         <v>10</v>
       </c>
+      <c r="I58" s="1" t="s">
+        <v>10</v>
+      </c>
     </row>
     <row r="59" s="1" customFormat="true" ht="16.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A59" s="6" t="n">
@@ -11662,6 +11818,9 @@
       <c r="H59" s="1" t="s">
         <v>10</v>
       </c>
+      <c r="I59" s="1" t="s">
+        <v>10</v>
+      </c>
     </row>
     <row r="60" s="1" customFormat="true" ht="16.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A60" s="6" t="n">
@@ -11684,8 +11843,11 @@
       <c r="H60" s="1" t="s">
         <v>10</v>
       </c>
-    </row>
-    <row r="61" s="1" customFormat="true" ht="16.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="I60" s="1" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="61" s="1" customFormat="true" ht="16.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A61" s="6" t="n">
         <f aca="false">ROW()-6</f>
         <v>55</v>
@@ -11704,8 +11866,11 @@
       <c r="H61" s="1" t="s">
         <v>10</v>
       </c>
-    </row>
-    <row r="62" s="1" customFormat="true" ht="16.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="I61" s="1" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="62" s="1" customFormat="true" ht="16.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A62" s="6" t="n">
         <f aca="false">ROW()-6</f>
         <v>56</v>
@@ -11724,8 +11889,11 @@
       <c r="H62" s="1" t="s">
         <v>10</v>
       </c>
-    </row>
-    <row r="63" s="1" customFormat="true" ht="16.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="I62" s="1" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="63" s="1" customFormat="true" ht="16.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A63" s="6" t="n">
         <f aca="false">ROW()-6</f>
         <v>57</v>
@@ -11744,8 +11912,11 @@
       <c r="H63" s="1" t="s">
         <v>10</v>
       </c>
-    </row>
-    <row r="64" s="1" customFormat="true" ht="16.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="I63" s="1" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="64" s="1" customFormat="true" ht="16.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A64" s="6" t="n">
         <f aca="false">ROW()-6</f>
         <v>58</v>
@@ -11764,8 +11935,11 @@
       <c r="H64" s="1" t="s">
         <v>10</v>
       </c>
-    </row>
-    <row r="65" s="1" customFormat="true" ht="16.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="I64" s="1" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="65" s="1" customFormat="true" ht="16.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A65" s="6" t="n">
         <f aca="false">ROW()-6</f>
         <v>59</v>
@@ -11784,8 +11958,11 @@
       <c r="H65" s="1" t="s">
         <v>10</v>
       </c>
-    </row>
-    <row r="66" s="1" customFormat="true" ht="16.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="I65" s="1" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="66" s="1" customFormat="true" ht="16.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A66" s="6" t="n">
         <f aca="false">ROW()-6</f>
         <v>60</v>
@@ -11804,8 +11981,11 @@
       <c r="H66" s="1" t="s">
         <v>10</v>
       </c>
-    </row>
-    <row r="67" s="1" customFormat="true" ht="16.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="I66" s="1" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="67" s="1" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A67" s="6" t="n">
         <f aca="false">ROW()-6</f>
         <v>61</v>
@@ -11824,8 +12004,11 @@
       <c r="H67" s="1" t="s">
         <v>10</v>
       </c>
-    </row>
-    <row r="68" s="1" customFormat="true" ht="16.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="I67" s="1" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="68" s="1" customFormat="true" ht="16.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A68" s="6" t="n">
         <f aca="false">ROW()-6</f>
         <v>62</v>
@@ -11846,8 +12029,11 @@
       <c r="H68" s="1" t="s">
         <v>10</v>
       </c>
-    </row>
-    <row r="69" s="1" customFormat="true" ht="16.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="I68" s="1" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="69" s="1" customFormat="true" ht="16.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A69" s="6" t="n">
         <f aca="false">ROW()-6</f>
         <v>63</v>
@@ -11868,8 +12054,11 @@
       <c r="H69" s="1" t="s">
         <v>10</v>
       </c>
-    </row>
-    <row r="70" s="1" customFormat="true" ht="17" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="I69" s="1" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="70" s="1" customFormat="true" ht="16.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A70" s="6" t="n">
         <f aca="false">ROW()-6</f>
         <v>64</v>
@@ -11888,8 +12077,11 @@
       <c r="H70" s="1" t="s">
         <v>10</v>
       </c>
-    </row>
-    <row r="71" s="1" customFormat="true" ht="16.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="I70" s="1" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="71" s="1" customFormat="true" ht="16.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A71" s="6" t="n">
         <f aca="false">ROW()-6</f>
         <v>65</v>
@@ -11908,8 +12100,11 @@
       <c r="H71" s="1" t="s">
         <v>10</v>
       </c>
-    </row>
-    <row r="72" s="1" customFormat="true" ht="16.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="I71" s="1" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="72" s="1" customFormat="true" ht="16.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A72" s="6" t="n">
         <f aca="false">ROW()-6</f>
         <v>66</v>
@@ -11928,8 +12123,11 @@
       <c r="H72" s="1" t="s">
         <v>10</v>
       </c>
-    </row>
-    <row r="73" s="1" customFormat="true" ht="16.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="I72" s="1" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="73" s="1" customFormat="true" ht="16.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A73" s="6" t="n">
         <f aca="false">ROW()-6</f>
         <v>67</v>
@@ -11948,8 +12146,11 @@
       <c r="H73" s="1" t="s">
         <v>10</v>
       </c>
-    </row>
-    <row r="74" s="1" customFormat="true" ht="16.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="I73" s="1" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="74" s="1" customFormat="true" ht="16.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A74" s="6" t="n">
         <f aca="false">ROW()-6</f>
         <v>68</v>
@@ -11968,8 +12169,11 @@
       <c r="H74" s="1" t="s">
         <v>10</v>
       </c>
-    </row>
-    <row r="75" s="1" customFormat="true" ht="16.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="I74" s="1" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="75" s="1" customFormat="true" ht="16.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A75" s="6" t="n">
         <f aca="false">ROW()-6</f>
         <v>69</v>
@@ -11988,8 +12192,11 @@
       <c r="H75" s="1" t="s">
         <v>10</v>
       </c>
-    </row>
-    <row r="76" s="1" customFormat="true" ht="16.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="I75" s="1" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="76" s="1" customFormat="true" ht="16.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A76" s="6" t="n">
         <f aca="false">ROW()-6</f>
         <v>70</v>
@@ -12008,8 +12215,11 @@
       <c r="H76" s="1" t="s">
         <v>10</v>
       </c>
-    </row>
-    <row r="77" s="1" customFormat="true" ht="16.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="I76" s="1" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="77" s="1" customFormat="true" ht="16.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A77" s="6" t="n">
         <f aca="false">ROW()-6</f>
         <v>71</v>
@@ -12028,8 +12238,11 @@
       <c r="H77" s="1" t="s">
         <v>10</v>
       </c>
-    </row>
-    <row r="78" s="1" customFormat="true" ht="16.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="I77" s="1" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="78" s="1" customFormat="true" ht="16.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A78" s="6" t="n">
         <f aca="false">ROW()-6</f>
         <v>72</v>
@@ -12048,8 +12261,11 @@
       <c r="H78" s="1" t="s">
         <v>10</v>
       </c>
-    </row>
-    <row r="79" s="1" customFormat="true" ht="16.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="I78" s="1" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="79" s="1" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A79" s="6" t="n">
         <f aca="false">ROW()-6</f>
         <v>73</v>
@@ -12066,6 +12282,9 @@
         <v>10</v>
       </c>
       <c r="H79" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="I79" s="1" t="s">
         <v>10</v>
       </c>
     </row>

--- a/07 ootareon 目標管理シート.xlsx
+++ b/07 ootareon 目標管理シート.xlsx
@@ -47,7 +47,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1277" uniqueCount="526">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1326" uniqueCount="526">
   <si>
     <t xml:space="preserve">学習目標自己チェックシート(ビジネスマナー)</t>
   </si>
@@ -2181,9 +2181,9 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>20</xdr:col>
-      <xdr:colOff>537480</xdr:colOff>
+      <xdr:colOff>537120</xdr:colOff>
       <xdr:row>6</xdr:row>
-      <xdr:rowOff>27360</xdr:rowOff>
+      <xdr:rowOff>27000</xdr:rowOff>
     </xdr:to>
     <xdr:sp>
       <xdr:nvSpPr>
@@ -2193,7 +2193,7 @@
       <xdr:spPr>
         <a:xfrm>
           <a:off x="14182920" y="0"/>
-          <a:ext cx="5004000" cy="1618200"/>
+          <a:ext cx="5003640" cy="1617840"/>
         </a:xfrm>
         <a:prstGeom prst="wedgeRoundRectCallout">
           <a:avLst>
@@ -2359,9 +2359,9 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>16</xdr:col>
-      <xdr:colOff>299520</xdr:colOff>
+      <xdr:colOff>299160</xdr:colOff>
       <xdr:row>6</xdr:row>
-      <xdr:rowOff>172440</xdr:rowOff>
+      <xdr:rowOff>172080</xdr:rowOff>
     </xdr:to>
     <xdr:sp>
       <xdr:nvSpPr>
@@ -2371,7 +2371,7 @@
       <xdr:spPr>
         <a:xfrm>
           <a:off x="11673360" y="145080"/>
-          <a:ext cx="5004000" cy="1618200"/>
+          <a:ext cx="5003640" cy="1617840"/>
         </a:xfrm>
         <a:prstGeom prst="wedgeRoundRectCallout">
           <a:avLst>
@@ -2537,9 +2537,9 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>16</xdr:col>
-      <xdr:colOff>299520</xdr:colOff>
+      <xdr:colOff>299160</xdr:colOff>
       <xdr:row>6</xdr:row>
-      <xdr:rowOff>172440</xdr:rowOff>
+      <xdr:rowOff>172080</xdr:rowOff>
     </xdr:to>
     <xdr:sp>
       <xdr:nvSpPr>
@@ -2549,7 +2549,7 @@
       <xdr:spPr>
         <a:xfrm>
           <a:off x="11620440" y="145080"/>
-          <a:ext cx="5004360" cy="1618200"/>
+          <a:ext cx="5004000" cy="1617840"/>
         </a:xfrm>
         <a:prstGeom prst="wedgeRoundRectCallout">
           <a:avLst>
@@ -2715,9 +2715,9 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>19</xdr:col>
-      <xdr:colOff>450360</xdr:colOff>
+      <xdr:colOff>450000</xdr:colOff>
       <xdr:row>6</xdr:row>
-      <xdr:rowOff>64800</xdr:rowOff>
+      <xdr:rowOff>64440</xdr:rowOff>
     </xdr:to>
     <xdr:sp>
       <xdr:nvSpPr>
@@ -2727,7 +2727,7 @@
       <xdr:spPr>
         <a:xfrm>
           <a:off x="13364640" y="0"/>
-          <a:ext cx="5061960" cy="1655640"/>
+          <a:ext cx="5061600" cy="1655280"/>
         </a:xfrm>
         <a:prstGeom prst="wedgeRoundRectCallout">
           <a:avLst>
@@ -2888,9 +2888,9 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>4</xdr:col>
-      <xdr:colOff>72720</xdr:colOff>
+      <xdr:colOff>72360</xdr:colOff>
       <xdr:row>85</xdr:row>
-      <xdr:rowOff>163440</xdr:rowOff>
+      <xdr:rowOff>163080</xdr:rowOff>
     </xdr:to>
     <xdr:sp>
       <xdr:nvSpPr>
@@ -2900,7 +2900,7 @@
       <xdr:spPr>
         <a:xfrm>
           <a:off x="11283480" y="16242120"/>
-          <a:ext cx="191880" cy="2222640"/>
+          <a:ext cx="191520" cy="2222280"/>
         </a:xfrm>
         <a:prstGeom prst="rightBrace">
           <a:avLst>
@@ -2940,9 +2940,9 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>15</xdr:col>
-      <xdr:colOff>401400</xdr:colOff>
+      <xdr:colOff>401040</xdr:colOff>
       <xdr:row>84</xdr:row>
-      <xdr:rowOff>124200</xdr:rowOff>
+      <xdr:rowOff>123840</xdr:rowOff>
     </xdr:to>
     <xdr:sp>
       <xdr:nvSpPr>
@@ -2952,7 +2952,7 @@
       <xdr:spPr>
         <a:xfrm>
           <a:off x="11702160" y="17062200"/>
-          <a:ext cx="4614120" cy="1153800"/>
+          <a:ext cx="4613760" cy="1153440"/>
         </a:xfrm>
         <a:prstGeom prst="ellipse">
           <a:avLst/>
@@ -3053,9 +3053,9 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>21</xdr:col>
-      <xdr:colOff>23040</xdr:colOff>
+      <xdr:colOff>22680</xdr:colOff>
       <xdr:row>6</xdr:row>
-      <xdr:rowOff>54360</xdr:rowOff>
+      <xdr:rowOff>54000</xdr:rowOff>
     </xdr:to>
     <xdr:sp>
       <xdr:nvSpPr>
@@ -3065,7 +3065,7 @@
       <xdr:spPr>
         <a:xfrm>
           <a:off x="13158360" y="0"/>
-          <a:ext cx="5025600" cy="1645200"/>
+          <a:ext cx="5025240" cy="1644840"/>
         </a:xfrm>
         <a:prstGeom prst="wedgeRoundRectCallout">
           <a:avLst>
@@ -3231,9 +3231,9 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>43</xdr:col>
-      <xdr:colOff>6120</xdr:colOff>
+      <xdr:colOff>5760</xdr:colOff>
       <xdr:row>13</xdr:row>
-      <xdr:rowOff>43560</xdr:rowOff>
+      <xdr:rowOff>43200</xdr:rowOff>
     </xdr:to>
     <xdr:sp>
       <xdr:nvSpPr>
@@ -3243,7 +3243,7 @@
       <xdr:spPr>
         <a:xfrm>
           <a:off x="28142280" y="0"/>
-          <a:ext cx="5061600" cy="3078360"/>
+          <a:ext cx="5061240" cy="3078000"/>
         </a:xfrm>
         <a:prstGeom prst="wedgeRoundRectCallout">
           <a:avLst>
@@ -3409,9 +3409,9 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>16</xdr:col>
-      <xdr:colOff>311040</xdr:colOff>
+      <xdr:colOff>310680</xdr:colOff>
       <xdr:row>11</xdr:row>
-      <xdr:rowOff>200520</xdr:rowOff>
+      <xdr:rowOff>200160</xdr:rowOff>
     </xdr:to>
     <xdr:sp>
       <xdr:nvSpPr>
@@ -3421,7 +3421,7 @@
       <xdr:spPr>
         <a:xfrm>
           <a:off x="11906640" y="156960"/>
-          <a:ext cx="5061600" cy="2682000"/>
+          <a:ext cx="5061240" cy="2681640"/>
         </a:xfrm>
         <a:prstGeom prst="wedgeRoundRectCallout">
           <a:avLst>
@@ -10309,10 +10309,10 @@
     <tabColor rgb="FF9DC3E6"/>
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:I79"/>
+  <dimension ref="A1:J79"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="pageBreakPreview" topLeftCell="C3" colorId="64" zoomScale="80" zoomScaleNormal="85" zoomScalePageLayoutView="80" workbookViewId="0">
-      <selection pane="topLeft" activeCell="J8" activeCellId="0" sqref="J8"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="pageBreakPreview" topLeftCell="C59" colorId="64" zoomScale="80" zoomScaleNormal="85" zoomScalePageLayoutView="80" workbookViewId="0">
+      <selection pane="topLeft" activeCell="J75" activeCellId="0" sqref="J75"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.45703125" defaultRowHeight="16.5" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -10395,6 +10395,9 @@
       <c r="I7" s="1" t="n">
         <v>0</v>
       </c>
+      <c r="J7" s="1" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="8" customFormat="false" ht="16.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A8" s="6" t="n">
@@ -10423,6 +10426,9 @@
       <c r="I8" s="1" t="n">
         <v>0</v>
       </c>
+      <c r="J8" s="1" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="9" customFormat="false" ht="16.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A9" s="6" t="n">
@@ -10451,6 +10457,9 @@
       <c r="I9" s="1" t="n">
         <v>0</v>
       </c>
+      <c r="J9" s="1" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="10" customFormat="false" ht="16.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A10" s="6" t="n">
@@ -10479,6 +10488,9 @@
       <c r="I10" s="1" t="s">
         <v>10</v>
       </c>
+      <c r="J10" s="1" t="s">
+        <v>10</v>
+      </c>
     </row>
     <row r="11" customFormat="false" ht="16.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A11" s="6" t="n">
@@ -10507,6 +10519,9 @@
       <c r="I11" s="1" t="n">
         <v>0</v>
       </c>
+      <c r="J11" s="1" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="12" customFormat="false" ht="16.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A12" s="6" t="n">
@@ -10535,6 +10550,9 @@
       <c r="I12" s="1" t="s">
         <v>10</v>
       </c>
+      <c r="J12" s="1" t="s">
+        <v>10</v>
+      </c>
     </row>
     <row r="13" customFormat="false" ht="16.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A13" s="6" t="n">
@@ -10563,6 +10581,9 @@
       <c r="I13" s="1" t="s">
         <v>10</v>
       </c>
+      <c r="J13" s="1" t="s">
+        <v>10</v>
+      </c>
     </row>
     <row r="14" customFormat="false" ht="16.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A14" s="6" t="n">
@@ -10591,6 +10612,9 @@
       <c r="I14" s="1" t="s">
         <v>10</v>
       </c>
+      <c r="J14" s="1" t="s">
+        <v>10</v>
+      </c>
     </row>
     <row r="15" customFormat="false" ht="16.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A15" s="6" t="n">
@@ -10621,6 +10645,9 @@
       <c r="I15" s="1" t="n">
         <v>0</v>
       </c>
+      <c r="J15" s="1" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="16" customFormat="false" ht="16.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A16" s="6" t="n">
@@ -10647,6 +10674,9 @@
         <v>0</v>
       </c>
       <c r="I16" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="J16" s="1" t="n">
         <v>0</v>
       </c>
     </row>
@@ -10677,6 +10707,9 @@
       <c r="I17" s="1" t="n">
         <v>0</v>
       </c>
+      <c r="J17" s="1" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="18" customFormat="false" ht="16.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A18" s="6" t="n">
@@ -10705,6 +10738,9 @@
       <c r="I18" s="1" t="n">
         <v>0</v>
       </c>
+      <c r="J18" s="1" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="19" customFormat="false" ht="16.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A19" s="6" t="n">
@@ -10733,6 +10769,9 @@
       <c r="I19" s="1" t="s">
         <v>10</v>
       </c>
+      <c r="J19" s="1" t="s">
+        <v>10</v>
+      </c>
     </row>
     <row r="20" customFormat="false" ht="16.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A20" s="6" t="n">
@@ -10761,6 +10800,9 @@
       <c r="I20" s="1" t="n">
         <v>0</v>
       </c>
+      <c r="J20" s="1" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="21" customFormat="false" ht="16.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A21" s="6" t="n">
@@ -10789,6 +10831,9 @@
       <c r="I21" s="1" t="s">
         <v>10</v>
       </c>
+      <c r="J21" s="1" t="s">
+        <v>10</v>
+      </c>
     </row>
     <row r="22" customFormat="false" ht="16.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A22" s="6" t="n">
@@ -10817,6 +10862,9 @@
       <c r="I22" s="1" t="n">
         <v>0</v>
       </c>
+      <c r="J22" s="1" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="23" customFormat="false" ht="16.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A23" s="6" t="n">
@@ -10845,6 +10893,9 @@
       <c r="I23" s="1" t="s">
         <v>10</v>
       </c>
+      <c r="J23" s="1" t="s">
+        <v>10</v>
+      </c>
     </row>
     <row r="24" customFormat="false" ht="16.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A24" s="6" t="n">
@@ -10873,6 +10924,9 @@
       <c r="I24" s="1" t="s">
         <v>10</v>
       </c>
+      <c r="J24" s="1" t="s">
+        <v>10</v>
+      </c>
     </row>
     <row r="25" customFormat="false" ht="16.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A25" s="6" t="n">
@@ -10901,6 +10955,9 @@
       <c r="I25" s="1" t="n">
         <v>0</v>
       </c>
+      <c r="J25" s="1" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="26" customFormat="false" ht="16.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A26" s="6" t="n">
@@ -10929,6 +10986,9 @@
       <c r="I26" s="1" t="n">
         <v>0</v>
       </c>
+      <c r="J26" s="1" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="27" customFormat="false" ht="16.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A27" s="6" t="n">
@@ -10957,6 +11017,9 @@
       <c r="I27" s="1" t="n">
         <v>0</v>
       </c>
+      <c r="J27" s="1" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="28" customFormat="false" ht="16.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A28" s="6" t="n">
@@ -10987,6 +11050,9 @@
       <c r="I28" s="1" t="n">
         <v>0</v>
       </c>
+      <c r="J28" s="1" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="29" customFormat="false" ht="16.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A29" s="6" t="n">
@@ -11015,6 +11081,9 @@
       <c r="I29" s="1" t="s">
         <v>10</v>
       </c>
+      <c r="J29" s="1" t="s">
+        <v>10</v>
+      </c>
     </row>
     <row r="30" customFormat="false" ht="16.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A30" s="6" t="n">
@@ -11043,6 +11112,9 @@
       <c r="I30" s="1" t="n">
         <v>0</v>
       </c>
+      <c r="J30" s="1" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="31" s="1" customFormat="true" ht="16.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A31" s="6" t="n">
@@ -11073,6 +11145,9 @@
       <c r="I31" s="1" t="s">
         <v>10</v>
       </c>
+      <c r="J31" s="1" t="s">
+        <v>10</v>
+      </c>
     </row>
     <row r="32" s="1" customFormat="true" ht="16.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A32" s="6" t="n">
@@ -11101,6 +11176,9 @@
       <c r="I32" s="1" t="s">
         <v>10</v>
       </c>
+      <c r="J32" s="1" t="s">
+        <v>10</v>
+      </c>
     </row>
     <row r="33" s="1" customFormat="true" ht="16.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A33" s="6" t="n">
@@ -11129,6 +11207,9 @@
       <c r="I33" s="1" t="s">
         <v>10</v>
       </c>
+      <c r="J33" s="1" t="s">
+        <v>10</v>
+      </c>
     </row>
     <row r="34" s="1" customFormat="true" ht="16.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A34" s="6" t="n">
@@ -11157,6 +11238,9 @@
       <c r="I34" s="1" t="s">
         <v>10</v>
       </c>
+      <c r="J34" s="1" t="s">
+        <v>10</v>
+      </c>
     </row>
     <row r="35" s="1" customFormat="true" ht="16.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A35" s="6" t="n">
@@ -11185,6 +11269,9 @@
       <c r="I35" s="1" t="n">
         <v>0</v>
       </c>
+      <c r="J35" s="1" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="36" s="1" customFormat="true" ht="16.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A36" s="6" t="n">
@@ -11213,6 +11300,9 @@
       <c r="I36" s="1" t="s">
         <v>10</v>
       </c>
+      <c r="J36" s="1" t="s">
+        <v>10</v>
+      </c>
     </row>
     <row r="37" s="1" customFormat="true" ht="16.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A37" s="6" t="n">
@@ -11241,6 +11331,9 @@
       <c r="I37" s="1" t="n">
         <v>0</v>
       </c>
+      <c r="J37" s="1" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="38" s="1" customFormat="true" ht="16.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A38" s="6" t="n">
@@ -11269,6 +11362,9 @@
       <c r="I38" s="1" t="s">
         <v>10</v>
       </c>
+      <c r="J38" s="1" t="s">
+        <v>10</v>
+      </c>
     </row>
     <row r="39" s="1" customFormat="true" ht="16.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A39" s="6" t="n">
@@ -11297,6 +11393,9 @@
       <c r="I39" s="1" t="s">
         <v>10</v>
       </c>
+      <c r="J39" s="1" t="s">
+        <v>10</v>
+      </c>
     </row>
     <row r="40" s="1" customFormat="true" ht="16.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A40" s="6" t="n">
@@ -11323,6 +11422,9 @@
       <c r="I40" s="1" t="s">
         <v>10</v>
       </c>
+      <c r="J40" s="1" t="s">
+        <v>10</v>
+      </c>
     </row>
     <row r="41" s="1" customFormat="true" ht="16.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A41" s="6" t="n">
@@ -11349,6 +11451,9 @@
       <c r="I41" s="1" t="s">
         <v>10</v>
       </c>
+      <c r="J41" s="1" t="s">
+        <v>10</v>
+      </c>
     </row>
     <row r="42" s="1" customFormat="true" ht="16.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A42" s="6" t="n">
@@ -11375,6 +11480,9 @@
       <c r="I42" s="1" t="s">
         <v>10</v>
       </c>
+      <c r="J42" s="1" t="s">
+        <v>10</v>
+      </c>
     </row>
     <row r="43" s="1" customFormat="true" ht="31.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A43" s="6" t="n">
@@ -11401,6 +11509,9 @@
       <c r="I43" s="1" t="s">
         <v>10</v>
       </c>
+      <c r="J43" s="1" t="s">
+        <v>10</v>
+      </c>
     </row>
     <row r="44" s="1" customFormat="true" ht="16.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A44" s="6" t="n">
@@ -11427,6 +11538,9 @@
       <c r="I44" s="1" t="s">
         <v>10</v>
       </c>
+      <c r="J44" s="1" t="s">
+        <v>10</v>
+      </c>
     </row>
     <row r="45" s="1" customFormat="true" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A45" s="6" t="n">
@@ -11455,6 +11569,9 @@
       <c r="I45" s="1" t="s">
         <v>10</v>
       </c>
+      <c r="J45" s="1" t="s">
+        <v>10</v>
+      </c>
     </row>
     <row r="46" s="1" customFormat="true" ht="16.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A46" s="6" t="n">
@@ -11481,6 +11598,9 @@
       <c r="I46" s="1" t="n">
         <v>0</v>
       </c>
+      <c r="J46" s="1" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="47" s="1" customFormat="true" ht="16.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A47" s="6" t="n">
@@ -11507,6 +11627,9 @@
       <c r="I47" s="1" t="s">
         <v>10</v>
       </c>
+      <c r="J47" s="1" t="s">
+        <v>10</v>
+      </c>
     </row>
     <row r="48" s="1" customFormat="true" ht="16.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A48" s="6" t="n">
@@ -11533,6 +11656,9 @@
       <c r="I48" s="1" t="s">
         <v>10</v>
       </c>
+      <c r="J48" s="1" t="s">
+        <v>10</v>
+      </c>
     </row>
     <row r="49" s="1" customFormat="true" ht="16.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A49" s="6" t="n">
@@ -11559,6 +11685,9 @@
       <c r="I49" s="1" t="s">
         <v>10</v>
       </c>
+      <c r="J49" s="1" t="s">
+        <v>10</v>
+      </c>
     </row>
     <row r="50" s="1" customFormat="true" ht="16.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A50" s="6" t="n">
@@ -11585,6 +11714,9 @@
       <c r="I50" s="1" t="s">
         <v>10</v>
       </c>
+      <c r="J50" s="1" t="s">
+        <v>10</v>
+      </c>
     </row>
     <row r="51" s="1" customFormat="true" ht="16.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A51" s="6" t="n">
@@ -11611,6 +11743,9 @@
       <c r="I51" s="1" t="s">
         <v>10</v>
       </c>
+      <c r="J51" s="1" t="s">
+        <v>10</v>
+      </c>
     </row>
     <row r="52" s="1" customFormat="true" ht="16.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A52" s="6" t="n">
@@ -11637,6 +11772,9 @@
       <c r="I52" s="1" t="s">
         <v>10</v>
       </c>
+      <c r="J52" s="1" t="s">
+        <v>10</v>
+      </c>
     </row>
     <row r="53" s="1" customFormat="true" ht="16.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A53" s="6" t="n">
@@ -11663,6 +11801,9 @@
       <c r="I53" s="1" t="n">
         <v>0</v>
       </c>
+      <c r="J53" s="1" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="54" s="1" customFormat="true" ht="31.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A54" s="6" t="n">
@@ -11689,6 +11830,9 @@
       <c r="I54" s="1" t="s">
         <v>10</v>
       </c>
+      <c r="J54" s="1" t="s">
+        <v>10</v>
+      </c>
     </row>
     <row r="55" s="1" customFormat="true" ht="16.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A55" s="6" t="n">
@@ -11717,6 +11861,9 @@
       <c r="I55" s="1" t="n">
         <v>0</v>
       </c>
+      <c r="J55" s="1" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="56" s="1" customFormat="true" ht="16.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A56" s="6" t="n">
@@ -11743,6 +11890,9 @@
       <c r="I56" s="1" t="s">
         <v>10</v>
       </c>
+      <c r="J56" s="1" t="s">
+        <v>10</v>
+      </c>
     </row>
     <row r="57" s="1" customFormat="true" ht="16.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A57" s="6" t="n">
@@ -11769,6 +11919,9 @@
       <c r="I57" s="1" t="s">
         <v>10</v>
       </c>
+      <c r="J57" s="1" t="s">
+        <v>10</v>
+      </c>
     </row>
     <row r="58" s="1" customFormat="true" ht="16.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A58" s="6" t="n">
@@ -11795,6 +11948,9 @@
       <c r="I58" s="1" t="s">
         <v>10</v>
       </c>
+      <c r="J58" s="1" t="s">
+        <v>10</v>
+      </c>
     </row>
     <row r="59" s="1" customFormat="true" ht="16.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A59" s="6" t="n">
@@ -11821,6 +11977,9 @@
       <c r="I59" s="1" t="s">
         <v>10</v>
       </c>
+      <c r="J59" s="1" t="s">
+        <v>10</v>
+      </c>
     </row>
     <row r="60" s="1" customFormat="true" ht="16.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A60" s="6" t="n">
@@ -11846,6 +12005,9 @@
       <c r="I60" s="1" t="s">
         <v>10</v>
       </c>
+      <c r="J60" s="1" t="s">
+        <v>10</v>
+      </c>
     </row>
     <row r="61" s="1" customFormat="true" ht="16.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A61" s="6" t="n">
@@ -11869,6 +12031,9 @@
       <c r="I61" s="1" t="s">
         <v>10</v>
       </c>
+      <c r="J61" s="1" t="s">
+        <v>10</v>
+      </c>
     </row>
     <row r="62" s="1" customFormat="true" ht="16.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A62" s="6" t="n">
@@ -11892,6 +12057,9 @@
       <c r="I62" s="1" t="s">
         <v>10</v>
       </c>
+      <c r="J62" s="1" t="s">
+        <v>10</v>
+      </c>
     </row>
     <row r="63" s="1" customFormat="true" ht="16.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A63" s="6" t="n">
@@ -11915,6 +12083,9 @@
       <c r="I63" s="1" t="s">
         <v>10</v>
       </c>
+      <c r="J63" s="1" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="64" s="1" customFormat="true" ht="16.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A64" s="6" t="n">
@@ -11938,6 +12109,9 @@
       <c r="I64" s="1" t="s">
         <v>10</v>
       </c>
+      <c r="J64" s="1" t="s">
+        <v>10</v>
+      </c>
     </row>
     <row r="65" s="1" customFormat="true" ht="16.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A65" s="6" t="n">
@@ -11961,6 +12135,9 @@
       <c r="I65" s="1" t="s">
         <v>10</v>
       </c>
+      <c r="J65" s="1" t="s">
+        <v>10</v>
+      </c>
     </row>
     <row r="66" s="1" customFormat="true" ht="16.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A66" s="6" t="n">
@@ -11984,6 +12161,9 @@
       <c r="I66" s="1" t="s">
         <v>10</v>
       </c>
+      <c r="J66" s="1" t="s">
+        <v>10</v>
+      </c>
     </row>
     <row r="67" s="1" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A67" s="6" t="n">
@@ -12007,6 +12187,9 @@
       <c r="I67" s="1" t="s">
         <v>10</v>
       </c>
+      <c r="J67" s="1" t="s">
+        <v>10</v>
+      </c>
     </row>
     <row r="68" s="1" customFormat="true" ht="16.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A68" s="6" t="n">
@@ -12032,6 +12215,9 @@
       <c r="I68" s="1" t="s">
         <v>10</v>
       </c>
+      <c r="J68" s="1" t="s">
+        <v>10</v>
+      </c>
     </row>
     <row r="69" s="1" customFormat="true" ht="16.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A69" s="6" t="n">
@@ -12057,6 +12243,9 @@
       <c r="I69" s="1" t="s">
         <v>10</v>
       </c>
+      <c r="J69" s="1" t="s">
+        <v>10</v>
+      </c>
     </row>
     <row r="70" s="1" customFormat="true" ht="16.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A70" s="6" t="n">
@@ -12080,6 +12269,9 @@
       <c r="I70" s="1" t="s">
         <v>10</v>
       </c>
+      <c r="J70" s="1" t="s">
+        <v>10</v>
+      </c>
     </row>
     <row r="71" s="1" customFormat="true" ht="16.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A71" s="6" t="n">
@@ -12103,6 +12295,9 @@
       <c r="I71" s="1" t="s">
         <v>10</v>
       </c>
+      <c r="J71" s="1" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="72" s="1" customFormat="true" ht="16.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A72" s="6" t="n">
@@ -12126,6 +12321,9 @@
       <c r="I72" s="1" t="s">
         <v>10</v>
       </c>
+      <c r="J72" s="1" t="s">
+        <v>10</v>
+      </c>
     </row>
     <row r="73" s="1" customFormat="true" ht="16.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A73" s="6" t="n">
@@ -12149,6 +12347,9 @@
       <c r="I73" s="1" t="s">
         <v>10</v>
       </c>
+      <c r="J73" s="1" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="74" s="1" customFormat="true" ht="16.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A74" s="6" t="n">
@@ -12172,6 +12373,9 @@
       <c r="I74" s="1" t="s">
         <v>10</v>
       </c>
+      <c r="J74" s="1" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="75" s="1" customFormat="true" ht="16.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A75" s="6" t="n">
@@ -12195,6 +12399,9 @@
       <c r="I75" s="1" t="s">
         <v>10</v>
       </c>
+      <c r="J75" s="1" t="s">
+        <v>10</v>
+      </c>
     </row>
     <row r="76" s="1" customFormat="true" ht="16.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A76" s="6" t="n">
@@ -12218,6 +12425,9 @@
       <c r="I76" s="1" t="s">
         <v>10</v>
       </c>
+      <c r="J76" s="1" t="s">
+        <v>10</v>
+      </c>
     </row>
     <row r="77" s="1" customFormat="true" ht="16.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A77" s="6" t="n">
@@ -12241,6 +12451,9 @@
       <c r="I77" s="1" t="s">
         <v>10</v>
       </c>
+      <c r="J77" s="1" t="s">
+        <v>10</v>
+      </c>
     </row>
     <row r="78" s="1" customFormat="true" ht="16.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A78" s="6" t="n">
@@ -12264,6 +12477,9 @@
       <c r="I78" s="1" t="s">
         <v>10</v>
       </c>
+      <c r="J78" s="1" t="s">
+        <v>10</v>
+      </c>
     </row>
     <row r="79" s="1" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A79" s="6" t="n">
@@ -12285,6 +12501,9 @@
         <v>10</v>
       </c>
       <c r="I79" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="J79" s="1" t="s">
         <v>10</v>
       </c>
     </row>

--- a/07 ootareon 目標管理シート.xlsx
+++ b/07 ootareon 目標管理シート.xlsx
@@ -5,7 +5,7 @@
   <workbookPr backupFile="false" showObjects="all" date1904="false"/>
   <workbookProtection/>
   <bookViews>
-    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="500" firstSheet="0" activeTab="5"/>
+    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="500" firstSheet="0" activeTab="6"/>
   </bookViews>
   <sheets>
     <sheet name="学習目標チェックシート(ビジネスマナー)" sheetId="1" state="visible" r:id="rId3"/>
@@ -47,7 +47,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1326" uniqueCount="526">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1342" uniqueCount="526">
   <si>
     <t xml:space="preserve">学習目標自己チェックシート(ビジネスマナー)</t>
   </si>
@@ -2181,9 +2181,9 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>20</xdr:col>
-      <xdr:colOff>537120</xdr:colOff>
+      <xdr:colOff>536760</xdr:colOff>
       <xdr:row>6</xdr:row>
-      <xdr:rowOff>27000</xdr:rowOff>
+      <xdr:rowOff>26640</xdr:rowOff>
     </xdr:to>
     <xdr:sp>
       <xdr:nvSpPr>
@@ -2193,7 +2193,7 @@
       <xdr:spPr>
         <a:xfrm>
           <a:off x="14182920" y="0"/>
-          <a:ext cx="5003640" cy="1617840"/>
+          <a:ext cx="5003280" cy="1617480"/>
         </a:xfrm>
         <a:prstGeom prst="wedgeRoundRectCallout">
           <a:avLst>
@@ -2359,9 +2359,9 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>16</xdr:col>
-      <xdr:colOff>299160</xdr:colOff>
+      <xdr:colOff>298800</xdr:colOff>
       <xdr:row>6</xdr:row>
-      <xdr:rowOff>172080</xdr:rowOff>
+      <xdr:rowOff>171720</xdr:rowOff>
     </xdr:to>
     <xdr:sp>
       <xdr:nvSpPr>
@@ -2371,7 +2371,7 @@
       <xdr:spPr>
         <a:xfrm>
           <a:off x="11673360" y="145080"/>
-          <a:ext cx="5003640" cy="1617840"/>
+          <a:ext cx="5003280" cy="1617480"/>
         </a:xfrm>
         <a:prstGeom prst="wedgeRoundRectCallout">
           <a:avLst>
@@ -2537,9 +2537,9 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>16</xdr:col>
-      <xdr:colOff>299160</xdr:colOff>
+      <xdr:colOff>298800</xdr:colOff>
       <xdr:row>6</xdr:row>
-      <xdr:rowOff>172080</xdr:rowOff>
+      <xdr:rowOff>171720</xdr:rowOff>
     </xdr:to>
     <xdr:sp>
       <xdr:nvSpPr>
@@ -2549,7 +2549,7 @@
       <xdr:spPr>
         <a:xfrm>
           <a:off x="11620440" y="145080"/>
-          <a:ext cx="5004000" cy="1617840"/>
+          <a:ext cx="5003640" cy="1617480"/>
         </a:xfrm>
         <a:prstGeom prst="wedgeRoundRectCallout">
           <a:avLst>
@@ -2715,9 +2715,9 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>19</xdr:col>
-      <xdr:colOff>450000</xdr:colOff>
+      <xdr:colOff>449640</xdr:colOff>
       <xdr:row>6</xdr:row>
-      <xdr:rowOff>64440</xdr:rowOff>
+      <xdr:rowOff>64080</xdr:rowOff>
     </xdr:to>
     <xdr:sp>
       <xdr:nvSpPr>
@@ -2727,7 +2727,7 @@
       <xdr:spPr>
         <a:xfrm>
           <a:off x="13364640" y="0"/>
-          <a:ext cx="5061600" cy="1655280"/>
+          <a:ext cx="5061240" cy="1654920"/>
         </a:xfrm>
         <a:prstGeom prst="wedgeRoundRectCallout">
           <a:avLst>
@@ -2888,9 +2888,9 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>4</xdr:col>
-      <xdr:colOff>72360</xdr:colOff>
+      <xdr:colOff>72000</xdr:colOff>
       <xdr:row>85</xdr:row>
-      <xdr:rowOff>163080</xdr:rowOff>
+      <xdr:rowOff>162720</xdr:rowOff>
     </xdr:to>
     <xdr:sp>
       <xdr:nvSpPr>
@@ -2900,7 +2900,7 @@
       <xdr:spPr>
         <a:xfrm>
           <a:off x="11283480" y="16242120"/>
-          <a:ext cx="191520" cy="2222280"/>
+          <a:ext cx="191160" cy="2221920"/>
         </a:xfrm>
         <a:prstGeom prst="rightBrace">
           <a:avLst>
@@ -2940,9 +2940,9 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>15</xdr:col>
-      <xdr:colOff>401040</xdr:colOff>
+      <xdr:colOff>400680</xdr:colOff>
       <xdr:row>84</xdr:row>
-      <xdr:rowOff>123840</xdr:rowOff>
+      <xdr:rowOff>123480</xdr:rowOff>
     </xdr:to>
     <xdr:sp>
       <xdr:nvSpPr>
@@ -2952,7 +2952,7 @@
       <xdr:spPr>
         <a:xfrm>
           <a:off x="11702160" y="17062200"/>
-          <a:ext cx="4613760" cy="1153440"/>
+          <a:ext cx="4613400" cy="1153080"/>
         </a:xfrm>
         <a:prstGeom prst="ellipse">
           <a:avLst/>
@@ -3053,9 +3053,9 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>21</xdr:col>
-      <xdr:colOff>22680</xdr:colOff>
+      <xdr:colOff>22320</xdr:colOff>
       <xdr:row>6</xdr:row>
-      <xdr:rowOff>54000</xdr:rowOff>
+      <xdr:rowOff>53640</xdr:rowOff>
     </xdr:to>
     <xdr:sp>
       <xdr:nvSpPr>
@@ -3065,7 +3065,7 @@
       <xdr:spPr>
         <a:xfrm>
           <a:off x="13158360" y="0"/>
-          <a:ext cx="5025240" cy="1644840"/>
+          <a:ext cx="5024880" cy="1644480"/>
         </a:xfrm>
         <a:prstGeom prst="wedgeRoundRectCallout">
           <a:avLst>
@@ -3231,9 +3231,9 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>43</xdr:col>
-      <xdr:colOff>5760</xdr:colOff>
+      <xdr:colOff>5400</xdr:colOff>
       <xdr:row>13</xdr:row>
-      <xdr:rowOff>43200</xdr:rowOff>
+      <xdr:rowOff>42840</xdr:rowOff>
     </xdr:to>
     <xdr:sp>
       <xdr:nvSpPr>
@@ -3243,7 +3243,7 @@
       <xdr:spPr>
         <a:xfrm>
           <a:off x="28142280" y="0"/>
-          <a:ext cx="5061240" cy="3078000"/>
+          <a:ext cx="5060880" cy="3077640"/>
         </a:xfrm>
         <a:prstGeom prst="wedgeRoundRectCallout">
           <a:avLst>
@@ -3402,16 +3402,16 @@
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <xdr:twoCellAnchor editAs="twoCell">
     <xdr:from>
-      <xdr:col>4</xdr:col>
-      <xdr:colOff>171720</xdr:colOff>
+      <xdr:col>27</xdr:col>
+      <xdr:colOff>576720</xdr:colOff>
       <xdr:row>0</xdr:row>
-      <xdr:rowOff>156960</xdr:rowOff>
+      <xdr:rowOff>16200</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>16</xdr:col>
-      <xdr:colOff>310680</xdr:colOff>
+      <xdr:col>36</xdr:col>
+      <xdr:colOff>54000</xdr:colOff>
       <xdr:row>11</xdr:row>
-      <xdr:rowOff>200160</xdr:rowOff>
+      <xdr:rowOff>59040</xdr:rowOff>
     </xdr:to>
     <xdr:sp>
       <xdr:nvSpPr>
@@ -3420,8 +3420,8 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="11906640" y="156960"/>
-          <a:ext cx="5061240" cy="2681640"/>
+          <a:off x="23848200" y="16200"/>
+          <a:ext cx="5060880" cy="2706840"/>
         </a:xfrm>
         <a:prstGeom prst="wedgeRoundRectCallout">
           <a:avLst>
@@ -10311,7 +10311,7 @@
   </sheetPr>
   <dimension ref="A1:J79"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="pageBreakPreview" topLeftCell="C59" colorId="64" zoomScale="80" zoomScaleNormal="85" zoomScalePageLayoutView="80" workbookViewId="0">
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="pageBreakPreview" topLeftCell="C59" colorId="64" zoomScale="80" zoomScaleNormal="85" zoomScalePageLayoutView="80" workbookViewId="0">
       <selection pane="topLeft" activeCell="J75" activeCellId="0" sqref="J75"/>
     </sheetView>
   </sheetViews>
@@ -12553,8 +12553,8 @@
   </sheetPr>
   <dimension ref="A1:D34"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="pageBreakPreview" topLeftCell="A1" colorId="64" zoomScale="80" zoomScaleNormal="85" zoomScalePageLayoutView="80" workbookViewId="0">
-      <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="pageBreakPreview" topLeftCell="A13" colorId="64" zoomScale="80" zoomScaleNormal="85" zoomScalePageLayoutView="80" workbookViewId="0">
+      <selection pane="topLeft" activeCell="D29" activeCellId="0" sqref="D29"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.45703125" defaultRowHeight="16.5" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -12619,9 +12619,11 @@
       <c r="C7" s="1" t="s">
         <v>492</v>
       </c>
-      <c r="D7" s="9"/>
-    </row>
-    <row r="8" customFormat="false" ht="16.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="D7" s="9" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="8" customFormat="false" ht="17" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A8" s="6" t="n">
         <f aca="false">ROW()-6</f>
         <v>2</v>
@@ -12630,9 +12632,11 @@
       <c r="C8" s="17" t="s">
         <v>493</v>
       </c>
-      <c r="D8" s="9"/>
-    </row>
-    <row r="9" customFormat="false" ht="16.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="D8" s="9" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="9" customFormat="false" ht="17" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A9" s="6" t="n">
         <f aca="false">ROW()-6</f>
         <v>3</v>
@@ -12641,9 +12645,11 @@
       <c r="C9" s="17" t="s">
         <v>494</v>
       </c>
-      <c r="D9" s="9"/>
-    </row>
-    <row r="10" customFormat="false" ht="16.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="D9" s="9" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="10" customFormat="false" ht="17" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A10" s="6" t="n">
         <f aca="false">ROW()-6</f>
         <v>4</v>
@@ -12652,9 +12658,11 @@
       <c r="C10" s="17" t="s">
         <v>495</v>
       </c>
-      <c r="D10" s="9"/>
-    </row>
-    <row r="11" customFormat="false" ht="16.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="D10" s="9" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="11" customFormat="false" ht="17" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A11" s="6" t="n">
         <f aca="false">ROW()-6</f>
         <v>5</v>
@@ -12663,9 +12671,11 @@
       <c r="C11" s="17" t="s">
         <v>496</v>
       </c>
-      <c r="D11" s="9"/>
-    </row>
-    <row r="12" customFormat="false" ht="16.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="D11" s="9" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="12" customFormat="false" ht="17" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A12" s="6" t="n">
         <f aca="false">ROW()-6</f>
         <v>6</v>
@@ -12674,7 +12684,9 @@
       <c r="C12" s="17" t="s">
         <v>497</v>
       </c>
-      <c r="D12" s="9"/>
+      <c r="D12" s="9" t="s">
+        <v>10</v>
+      </c>
     </row>
     <row r="13" customFormat="false" ht="16.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A13" s="6" t="n">
@@ -12687,9 +12699,11 @@
       <c r="C13" s="17" t="s">
         <v>499</v>
       </c>
-      <c r="D13" s="9"/>
-    </row>
-    <row r="14" customFormat="false" ht="16.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="D13" s="9" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="14" customFormat="false" ht="17" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A14" s="6" t="n">
         <f aca="false">ROW()-6</f>
         <v>8</v>
@@ -12698,9 +12712,11 @@
       <c r="C14" s="17" t="s">
         <v>500</v>
       </c>
-      <c r="D14" s="9"/>
-    </row>
-    <row r="15" customFormat="false" ht="16.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="D14" s="9" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="15" customFormat="false" ht="17" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A15" s="6" t="n">
         <f aca="false">ROW()-6</f>
         <v>9</v>
@@ -12709,9 +12725,11 @@
       <c r="C15" s="17" t="s">
         <v>501</v>
       </c>
-      <c r="D15" s="9"/>
-    </row>
-    <row r="16" customFormat="false" ht="16.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="D15" s="9" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="16" customFormat="false" ht="17" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A16" s="6" t="n">
         <f aca="false">ROW()-6</f>
         <v>10</v>
@@ -12720,9 +12738,11 @@
       <c r="C16" s="17" t="s">
         <v>502</v>
       </c>
-      <c r="D16" s="9"/>
-    </row>
-    <row r="17" customFormat="false" ht="16.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="D16" s="9" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="17" customFormat="false" ht="17" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A17" s="6" t="n">
         <f aca="false">ROW()-6</f>
         <v>11</v>
@@ -12731,9 +12751,11 @@
       <c r="C17" s="17" t="s">
         <v>503</v>
       </c>
-      <c r="D17" s="9"/>
-    </row>
-    <row r="18" customFormat="false" ht="16.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="D17" s="9" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="18" customFormat="false" ht="17" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A18" s="6" t="n">
         <f aca="false">ROW()-6</f>
         <v>12</v>
@@ -12742,7 +12764,9 @@
       <c r="C18" s="17" t="s">
         <v>504</v>
       </c>
-      <c r="D18" s="9"/>
+      <c r="D18" s="9" t="s">
+        <v>10</v>
+      </c>
     </row>
     <row r="19" s="1" customFormat="true" ht="16.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A19" s="6" t="n">
@@ -12755,9 +12779,11 @@
       <c r="C19" s="17" t="s">
         <v>506</v>
       </c>
-      <c r="D19" s="9"/>
-    </row>
-    <row r="20" s="1" customFormat="true" ht="16.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="D19" s="9" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="20" s="1" customFormat="true" ht="17" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A20" s="6" t="n">
         <f aca="false">ROW()-6</f>
         <v>14</v>
@@ -12766,9 +12792,11 @@
       <c r="C20" s="17" t="s">
         <v>507</v>
       </c>
-      <c r="D20" s="9"/>
-    </row>
-    <row r="21" s="1" customFormat="true" ht="16.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="D20" s="9" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="21" s="1" customFormat="true" ht="17" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A21" s="6" t="n">
         <f aca="false">ROW()-6</f>
         <v>15</v>
@@ -12777,9 +12805,11 @@
       <c r="C21" s="17" t="s">
         <v>508</v>
       </c>
-      <c r="D21" s="9"/>
-    </row>
-    <row r="22" s="1" customFormat="true" ht="16.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="D21" s="9" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="22" s="1" customFormat="true" ht="17" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A22" s="6" t="n">
         <f aca="false">ROW()-6</f>
         <v>16</v>
@@ -12788,9 +12818,11 @@
       <c r="C22" s="17" t="s">
         <v>509</v>
       </c>
-      <c r="D22" s="9"/>
-    </row>
-    <row r="23" s="1" customFormat="true" ht="16.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="D22" s="9" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="23" s="1" customFormat="true" ht="17" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A23" s="6" t="n">
         <f aca="false">ROW()-6</f>
         <v>17</v>
@@ -12799,9 +12831,11 @@
       <c r="C23" s="17" t="s">
         <v>510</v>
       </c>
-      <c r="D23" s="9"/>
-    </row>
-    <row r="24" s="1" customFormat="true" ht="16.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="D23" s="9" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="24" s="1" customFormat="true" ht="17" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A24" s="6" t="n">
         <f aca="false">ROW()-6</f>
         <v>18</v>
@@ -12810,7 +12844,9 @@
       <c r="C24" s="17" t="s">
         <v>511</v>
       </c>
-      <c r="D24" s="9"/>
+      <c r="D24" s="9" t="s">
+        <v>10</v>
+      </c>
     </row>
     <row r="25" s="1" customFormat="true" ht="16.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A25" s="6" t="n">
@@ -12823,9 +12859,11 @@
       <c r="C25" s="17" t="s">
         <v>513</v>
       </c>
-      <c r="D25" s="9"/>
-    </row>
-    <row r="26" s="1" customFormat="true" ht="16.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="D25" s="9" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="26" s="1" customFormat="true" ht="17" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A26" s="6" t="n">
         <f aca="false">ROW()-6</f>
         <v>20</v>
@@ -12834,7 +12872,9 @@
       <c r="C26" s="17" t="s">
         <v>514</v>
       </c>
-      <c r="D26" s="9"/>
+      <c r="D26" s="9" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="27" s="1" customFormat="true" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A27" s="6" t="n">
@@ -12847,9 +12887,11 @@
       <c r="C27" s="17" t="s">
         <v>516</v>
       </c>
-      <c r="D27" s="9"/>
-    </row>
-    <row r="28" s="1" customFormat="true" ht="16.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="D27" s="9" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="28" s="1" customFormat="true" ht="17" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A28" s="6" t="n">
         <f aca="false">ROW()-6</f>
         <v>22</v>
@@ -12858,7 +12900,9 @@
       <c r="C28" s="17" t="s">
         <v>517</v>
       </c>
-      <c r="D28" s="9"/>
+      <c r="D28" s="9" t="s">
+        <v>10</v>
+      </c>
     </row>
     <row r="29" s="1" customFormat="true" ht="16.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A29" s="6" t="n">

--- a/07 ootareon 目標管理シート.xlsx
+++ b/07 ootareon 目標管理シート.xlsx
@@ -47,7 +47,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1342" uniqueCount="526">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1377" uniqueCount="526">
   <si>
     <t xml:space="preserve">学習目標自己チェックシート(ビジネスマナー)</t>
   </si>
@@ -2181,9 +2181,9 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>20</xdr:col>
-      <xdr:colOff>536760</xdr:colOff>
+      <xdr:colOff>536400</xdr:colOff>
       <xdr:row>6</xdr:row>
-      <xdr:rowOff>26640</xdr:rowOff>
+      <xdr:rowOff>26280</xdr:rowOff>
     </xdr:to>
     <xdr:sp>
       <xdr:nvSpPr>
@@ -2193,7 +2193,7 @@
       <xdr:spPr>
         <a:xfrm>
           <a:off x="14182920" y="0"/>
-          <a:ext cx="5003280" cy="1617480"/>
+          <a:ext cx="5002920" cy="1617120"/>
         </a:xfrm>
         <a:prstGeom prst="wedgeRoundRectCallout">
           <a:avLst>
@@ -2359,9 +2359,9 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>16</xdr:col>
-      <xdr:colOff>298800</xdr:colOff>
+      <xdr:colOff>298440</xdr:colOff>
       <xdr:row>6</xdr:row>
-      <xdr:rowOff>171720</xdr:rowOff>
+      <xdr:rowOff>171360</xdr:rowOff>
     </xdr:to>
     <xdr:sp>
       <xdr:nvSpPr>
@@ -2371,7 +2371,7 @@
       <xdr:spPr>
         <a:xfrm>
           <a:off x="11673360" y="145080"/>
-          <a:ext cx="5003280" cy="1617480"/>
+          <a:ext cx="5002920" cy="1617120"/>
         </a:xfrm>
         <a:prstGeom prst="wedgeRoundRectCallout">
           <a:avLst>
@@ -2537,9 +2537,9 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>16</xdr:col>
-      <xdr:colOff>298800</xdr:colOff>
+      <xdr:colOff>298440</xdr:colOff>
       <xdr:row>6</xdr:row>
-      <xdr:rowOff>171720</xdr:rowOff>
+      <xdr:rowOff>171360</xdr:rowOff>
     </xdr:to>
     <xdr:sp>
       <xdr:nvSpPr>
@@ -2549,7 +2549,7 @@
       <xdr:spPr>
         <a:xfrm>
           <a:off x="11620440" y="145080"/>
-          <a:ext cx="5003640" cy="1617480"/>
+          <a:ext cx="5003280" cy="1617120"/>
         </a:xfrm>
         <a:prstGeom prst="wedgeRoundRectCallout">
           <a:avLst>
@@ -2715,9 +2715,9 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>19</xdr:col>
-      <xdr:colOff>449640</xdr:colOff>
+      <xdr:colOff>449280</xdr:colOff>
       <xdr:row>6</xdr:row>
-      <xdr:rowOff>64080</xdr:rowOff>
+      <xdr:rowOff>63720</xdr:rowOff>
     </xdr:to>
     <xdr:sp>
       <xdr:nvSpPr>
@@ -2727,7 +2727,7 @@
       <xdr:spPr>
         <a:xfrm>
           <a:off x="13364640" y="0"/>
-          <a:ext cx="5061240" cy="1654920"/>
+          <a:ext cx="5060880" cy="1654560"/>
         </a:xfrm>
         <a:prstGeom prst="wedgeRoundRectCallout">
           <a:avLst>
@@ -2888,9 +2888,9 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>4</xdr:col>
-      <xdr:colOff>72000</xdr:colOff>
+      <xdr:colOff>71640</xdr:colOff>
       <xdr:row>85</xdr:row>
-      <xdr:rowOff>162720</xdr:rowOff>
+      <xdr:rowOff>162360</xdr:rowOff>
     </xdr:to>
     <xdr:sp>
       <xdr:nvSpPr>
@@ -2900,7 +2900,7 @@
       <xdr:spPr>
         <a:xfrm>
           <a:off x="11283480" y="16242120"/>
-          <a:ext cx="191160" cy="2221920"/>
+          <a:ext cx="190800" cy="2221560"/>
         </a:xfrm>
         <a:prstGeom prst="rightBrace">
           <a:avLst>
@@ -2940,9 +2940,9 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>15</xdr:col>
-      <xdr:colOff>400680</xdr:colOff>
+      <xdr:colOff>400320</xdr:colOff>
       <xdr:row>84</xdr:row>
-      <xdr:rowOff>123480</xdr:rowOff>
+      <xdr:rowOff>123120</xdr:rowOff>
     </xdr:to>
     <xdr:sp>
       <xdr:nvSpPr>
@@ -2952,7 +2952,7 @@
       <xdr:spPr>
         <a:xfrm>
           <a:off x="11702160" y="17062200"/>
-          <a:ext cx="4613400" cy="1153080"/>
+          <a:ext cx="4613040" cy="1152720"/>
         </a:xfrm>
         <a:prstGeom prst="ellipse">
           <a:avLst/>
@@ -3053,9 +3053,9 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>21</xdr:col>
-      <xdr:colOff>22320</xdr:colOff>
+      <xdr:colOff>21960</xdr:colOff>
       <xdr:row>6</xdr:row>
-      <xdr:rowOff>53640</xdr:rowOff>
+      <xdr:rowOff>53280</xdr:rowOff>
     </xdr:to>
     <xdr:sp>
       <xdr:nvSpPr>
@@ -3065,7 +3065,7 @@
       <xdr:spPr>
         <a:xfrm>
           <a:off x="13158360" y="0"/>
-          <a:ext cx="5024880" cy="1644480"/>
+          <a:ext cx="5024520" cy="1644120"/>
         </a:xfrm>
         <a:prstGeom prst="wedgeRoundRectCallout">
           <a:avLst>
@@ -3231,9 +3231,9 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>43</xdr:col>
-      <xdr:colOff>5400</xdr:colOff>
+      <xdr:colOff>5040</xdr:colOff>
       <xdr:row>13</xdr:row>
-      <xdr:rowOff>42840</xdr:rowOff>
+      <xdr:rowOff>42480</xdr:rowOff>
     </xdr:to>
     <xdr:sp>
       <xdr:nvSpPr>
@@ -3243,7 +3243,7 @@
       <xdr:spPr>
         <a:xfrm>
           <a:off x="28142280" y="0"/>
-          <a:ext cx="5060880" cy="3077640"/>
+          <a:ext cx="5060520" cy="3077280"/>
         </a:xfrm>
         <a:prstGeom prst="wedgeRoundRectCallout">
           <a:avLst>
@@ -3409,9 +3409,9 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>36</xdr:col>
-      <xdr:colOff>54000</xdr:colOff>
+      <xdr:colOff>53640</xdr:colOff>
       <xdr:row>11</xdr:row>
-      <xdr:rowOff>59040</xdr:rowOff>
+      <xdr:rowOff>58680</xdr:rowOff>
     </xdr:to>
     <xdr:sp>
       <xdr:nvSpPr>
@@ -3421,7 +3421,7 @@
       <xdr:spPr>
         <a:xfrm>
           <a:off x="23848200" y="16200"/>
-          <a:ext cx="5060880" cy="2706840"/>
+          <a:ext cx="5060520" cy="2706480"/>
         </a:xfrm>
         <a:prstGeom prst="wedgeRoundRectCallout">
           <a:avLst>
@@ -12551,10 +12551,10 @@
     <tabColor rgb="FF9DC3E6"/>
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:D34"/>
+  <dimension ref="A1:E34"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="pageBreakPreview" topLeftCell="A13" colorId="64" zoomScale="80" zoomScaleNormal="85" zoomScalePageLayoutView="80" workbookViewId="0">
-      <selection pane="topLeft" activeCell="D29" activeCellId="0" sqref="D29"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="pageBreakPreview" topLeftCell="A12" colorId="64" zoomScale="80" zoomScaleNormal="85" zoomScalePageLayoutView="80" workbookViewId="0">
+      <selection pane="topLeft" activeCell="D35" activeCellId="0" sqref="D35"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.45703125" defaultRowHeight="16.5" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -12622,6 +12622,9 @@
       <c r="D7" s="9" t="s">
         <v>10</v>
       </c>
+      <c r="E7" s="1" t="s">
+        <v>10</v>
+      </c>
     </row>
     <row r="8" customFormat="false" ht="17" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A8" s="6" t="n">
@@ -12635,6 +12638,9 @@
       <c r="D8" s="9" t="s">
         <v>10</v>
       </c>
+      <c r="E8" s="1" t="s">
+        <v>10</v>
+      </c>
     </row>
     <row r="9" customFormat="false" ht="17" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A9" s="6" t="n">
@@ -12648,6 +12654,9 @@
       <c r="D9" s="9" t="s">
         <v>10</v>
       </c>
+      <c r="E9" s="1" t="s">
+        <v>10</v>
+      </c>
     </row>
     <row r="10" customFormat="false" ht="17" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A10" s="6" t="n">
@@ -12661,6 +12670,9 @@
       <c r="D10" s="9" t="n">
         <v>0</v>
       </c>
+      <c r="E10" s="1" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="11" customFormat="false" ht="17" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A11" s="6" t="n">
@@ -12674,6 +12686,9 @@
       <c r="D11" s="9" t="s">
         <v>10</v>
       </c>
+      <c r="E11" s="1" t="s">
+        <v>10</v>
+      </c>
     </row>
     <row r="12" customFormat="false" ht="17" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A12" s="6" t="n">
@@ -12687,6 +12702,9 @@
       <c r="D12" s="9" t="s">
         <v>10</v>
       </c>
+      <c r="E12" s="1" t="s">
+        <v>10</v>
+      </c>
     </row>
     <row r="13" customFormat="false" ht="16.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A13" s="6" t="n">
@@ -12702,6 +12720,9 @@
       <c r="D13" s="9" t="s">
         <v>10</v>
       </c>
+      <c r="E13" s="1" t="s">
+        <v>10</v>
+      </c>
     </row>
     <row r="14" customFormat="false" ht="17" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A14" s="6" t="n">
@@ -12715,6 +12736,9 @@
       <c r="D14" s="9" t="n">
         <v>0</v>
       </c>
+      <c r="E14" s="1" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="15" customFormat="false" ht="17" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A15" s="6" t="n">
@@ -12728,6 +12752,9 @@
       <c r="D15" s="9" t="s">
         <v>10</v>
       </c>
+      <c r="E15" s="1" t="s">
+        <v>10</v>
+      </c>
     </row>
     <row r="16" customFormat="false" ht="17" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A16" s="6" t="n">
@@ -12739,6 +12766,9 @@
         <v>502</v>
       </c>
       <c r="D16" s="9" t="s">
+        <v>10</v>
+      </c>
+      <c r="E16" s="1" t="s">
         <v>10</v>
       </c>
     </row>
@@ -12754,6 +12784,9 @@
       <c r="D17" s="9" t="n">
         <v>0</v>
       </c>
+      <c r="E17" s="1" t="s">
+        <v>10</v>
+      </c>
     </row>
     <row r="18" customFormat="false" ht="17" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A18" s="6" t="n">
@@ -12767,6 +12800,9 @@
       <c r="D18" s="9" t="s">
         <v>10</v>
       </c>
+      <c r="E18" s="1" t="s">
+        <v>10</v>
+      </c>
     </row>
     <row r="19" s="1" customFormat="true" ht="16.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A19" s="6" t="n">
@@ -12779,8 +12815,11 @@
       <c r="C19" s="17" t="s">
         <v>506</v>
       </c>
-      <c r="D19" s="9" t="n">
-        <v>0</v>
+      <c r="D19" s="9" t="s">
+        <v>10</v>
+      </c>
+      <c r="E19" s="1" t="s">
+        <v>10</v>
       </c>
     </row>
     <row r="20" s="1" customFormat="true" ht="17" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -12795,6 +12834,9 @@
       <c r="D20" s="9" t="s">
         <v>10</v>
       </c>
+      <c r="E20" s="1" t="s">
+        <v>10</v>
+      </c>
     </row>
     <row r="21" s="1" customFormat="true" ht="17" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A21" s="6" t="n">
@@ -12808,6 +12850,9 @@
       <c r="D21" s="9" t="s">
         <v>10</v>
       </c>
+      <c r="E21" s="1" t="s">
+        <v>10</v>
+      </c>
     </row>
     <row r="22" s="1" customFormat="true" ht="17" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A22" s="6" t="n">
@@ -12818,8 +12863,11 @@
       <c r="C22" s="17" t="s">
         <v>509</v>
       </c>
-      <c r="D22" s="9" t="n">
-        <v>0</v>
+      <c r="D22" s="9" t="s">
+        <v>10</v>
+      </c>
+      <c r="E22" s="1" t="s">
+        <v>10</v>
       </c>
     </row>
     <row r="23" s="1" customFormat="true" ht="17" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -12834,6 +12882,9 @@
       <c r="D23" s="9" t="s">
         <v>10</v>
       </c>
+      <c r="E23" s="1" t="s">
+        <v>10</v>
+      </c>
     </row>
     <row r="24" s="1" customFormat="true" ht="17" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A24" s="6" t="n">
@@ -12847,6 +12898,9 @@
       <c r="D24" s="9" t="s">
         <v>10</v>
       </c>
+      <c r="E24" s="1" t="s">
+        <v>10</v>
+      </c>
     </row>
     <row r="25" s="1" customFormat="true" ht="16.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A25" s="6" t="n">
@@ -12862,6 +12916,9 @@
       <c r="D25" s="9" t="s">
         <v>10</v>
       </c>
+      <c r="E25" s="1" t="s">
+        <v>10</v>
+      </c>
     </row>
     <row r="26" s="1" customFormat="true" ht="17" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A26" s="6" t="n">
@@ -12872,8 +12929,11 @@
       <c r="C26" s="17" t="s">
         <v>514</v>
       </c>
-      <c r="D26" s="9" t="n">
-        <v>0</v>
+      <c r="D26" s="9" t="s">
+        <v>10</v>
+      </c>
+      <c r="E26" s="1" t="s">
+        <v>10</v>
       </c>
     </row>
     <row r="27" s="1" customFormat="true" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -12890,6 +12950,9 @@
       <c r="D27" s="9" t="s">
         <v>10</v>
       </c>
+      <c r="E27" s="1" t="s">
+        <v>10</v>
+      </c>
     </row>
     <row r="28" s="1" customFormat="true" ht="17" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A28" s="6" t="n">
@@ -12903,6 +12966,9 @@
       <c r="D28" s="9" t="s">
         <v>10</v>
       </c>
+      <c r="E28" s="1" t="s">
+        <v>10</v>
+      </c>
     </row>
     <row r="29" s="1" customFormat="true" ht="16.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A29" s="6" t="n">
@@ -12915,9 +12981,14 @@
       <c r="C29" s="17" t="s">
         <v>519</v>
       </c>
-      <c r="D29" s="9"/>
-    </row>
-    <row r="30" s="1" customFormat="true" ht="16.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="D29" s="9" t="s">
+        <v>10</v>
+      </c>
+      <c r="E29" s="1" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="30" s="1" customFormat="true" ht="17" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A30" s="6" t="n">
         <f aca="false">ROW()-6</f>
         <v>24</v>
@@ -12926,7 +12997,12 @@
       <c r="C30" s="17" t="s">
         <v>520</v>
       </c>
-      <c r="D30" s="9"/>
+      <c r="D30" s="9" t="s">
+        <v>10</v>
+      </c>
+      <c r="E30" s="1" t="s">
+        <v>10</v>
+      </c>
     </row>
     <row r="31" s="1" customFormat="true" ht="16.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A31" s="6" t="n">
@@ -12939,9 +13015,14 @@
       <c r="C31" s="18" t="s">
         <v>522</v>
       </c>
-      <c r="D31" s="9"/>
-    </row>
-    <row r="32" s="1" customFormat="true" ht="16.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="D31" s="9" t="s">
+        <v>10</v>
+      </c>
+      <c r="E31" s="1" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="32" s="1" customFormat="true" ht="17" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A32" s="6" t="n">
         <f aca="false">ROW()-6</f>
         <v>26</v>
@@ -12950,9 +13031,14 @@
       <c r="C32" s="18" t="s">
         <v>523</v>
       </c>
-      <c r="D32" s="9"/>
-    </row>
-    <row r="33" s="1" customFormat="true" ht="16.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="D32" s="9" t="s">
+        <v>10</v>
+      </c>
+      <c r="E32" s="1" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="33" s="1" customFormat="true" ht="17" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A33" s="6" t="n">
         <f aca="false">ROW()-6</f>
         <v>27</v>
@@ -12961,9 +13047,14 @@
       <c r="C33" s="18" t="s">
         <v>524</v>
       </c>
-      <c r="D33" s="9"/>
-    </row>
-    <row r="34" s="1" customFormat="true" ht="16.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="D33" s="9" t="s">
+        <v>10</v>
+      </c>
+      <c r="E33" s="1" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="34" s="1" customFormat="true" ht="17" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A34" s="6" t="n">
         <f aca="false">ROW()-6</f>
         <v>28</v>
@@ -12972,7 +13063,12 @@
       <c r="C34" s="18" t="s">
         <v>525</v>
       </c>
-      <c r="D34" s="9"/>
+      <c r="D34" s="9" t="s">
+        <v>10</v>
+      </c>
+      <c r="E34" s="1" t="s">
+        <v>10</v>
+      </c>
     </row>
   </sheetData>
   <mergeCells count="11">

--- a/07 ootareon 目標管理シート.xlsx
+++ b/07 ootareon 目標管理シート.xlsx
@@ -47,7 +47,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1377" uniqueCount="526">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1403" uniqueCount="526">
   <si>
     <t xml:space="preserve">学習目標自己チェックシート(ビジネスマナー)</t>
   </si>
@@ -2181,9 +2181,9 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>20</xdr:col>
-      <xdr:colOff>536400</xdr:colOff>
+      <xdr:colOff>536040</xdr:colOff>
       <xdr:row>6</xdr:row>
-      <xdr:rowOff>26280</xdr:rowOff>
+      <xdr:rowOff>25920</xdr:rowOff>
     </xdr:to>
     <xdr:sp>
       <xdr:nvSpPr>
@@ -2193,7 +2193,7 @@
       <xdr:spPr>
         <a:xfrm>
           <a:off x="14182920" y="0"/>
-          <a:ext cx="5002920" cy="1617120"/>
+          <a:ext cx="5002560" cy="1616760"/>
         </a:xfrm>
         <a:prstGeom prst="wedgeRoundRectCallout">
           <a:avLst>
@@ -2359,9 +2359,9 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>16</xdr:col>
-      <xdr:colOff>298440</xdr:colOff>
+      <xdr:colOff>298080</xdr:colOff>
       <xdr:row>6</xdr:row>
-      <xdr:rowOff>171360</xdr:rowOff>
+      <xdr:rowOff>171000</xdr:rowOff>
     </xdr:to>
     <xdr:sp>
       <xdr:nvSpPr>
@@ -2371,7 +2371,7 @@
       <xdr:spPr>
         <a:xfrm>
           <a:off x="11673360" y="145080"/>
-          <a:ext cx="5002920" cy="1617120"/>
+          <a:ext cx="5002560" cy="1616760"/>
         </a:xfrm>
         <a:prstGeom prst="wedgeRoundRectCallout">
           <a:avLst>
@@ -2537,9 +2537,9 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>16</xdr:col>
-      <xdr:colOff>298440</xdr:colOff>
+      <xdr:colOff>298080</xdr:colOff>
       <xdr:row>6</xdr:row>
-      <xdr:rowOff>171360</xdr:rowOff>
+      <xdr:rowOff>171000</xdr:rowOff>
     </xdr:to>
     <xdr:sp>
       <xdr:nvSpPr>
@@ -2549,7 +2549,7 @@
       <xdr:spPr>
         <a:xfrm>
           <a:off x="11620440" y="145080"/>
-          <a:ext cx="5003280" cy="1617120"/>
+          <a:ext cx="5002920" cy="1616760"/>
         </a:xfrm>
         <a:prstGeom prst="wedgeRoundRectCallout">
           <a:avLst>
@@ -2715,9 +2715,9 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>19</xdr:col>
-      <xdr:colOff>449280</xdr:colOff>
+      <xdr:colOff>448920</xdr:colOff>
       <xdr:row>6</xdr:row>
-      <xdr:rowOff>63720</xdr:rowOff>
+      <xdr:rowOff>63360</xdr:rowOff>
     </xdr:to>
     <xdr:sp>
       <xdr:nvSpPr>
@@ -2727,7 +2727,7 @@
       <xdr:spPr>
         <a:xfrm>
           <a:off x="13364640" y="0"/>
-          <a:ext cx="5060880" cy="1654560"/>
+          <a:ext cx="5060520" cy="1654200"/>
         </a:xfrm>
         <a:prstGeom prst="wedgeRoundRectCallout">
           <a:avLst>
@@ -2888,9 +2888,9 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>4</xdr:col>
-      <xdr:colOff>71640</xdr:colOff>
+      <xdr:colOff>71280</xdr:colOff>
       <xdr:row>85</xdr:row>
-      <xdr:rowOff>162360</xdr:rowOff>
+      <xdr:rowOff>162000</xdr:rowOff>
     </xdr:to>
     <xdr:sp>
       <xdr:nvSpPr>
@@ -2900,7 +2900,7 @@
       <xdr:spPr>
         <a:xfrm>
           <a:off x="11283480" y="16242120"/>
-          <a:ext cx="190800" cy="2221560"/>
+          <a:ext cx="190440" cy="2221200"/>
         </a:xfrm>
         <a:prstGeom prst="rightBrace">
           <a:avLst>
@@ -2940,9 +2940,9 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>15</xdr:col>
-      <xdr:colOff>400320</xdr:colOff>
+      <xdr:colOff>399960</xdr:colOff>
       <xdr:row>84</xdr:row>
-      <xdr:rowOff>123120</xdr:rowOff>
+      <xdr:rowOff>122760</xdr:rowOff>
     </xdr:to>
     <xdr:sp>
       <xdr:nvSpPr>
@@ -2952,7 +2952,7 @@
       <xdr:spPr>
         <a:xfrm>
           <a:off x="11702160" y="17062200"/>
-          <a:ext cx="4613040" cy="1152720"/>
+          <a:ext cx="4612680" cy="1152360"/>
         </a:xfrm>
         <a:prstGeom prst="ellipse">
           <a:avLst/>
@@ -3053,9 +3053,9 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>21</xdr:col>
-      <xdr:colOff>21960</xdr:colOff>
+      <xdr:colOff>21600</xdr:colOff>
       <xdr:row>6</xdr:row>
-      <xdr:rowOff>53280</xdr:rowOff>
+      <xdr:rowOff>52920</xdr:rowOff>
     </xdr:to>
     <xdr:sp>
       <xdr:nvSpPr>
@@ -3065,7 +3065,7 @@
       <xdr:spPr>
         <a:xfrm>
           <a:off x="13158360" y="0"/>
-          <a:ext cx="5024520" cy="1644120"/>
+          <a:ext cx="5024160" cy="1643760"/>
         </a:xfrm>
         <a:prstGeom prst="wedgeRoundRectCallout">
           <a:avLst>
@@ -3231,9 +3231,9 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>43</xdr:col>
-      <xdr:colOff>5040</xdr:colOff>
+      <xdr:colOff>4680</xdr:colOff>
       <xdr:row>13</xdr:row>
-      <xdr:rowOff>42480</xdr:rowOff>
+      <xdr:rowOff>42120</xdr:rowOff>
     </xdr:to>
     <xdr:sp>
       <xdr:nvSpPr>
@@ -3243,7 +3243,7 @@
       <xdr:spPr>
         <a:xfrm>
           <a:off x="28142280" y="0"/>
-          <a:ext cx="5060520" cy="3077280"/>
+          <a:ext cx="5060160" cy="3076920"/>
         </a:xfrm>
         <a:prstGeom prst="wedgeRoundRectCallout">
           <a:avLst>
@@ -3409,9 +3409,9 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>36</xdr:col>
-      <xdr:colOff>53640</xdr:colOff>
+      <xdr:colOff>53280</xdr:colOff>
       <xdr:row>11</xdr:row>
-      <xdr:rowOff>58680</xdr:rowOff>
+      <xdr:rowOff>58320</xdr:rowOff>
     </xdr:to>
     <xdr:sp>
       <xdr:nvSpPr>
@@ -3421,7 +3421,7 @@
       <xdr:spPr>
         <a:xfrm>
           <a:off x="23848200" y="16200"/>
-          <a:ext cx="5060520" cy="2706480"/>
+          <a:ext cx="5060160" cy="2706120"/>
         </a:xfrm>
         <a:prstGeom prst="wedgeRoundRectCallout">
           <a:avLst>
@@ -12551,10 +12551,10 @@
     <tabColor rgb="FF9DC3E6"/>
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:E34"/>
+  <dimension ref="A1:F34"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="pageBreakPreview" topLeftCell="A12" colorId="64" zoomScale="80" zoomScaleNormal="85" zoomScalePageLayoutView="80" workbookViewId="0">
-      <selection pane="topLeft" activeCell="D35" activeCellId="0" sqref="D35"/>
+      <selection pane="topLeft" activeCell="F35" activeCellId="0" sqref="F35"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.45703125" defaultRowHeight="16.5" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -12625,6 +12625,9 @@
       <c r="E7" s="1" t="s">
         <v>10</v>
       </c>
+      <c r="F7" s="1" t="s">
+        <v>10</v>
+      </c>
     </row>
     <row r="8" customFormat="false" ht="17" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A8" s="6" t="n">
@@ -12641,6 +12644,9 @@
       <c r="E8" s="1" t="s">
         <v>10</v>
       </c>
+      <c r="F8" s="1" t="s">
+        <v>10</v>
+      </c>
     </row>
     <row r="9" customFormat="false" ht="17" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A9" s="6" t="n">
@@ -12657,6 +12663,9 @@
       <c r="E9" s="1" t="s">
         <v>10</v>
       </c>
+      <c r="F9" s="1" t="s">
+        <v>10</v>
+      </c>
     </row>
     <row r="10" customFormat="false" ht="17" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A10" s="6" t="n">
@@ -12673,6 +12682,9 @@
       <c r="E10" s="1" t="n">
         <v>0</v>
       </c>
+      <c r="F10" s="1" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="11" customFormat="false" ht="17" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A11" s="6" t="n">
@@ -12689,6 +12701,9 @@
       <c r="E11" s="1" t="s">
         <v>10</v>
       </c>
+      <c r="F11" s="1" t="s">
+        <v>10</v>
+      </c>
     </row>
     <row r="12" customFormat="false" ht="17" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A12" s="6" t="n">
@@ -12705,6 +12720,9 @@
       <c r="E12" s="1" t="s">
         <v>10</v>
       </c>
+      <c r="F12" s="1" t="s">
+        <v>10</v>
+      </c>
     </row>
     <row r="13" customFormat="false" ht="16.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A13" s="6" t="n">
@@ -12723,6 +12741,9 @@
       <c r="E13" s="1" t="s">
         <v>10</v>
       </c>
+      <c r="F13" s="1" t="s">
+        <v>10</v>
+      </c>
     </row>
     <row r="14" customFormat="false" ht="17" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A14" s="6" t="n">
@@ -12739,6 +12760,9 @@
       <c r="E14" s="1" t="n">
         <v>0</v>
       </c>
+      <c r="F14" s="1" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="15" customFormat="false" ht="17" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A15" s="6" t="n">
@@ -12755,6 +12779,9 @@
       <c r="E15" s="1" t="s">
         <v>10</v>
       </c>
+      <c r="F15" s="1" t="s">
+        <v>10</v>
+      </c>
     </row>
     <row r="16" customFormat="false" ht="17" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A16" s="6" t="n">
@@ -12769,6 +12796,9 @@
         <v>10</v>
       </c>
       <c r="E16" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="F16" s="1" t="s">
         <v>10</v>
       </c>
     </row>
@@ -12787,6 +12817,9 @@
       <c r="E17" s="1" t="s">
         <v>10</v>
       </c>
+      <c r="F17" s="1" t="s">
+        <v>10</v>
+      </c>
     </row>
     <row r="18" customFormat="false" ht="17" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A18" s="6" t="n">
@@ -12803,6 +12836,9 @@
       <c r="E18" s="1" t="s">
         <v>10</v>
       </c>
+      <c r="F18" s="1" t="s">
+        <v>10</v>
+      </c>
     </row>
     <row r="19" s="1" customFormat="true" ht="16.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A19" s="6" t="n">
@@ -12821,6 +12857,9 @@
       <c r="E19" s="1" t="s">
         <v>10</v>
       </c>
+      <c r="F19" s="1" t="s">
+        <v>10</v>
+      </c>
     </row>
     <row r="20" s="1" customFormat="true" ht="17" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A20" s="6" t="n">
@@ -12837,6 +12876,9 @@
       <c r="E20" s="1" t="s">
         <v>10</v>
       </c>
+      <c r="F20" s="1" t="s">
+        <v>10</v>
+      </c>
     </row>
     <row r="21" s="1" customFormat="true" ht="17" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A21" s="6" t="n">
@@ -12853,6 +12895,9 @@
       <c r="E21" s="1" t="s">
         <v>10</v>
       </c>
+      <c r="F21" s="1" t="s">
+        <v>10</v>
+      </c>
     </row>
     <row r="22" s="1" customFormat="true" ht="17" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A22" s="6" t="n">
@@ -12869,6 +12914,9 @@
       <c r="E22" s="1" t="s">
         <v>10</v>
       </c>
+      <c r="F22" s="1" t="s">
+        <v>10</v>
+      </c>
     </row>
     <row r="23" s="1" customFormat="true" ht="17" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A23" s="6" t="n">
@@ -12885,6 +12933,9 @@
       <c r="E23" s="1" t="s">
         <v>10</v>
       </c>
+      <c r="F23" s="1" t="s">
+        <v>10</v>
+      </c>
     </row>
     <row r="24" s="1" customFormat="true" ht="17" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A24" s="6" t="n">
@@ -12901,6 +12952,9 @@
       <c r="E24" s="1" t="s">
         <v>10</v>
       </c>
+      <c r="F24" s="1" t="s">
+        <v>10</v>
+      </c>
     </row>
     <row r="25" s="1" customFormat="true" ht="16.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A25" s="6" t="n">
@@ -12919,6 +12973,9 @@
       <c r="E25" s="1" t="s">
         <v>10</v>
       </c>
+      <c r="F25" s="1" t="s">
+        <v>10</v>
+      </c>
     </row>
     <row r="26" s="1" customFormat="true" ht="17" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A26" s="6" t="n">
@@ -12935,6 +12992,9 @@
       <c r="E26" s="1" t="s">
         <v>10</v>
       </c>
+      <c r="F26" s="1" t="s">
+        <v>10</v>
+      </c>
     </row>
     <row r="27" s="1" customFormat="true" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A27" s="6" t="n">
@@ -12953,6 +13013,9 @@
       <c r="E27" s="1" t="s">
         <v>10</v>
       </c>
+      <c r="F27" s="1" t="s">
+        <v>10</v>
+      </c>
     </row>
     <row r="28" s="1" customFormat="true" ht="17" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A28" s="6" t="n">
@@ -12969,6 +13032,9 @@
       <c r="E28" s="1" t="s">
         <v>10</v>
       </c>
+      <c r="F28" s="1" t="s">
+        <v>10</v>
+      </c>
     </row>
     <row r="29" s="1" customFormat="true" ht="16.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A29" s="6" t="n">
@@ -12987,6 +13053,9 @@
       <c r="E29" s="1" t="s">
         <v>10</v>
       </c>
+      <c r="F29" s="1" t="s">
+        <v>10</v>
+      </c>
     </row>
     <row r="30" s="1" customFormat="true" ht="17" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A30" s="6" t="n">
@@ -13003,6 +13072,9 @@
       <c r="E30" s="1" t="s">
         <v>10</v>
       </c>
+      <c r="F30" s="1" t="s">
+        <v>10</v>
+      </c>
     </row>
     <row r="31" s="1" customFormat="true" ht="16.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A31" s="6" t="n">
@@ -13021,6 +13093,9 @@
       <c r="E31" s="1" t="s">
         <v>10</v>
       </c>
+      <c r="F31" s="1" t="s">
+        <v>10</v>
+      </c>
     </row>
     <row r="32" s="1" customFormat="true" ht="17" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A32" s="6" t="n">
@@ -13037,6 +13112,9 @@
       <c r="E32" s="1" t="s">
         <v>10</v>
       </c>
+      <c r="F32" s="1" t="s">
+        <v>10</v>
+      </c>
     </row>
     <row r="33" s="1" customFormat="true" ht="17" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A33" s="6" t="n">
@@ -13053,6 +13131,9 @@
       <c r="E33" s="1" t="s">
         <v>10</v>
       </c>
+      <c r="F33" s="1" t="s">
+        <v>10</v>
+      </c>
     </row>
     <row r="34" s="1" customFormat="true" ht="17" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A34" s="6" t="n">
@@ -13067,6 +13148,9 @@
         <v>10</v>
       </c>
       <c r="E34" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="F34" s="1" t="s">
         <v>10</v>
       </c>
     </row>

--- a/07 ootareon 目標管理シート.xlsx
+++ b/07 ootareon 目標管理シート.xlsx
@@ -47,7 +47,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1403" uniqueCount="526">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1423" uniqueCount="526">
   <si>
     <t xml:space="preserve">学習目標自己チェックシート(ビジネスマナー)</t>
   </si>
@@ -2181,9 +2181,9 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>20</xdr:col>
-      <xdr:colOff>536040</xdr:colOff>
+      <xdr:colOff>535680</xdr:colOff>
       <xdr:row>6</xdr:row>
-      <xdr:rowOff>25920</xdr:rowOff>
+      <xdr:rowOff>25560</xdr:rowOff>
     </xdr:to>
     <xdr:sp>
       <xdr:nvSpPr>
@@ -2193,7 +2193,7 @@
       <xdr:spPr>
         <a:xfrm>
           <a:off x="14182920" y="0"/>
-          <a:ext cx="5002560" cy="1616760"/>
+          <a:ext cx="5002200" cy="1616400"/>
         </a:xfrm>
         <a:prstGeom prst="wedgeRoundRectCallout">
           <a:avLst>
@@ -2359,9 +2359,9 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>16</xdr:col>
-      <xdr:colOff>298080</xdr:colOff>
+      <xdr:colOff>297720</xdr:colOff>
       <xdr:row>6</xdr:row>
-      <xdr:rowOff>171000</xdr:rowOff>
+      <xdr:rowOff>170640</xdr:rowOff>
     </xdr:to>
     <xdr:sp>
       <xdr:nvSpPr>
@@ -2371,7 +2371,7 @@
       <xdr:spPr>
         <a:xfrm>
           <a:off x="11673360" y="145080"/>
-          <a:ext cx="5002560" cy="1616760"/>
+          <a:ext cx="5002200" cy="1616400"/>
         </a:xfrm>
         <a:prstGeom prst="wedgeRoundRectCallout">
           <a:avLst>
@@ -2537,9 +2537,9 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>16</xdr:col>
-      <xdr:colOff>298080</xdr:colOff>
+      <xdr:colOff>297720</xdr:colOff>
       <xdr:row>6</xdr:row>
-      <xdr:rowOff>171000</xdr:rowOff>
+      <xdr:rowOff>170640</xdr:rowOff>
     </xdr:to>
     <xdr:sp>
       <xdr:nvSpPr>
@@ -2549,7 +2549,7 @@
       <xdr:spPr>
         <a:xfrm>
           <a:off x="11620440" y="145080"/>
-          <a:ext cx="5002920" cy="1616760"/>
+          <a:ext cx="5002560" cy="1616400"/>
         </a:xfrm>
         <a:prstGeom prst="wedgeRoundRectCallout">
           <a:avLst>
@@ -2715,9 +2715,9 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>19</xdr:col>
-      <xdr:colOff>448920</xdr:colOff>
+      <xdr:colOff>448560</xdr:colOff>
       <xdr:row>6</xdr:row>
-      <xdr:rowOff>63360</xdr:rowOff>
+      <xdr:rowOff>63000</xdr:rowOff>
     </xdr:to>
     <xdr:sp>
       <xdr:nvSpPr>
@@ -2727,7 +2727,7 @@
       <xdr:spPr>
         <a:xfrm>
           <a:off x="13364640" y="0"/>
-          <a:ext cx="5060520" cy="1654200"/>
+          <a:ext cx="5060160" cy="1653840"/>
         </a:xfrm>
         <a:prstGeom prst="wedgeRoundRectCallout">
           <a:avLst>
@@ -2888,9 +2888,9 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>4</xdr:col>
-      <xdr:colOff>71280</xdr:colOff>
+      <xdr:colOff>70920</xdr:colOff>
       <xdr:row>85</xdr:row>
-      <xdr:rowOff>162000</xdr:rowOff>
+      <xdr:rowOff>161640</xdr:rowOff>
     </xdr:to>
     <xdr:sp>
       <xdr:nvSpPr>
@@ -2900,7 +2900,7 @@
       <xdr:spPr>
         <a:xfrm>
           <a:off x="11283480" y="16242120"/>
-          <a:ext cx="190440" cy="2221200"/>
+          <a:ext cx="190080" cy="2220840"/>
         </a:xfrm>
         <a:prstGeom prst="rightBrace">
           <a:avLst>
@@ -2940,9 +2940,9 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>15</xdr:col>
-      <xdr:colOff>399960</xdr:colOff>
+      <xdr:colOff>399600</xdr:colOff>
       <xdr:row>84</xdr:row>
-      <xdr:rowOff>122760</xdr:rowOff>
+      <xdr:rowOff>122400</xdr:rowOff>
     </xdr:to>
     <xdr:sp>
       <xdr:nvSpPr>
@@ -2952,7 +2952,7 @@
       <xdr:spPr>
         <a:xfrm>
           <a:off x="11702160" y="17062200"/>
-          <a:ext cx="4612680" cy="1152360"/>
+          <a:ext cx="4612320" cy="1152000"/>
         </a:xfrm>
         <a:prstGeom prst="ellipse">
           <a:avLst/>
@@ -3053,9 +3053,9 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>21</xdr:col>
-      <xdr:colOff>21600</xdr:colOff>
+      <xdr:colOff>21240</xdr:colOff>
       <xdr:row>6</xdr:row>
-      <xdr:rowOff>52920</xdr:rowOff>
+      <xdr:rowOff>52560</xdr:rowOff>
     </xdr:to>
     <xdr:sp>
       <xdr:nvSpPr>
@@ -3065,7 +3065,7 @@
       <xdr:spPr>
         <a:xfrm>
           <a:off x="13158360" y="0"/>
-          <a:ext cx="5024160" cy="1643760"/>
+          <a:ext cx="5023800" cy="1643400"/>
         </a:xfrm>
         <a:prstGeom prst="wedgeRoundRectCallout">
           <a:avLst>
@@ -3231,9 +3231,9 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>43</xdr:col>
-      <xdr:colOff>4680</xdr:colOff>
+      <xdr:colOff>4320</xdr:colOff>
       <xdr:row>13</xdr:row>
-      <xdr:rowOff>42120</xdr:rowOff>
+      <xdr:rowOff>41760</xdr:rowOff>
     </xdr:to>
     <xdr:sp>
       <xdr:nvSpPr>
@@ -3243,7 +3243,7 @@
       <xdr:spPr>
         <a:xfrm>
           <a:off x="28142280" y="0"/>
-          <a:ext cx="5060160" cy="3076920"/>
+          <a:ext cx="5059800" cy="3076560"/>
         </a:xfrm>
         <a:prstGeom prst="wedgeRoundRectCallout">
           <a:avLst>
@@ -3409,9 +3409,9 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>36</xdr:col>
-      <xdr:colOff>53280</xdr:colOff>
+      <xdr:colOff>52920</xdr:colOff>
       <xdr:row>11</xdr:row>
-      <xdr:rowOff>58320</xdr:rowOff>
+      <xdr:rowOff>57960</xdr:rowOff>
     </xdr:to>
     <xdr:sp>
       <xdr:nvSpPr>
@@ -3421,7 +3421,7 @@
       <xdr:spPr>
         <a:xfrm>
           <a:off x="23848200" y="16200"/>
-          <a:ext cx="5060160" cy="2706120"/>
+          <a:ext cx="5059800" cy="2705760"/>
         </a:xfrm>
         <a:prstGeom prst="wedgeRoundRectCallout">
           <a:avLst>
@@ -12551,10 +12551,10 @@
     <tabColor rgb="FF9DC3E6"/>
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:F34"/>
+  <dimension ref="A1:G34"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="pageBreakPreview" topLeftCell="A12" colorId="64" zoomScale="80" zoomScaleNormal="85" zoomScalePageLayoutView="80" workbookViewId="0">
-      <selection pane="topLeft" activeCell="F35" activeCellId="0" sqref="F35"/>
+      <selection pane="topLeft" activeCell="G35" activeCellId="0" sqref="G35"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.45703125" defaultRowHeight="16.5" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -12628,6 +12628,9 @@
       <c r="F7" s="1" t="s">
         <v>10</v>
       </c>
+      <c r="G7" s="1" t="s">
+        <v>10</v>
+      </c>
     </row>
     <row r="8" customFormat="false" ht="17" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A8" s="6" t="n">
@@ -12647,6 +12650,9 @@
       <c r="F8" s="1" t="s">
         <v>10</v>
       </c>
+      <c r="G8" s="1" t="s">
+        <v>10</v>
+      </c>
     </row>
     <row r="9" customFormat="false" ht="17" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A9" s="6" t="n">
@@ -12666,6 +12672,9 @@
       <c r="F9" s="1" t="s">
         <v>10</v>
       </c>
+      <c r="G9" s="1" t="s">
+        <v>10</v>
+      </c>
     </row>
     <row r="10" customFormat="false" ht="17" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A10" s="6" t="n">
@@ -12685,6 +12694,9 @@
       <c r="F10" s="1" t="n">
         <v>0</v>
       </c>
+      <c r="G10" s="1" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="11" customFormat="false" ht="17" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A11" s="6" t="n">
@@ -12704,6 +12716,9 @@
       <c r="F11" s="1" t="s">
         <v>10</v>
       </c>
+      <c r="G11" s="1" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="12" customFormat="false" ht="17" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A12" s="6" t="n">
@@ -12723,6 +12738,9 @@
       <c r="F12" s="1" t="s">
         <v>10</v>
       </c>
+      <c r="G12" s="1" t="s">
+        <v>10</v>
+      </c>
     </row>
     <row r="13" customFormat="false" ht="16.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A13" s="6" t="n">
@@ -12744,6 +12762,9 @@
       <c r="F13" s="1" t="s">
         <v>10</v>
       </c>
+      <c r="G13" s="1" t="s">
+        <v>10</v>
+      </c>
     </row>
     <row r="14" customFormat="false" ht="17" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A14" s="6" t="n">
@@ -12763,6 +12784,9 @@
       <c r="F14" s="1" t="n">
         <v>0</v>
       </c>
+      <c r="G14" s="1" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="15" customFormat="false" ht="17" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A15" s="6" t="n">
@@ -12782,6 +12806,9 @@
       <c r="F15" s="1" t="s">
         <v>10</v>
       </c>
+      <c r="G15" s="1" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="16" customFormat="false" ht="17" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A16" s="6" t="n">
@@ -12800,6 +12827,9 @@
       </c>
       <c r="F16" s="1" t="s">
         <v>10</v>
+      </c>
+      <c r="G16" s="1" t="n">
+        <v>0</v>
       </c>
     </row>
     <row r="17" customFormat="false" ht="17" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -12820,6 +12850,9 @@
       <c r="F17" s="1" t="s">
         <v>10</v>
       </c>
+      <c r="G17" s="1" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="18" customFormat="false" ht="17" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A18" s="6" t="n">
@@ -12839,6 +12872,9 @@
       <c r="F18" s="1" t="s">
         <v>10</v>
       </c>
+      <c r="G18" s="1" t="s">
+        <v>10</v>
+      </c>
     </row>
     <row r="19" s="1" customFormat="true" ht="16.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A19" s="6" t="n">
@@ -12860,6 +12896,9 @@
       <c r="F19" s="1" t="s">
         <v>10</v>
       </c>
+      <c r="G19" s="1" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="20" s="1" customFormat="true" ht="17" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A20" s="6" t="n">
@@ -12879,6 +12918,9 @@
       <c r="F20" s="1" t="s">
         <v>10</v>
       </c>
+      <c r="G20" s="1" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="21" s="1" customFormat="true" ht="17" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A21" s="6" t="n">
@@ -12898,6 +12940,9 @@
       <c r="F21" s="1" t="s">
         <v>10</v>
       </c>
+      <c r="G21" s="1" t="s">
+        <v>10</v>
+      </c>
     </row>
     <row r="22" s="1" customFormat="true" ht="17" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A22" s="6" t="n">
@@ -12917,6 +12962,9 @@
       <c r="F22" s="1" t="s">
         <v>10</v>
       </c>
+      <c r="G22" s="1" t="s">
+        <v>10</v>
+      </c>
     </row>
     <row r="23" s="1" customFormat="true" ht="17" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A23" s="6" t="n">
@@ -12936,6 +12984,9 @@
       <c r="F23" s="1" t="s">
         <v>10</v>
       </c>
+      <c r="G23" s="1" t="s">
+        <v>10</v>
+      </c>
     </row>
     <row r="24" s="1" customFormat="true" ht="17" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A24" s="6" t="n">
@@ -12955,6 +13006,9 @@
       <c r="F24" s="1" t="s">
         <v>10</v>
       </c>
+      <c r="G24" s="1" t="s">
+        <v>10</v>
+      </c>
     </row>
     <row r="25" s="1" customFormat="true" ht="16.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A25" s="6" t="n">
@@ -12976,6 +13030,9 @@
       <c r="F25" s="1" t="s">
         <v>10</v>
       </c>
+      <c r="G25" s="1" t="s">
+        <v>10</v>
+      </c>
     </row>
     <row r="26" s="1" customFormat="true" ht="17" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A26" s="6" t="n">
@@ -12995,6 +13052,9 @@
       <c r="F26" s="1" t="s">
         <v>10</v>
       </c>
+      <c r="G26" s="1" t="s">
+        <v>10</v>
+      </c>
     </row>
     <row r="27" s="1" customFormat="true" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A27" s="6" t="n">
@@ -13016,6 +13076,9 @@
       <c r="F27" s="1" t="s">
         <v>10</v>
       </c>
+      <c r="G27" s="1" t="s">
+        <v>10</v>
+      </c>
     </row>
     <row r="28" s="1" customFormat="true" ht="17" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A28" s="6" t="n">
@@ -13035,6 +13098,9 @@
       <c r="F28" s="1" t="s">
         <v>10</v>
       </c>
+      <c r="G28" s="1" t="s">
+        <v>10</v>
+      </c>
     </row>
     <row r="29" s="1" customFormat="true" ht="16.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A29" s="6" t="n">
@@ -13056,6 +13122,9 @@
       <c r="F29" s="1" t="s">
         <v>10</v>
       </c>
+      <c r="G29" s="1" t="s">
+        <v>10</v>
+      </c>
     </row>
     <row r="30" s="1" customFormat="true" ht="17" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A30" s="6" t="n">
@@ -13075,6 +13144,9 @@
       <c r="F30" s="1" t="s">
         <v>10</v>
       </c>
+      <c r="G30" s="1" t="s">
+        <v>10</v>
+      </c>
     </row>
     <row r="31" s="1" customFormat="true" ht="16.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A31" s="6" t="n">
@@ -13096,6 +13168,9 @@
       <c r="F31" s="1" t="s">
         <v>10</v>
       </c>
+      <c r="G31" s="1" t="s">
+        <v>10</v>
+      </c>
     </row>
     <row r="32" s="1" customFormat="true" ht="17" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A32" s="6" t="n">
@@ -13115,6 +13190,9 @@
       <c r="F32" s="1" t="s">
         <v>10</v>
       </c>
+      <c r="G32" s="1" t="s">
+        <v>10</v>
+      </c>
     </row>
     <row r="33" s="1" customFormat="true" ht="17" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A33" s="6" t="n">
@@ -13134,6 +13212,9 @@
       <c r="F33" s="1" t="s">
         <v>10</v>
       </c>
+      <c r="G33" s="1" t="s">
+        <v>10</v>
+      </c>
     </row>
     <row r="34" s="1" customFormat="true" ht="17" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A34" s="6" t="n">
@@ -13151,6 +13232,9 @@
         <v>10</v>
       </c>
       <c r="F34" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="G34" s="1" t="s">
         <v>10</v>
       </c>
     </row>

--- a/07 ootareon 目標管理シート.xlsx
+++ b/07 ootareon 目標管理シート.xlsx
@@ -47,7 +47,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1423" uniqueCount="526">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1443" uniqueCount="526">
   <si>
     <t xml:space="preserve">学習目標自己チェックシート(ビジネスマナー)</t>
   </si>
@@ -2181,9 +2181,9 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>20</xdr:col>
-      <xdr:colOff>535680</xdr:colOff>
+      <xdr:colOff>535320</xdr:colOff>
       <xdr:row>6</xdr:row>
-      <xdr:rowOff>25560</xdr:rowOff>
+      <xdr:rowOff>25200</xdr:rowOff>
     </xdr:to>
     <xdr:sp>
       <xdr:nvSpPr>
@@ -2193,7 +2193,7 @@
       <xdr:spPr>
         <a:xfrm>
           <a:off x="14182920" y="0"/>
-          <a:ext cx="5002200" cy="1616400"/>
+          <a:ext cx="5001840" cy="1616040"/>
         </a:xfrm>
         <a:prstGeom prst="wedgeRoundRectCallout">
           <a:avLst>
@@ -2359,9 +2359,9 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>16</xdr:col>
-      <xdr:colOff>297720</xdr:colOff>
+      <xdr:colOff>297360</xdr:colOff>
       <xdr:row>6</xdr:row>
-      <xdr:rowOff>170640</xdr:rowOff>
+      <xdr:rowOff>170280</xdr:rowOff>
     </xdr:to>
     <xdr:sp>
       <xdr:nvSpPr>
@@ -2371,7 +2371,7 @@
       <xdr:spPr>
         <a:xfrm>
           <a:off x="11673360" y="145080"/>
-          <a:ext cx="5002200" cy="1616400"/>
+          <a:ext cx="5001840" cy="1616040"/>
         </a:xfrm>
         <a:prstGeom prst="wedgeRoundRectCallout">
           <a:avLst>
@@ -2537,9 +2537,9 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>16</xdr:col>
-      <xdr:colOff>297720</xdr:colOff>
+      <xdr:colOff>297360</xdr:colOff>
       <xdr:row>6</xdr:row>
-      <xdr:rowOff>170640</xdr:rowOff>
+      <xdr:rowOff>170280</xdr:rowOff>
     </xdr:to>
     <xdr:sp>
       <xdr:nvSpPr>
@@ -2549,7 +2549,7 @@
       <xdr:spPr>
         <a:xfrm>
           <a:off x="11620440" y="145080"/>
-          <a:ext cx="5002560" cy="1616400"/>
+          <a:ext cx="5002200" cy="1616040"/>
         </a:xfrm>
         <a:prstGeom prst="wedgeRoundRectCallout">
           <a:avLst>
@@ -2715,9 +2715,9 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>19</xdr:col>
-      <xdr:colOff>448560</xdr:colOff>
+      <xdr:colOff>448200</xdr:colOff>
       <xdr:row>6</xdr:row>
-      <xdr:rowOff>63000</xdr:rowOff>
+      <xdr:rowOff>62640</xdr:rowOff>
     </xdr:to>
     <xdr:sp>
       <xdr:nvSpPr>
@@ -2727,7 +2727,7 @@
       <xdr:spPr>
         <a:xfrm>
           <a:off x="13364640" y="0"/>
-          <a:ext cx="5060160" cy="1653840"/>
+          <a:ext cx="5059800" cy="1653480"/>
         </a:xfrm>
         <a:prstGeom prst="wedgeRoundRectCallout">
           <a:avLst>
@@ -2888,9 +2888,9 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>4</xdr:col>
-      <xdr:colOff>70920</xdr:colOff>
+      <xdr:colOff>70560</xdr:colOff>
       <xdr:row>85</xdr:row>
-      <xdr:rowOff>161640</xdr:rowOff>
+      <xdr:rowOff>161280</xdr:rowOff>
     </xdr:to>
     <xdr:sp>
       <xdr:nvSpPr>
@@ -2900,7 +2900,7 @@
       <xdr:spPr>
         <a:xfrm>
           <a:off x="11283480" y="16242120"/>
-          <a:ext cx="190080" cy="2220840"/>
+          <a:ext cx="189720" cy="2220480"/>
         </a:xfrm>
         <a:prstGeom prst="rightBrace">
           <a:avLst>
@@ -2940,9 +2940,9 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>15</xdr:col>
-      <xdr:colOff>399600</xdr:colOff>
+      <xdr:colOff>399240</xdr:colOff>
       <xdr:row>84</xdr:row>
-      <xdr:rowOff>122400</xdr:rowOff>
+      <xdr:rowOff>122040</xdr:rowOff>
     </xdr:to>
     <xdr:sp>
       <xdr:nvSpPr>
@@ -2952,7 +2952,7 @@
       <xdr:spPr>
         <a:xfrm>
           <a:off x="11702160" y="17062200"/>
-          <a:ext cx="4612320" cy="1152000"/>
+          <a:ext cx="4611960" cy="1151640"/>
         </a:xfrm>
         <a:prstGeom prst="ellipse">
           <a:avLst/>
@@ -3053,9 +3053,9 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>21</xdr:col>
-      <xdr:colOff>21240</xdr:colOff>
+      <xdr:colOff>20880</xdr:colOff>
       <xdr:row>6</xdr:row>
-      <xdr:rowOff>52560</xdr:rowOff>
+      <xdr:rowOff>52200</xdr:rowOff>
     </xdr:to>
     <xdr:sp>
       <xdr:nvSpPr>
@@ -3065,7 +3065,7 @@
       <xdr:spPr>
         <a:xfrm>
           <a:off x="13158360" y="0"/>
-          <a:ext cx="5023800" cy="1643400"/>
+          <a:ext cx="5023440" cy="1643040"/>
         </a:xfrm>
         <a:prstGeom prst="wedgeRoundRectCallout">
           <a:avLst>
@@ -3231,9 +3231,9 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>43</xdr:col>
-      <xdr:colOff>4320</xdr:colOff>
+      <xdr:colOff>3960</xdr:colOff>
       <xdr:row>13</xdr:row>
-      <xdr:rowOff>41760</xdr:rowOff>
+      <xdr:rowOff>41400</xdr:rowOff>
     </xdr:to>
     <xdr:sp>
       <xdr:nvSpPr>
@@ -3243,7 +3243,7 @@
       <xdr:spPr>
         <a:xfrm>
           <a:off x="28142280" y="0"/>
-          <a:ext cx="5059800" cy="3076560"/>
+          <a:ext cx="5059440" cy="3076200"/>
         </a:xfrm>
         <a:prstGeom prst="wedgeRoundRectCallout">
           <a:avLst>
@@ -3409,9 +3409,9 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>36</xdr:col>
-      <xdr:colOff>52920</xdr:colOff>
+      <xdr:colOff>52560</xdr:colOff>
       <xdr:row>11</xdr:row>
-      <xdr:rowOff>57960</xdr:rowOff>
+      <xdr:rowOff>57600</xdr:rowOff>
     </xdr:to>
     <xdr:sp>
       <xdr:nvSpPr>
@@ -3421,7 +3421,7 @@
       <xdr:spPr>
         <a:xfrm>
           <a:off x="23848200" y="16200"/>
-          <a:ext cx="5059800" cy="2705760"/>
+          <a:ext cx="5059440" cy="2664720"/>
         </a:xfrm>
         <a:prstGeom prst="wedgeRoundRectCallout">
           <a:avLst>
@@ -12551,10 +12551,10 @@
     <tabColor rgb="FF9DC3E6"/>
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:G34"/>
+  <dimension ref="A1:H34"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="pageBreakPreview" topLeftCell="A12" colorId="64" zoomScale="80" zoomScaleNormal="85" zoomScalePageLayoutView="80" workbookViewId="0">
-      <selection pane="topLeft" activeCell="G35" activeCellId="0" sqref="G35"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="pageBreakPreview" topLeftCell="A1" colorId="64" zoomScale="80" zoomScaleNormal="85" zoomScalePageLayoutView="80" workbookViewId="0">
+      <selection pane="topLeft" activeCell="G5" activeCellId="0" sqref="G5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.45703125" defaultRowHeight="16.5" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -12631,8 +12631,11 @@
       <c r="G7" s="1" t="s">
         <v>10</v>
       </c>
-    </row>
-    <row r="8" customFormat="false" ht="17" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="H7" s="1" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="8" customFormat="false" ht="16.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A8" s="6" t="n">
         <f aca="false">ROW()-6</f>
         <v>2</v>
@@ -12653,8 +12656,11 @@
       <c r="G8" s="1" t="s">
         <v>10</v>
       </c>
-    </row>
-    <row r="9" customFormat="false" ht="17" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="H8" s="1" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="9" customFormat="false" ht="16.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A9" s="6" t="n">
         <f aca="false">ROW()-6</f>
         <v>3</v>
@@ -12675,8 +12681,11 @@
       <c r="G9" s="1" t="s">
         <v>10</v>
       </c>
-    </row>
-    <row r="10" customFormat="false" ht="17" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="H9" s="1" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="10" customFormat="false" ht="16.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A10" s="6" t="n">
         <f aca="false">ROW()-6</f>
         <v>4</v>
@@ -12697,8 +12706,11 @@
       <c r="G10" s="1" t="n">
         <v>0</v>
       </c>
-    </row>
-    <row r="11" customFormat="false" ht="17" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="H10" s="1" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="11" customFormat="false" ht="16.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A11" s="6" t="n">
         <f aca="false">ROW()-6</f>
         <v>5</v>
@@ -12719,8 +12731,11 @@
       <c r="G11" s="1" t="n">
         <v>0</v>
       </c>
-    </row>
-    <row r="12" customFormat="false" ht="17" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="H11" s="1" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="12" customFormat="false" ht="16.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A12" s="6" t="n">
         <f aca="false">ROW()-6</f>
         <v>6</v>
@@ -12739,6 +12754,9 @@
         <v>10</v>
       </c>
       <c r="G12" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="H12" s="1" t="s">
         <v>10</v>
       </c>
     </row>
@@ -12765,8 +12783,11 @@
       <c r="G13" s="1" t="s">
         <v>10</v>
       </c>
-    </row>
-    <row r="14" customFormat="false" ht="17" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="H13" s="1" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="14" customFormat="false" ht="16.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A14" s="6" t="n">
         <f aca="false">ROW()-6</f>
         <v>8</v>
@@ -12787,8 +12808,11 @@
       <c r="G14" s="1" t="n">
         <v>0</v>
       </c>
-    </row>
-    <row r="15" customFormat="false" ht="17" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="H14" s="1" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="15" customFormat="false" ht="16.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A15" s="6" t="n">
         <f aca="false">ROW()-6</f>
         <v>9</v>
@@ -12809,8 +12833,11 @@
       <c r="G15" s="1" t="n">
         <v>0</v>
       </c>
-    </row>
-    <row r="16" customFormat="false" ht="17" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="H15" s="1" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" customFormat="false" ht="16.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A16" s="6" t="n">
         <f aca="false">ROW()-6</f>
         <v>10</v>
@@ -12831,8 +12858,11 @@
       <c r="G16" s="1" t="n">
         <v>0</v>
       </c>
-    </row>
-    <row r="17" customFormat="false" ht="17" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="H16" s="1" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="17" customFormat="false" ht="16.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A17" s="6" t="n">
         <f aca="false">ROW()-6</f>
         <v>11</v>
@@ -12853,8 +12883,11 @@
       <c r="G17" s="1" t="n">
         <v>0</v>
       </c>
-    </row>
-    <row r="18" customFormat="false" ht="17" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="H17" s="1" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="18" customFormat="false" ht="16.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A18" s="6" t="n">
         <f aca="false">ROW()-6</f>
         <v>12</v>
@@ -12873,6 +12906,9 @@
         <v>10</v>
       </c>
       <c r="G18" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="H18" s="1" t="s">
         <v>10</v>
       </c>
     </row>
@@ -12899,8 +12935,11 @@
       <c r="G19" s="1" t="n">
         <v>0</v>
       </c>
-    </row>
-    <row r="20" s="1" customFormat="true" ht="17" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="H19" s="1" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="20" s="1" customFormat="true" ht="16.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A20" s="6" t="n">
         <f aca="false">ROW()-6</f>
         <v>14</v>
@@ -12921,8 +12960,11 @@
       <c r="G20" s="1" t="n">
         <v>0</v>
       </c>
-    </row>
-    <row r="21" s="1" customFormat="true" ht="17" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="H20" s="1" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="21" s="1" customFormat="true" ht="16.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A21" s="6" t="n">
         <f aca="false">ROW()-6</f>
         <v>15</v>
@@ -12943,8 +12985,11 @@
       <c r="G21" s="1" t="s">
         <v>10</v>
       </c>
-    </row>
-    <row r="22" s="1" customFormat="true" ht="17" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="H21" s="1" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="22" s="1" customFormat="true" ht="16.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A22" s="6" t="n">
         <f aca="false">ROW()-6</f>
         <v>16</v>
@@ -12965,8 +13010,11 @@
       <c r="G22" s="1" t="s">
         <v>10</v>
       </c>
-    </row>
-    <row r="23" s="1" customFormat="true" ht="17" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="H22" s="1" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="23" s="1" customFormat="true" ht="16.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A23" s="6" t="n">
         <f aca="false">ROW()-6</f>
         <v>17</v>
@@ -12987,8 +13035,11 @@
       <c r="G23" s="1" t="s">
         <v>10</v>
       </c>
-    </row>
-    <row r="24" s="1" customFormat="true" ht="17" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="H23" s="1" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="24" s="1" customFormat="true" ht="16.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A24" s="6" t="n">
         <f aca="false">ROW()-6</f>
         <v>18</v>
@@ -13007,6 +13058,9 @@
         <v>10</v>
       </c>
       <c r="G24" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="H24" s="1" t="s">
         <v>10</v>
       </c>
     </row>
@@ -13033,8 +13087,11 @@
       <c r="G25" s="1" t="s">
         <v>10</v>
       </c>
-    </row>
-    <row r="26" s="1" customFormat="true" ht="17" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="H25" s="1" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="26" s="1" customFormat="true" ht="16.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A26" s="6" t="n">
         <f aca="false">ROW()-6</f>
         <v>20</v>
@@ -13053,6 +13110,9 @@
         <v>10</v>
       </c>
       <c r="G26" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="H26" s="1" t="s">
         <v>10</v>
       </c>
     </row>
@@ -13079,8 +13139,11 @@
       <c r="G27" s="1" t="s">
         <v>10</v>
       </c>
-    </row>
-    <row r="28" s="1" customFormat="true" ht="17" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="H27" s="1" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="28" s="1" customFormat="true" ht="16.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A28" s="6" t="n">
         <f aca="false">ROW()-6</f>
         <v>22</v>
@@ -13099,6 +13162,9 @@
         <v>10</v>
       </c>
       <c r="G28" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="H28" s="1" t="s">
         <v>10</v>
       </c>
     </row>
@@ -13125,8 +13191,11 @@
       <c r="G29" s="1" t="s">
         <v>10</v>
       </c>
-    </row>
-    <row r="30" s="1" customFormat="true" ht="17" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="H29" s="1" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="30" s="1" customFormat="true" ht="16.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A30" s="6" t="n">
         <f aca="false">ROW()-6</f>
         <v>24</v>
@@ -13145,6 +13214,9 @@
         <v>10</v>
       </c>
       <c r="G30" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="H30" s="1" t="s">
         <v>10</v>
       </c>
     </row>
@@ -13171,8 +13243,11 @@
       <c r="G31" s="1" t="s">
         <v>10</v>
       </c>
-    </row>
-    <row r="32" s="1" customFormat="true" ht="17" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="H31" s="1" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="32" s="1" customFormat="true" ht="16.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A32" s="6" t="n">
         <f aca="false">ROW()-6</f>
         <v>26</v>
@@ -13193,8 +13268,11 @@
       <c r="G32" s="1" t="s">
         <v>10</v>
       </c>
-    </row>
-    <row r="33" s="1" customFormat="true" ht="17" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="H32" s="1" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="33" s="1" customFormat="true" ht="16.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A33" s="6" t="n">
         <f aca="false">ROW()-6</f>
         <v>27</v>
@@ -13215,8 +13293,11 @@
       <c r="G33" s="1" t="s">
         <v>10</v>
       </c>
-    </row>
-    <row r="34" s="1" customFormat="true" ht="17" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="H33" s="1" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="34" s="1" customFormat="true" ht="16.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A34" s="6" t="n">
         <f aca="false">ROW()-6</f>
         <v>28</v>
@@ -13235,6 +13316,9 @@
         <v>10</v>
       </c>
       <c r="G34" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="H34" s="1" t="s">
         <v>10</v>
       </c>
     </row>

--- a/07 ootareon 目標管理シート.xlsx
+++ b/07 ootareon 目標管理シート.xlsx
@@ -47,7 +47,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1443" uniqueCount="526">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1463" uniqueCount="526">
   <si>
     <t xml:space="preserve">学習目標自己チェックシート(ビジネスマナー)</t>
   </si>
@@ -2181,9 +2181,9 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>20</xdr:col>
-      <xdr:colOff>535320</xdr:colOff>
+      <xdr:colOff>534960</xdr:colOff>
       <xdr:row>6</xdr:row>
-      <xdr:rowOff>25200</xdr:rowOff>
+      <xdr:rowOff>24840</xdr:rowOff>
     </xdr:to>
     <xdr:sp>
       <xdr:nvSpPr>
@@ -2193,7 +2193,7 @@
       <xdr:spPr>
         <a:xfrm>
           <a:off x="14182920" y="0"/>
-          <a:ext cx="5001840" cy="1616040"/>
+          <a:ext cx="5001480" cy="1615680"/>
         </a:xfrm>
         <a:prstGeom prst="wedgeRoundRectCallout">
           <a:avLst>
@@ -2359,9 +2359,9 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>16</xdr:col>
-      <xdr:colOff>297360</xdr:colOff>
+      <xdr:colOff>297000</xdr:colOff>
       <xdr:row>6</xdr:row>
-      <xdr:rowOff>170280</xdr:rowOff>
+      <xdr:rowOff>169920</xdr:rowOff>
     </xdr:to>
     <xdr:sp>
       <xdr:nvSpPr>
@@ -2371,7 +2371,7 @@
       <xdr:spPr>
         <a:xfrm>
           <a:off x="11673360" y="145080"/>
-          <a:ext cx="5001840" cy="1616040"/>
+          <a:ext cx="5001480" cy="1615680"/>
         </a:xfrm>
         <a:prstGeom prst="wedgeRoundRectCallout">
           <a:avLst>
@@ -2537,9 +2537,9 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>16</xdr:col>
-      <xdr:colOff>297360</xdr:colOff>
+      <xdr:colOff>297000</xdr:colOff>
       <xdr:row>6</xdr:row>
-      <xdr:rowOff>170280</xdr:rowOff>
+      <xdr:rowOff>169920</xdr:rowOff>
     </xdr:to>
     <xdr:sp>
       <xdr:nvSpPr>
@@ -2549,7 +2549,7 @@
       <xdr:spPr>
         <a:xfrm>
           <a:off x="11620440" y="145080"/>
-          <a:ext cx="5002200" cy="1616040"/>
+          <a:ext cx="5001840" cy="1615680"/>
         </a:xfrm>
         <a:prstGeom prst="wedgeRoundRectCallout">
           <a:avLst>
@@ -2715,9 +2715,9 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>19</xdr:col>
-      <xdr:colOff>448200</xdr:colOff>
+      <xdr:colOff>447840</xdr:colOff>
       <xdr:row>6</xdr:row>
-      <xdr:rowOff>62640</xdr:rowOff>
+      <xdr:rowOff>62280</xdr:rowOff>
     </xdr:to>
     <xdr:sp>
       <xdr:nvSpPr>
@@ -2727,7 +2727,7 @@
       <xdr:spPr>
         <a:xfrm>
           <a:off x="13364640" y="0"/>
-          <a:ext cx="5059800" cy="1653480"/>
+          <a:ext cx="5059440" cy="1653120"/>
         </a:xfrm>
         <a:prstGeom prst="wedgeRoundRectCallout">
           <a:avLst>
@@ -2888,9 +2888,9 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>4</xdr:col>
-      <xdr:colOff>70560</xdr:colOff>
+      <xdr:colOff>70200</xdr:colOff>
       <xdr:row>85</xdr:row>
-      <xdr:rowOff>161280</xdr:rowOff>
+      <xdr:rowOff>160920</xdr:rowOff>
     </xdr:to>
     <xdr:sp>
       <xdr:nvSpPr>
@@ -2900,7 +2900,7 @@
       <xdr:spPr>
         <a:xfrm>
           <a:off x="11283480" y="16242120"/>
-          <a:ext cx="189720" cy="2220480"/>
+          <a:ext cx="189360" cy="2220120"/>
         </a:xfrm>
         <a:prstGeom prst="rightBrace">
           <a:avLst>
@@ -2940,9 +2940,9 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>15</xdr:col>
-      <xdr:colOff>399240</xdr:colOff>
+      <xdr:colOff>398880</xdr:colOff>
       <xdr:row>84</xdr:row>
-      <xdr:rowOff>122040</xdr:rowOff>
+      <xdr:rowOff>121680</xdr:rowOff>
     </xdr:to>
     <xdr:sp>
       <xdr:nvSpPr>
@@ -2952,7 +2952,7 @@
       <xdr:spPr>
         <a:xfrm>
           <a:off x="11702160" y="17062200"/>
-          <a:ext cx="4611960" cy="1151640"/>
+          <a:ext cx="4611600" cy="1151280"/>
         </a:xfrm>
         <a:prstGeom prst="ellipse">
           <a:avLst/>
@@ -3053,9 +3053,9 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>21</xdr:col>
-      <xdr:colOff>20880</xdr:colOff>
+      <xdr:colOff>20520</xdr:colOff>
       <xdr:row>6</xdr:row>
-      <xdr:rowOff>52200</xdr:rowOff>
+      <xdr:rowOff>51840</xdr:rowOff>
     </xdr:to>
     <xdr:sp>
       <xdr:nvSpPr>
@@ -3065,7 +3065,7 @@
       <xdr:spPr>
         <a:xfrm>
           <a:off x="13158360" y="0"/>
-          <a:ext cx="5023440" cy="1643040"/>
+          <a:ext cx="5023080" cy="1642680"/>
         </a:xfrm>
         <a:prstGeom prst="wedgeRoundRectCallout">
           <a:avLst>
@@ -3231,9 +3231,9 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>43</xdr:col>
-      <xdr:colOff>3960</xdr:colOff>
+      <xdr:colOff>3600</xdr:colOff>
       <xdr:row>13</xdr:row>
-      <xdr:rowOff>41400</xdr:rowOff>
+      <xdr:rowOff>41040</xdr:rowOff>
     </xdr:to>
     <xdr:sp>
       <xdr:nvSpPr>
@@ -3243,7 +3243,7 @@
       <xdr:spPr>
         <a:xfrm>
           <a:off x="28142280" y="0"/>
-          <a:ext cx="5059440" cy="3076200"/>
+          <a:ext cx="5059080" cy="3075840"/>
         </a:xfrm>
         <a:prstGeom prst="wedgeRoundRectCallout">
           <a:avLst>
@@ -3409,9 +3409,9 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>36</xdr:col>
-      <xdr:colOff>52560</xdr:colOff>
+      <xdr:colOff>52200</xdr:colOff>
       <xdr:row>11</xdr:row>
-      <xdr:rowOff>57600</xdr:rowOff>
+      <xdr:rowOff>57240</xdr:rowOff>
     </xdr:to>
     <xdr:sp>
       <xdr:nvSpPr>
@@ -3421,7 +3421,7 @@
       <xdr:spPr>
         <a:xfrm>
           <a:off x="23848200" y="16200"/>
-          <a:ext cx="5059440" cy="2664720"/>
+          <a:ext cx="5059080" cy="2664360"/>
         </a:xfrm>
         <a:prstGeom prst="wedgeRoundRectCallout">
           <a:avLst>
@@ -12551,10 +12551,10 @@
     <tabColor rgb="FF9DC3E6"/>
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:H34"/>
+  <dimension ref="A1:I34"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="pageBreakPreview" topLeftCell="A1" colorId="64" zoomScale="80" zoomScaleNormal="85" zoomScalePageLayoutView="80" workbookViewId="0">
-      <selection pane="topLeft" activeCell="G5" activeCellId="0" sqref="G5"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="pageBreakPreview" topLeftCell="A6" colorId="64" zoomScale="80" zoomScaleNormal="85" zoomScalePageLayoutView="80" workbookViewId="0">
+      <selection pane="topLeft" activeCell="G6" activeCellId="0" sqref="G6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.45703125" defaultRowHeight="16.5" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -12634,6 +12634,9 @@
       <c r="H7" s="1" t="s">
         <v>10</v>
       </c>
+      <c r="I7" s="1" t="s">
+        <v>10</v>
+      </c>
     </row>
     <row r="8" customFormat="false" ht="16.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A8" s="6" t="n">
@@ -12659,6 +12662,9 @@
       <c r="H8" s="1" t="s">
         <v>10</v>
       </c>
+      <c r="I8" s="1" t="s">
+        <v>10</v>
+      </c>
     </row>
     <row r="9" customFormat="false" ht="16.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A9" s="6" t="n">
@@ -12684,6 +12690,9 @@
       <c r="H9" s="1" t="s">
         <v>10</v>
       </c>
+      <c r="I9" s="1" t="s">
+        <v>10</v>
+      </c>
     </row>
     <row r="10" customFormat="false" ht="16.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A10" s="6" t="n">
@@ -12709,6 +12718,9 @@
       <c r="H10" s="1" t="n">
         <v>0</v>
       </c>
+      <c r="I10" s="1" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="11" customFormat="false" ht="16.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A11" s="6" t="n">
@@ -12734,6 +12746,9 @@
       <c r="H11" s="1" t="n">
         <v>0</v>
       </c>
+      <c r="I11" s="1" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="12" customFormat="false" ht="16.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A12" s="6" t="n">
@@ -12759,6 +12774,9 @@
       <c r="H12" s="1" t="s">
         <v>10</v>
       </c>
+      <c r="I12" s="1" t="s">
+        <v>10</v>
+      </c>
     </row>
     <row r="13" customFormat="false" ht="16.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A13" s="6" t="n">
@@ -12786,6 +12804,9 @@
       <c r="H13" s="1" t="s">
         <v>10</v>
       </c>
+      <c r="I13" s="1" t="s">
+        <v>10</v>
+      </c>
     </row>
     <row r="14" customFormat="false" ht="16.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A14" s="6" t="n">
@@ -12811,6 +12832,9 @@
       <c r="H14" s="1" t="n">
         <v>0</v>
       </c>
+      <c r="I14" s="1" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="15" customFormat="false" ht="16.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A15" s="6" t="n">
@@ -12836,6 +12860,9 @@
       <c r="H15" s="1" t="n">
         <v>0</v>
       </c>
+      <c r="I15" s="1" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="16" customFormat="false" ht="16.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A16" s="6" t="n">
@@ -12859,6 +12886,9 @@
         <v>0</v>
       </c>
       <c r="H16" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="I16" s="1" t="n">
         <v>0</v>
       </c>
     </row>
@@ -12886,6 +12916,9 @@
       <c r="H17" s="1" t="n">
         <v>0</v>
       </c>
+      <c r="I17" s="1" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="18" customFormat="false" ht="16.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A18" s="6" t="n">
@@ -12911,6 +12944,9 @@
       <c r="H18" s="1" t="s">
         <v>10</v>
       </c>
+      <c r="I18" s="1" t="s">
+        <v>10</v>
+      </c>
     </row>
     <row r="19" s="1" customFormat="true" ht="16.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A19" s="6" t="n">
@@ -12938,6 +12974,9 @@
       <c r="H19" s="1" t="n">
         <v>0</v>
       </c>
+      <c r="I19" s="1" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="20" s="1" customFormat="true" ht="16.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A20" s="6" t="n">
@@ -12963,6 +13002,9 @@
       <c r="H20" s="1" t="n">
         <v>0</v>
       </c>
+      <c r="I20" s="1" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="21" s="1" customFormat="true" ht="16.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A21" s="6" t="n">
@@ -12988,6 +13030,9 @@
       <c r="H21" s="1" t="s">
         <v>10</v>
       </c>
+      <c r="I21" s="1" t="s">
+        <v>10</v>
+      </c>
     </row>
     <row r="22" s="1" customFormat="true" ht="16.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A22" s="6" t="n">
@@ -13013,6 +13058,9 @@
       <c r="H22" s="1" t="s">
         <v>10</v>
       </c>
+      <c r="I22" s="1" t="s">
+        <v>10</v>
+      </c>
     </row>
     <row r="23" s="1" customFormat="true" ht="16.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A23" s="6" t="n">
@@ -13038,6 +13086,9 @@
       <c r="H23" s="1" t="s">
         <v>10</v>
       </c>
+      <c r="I23" s="1" t="s">
+        <v>10</v>
+      </c>
     </row>
     <row r="24" s="1" customFormat="true" ht="16.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A24" s="6" t="n">
@@ -13063,6 +13114,9 @@
       <c r="H24" s="1" t="s">
         <v>10</v>
       </c>
+      <c r="I24" s="1" t="s">
+        <v>10</v>
+      </c>
     </row>
     <row r="25" s="1" customFormat="true" ht="16.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A25" s="6" t="n">
@@ -13090,6 +13144,9 @@
       <c r="H25" s="1" t="s">
         <v>10</v>
       </c>
+      <c r="I25" s="1" t="s">
+        <v>10</v>
+      </c>
     </row>
     <row r="26" s="1" customFormat="true" ht="16.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A26" s="6" t="n">
@@ -13115,6 +13172,9 @@
       <c r="H26" s="1" t="s">
         <v>10</v>
       </c>
+      <c r="I26" s="1" t="s">
+        <v>10</v>
+      </c>
     </row>
     <row r="27" s="1" customFormat="true" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A27" s="6" t="n">
@@ -13142,6 +13202,9 @@
       <c r="H27" s="1" t="s">
         <v>10</v>
       </c>
+      <c r="I27" s="1" t="s">
+        <v>10</v>
+      </c>
     </row>
     <row r="28" s="1" customFormat="true" ht="16.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A28" s="6" t="n">
@@ -13167,6 +13230,9 @@
       <c r="H28" s="1" t="s">
         <v>10</v>
       </c>
+      <c r="I28" s="1" t="s">
+        <v>10</v>
+      </c>
     </row>
     <row r="29" s="1" customFormat="true" ht="16.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A29" s="6" t="n">
@@ -13194,6 +13260,9 @@
       <c r="H29" s="1" t="s">
         <v>10</v>
       </c>
+      <c r="I29" s="1" t="s">
+        <v>10</v>
+      </c>
     </row>
     <row r="30" s="1" customFormat="true" ht="16.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A30" s="6" t="n">
@@ -13219,6 +13288,9 @@
       <c r="H30" s="1" t="s">
         <v>10</v>
       </c>
+      <c r="I30" s="1" t="s">
+        <v>10</v>
+      </c>
     </row>
     <row r="31" s="1" customFormat="true" ht="16.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A31" s="6" t="n">
@@ -13246,6 +13318,9 @@
       <c r="H31" s="1" t="s">
         <v>10</v>
       </c>
+      <c r="I31" s="1" t="s">
+        <v>10</v>
+      </c>
     </row>
     <row r="32" s="1" customFormat="true" ht="16.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A32" s="6" t="n">
@@ -13271,6 +13346,9 @@
       <c r="H32" s="1" t="s">
         <v>10</v>
       </c>
+      <c r="I32" s="1" t="s">
+        <v>10</v>
+      </c>
     </row>
     <row r="33" s="1" customFormat="true" ht="16.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A33" s="6" t="n">
@@ -13296,6 +13374,9 @@
       <c r="H33" s="1" t="s">
         <v>10</v>
       </c>
+      <c r="I33" s="1" t="s">
+        <v>10</v>
+      </c>
     </row>
     <row r="34" s="1" customFormat="true" ht="16.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A34" s="6" t="n">
@@ -13319,6 +13400,9 @@
         <v>10</v>
       </c>
       <c r="H34" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="I34" s="1" t="s">
         <v>10</v>
       </c>
     </row>

--- a/07 ootareon 目標管理シート.xlsx
+++ b/07 ootareon 目標管理シート.xlsx
@@ -47,7 +47,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1463" uniqueCount="526">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1483" uniqueCount="526">
   <si>
     <t xml:space="preserve">学習目標自己チェックシート(ビジネスマナー)</t>
   </si>
@@ -2181,9 +2181,9 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>20</xdr:col>
-      <xdr:colOff>534960</xdr:colOff>
+      <xdr:colOff>534600</xdr:colOff>
       <xdr:row>6</xdr:row>
-      <xdr:rowOff>24840</xdr:rowOff>
+      <xdr:rowOff>24480</xdr:rowOff>
     </xdr:to>
     <xdr:sp>
       <xdr:nvSpPr>
@@ -2193,7 +2193,7 @@
       <xdr:spPr>
         <a:xfrm>
           <a:off x="14182920" y="0"/>
-          <a:ext cx="5001480" cy="1615680"/>
+          <a:ext cx="5001120" cy="1615320"/>
         </a:xfrm>
         <a:prstGeom prst="wedgeRoundRectCallout">
           <a:avLst>
@@ -2359,9 +2359,9 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>16</xdr:col>
-      <xdr:colOff>297000</xdr:colOff>
+      <xdr:colOff>296640</xdr:colOff>
       <xdr:row>6</xdr:row>
-      <xdr:rowOff>169920</xdr:rowOff>
+      <xdr:rowOff>169560</xdr:rowOff>
     </xdr:to>
     <xdr:sp>
       <xdr:nvSpPr>
@@ -2371,7 +2371,7 @@
       <xdr:spPr>
         <a:xfrm>
           <a:off x="11673360" y="145080"/>
-          <a:ext cx="5001480" cy="1615680"/>
+          <a:ext cx="5001120" cy="1615320"/>
         </a:xfrm>
         <a:prstGeom prst="wedgeRoundRectCallout">
           <a:avLst>
@@ -2537,9 +2537,9 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>16</xdr:col>
-      <xdr:colOff>297000</xdr:colOff>
+      <xdr:colOff>296640</xdr:colOff>
       <xdr:row>6</xdr:row>
-      <xdr:rowOff>169920</xdr:rowOff>
+      <xdr:rowOff>169560</xdr:rowOff>
     </xdr:to>
     <xdr:sp>
       <xdr:nvSpPr>
@@ -2549,7 +2549,7 @@
       <xdr:spPr>
         <a:xfrm>
           <a:off x="11620440" y="145080"/>
-          <a:ext cx="5001840" cy="1615680"/>
+          <a:ext cx="5001480" cy="1615320"/>
         </a:xfrm>
         <a:prstGeom prst="wedgeRoundRectCallout">
           <a:avLst>
@@ -2715,9 +2715,9 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>19</xdr:col>
-      <xdr:colOff>447840</xdr:colOff>
+      <xdr:colOff>447480</xdr:colOff>
       <xdr:row>6</xdr:row>
-      <xdr:rowOff>62280</xdr:rowOff>
+      <xdr:rowOff>61920</xdr:rowOff>
     </xdr:to>
     <xdr:sp>
       <xdr:nvSpPr>
@@ -2727,7 +2727,7 @@
       <xdr:spPr>
         <a:xfrm>
           <a:off x="13364640" y="0"/>
-          <a:ext cx="5059440" cy="1653120"/>
+          <a:ext cx="5059080" cy="1652760"/>
         </a:xfrm>
         <a:prstGeom prst="wedgeRoundRectCallout">
           <a:avLst>
@@ -2888,9 +2888,9 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>4</xdr:col>
-      <xdr:colOff>70200</xdr:colOff>
+      <xdr:colOff>69840</xdr:colOff>
       <xdr:row>85</xdr:row>
-      <xdr:rowOff>160920</xdr:rowOff>
+      <xdr:rowOff>160560</xdr:rowOff>
     </xdr:to>
     <xdr:sp>
       <xdr:nvSpPr>
@@ -2900,7 +2900,7 @@
       <xdr:spPr>
         <a:xfrm>
           <a:off x="11283480" y="16242120"/>
-          <a:ext cx="189360" cy="2220120"/>
+          <a:ext cx="189000" cy="2219760"/>
         </a:xfrm>
         <a:prstGeom prst="rightBrace">
           <a:avLst>
@@ -2940,9 +2940,9 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>15</xdr:col>
-      <xdr:colOff>398880</xdr:colOff>
+      <xdr:colOff>398520</xdr:colOff>
       <xdr:row>84</xdr:row>
-      <xdr:rowOff>121680</xdr:rowOff>
+      <xdr:rowOff>121320</xdr:rowOff>
     </xdr:to>
     <xdr:sp>
       <xdr:nvSpPr>
@@ -2952,7 +2952,7 @@
       <xdr:spPr>
         <a:xfrm>
           <a:off x="11702160" y="17062200"/>
-          <a:ext cx="4611600" cy="1151280"/>
+          <a:ext cx="4611240" cy="1150920"/>
         </a:xfrm>
         <a:prstGeom prst="ellipse">
           <a:avLst/>
@@ -3053,9 +3053,9 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>21</xdr:col>
-      <xdr:colOff>20520</xdr:colOff>
+      <xdr:colOff>20160</xdr:colOff>
       <xdr:row>6</xdr:row>
-      <xdr:rowOff>51840</xdr:rowOff>
+      <xdr:rowOff>51480</xdr:rowOff>
     </xdr:to>
     <xdr:sp>
       <xdr:nvSpPr>
@@ -3065,7 +3065,7 @@
       <xdr:spPr>
         <a:xfrm>
           <a:off x="13158360" y="0"/>
-          <a:ext cx="5023080" cy="1642680"/>
+          <a:ext cx="5022720" cy="1642320"/>
         </a:xfrm>
         <a:prstGeom prst="wedgeRoundRectCallout">
           <a:avLst>
@@ -3231,9 +3231,9 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>43</xdr:col>
-      <xdr:colOff>3600</xdr:colOff>
+      <xdr:colOff>3240</xdr:colOff>
       <xdr:row>13</xdr:row>
-      <xdr:rowOff>41040</xdr:rowOff>
+      <xdr:rowOff>40680</xdr:rowOff>
     </xdr:to>
     <xdr:sp>
       <xdr:nvSpPr>
@@ -3243,7 +3243,7 @@
       <xdr:spPr>
         <a:xfrm>
           <a:off x="28142280" y="0"/>
-          <a:ext cx="5059080" cy="3075840"/>
+          <a:ext cx="5058720" cy="3075480"/>
         </a:xfrm>
         <a:prstGeom prst="wedgeRoundRectCallout">
           <a:avLst>
@@ -3409,9 +3409,9 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>36</xdr:col>
-      <xdr:colOff>52200</xdr:colOff>
+      <xdr:colOff>51840</xdr:colOff>
       <xdr:row>11</xdr:row>
-      <xdr:rowOff>57240</xdr:rowOff>
+      <xdr:rowOff>56880</xdr:rowOff>
     </xdr:to>
     <xdr:sp>
       <xdr:nvSpPr>
@@ -3421,7 +3421,7 @@
       <xdr:spPr>
         <a:xfrm>
           <a:off x="23848200" y="16200"/>
-          <a:ext cx="5059080" cy="2664360"/>
+          <a:ext cx="5058720" cy="2664000"/>
         </a:xfrm>
         <a:prstGeom prst="wedgeRoundRectCallout">
           <a:avLst>
@@ -12551,10 +12551,10 @@
     <tabColor rgb="FF9DC3E6"/>
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:I34"/>
+  <dimension ref="A1:J34"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="pageBreakPreview" topLeftCell="A6" colorId="64" zoomScale="80" zoomScaleNormal="85" zoomScalePageLayoutView="80" workbookViewId="0">
-      <selection pane="topLeft" activeCell="G6" activeCellId="0" sqref="G6"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="pageBreakPreview" topLeftCell="C1" colorId="64" zoomScale="80" zoomScaleNormal="85" zoomScalePageLayoutView="80" workbookViewId="0">
+      <selection pane="topLeft" activeCell="I32" activeCellId="0" sqref="I32"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.45703125" defaultRowHeight="16.5" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -12637,6 +12637,9 @@
       <c r="I7" s="1" t="s">
         <v>10</v>
       </c>
+      <c r="J7" s="1" t="s">
+        <v>10</v>
+      </c>
     </row>
     <row r="8" customFormat="false" ht="16.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A8" s="6" t="n">
@@ -12665,6 +12668,9 @@
       <c r="I8" s="1" t="s">
         <v>10</v>
       </c>
+      <c r="J8" s="1" t="s">
+        <v>10</v>
+      </c>
     </row>
     <row r="9" customFormat="false" ht="16.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A9" s="6" t="n">
@@ -12693,6 +12699,9 @@
       <c r="I9" s="1" t="s">
         <v>10</v>
       </c>
+      <c r="J9" s="1" t="s">
+        <v>10</v>
+      </c>
     </row>
     <row r="10" customFormat="false" ht="16.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A10" s="6" t="n">
@@ -12721,6 +12730,9 @@
       <c r="I10" s="1" t="n">
         <v>0</v>
       </c>
+      <c r="J10" s="1" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="11" customFormat="false" ht="16.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A11" s="6" t="n">
@@ -12749,6 +12761,9 @@
       <c r="I11" s="1" t="n">
         <v>0</v>
       </c>
+      <c r="J11" s="1" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="12" customFormat="false" ht="16.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A12" s="6" t="n">
@@ -12777,6 +12792,9 @@
       <c r="I12" s="1" t="s">
         <v>10</v>
       </c>
+      <c r="J12" s="1" t="s">
+        <v>10</v>
+      </c>
     </row>
     <row r="13" customFormat="false" ht="16.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A13" s="6" t="n">
@@ -12807,6 +12825,9 @@
       <c r="I13" s="1" t="s">
         <v>10</v>
       </c>
+      <c r="J13" s="1" t="s">
+        <v>10</v>
+      </c>
     </row>
     <row r="14" customFormat="false" ht="16.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A14" s="6" t="n">
@@ -12835,6 +12856,9 @@
       <c r="I14" s="1" t="n">
         <v>0</v>
       </c>
+      <c r="J14" s="1" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="15" customFormat="false" ht="16.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A15" s="6" t="n">
@@ -12863,6 +12887,9 @@
       <c r="I15" s="1" t="n">
         <v>0</v>
       </c>
+      <c r="J15" s="1" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="16" customFormat="false" ht="16.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A16" s="6" t="n">
@@ -12889,6 +12916,9 @@
         <v>0</v>
       </c>
       <c r="I16" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="J16" s="1" t="n">
         <v>0</v>
       </c>
     </row>
@@ -12919,6 +12949,9 @@
       <c r="I17" s="1" t="n">
         <v>0</v>
       </c>
+      <c r="J17" s="1" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="18" customFormat="false" ht="16.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A18" s="6" t="n">
@@ -12947,6 +12980,9 @@
       <c r="I18" s="1" t="s">
         <v>10</v>
       </c>
+      <c r="J18" s="1" t="s">
+        <v>10</v>
+      </c>
     </row>
     <row r="19" s="1" customFormat="true" ht="16.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A19" s="6" t="n">
@@ -12977,6 +13013,9 @@
       <c r="I19" s="1" t="n">
         <v>0</v>
       </c>
+      <c r="J19" s="1" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="20" s="1" customFormat="true" ht="16.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A20" s="6" t="n">
@@ -13005,6 +13044,9 @@
       <c r="I20" s="1" t="n">
         <v>0</v>
       </c>
+      <c r="J20" s="1" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="21" s="1" customFormat="true" ht="16.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A21" s="6" t="n">
@@ -13033,6 +13075,9 @@
       <c r="I21" s="1" t="s">
         <v>10</v>
       </c>
+      <c r="J21" s="1" t="s">
+        <v>10</v>
+      </c>
     </row>
     <row r="22" s="1" customFormat="true" ht="16.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A22" s="6" t="n">
@@ -13061,6 +13106,9 @@
       <c r="I22" s="1" t="s">
         <v>10</v>
       </c>
+      <c r="J22" s="1" t="s">
+        <v>10</v>
+      </c>
     </row>
     <row r="23" s="1" customFormat="true" ht="16.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A23" s="6" t="n">
@@ -13089,6 +13137,9 @@
       <c r="I23" s="1" t="s">
         <v>10</v>
       </c>
+      <c r="J23" s="1" t="s">
+        <v>10</v>
+      </c>
     </row>
     <row r="24" s="1" customFormat="true" ht="16.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A24" s="6" t="n">
@@ -13117,6 +13168,9 @@
       <c r="I24" s="1" t="s">
         <v>10</v>
       </c>
+      <c r="J24" s="1" t="s">
+        <v>10</v>
+      </c>
     </row>
     <row r="25" s="1" customFormat="true" ht="16.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A25" s="6" t="n">
@@ -13147,6 +13201,9 @@
       <c r="I25" s="1" t="s">
         <v>10</v>
       </c>
+      <c r="J25" s="1" t="s">
+        <v>10</v>
+      </c>
     </row>
     <row r="26" s="1" customFormat="true" ht="16.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A26" s="6" t="n">
@@ -13175,6 +13232,9 @@
       <c r="I26" s="1" t="s">
         <v>10</v>
       </c>
+      <c r="J26" s="1" t="s">
+        <v>10</v>
+      </c>
     </row>
     <row r="27" s="1" customFormat="true" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A27" s="6" t="n">
@@ -13205,6 +13265,9 @@
       <c r="I27" s="1" t="s">
         <v>10</v>
       </c>
+      <c r="J27" s="1" t="s">
+        <v>10</v>
+      </c>
     </row>
     <row r="28" s="1" customFormat="true" ht="16.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A28" s="6" t="n">
@@ -13233,6 +13296,9 @@
       <c r="I28" s="1" t="s">
         <v>10</v>
       </c>
+      <c r="J28" s="1" t="s">
+        <v>10</v>
+      </c>
     </row>
     <row r="29" s="1" customFormat="true" ht="16.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A29" s="6" t="n">
@@ -13263,6 +13329,9 @@
       <c r="I29" s="1" t="s">
         <v>10</v>
       </c>
+      <c r="J29" s="1" t="s">
+        <v>10</v>
+      </c>
     </row>
     <row r="30" s="1" customFormat="true" ht="16.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A30" s="6" t="n">
@@ -13291,6 +13360,9 @@
       <c r="I30" s="1" t="s">
         <v>10</v>
       </c>
+      <c r="J30" s="1" t="s">
+        <v>10</v>
+      </c>
     </row>
     <row r="31" s="1" customFormat="true" ht="16.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A31" s="6" t="n">
@@ -13321,6 +13393,9 @@
       <c r="I31" s="1" t="s">
         <v>10</v>
       </c>
+      <c r="J31" s="1" t="s">
+        <v>10</v>
+      </c>
     </row>
     <row r="32" s="1" customFormat="true" ht="16.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A32" s="6" t="n">
@@ -13349,6 +13424,9 @@
       <c r="I32" s="1" t="s">
         <v>10</v>
       </c>
+      <c r="J32" s="1" t="s">
+        <v>10</v>
+      </c>
     </row>
     <row r="33" s="1" customFormat="true" ht="16.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A33" s="6" t="n">
@@ -13377,6 +13455,9 @@
       <c r="I33" s="1" t="s">
         <v>10</v>
       </c>
+      <c r="J33" s="1" t="s">
+        <v>10</v>
+      </c>
     </row>
     <row r="34" s="1" customFormat="true" ht="16.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A34" s="6" t="n">
@@ -13403,6 +13484,9 @@
         <v>10</v>
       </c>
       <c r="I34" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="J34" s="1" t="s">
         <v>10</v>
       </c>
     </row>

--- a/07 ootareon 目標管理シート.xlsx
+++ b/07 ootareon 目標管理シート.xlsx
@@ -47,7 +47,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1483" uniqueCount="526">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1503" uniqueCount="526">
   <si>
     <t xml:space="preserve">学習目標自己チェックシート(ビジネスマナー)</t>
   </si>
@@ -2181,9 +2181,9 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>20</xdr:col>
-      <xdr:colOff>534600</xdr:colOff>
+      <xdr:colOff>534240</xdr:colOff>
       <xdr:row>6</xdr:row>
-      <xdr:rowOff>24480</xdr:rowOff>
+      <xdr:rowOff>24120</xdr:rowOff>
     </xdr:to>
     <xdr:sp>
       <xdr:nvSpPr>
@@ -2193,7 +2193,7 @@
       <xdr:spPr>
         <a:xfrm>
           <a:off x="14182920" y="0"/>
-          <a:ext cx="5001120" cy="1615320"/>
+          <a:ext cx="5000760" cy="1614960"/>
         </a:xfrm>
         <a:prstGeom prst="wedgeRoundRectCallout">
           <a:avLst>
@@ -2359,9 +2359,9 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>16</xdr:col>
-      <xdr:colOff>296640</xdr:colOff>
+      <xdr:colOff>296280</xdr:colOff>
       <xdr:row>6</xdr:row>
-      <xdr:rowOff>169560</xdr:rowOff>
+      <xdr:rowOff>169200</xdr:rowOff>
     </xdr:to>
     <xdr:sp>
       <xdr:nvSpPr>
@@ -2371,7 +2371,7 @@
       <xdr:spPr>
         <a:xfrm>
           <a:off x="11673360" y="145080"/>
-          <a:ext cx="5001120" cy="1615320"/>
+          <a:ext cx="5000760" cy="1614960"/>
         </a:xfrm>
         <a:prstGeom prst="wedgeRoundRectCallout">
           <a:avLst>
@@ -2537,9 +2537,9 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>16</xdr:col>
-      <xdr:colOff>296640</xdr:colOff>
+      <xdr:colOff>296280</xdr:colOff>
       <xdr:row>6</xdr:row>
-      <xdr:rowOff>169560</xdr:rowOff>
+      <xdr:rowOff>169200</xdr:rowOff>
     </xdr:to>
     <xdr:sp>
       <xdr:nvSpPr>
@@ -2549,7 +2549,7 @@
       <xdr:spPr>
         <a:xfrm>
           <a:off x="11620440" y="145080"/>
-          <a:ext cx="5001480" cy="1615320"/>
+          <a:ext cx="5001120" cy="1614960"/>
         </a:xfrm>
         <a:prstGeom prst="wedgeRoundRectCallout">
           <a:avLst>
@@ -2715,9 +2715,9 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>19</xdr:col>
-      <xdr:colOff>447480</xdr:colOff>
+      <xdr:colOff>447120</xdr:colOff>
       <xdr:row>6</xdr:row>
-      <xdr:rowOff>61920</xdr:rowOff>
+      <xdr:rowOff>61560</xdr:rowOff>
     </xdr:to>
     <xdr:sp>
       <xdr:nvSpPr>
@@ -2727,7 +2727,7 @@
       <xdr:spPr>
         <a:xfrm>
           <a:off x="13364640" y="0"/>
-          <a:ext cx="5059080" cy="1652760"/>
+          <a:ext cx="5058720" cy="1652400"/>
         </a:xfrm>
         <a:prstGeom prst="wedgeRoundRectCallout">
           <a:avLst>
@@ -2888,9 +2888,9 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>4</xdr:col>
-      <xdr:colOff>69840</xdr:colOff>
+      <xdr:colOff>69480</xdr:colOff>
       <xdr:row>85</xdr:row>
-      <xdr:rowOff>160560</xdr:rowOff>
+      <xdr:rowOff>160200</xdr:rowOff>
     </xdr:to>
     <xdr:sp>
       <xdr:nvSpPr>
@@ -2900,7 +2900,7 @@
       <xdr:spPr>
         <a:xfrm>
           <a:off x="11283480" y="16242120"/>
-          <a:ext cx="189000" cy="2219760"/>
+          <a:ext cx="188640" cy="2219400"/>
         </a:xfrm>
         <a:prstGeom prst="rightBrace">
           <a:avLst>
@@ -2940,9 +2940,9 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>15</xdr:col>
-      <xdr:colOff>398520</xdr:colOff>
+      <xdr:colOff>398160</xdr:colOff>
       <xdr:row>84</xdr:row>
-      <xdr:rowOff>121320</xdr:rowOff>
+      <xdr:rowOff>120960</xdr:rowOff>
     </xdr:to>
     <xdr:sp>
       <xdr:nvSpPr>
@@ -2952,7 +2952,7 @@
       <xdr:spPr>
         <a:xfrm>
           <a:off x="11702160" y="17062200"/>
-          <a:ext cx="4611240" cy="1150920"/>
+          <a:ext cx="4610880" cy="1150560"/>
         </a:xfrm>
         <a:prstGeom prst="ellipse">
           <a:avLst/>
@@ -3053,9 +3053,9 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>21</xdr:col>
-      <xdr:colOff>20160</xdr:colOff>
+      <xdr:colOff>19800</xdr:colOff>
       <xdr:row>6</xdr:row>
-      <xdr:rowOff>51480</xdr:rowOff>
+      <xdr:rowOff>51120</xdr:rowOff>
     </xdr:to>
     <xdr:sp>
       <xdr:nvSpPr>
@@ -3065,7 +3065,7 @@
       <xdr:spPr>
         <a:xfrm>
           <a:off x="13158360" y="0"/>
-          <a:ext cx="5022720" cy="1642320"/>
+          <a:ext cx="5022360" cy="1641960"/>
         </a:xfrm>
         <a:prstGeom prst="wedgeRoundRectCallout">
           <a:avLst>
@@ -3231,9 +3231,9 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>43</xdr:col>
-      <xdr:colOff>3240</xdr:colOff>
+      <xdr:colOff>2880</xdr:colOff>
       <xdr:row>13</xdr:row>
-      <xdr:rowOff>40680</xdr:rowOff>
+      <xdr:rowOff>40320</xdr:rowOff>
     </xdr:to>
     <xdr:sp>
       <xdr:nvSpPr>
@@ -3243,7 +3243,7 @@
       <xdr:spPr>
         <a:xfrm>
           <a:off x="28142280" y="0"/>
-          <a:ext cx="5058720" cy="3075480"/>
+          <a:ext cx="5058360" cy="3075120"/>
         </a:xfrm>
         <a:prstGeom prst="wedgeRoundRectCallout">
           <a:avLst>
@@ -3409,9 +3409,9 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>36</xdr:col>
-      <xdr:colOff>51840</xdr:colOff>
+      <xdr:colOff>51480</xdr:colOff>
       <xdr:row>11</xdr:row>
-      <xdr:rowOff>56880</xdr:rowOff>
+      <xdr:rowOff>56520</xdr:rowOff>
     </xdr:to>
     <xdr:sp>
       <xdr:nvSpPr>
@@ -3421,7 +3421,7 @@
       <xdr:spPr>
         <a:xfrm>
           <a:off x="23848200" y="16200"/>
-          <a:ext cx="5058720" cy="2664000"/>
+          <a:ext cx="5058360" cy="2663640"/>
         </a:xfrm>
         <a:prstGeom prst="wedgeRoundRectCallout">
           <a:avLst>
@@ -12551,10 +12551,10 @@
     <tabColor rgb="FF9DC3E6"/>
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:J34"/>
+  <dimension ref="A1:K34"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="pageBreakPreview" topLeftCell="C1" colorId="64" zoomScale="80" zoomScaleNormal="85" zoomScalePageLayoutView="80" workbookViewId="0">
-      <selection pane="topLeft" activeCell="I32" activeCellId="0" sqref="I32"/>
+      <selection pane="topLeft" activeCell="L29" activeCellId="0" sqref="L29"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.45703125" defaultRowHeight="16.5" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -12640,6 +12640,9 @@
       <c r="J7" s="1" t="s">
         <v>10</v>
       </c>
+      <c r="K7" s="1" t="s">
+        <v>10</v>
+      </c>
     </row>
     <row r="8" customFormat="false" ht="16.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A8" s="6" t="n">
@@ -12671,6 +12674,9 @@
       <c r="J8" s="1" t="s">
         <v>10</v>
       </c>
+      <c r="K8" s="1" t="s">
+        <v>10</v>
+      </c>
     </row>
     <row r="9" customFormat="false" ht="16.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A9" s="6" t="n">
@@ -12702,6 +12708,9 @@
       <c r="J9" s="1" t="s">
         <v>10</v>
       </c>
+      <c r="K9" s="1" t="s">
+        <v>10</v>
+      </c>
     </row>
     <row r="10" customFormat="false" ht="16.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A10" s="6" t="n">
@@ -12733,6 +12742,9 @@
       <c r="J10" s="1" t="n">
         <v>0</v>
       </c>
+      <c r="K10" s="1" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="11" customFormat="false" ht="16.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A11" s="6" t="n">
@@ -12764,6 +12776,9 @@
       <c r="J11" s="1" t="n">
         <v>0</v>
       </c>
+      <c r="K11" s="1" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="12" customFormat="false" ht="16.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A12" s="6" t="n">
@@ -12795,6 +12810,9 @@
       <c r="J12" s="1" t="s">
         <v>10</v>
       </c>
+      <c r="K12" s="1" t="s">
+        <v>10</v>
+      </c>
     </row>
     <row r="13" customFormat="false" ht="16.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A13" s="6" t="n">
@@ -12828,6 +12846,9 @@
       <c r="J13" s="1" t="s">
         <v>10</v>
       </c>
+      <c r="K13" s="1" t="s">
+        <v>10</v>
+      </c>
     </row>
     <row r="14" customFormat="false" ht="16.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A14" s="6" t="n">
@@ -12859,6 +12880,9 @@
       <c r="J14" s="1" t="n">
         <v>0</v>
       </c>
+      <c r="K14" s="1" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="15" customFormat="false" ht="16.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A15" s="6" t="n">
@@ -12890,6 +12914,9 @@
       <c r="J15" s="1" t="n">
         <v>0</v>
       </c>
+      <c r="K15" s="1" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="16" customFormat="false" ht="16.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A16" s="6" t="n">
@@ -12919,6 +12946,9 @@
         <v>0</v>
       </c>
       <c r="J16" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="K16" s="1" t="n">
         <v>0</v>
       </c>
     </row>
@@ -12952,6 +12982,9 @@
       <c r="J17" s="1" t="n">
         <v>0</v>
       </c>
+      <c r="K17" s="1" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="18" customFormat="false" ht="16.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A18" s="6" t="n">
@@ -12983,6 +13016,9 @@
       <c r="J18" s="1" t="s">
         <v>10</v>
       </c>
+      <c r="K18" s="1" t="s">
+        <v>10</v>
+      </c>
     </row>
     <row r="19" s="1" customFormat="true" ht="16.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A19" s="6" t="n">
@@ -13016,6 +13052,9 @@
       <c r="J19" s="1" t="n">
         <v>0</v>
       </c>
+      <c r="K19" s="1" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="20" s="1" customFormat="true" ht="16.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A20" s="6" t="n">
@@ -13047,6 +13086,9 @@
       <c r="J20" s="1" t="n">
         <v>0</v>
       </c>
+      <c r="K20" s="1" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="21" s="1" customFormat="true" ht="16.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A21" s="6" t="n">
@@ -13078,6 +13120,9 @@
       <c r="J21" s="1" t="s">
         <v>10</v>
       </c>
+      <c r="K21" s="1" t="s">
+        <v>10</v>
+      </c>
     </row>
     <row r="22" s="1" customFormat="true" ht="16.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A22" s="6" t="n">
@@ -13109,6 +13154,9 @@
       <c r="J22" s="1" t="s">
         <v>10</v>
       </c>
+      <c r="K22" s="1" t="s">
+        <v>10</v>
+      </c>
     </row>
     <row r="23" s="1" customFormat="true" ht="16.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A23" s="6" t="n">
@@ -13140,6 +13188,9 @@
       <c r="J23" s="1" t="s">
         <v>10</v>
       </c>
+      <c r="K23" s="1" t="s">
+        <v>10</v>
+      </c>
     </row>
     <row r="24" s="1" customFormat="true" ht="16.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A24" s="6" t="n">
@@ -13171,6 +13222,9 @@
       <c r="J24" s="1" t="s">
         <v>10</v>
       </c>
+      <c r="K24" s="1" t="s">
+        <v>10</v>
+      </c>
     </row>
     <row r="25" s="1" customFormat="true" ht="16.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A25" s="6" t="n">
@@ -13204,6 +13258,9 @@
       <c r="J25" s="1" t="s">
         <v>10</v>
       </c>
+      <c r="K25" s="1" t="s">
+        <v>10</v>
+      </c>
     </row>
     <row r="26" s="1" customFormat="true" ht="16.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A26" s="6" t="n">
@@ -13235,6 +13292,9 @@
       <c r="J26" s="1" t="s">
         <v>10</v>
       </c>
+      <c r="K26" s="1" t="s">
+        <v>10</v>
+      </c>
     </row>
     <row r="27" s="1" customFormat="true" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A27" s="6" t="n">
@@ -13268,6 +13328,9 @@
       <c r="J27" s="1" t="s">
         <v>10</v>
       </c>
+      <c r="K27" s="1" t="s">
+        <v>10</v>
+      </c>
     </row>
     <row r="28" s="1" customFormat="true" ht="16.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A28" s="6" t="n">
@@ -13299,6 +13362,9 @@
       <c r="J28" s="1" t="s">
         <v>10</v>
       </c>
+      <c r="K28" s="1" t="s">
+        <v>10</v>
+      </c>
     </row>
     <row r="29" s="1" customFormat="true" ht="16.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A29" s="6" t="n">
@@ -13332,6 +13398,9 @@
       <c r="J29" s="1" t="s">
         <v>10</v>
       </c>
+      <c r="K29" s="1" t="s">
+        <v>10</v>
+      </c>
     </row>
     <row r="30" s="1" customFormat="true" ht="16.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A30" s="6" t="n">
@@ -13363,6 +13432,9 @@
       <c r="J30" s="1" t="s">
         <v>10</v>
       </c>
+      <c r="K30" s="1" t="s">
+        <v>10</v>
+      </c>
     </row>
     <row r="31" s="1" customFormat="true" ht="16.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A31" s="6" t="n">
@@ -13396,6 +13468,9 @@
       <c r="J31" s="1" t="s">
         <v>10</v>
       </c>
+      <c r="K31" s="1" t="s">
+        <v>10</v>
+      </c>
     </row>
     <row r="32" s="1" customFormat="true" ht="16.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A32" s="6" t="n">
@@ -13427,6 +13502,9 @@
       <c r="J32" s="1" t="s">
         <v>10</v>
       </c>
+      <c r="K32" s="1" t="s">
+        <v>10</v>
+      </c>
     </row>
     <row r="33" s="1" customFormat="true" ht="16.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A33" s="6" t="n">
@@ -13458,6 +13536,9 @@
       <c r="J33" s="1" t="s">
         <v>10</v>
       </c>
+      <c r="K33" s="1" t="s">
+        <v>10</v>
+      </c>
     </row>
     <row r="34" s="1" customFormat="true" ht="16.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A34" s="6" t="n">
@@ -13487,6 +13568,9 @@
         <v>10</v>
       </c>
       <c r="J34" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="K34" s="1" t="s">
         <v>10</v>
       </c>
     </row>

--- a/07 ootareon 目標管理シート.xlsx
+++ b/07 ootareon 目標管理シート.xlsx
@@ -47,7 +47,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1503" uniqueCount="526">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1523" uniqueCount="526">
   <si>
     <t xml:space="preserve">学習目標自己チェックシート(ビジネスマナー)</t>
   </si>
@@ -2181,9 +2181,9 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>20</xdr:col>
-      <xdr:colOff>534240</xdr:colOff>
+      <xdr:colOff>533880</xdr:colOff>
       <xdr:row>6</xdr:row>
-      <xdr:rowOff>24120</xdr:rowOff>
+      <xdr:rowOff>23760</xdr:rowOff>
     </xdr:to>
     <xdr:sp>
       <xdr:nvSpPr>
@@ -2193,7 +2193,7 @@
       <xdr:spPr>
         <a:xfrm>
           <a:off x="14182920" y="0"/>
-          <a:ext cx="5000760" cy="1614960"/>
+          <a:ext cx="5000400" cy="1614600"/>
         </a:xfrm>
         <a:prstGeom prst="wedgeRoundRectCallout">
           <a:avLst>
@@ -2359,9 +2359,9 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>16</xdr:col>
-      <xdr:colOff>296280</xdr:colOff>
+      <xdr:colOff>295920</xdr:colOff>
       <xdr:row>6</xdr:row>
-      <xdr:rowOff>169200</xdr:rowOff>
+      <xdr:rowOff>168840</xdr:rowOff>
     </xdr:to>
     <xdr:sp>
       <xdr:nvSpPr>
@@ -2371,7 +2371,7 @@
       <xdr:spPr>
         <a:xfrm>
           <a:off x="11673360" y="145080"/>
-          <a:ext cx="5000760" cy="1614960"/>
+          <a:ext cx="5000400" cy="1614600"/>
         </a:xfrm>
         <a:prstGeom prst="wedgeRoundRectCallout">
           <a:avLst>
@@ -2537,9 +2537,9 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>16</xdr:col>
-      <xdr:colOff>296280</xdr:colOff>
+      <xdr:colOff>295920</xdr:colOff>
       <xdr:row>6</xdr:row>
-      <xdr:rowOff>169200</xdr:rowOff>
+      <xdr:rowOff>168840</xdr:rowOff>
     </xdr:to>
     <xdr:sp>
       <xdr:nvSpPr>
@@ -2549,7 +2549,7 @@
       <xdr:spPr>
         <a:xfrm>
           <a:off x="11620440" y="145080"/>
-          <a:ext cx="5001120" cy="1614960"/>
+          <a:ext cx="5000760" cy="1614600"/>
         </a:xfrm>
         <a:prstGeom prst="wedgeRoundRectCallout">
           <a:avLst>
@@ -2715,9 +2715,9 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>19</xdr:col>
-      <xdr:colOff>447120</xdr:colOff>
+      <xdr:colOff>446760</xdr:colOff>
       <xdr:row>6</xdr:row>
-      <xdr:rowOff>61560</xdr:rowOff>
+      <xdr:rowOff>61200</xdr:rowOff>
     </xdr:to>
     <xdr:sp>
       <xdr:nvSpPr>
@@ -2727,7 +2727,7 @@
       <xdr:spPr>
         <a:xfrm>
           <a:off x="13364640" y="0"/>
-          <a:ext cx="5058720" cy="1652400"/>
+          <a:ext cx="5058360" cy="1652040"/>
         </a:xfrm>
         <a:prstGeom prst="wedgeRoundRectCallout">
           <a:avLst>
@@ -2888,9 +2888,9 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>4</xdr:col>
-      <xdr:colOff>69480</xdr:colOff>
+      <xdr:colOff>69120</xdr:colOff>
       <xdr:row>85</xdr:row>
-      <xdr:rowOff>160200</xdr:rowOff>
+      <xdr:rowOff>159840</xdr:rowOff>
     </xdr:to>
     <xdr:sp>
       <xdr:nvSpPr>
@@ -2900,7 +2900,7 @@
       <xdr:spPr>
         <a:xfrm>
           <a:off x="11283480" y="16242120"/>
-          <a:ext cx="188640" cy="2219400"/>
+          <a:ext cx="188280" cy="2219040"/>
         </a:xfrm>
         <a:prstGeom prst="rightBrace">
           <a:avLst>
@@ -2940,9 +2940,9 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>15</xdr:col>
-      <xdr:colOff>398160</xdr:colOff>
+      <xdr:colOff>397800</xdr:colOff>
       <xdr:row>84</xdr:row>
-      <xdr:rowOff>120960</xdr:rowOff>
+      <xdr:rowOff>120600</xdr:rowOff>
     </xdr:to>
     <xdr:sp>
       <xdr:nvSpPr>
@@ -2952,7 +2952,7 @@
       <xdr:spPr>
         <a:xfrm>
           <a:off x="11702160" y="17062200"/>
-          <a:ext cx="4610880" cy="1150560"/>
+          <a:ext cx="4610520" cy="1150200"/>
         </a:xfrm>
         <a:prstGeom prst="ellipse">
           <a:avLst/>
@@ -3053,9 +3053,9 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>21</xdr:col>
-      <xdr:colOff>19800</xdr:colOff>
+      <xdr:colOff>19440</xdr:colOff>
       <xdr:row>6</xdr:row>
-      <xdr:rowOff>51120</xdr:rowOff>
+      <xdr:rowOff>50760</xdr:rowOff>
     </xdr:to>
     <xdr:sp>
       <xdr:nvSpPr>
@@ -3065,7 +3065,7 @@
       <xdr:spPr>
         <a:xfrm>
           <a:off x="13158360" y="0"/>
-          <a:ext cx="5022360" cy="1641960"/>
+          <a:ext cx="5022000" cy="1641600"/>
         </a:xfrm>
         <a:prstGeom prst="wedgeRoundRectCallout">
           <a:avLst>
@@ -3231,9 +3231,9 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>43</xdr:col>
-      <xdr:colOff>2880</xdr:colOff>
+      <xdr:colOff>2520</xdr:colOff>
       <xdr:row>13</xdr:row>
-      <xdr:rowOff>40320</xdr:rowOff>
+      <xdr:rowOff>39960</xdr:rowOff>
     </xdr:to>
     <xdr:sp>
       <xdr:nvSpPr>
@@ -3243,7 +3243,7 @@
       <xdr:spPr>
         <a:xfrm>
           <a:off x="28142280" y="0"/>
-          <a:ext cx="5058360" cy="3075120"/>
+          <a:ext cx="5058000" cy="3074760"/>
         </a:xfrm>
         <a:prstGeom prst="wedgeRoundRectCallout">
           <a:avLst>
@@ -3409,9 +3409,9 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>36</xdr:col>
-      <xdr:colOff>51480</xdr:colOff>
+      <xdr:colOff>51120</xdr:colOff>
       <xdr:row>11</xdr:row>
-      <xdr:rowOff>56520</xdr:rowOff>
+      <xdr:rowOff>56160</xdr:rowOff>
     </xdr:to>
     <xdr:sp>
       <xdr:nvSpPr>
@@ -3421,7 +3421,7 @@
       <xdr:spPr>
         <a:xfrm>
           <a:off x="23848200" y="16200"/>
-          <a:ext cx="5058360" cy="2663640"/>
+          <a:ext cx="5058000" cy="2663280"/>
         </a:xfrm>
         <a:prstGeom prst="wedgeRoundRectCallout">
           <a:avLst>
@@ -12551,10 +12551,10 @@
     <tabColor rgb="FF9DC3E6"/>
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:K34"/>
+  <dimension ref="A1:L34"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="pageBreakPreview" topLeftCell="C1" colorId="64" zoomScale="80" zoomScaleNormal="85" zoomScalePageLayoutView="80" workbookViewId="0">
-      <selection pane="topLeft" activeCell="L29" activeCellId="0" sqref="L29"/>
+      <selection pane="topLeft" activeCell="M30" activeCellId="0" sqref="M30"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.45703125" defaultRowHeight="16.5" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -12643,6 +12643,9 @@
       <c r="K7" s="1" t="s">
         <v>10</v>
       </c>
+      <c r="L7" s="1" t="s">
+        <v>10</v>
+      </c>
     </row>
     <row r="8" customFormat="false" ht="16.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A8" s="6" t="n">
@@ -12677,6 +12680,9 @@
       <c r="K8" s="1" t="s">
         <v>10</v>
       </c>
+      <c r="L8" s="1" t="s">
+        <v>10</v>
+      </c>
     </row>
     <row r="9" customFormat="false" ht="16.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A9" s="6" t="n">
@@ -12711,6 +12717,9 @@
       <c r="K9" s="1" t="s">
         <v>10</v>
       </c>
+      <c r="L9" s="1" t="s">
+        <v>10</v>
+      </c>
     </row>
     <row r="10" customFormat="false" ht="16.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A10" s="6" t="n">
@@ -12745,6 +12754,9 @@
       <c r="K10" s="1" t="n">
         <v>0</v>
       </c>
+      <c r="L10" s="1" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="11" customFormat="false" ht="16.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A11" s="6" t="n">
@@ -12779,6 +12791,9 @@
       <c r="K11" s="1" t="n">
         <v>0</v>
       </c>
+      <c r="L11" s="1" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="12" customFormat="false" ht="16.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A12" s="6" t="n">
@@ -12813,6 +12828,9 @@
       <c r="K12" s="1" t="s">
         <v>10</v>
       </c>
+      <c r="L12" s="1" t="s">
+        <v>10</v>
+      </c>
     </row>
     <row r="13" customFormat="false" ht="16.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A13" s="6" t="n">
@@ -12849,6 +12867,9 @@
       <c r="K13" s="1" t="s">
         <v>10</v>
       </c>
+      <c r="L13" s="1" t="s">
+        <v>10</v>
+      </c>
     </row>
     <row r="14" customFormat="false" ht="16.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A14" s="6" t="n">
@@ -12883,6 +12904,9 @@
       <c r="K14" s="1" t="n">
         <v>0</v>
       </c>
+      <c r="L14" s="1" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="15" customFormat="false" ht="16.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A15" s="6" t="n">
@@ -12917,6 +12941,9 @@
       <c r="K15" s="1" t="n">
         <v>0</v>
       </c>
+      <c r="L15" s="1" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="16" customFormat="false" ht="16.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A16" s="6" t="n">
@@ -12949,6 +12976,9 @@
         <v>0</v>
       </c>
       <c r="K16" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="L16" s="1" t="n">
         <v>0</v>
       </c>
     </row>
@@ -12985,6 +13015,9 @@
       <c r="K17" s="1" t="n">
         <v>0</v>
       </c>
+      <c r="L17" s="1" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="18" customFormat="false" ht="16.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A18" s="6" t="n">
@@ -13019,6 +13052,9 @@
       <c r="K18" s="1" t="s">
         <v>10</v>
       </c>
+      <c r="L18" s="1" t="s">
+        <v>10</v>
+      </c>
     </row>
     <row r="19" s="1" customFormat="true" ht="16.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A19" s="6" t="n">
@@ -13055,6 +13091,9 @@
       <c r="K19" s="1" t="n">
         <v>0</v>
       </c>
+      <c r="L19" s="1" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="20" s="1" customFormat="true" ht="16.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A20" s="6" t="n">
@@ -13089,6 +13128,9 @@
       <c r="K20" s="1" t="n">
         <v>0</v>
       </c>
+      <c r="L20" s="1" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="21" s="1" customFormat="true" ht="16.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A21" s="6" t="n">
@@ -13123,6 +13165,9 @@
       <c r="K21" s="1" t="s">
         <v>10</v>
       </c>
+      <c r="L21" s="1" t="s">
+        <v>10</v>
+      </c>
     </row>
     <row r="22" s="1" customFormat="true" ht="16.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A22" s="6" t="n">
@@ -13157,6 +13202,9 @@
       <c r="K22" s="1" t="s">
         <v>10</v>
       </c>
+      <c r="L22" s="1" t="s">
+        <v>10</v>
+      </c>
     </row>
     <row r="23" s="1" customFormat="true" ht="16.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A23" s="6" t="n">
@@ -13191,6 +13239,9 @@
       <c r="K23" s="1" t="s">
         <v>10</v>
       </c>
+      <c r="L23" s="1" t="s">
+        <v>10</v>
+      </c>
     </row>
     <row r="24" s="1" customFormat="true" ht="16.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A24" s="6" t="n">
@@ -13225,6 +13276,9 @@
       <c r="K24" s="1" t="s">
         <v>10</v>
       </c>
+      <c r="L24" s="1" t="s">
+        <v>10</v>
+      </c>
     </row>
     <row r="25" s="1" customFormat="true" ht="16.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A25" s="6" t="n">
@@ -13261,6 +13315,9 @@
       <c r="K25" s="1" t="s">
         <v>10</v>
       </c>
+      <c r="L25" s="1" t="s">
+        <v>10</v>
+      </c>
     </row>
     <row r="26" s="1" customFormat="true" ht="16.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A26" s="6" t="n">
@@ -13295,6 +13352,9 @@
       <c r="K26" s="1" t="s">
         <v>10</v>
       </c>
+      <c r="L26" s="1" t="s">
+        <v>10</v>
+      </c>
     </row>
     <row r="27" s="1" customFormat="true" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A27" s="6" t="n">
@@ -13331,6 +13391,9 @@
       <c r="K27" s="1" t="s">
         <v>10</v>
       </c>
+      <c r="L27" s="1" t="s">
+        <v>10</v>
+      </c>
     </row>
     <row r="28" s="1" customFormat="true" ht="16.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A28" s="6" t="n">
@@ -13365,6 +13428,9 @@
       <c r="K28" s="1" t="s">
         <v>10</v>
       </c>
+      <c r="L28" s="1" t="s">
+        <v>10</v>
+      </c>
     </row>
     <row r="29" s="1" customFormat="true" ht="16.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A29" s="6" t="n">
@@ -13401,6 +13467,9 @@
       <c r="K29" s="1" t="s">
         <v>10</v>
       </c>
+      <c r="L29" s="1" t="s">
+        <v>10</v>
+      </c>
     </row>
     <row r="30" s="1" customFormat="true" ht="16.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A30" s="6" t="n">
@@ -13435,6 +13504,9 @@
       <c r="K30" s="1" t="s">
         <v>10</v>
       </c>
+      <c r="L30" s="1" t="s">
+        <v>10</v>
+      </c>
     </row>
     <row r="31" s="1" customFormat="true" ht="16.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A31" s="6" t="n">
@@ -13471,6 +13543,9 @@
       <c r="K31" s="1" t="s">
         <v>10</v>
       </c>
+      <c r="L31" s="1" t="s">
+        <v>10</v>
+      </c>
     </row>
     <row r="32" s="1" customFormat="true" ht="16.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A32" s="6" t="n">
@@ -13505,6 +13580,9 @@
       <c r="K32" s="1" t="s">
         <v>10</v>
       </c>
+      <c r="L32" s="1" t="s">
+        <v>10</v>
+      </c>
     </row>
     <row r="33" s="1" customFormat="true" ht="16.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A33" s="6" t="n">
@@ -13539,6 +13617,9 @@
       <c r="K33" s="1" t="s">
         <v>10</v>
       </c>
+      <c r="L33" s="1" t="s">
+        <v>10</v>
+      </c>
     </row>
     <row r="34" s="1" customFormat="true" ht="16.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A34" s="6" t="n">
@@ -13571,6 +13652,9 @@
         <v>10</v>
       </c>
       <c r="K34" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="L34" s="1" t="s">
         <v>10</v>
       </c>
     </row>

--- a/07 ootareon 目標管理シート.xlsx
+++ b/07 ootareon 目標管理シート.xlsx
@@ -47,7 +47,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1523" uniqueCount="526">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1543" uniqueCount="526">
   <si>
     <t xml:space="preserve">学習目標自己チェックシート(ビジネスマナー)</t>
   </si>
@@ -2181,9 +2181,9 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>20</xdr:col>
-      <xdr:colOff>533880</xdr:colOff>
+      <xdr:colOff>533520</xdr:colOff>
       <xdr:row>6</xdr:row>
-      <xdr:rowOff>23760</xdr:rowOff>
+      <xdr:rowOff>23400</xdr:rowOff>
     </xdr:to>
     <xdr:sp>
       <xdr:nvSpPr>
@@ -2193,7 +2193,7 @@
       <xdr:spPr>
         <a:xfrm>
           <a:off x="14182920" y="0"/>
-          <a:ext cx="5000400" cy="1614600"/>
+          <a:ext cx="5000040" cy="1614240"/>
         </a:xfrm>
         <a:prstGeom prst="wedgeRoundRectCallout">
           <a:avLst>
@@ -2359,9 +2359,9 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>16</xdr:col>
-      <xdr:colOff>295920</xdr:colOff>
+      <xdr:colOff>295560</xdr:colOff>
       <xdr:row>6</xdr:row>
-      <xdr:rowOff>168840</xdr:rowOff>
+      <xdr:rowOff>168480</xdr:rowOff>
     </xdr:to>
     <xdr:sp>
       <xdr:nvSpPr>
@@ -2371,7 +2371,7 @@
       <xdr:spPr>
         <a:xfrm>
           <a:off x="11673360" y="145080"/>
-          <a:ext cx="5000400" cy="1614600"/>
+          <a:ext cx="5000040" cy="1614240"/>
         </a:xfrm>
         <a:prstGeom prst="wedgeRoundRectCallout">
           <a:avLst>
@@ -2537,9 +2537,9 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>16</xdr:col>
-      <xdr:colOff>295920</xdr:colOff>
+      <xdr:colOff>295560</xdr:colOff>
       <xdr:row>6</xdr:row>
-      <xdr:rowOff>168840</xdr:rowOff>
+      <xdr:rowOff>168480</xdr:rowOff>
     </xdr:to>
     <xdr:sp>
       <xdr:nvSpPr>
@@ -2549,7 +2549,7 @@
       <xdr:spPr>
         <a:xfrm>
           <a:off x="11620440" y="145080"/>
-          <a:ext cx="5000760" cy="1614600"/>
+          <a:ext cx="5000400" cy="1614240"/>
         </a:xfrm>
         <a:prstGeom prst="wedgeRoundRectCallout">
           <a:avLst>
@@ -2715,9 +2715,9 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>19</xdr:col>
-      <xdr:colOff>446760</xdr:colOff>
+      <xdr:colOff>446400</xdr:colOff>
       <xdr:row>6</xdr:row>
-      <xdr:rowOff>61200</xdr:rowOff>
+      <xdr:rowOff>60840</xdr:rowOff>
     </xdr:to>
     <xdr:sp>
       <xdr:nvSpPr>
@@ -2727,7 +2727,7 @@
       <xdr:spPr>
         <a:xfrm>
           <a:off x="13364640" y="0"/>
-          <a:ext cx="5058360" cy="1652040"/>
+          <a:ext cx="5058000" cy="1651680"/>
         </a:xfrm>
         <a:prstGeom prst="wedgeRoundRectCallout">
           <a:avLst>
@@ -2888,9 +2888,9 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>4</xdr:col>
-      <xdr:colOff>69120</xdr:colOff>
+      <xdr:colOff>68760</xdr:colOff>
       <xdr:row>85</xdr:row>
-      <xdr:rowOff>159840</xdr:rowOff>
+      <xdr:rowOff>159480</xdr:rowOff>
     </xdr:to>
     <xdr:sp>
       <xdr:nvSpPr>
@@ -2900,7 +2900,7 @@
       <xdr:spPr>
         <a:xfrm>
           <a:off x="11283480" y="16242120"/>
-          <a:ext cx="188280" cy="2219040"/>
+          <a:ext cx="187920" cy="2218680"/>
         </a:xfrm>
         <a:prstGeom prst="rightBrace">
           <a:avLst>
@@ -2940,9 +2940,9 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>15</xdr:col>
-      <xdr:colOff>397800</xdr:colOff>
+      <xdr:colOff>397440</xdr:colOff>
       <xdr:row>84</xdr:row>
-      <xdr:rowOff>120600</xdr:rowOff>
+      <xdr:rowOff>120240</xdr:rowOff>
     </xdr:to>
     <xdr:sp>
       <xdr:nvSpPr>
@@ -2952,7 +2952,7 @@
       <xdr:spPr>
         <a:xfrm>
           <a:off x="11702160" y="17062200"/>
-          <a:ext cx="4610520" cy="1150200"/>
+          <a:ext cx="4610160" cy="1149840"/>
         </a:xfrm>
         <a:prstGeom prst="ellipse">
           <a:avLst/>
@@ -3053,9 +3053,9 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>21</xdr:col>
-      <xdr:colOff>19440</xdr:colOff>
+      <xdr:colOff>19080</xdr:colOff>
       <xdr:row>6</xdr:row>
-      <xdr:rowOff>50760</xdr:rowOff>
+      <xdr:rowOff>50400</xdr:rowOff>
     </xdr:to>
     <xdr:sp>
       <xdr:nvSpPr>
@@ -3065,7 +3065,7 @@
       <xdr:spPr>
         <a:xfrm>
           <a:off x="13158360" y="0"/>
-          <a:ext cx="5022000" cy="1641600"/>
+          <a:ext cx="5021640" cy="1641240"/>
         </a:xfrm>
         <a:prstGeom prst="wedgeRoundRectCallout">
           <a:avLst>
@@ -3231,9 +3231,9 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>43</xdr:col>
-      <xdr:colOff>2520</xdr:colOff>
+      <xdr:colOff>2160</xdr:colOff>
       <xdr:row>13</xdr:row>
-      <xdr:rowOff>39960</xdr:rowOff>
+      <xdr:rowOff>39600</xdr:rowOff>
     </xdr:to>
     <xdr:sp>
       <xdr:nvSpPr>
@@ -3243,7 +3243,7 @@
       <xdr:spPr>
         <a:xfrm>
           <a:off x="28142280" y="0"/>
-          <a:ext cx="5058000" cy="3074760"/>
+          <a:ext cx="5057640" cy="3074400"/>
         </a:xfrm>
         <a:prstGeom prst="wedgeRoundRectCallout">
           <a:avLst>
@@ -3409,9 +3409,9 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>36</xdr:col>
-      <xdr:colOff>51120</xdr:colOff>
+      <xdr:colOff>50760</xdr:colOff>
       <xdr:row>11</xdr:row>
-      <xdr:rowOff>56160</xdr:rowOff>
+      <xdr:rowOff>55800</xdr:rowOff>
     </xdr:to>
     <xdr:sp>
       <xdr:nvSpPr>
@@ -3421,7 +3421,7 @@
       <xdr:spPr>
         <a:xfrm>
           <a:off x="23848200" y="16200"/>
-          <a:ext cx="5058000" cy="2663280"/>
+          <a:ext cx="5057640" cy="2662920"/>
         </a:xfrm>
         <a:prstGeom prst="wedgeRoundRectCallout">
           <a:avLst>
@@ -3772,7 +3772,7 @@
   <dimension ref="A1:P28"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="pageBreakPreview" topLeftCell="C7" colorId="64" zoomScale="80" zoomScaleNormal="70" zoomScalePageLayoutView="80" workbookViewId="0">
-      <selection pane="topLeft" activeCell="P29" activeCellId="0" sqref="P29"/>
+      <selection pane="topLeft" activeCell="P29" activeCellId="1" sqref="M7:M34 P29"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.45703125" defaultRowHeight="16.5" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -4945,7 +4945,7 @@
   <dimension ref="A1:D16"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="pageBreakPreview" topLeftCell="A1" colorId="64" zoomScale="80" zoomScaleNormal="70" zoomScalePageLayoutView="80" workbookViewId="0">
-      <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
+      <selection pane="topLeft" activeCell="A1" activeCellId="1" sqref="M7:M34 A1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.45703125" defaultRowHeight="16.5" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -5143,7 +5143,7 @@
   <dimension ref="A1:D63"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="pageBreakPreview" topLeftCell="A1" colorId="64" zoomScale="80" zoomScaleNormal="70" zoomScalePageLayoutView="80" workbookViewId="0">
-      <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
+      <selection pane="topLeft" activeCell="A1" activeCellId="1" sqref="M7:M34 A1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.45703125" defaultRowHeight="16.5" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -5828,7 +5828,7 @@
   <dimension ref="A1:E86"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="pageBreakPreview" topLeftCell="C53" colorId="64" zoomScale="80" zoomScaleNormal="70" zoomScalePageLayoutView="80" workbookViewId="0">
-      <selection pane="topLeft" activeCell="E76" activeCellId="0" sqref="E76"/>
+      <selection pane="topLeft" activeCell="E76" activeCellId="1" sqref="M7:M34 E76"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.45703125" defaultRowHeight="16.5" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -7131,7 +7131,7 @@
   <dimension ref="A1:F232"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="pageBreakPreview" topLeftCell="A133" colorId="64" zoomScale="80" zoomScaleNormal="85" zoomScalePageLayoutView="80" workbookViewId="0">
-      <selection pane="topLeft" activeCell="H25" activeCellId="0" sqref="H25"/>
+      <selection pane="topLeft" activeCell="H25" activeCellId="1" sqref="M7:M34 H25"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.45703125" defaultRowHeight="16.5" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -10312,7 +10312,7 @@
   <dimension ref="A1:J79"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="pageBreakPreview" topLeftCell="C59" colorId="64" zoomScale="80" zoomScaleNormal="85" zoomScalePageLayoutView="80" workbookViewId="0">
-      <selection pane="topLeft" activeCell="J75" activeCellId="0" sqref="J75"/>
+      <selection pane="topLeft" activeCell="J75" activeCellId="1" sqref="M7:M34 J75"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.45703125" defaultRowHeight="16.5" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -12551,10 +12551,10 @@
     <tabColor rgb="FF9DC3E6"/>
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:L34"/>
+  <dimension ref="A1:M34"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="pageBreakPreview" topLeftCell="C1" colorId="64" zoomScale="80" zoomScaleNormal="85" zoomScalePageLayoutView="80" workbookViewId="0">
-      <selection pane="topLeft" activeCell="M30" activeCellId="0" sqref="M30"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="pageBreakPreview" topLeftCell="D1" colorId="64" zoomScale="80" zoomScaleNormal="85" zoomScalePageLayoutView="80" workbookViewId="0">
+      <selection pane="topLeft" activeCell="M7" activeCellId="0" sqref="M7:M34"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.45703125" defaultRowHeight="16.5" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -12646,6 +12646,9 @@
       <c r="L7" s="1" t="s">
         <v>10</v>
       </c>
+      <c r="M7" s="1" t="s">
+        <v>10</v>
+      </c>
     </row>
     <row r="8" customFormat="false" ht="16.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A8" s="6" t="n">
@@ -12683,6 +12686,9 @@
       <c r="L8" s="1" t="s">
         <v>10</v>
       </c>
+      <c r="M8" s="1" t="s">
+        <v>10</v>
+      </c>
     </row>
     <row r="9" customFormat="false" ht="16.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A9" s="6" t="n">
@@ -12720,6 +12726,9 @@
       <c r="L9" s="1" t="s">
         <v>10</v>
       </c>
+      <c r="M9" s="1" t="s">
+        <v>10</v>
+      </c>
     </row>
     <row r="10" customFormat="false" ht="16.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A10" s="6" t="n">
@@ -12757,6 +12766,9 @@
       <c r="L10" s="1" t="n">
         <v>0</v>
       </c>
+      <c r="M10" s="1" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="11" customFormat="false" ht="16.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A11" s="6" t="n">
@@ -12794,6 +12806,9 @@
       <c r="L11" s="1" t="n">
         <v>0</v>
       </c>
+      <c r="M11" s="1" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="12" customFormat="false" ht="16.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A12" s="6" t="n">
@@ -12831,6 +12846,9 @@
       <c r="L12" s="1" t="s">
         <v>10</v>
       </c>
+      <c r="M12" s="1" t="s">
+        <v>10</v>
+      </c>
     </row>
     <row r="13" customFormat="false" ht="16.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A13" s="6" t="n">
@@ -12870,6 +12888,9 @@
       <c r="L13" s="1" t="s">
         <v>10</v>
       </c>
+      <c r="M13" s="1" t="s">
+        <v>10</v>
+      </c>
     </row>
     <row r="14" customFormat="false" ht="16.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A14" s="6" t="n">
@@ -12907,6 +12928,9 @@
       <c r="L14" s="1" t="n">
         <v>0</v>
       </c>
+      <c r="M14" s="1" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="15" customFormat="false" ht="16.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A15" s="6" t="n">
@@ -12944,6 +12968,9 @@
       <c r="L15" s="1" t="n">
         <v>0</v>
       </c>
+      <c r="M15" s="1" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="16" customFormat="false" ht="16.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A16" s="6" t="n">
@@ -12979,6 +13006,9 @@
         <v>0</v>
       </c>
       <c r="L16" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="M16" s="1" t="n">
         <v>0</v>
       </c>
     </row>
@@ -13018,6 +13048,9 @@
       <c r="L17" s="1" t="n">
         <v>0</v>
       </c>
+      <c r="M17" s="1" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="18" customFormat="false" ht="16.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A18" s="6" t="n">
@@ -13055,6 +13088,9 @@
       <c r="L18" s="1" t="s">
         <v>10</v>
       </c>
+      <c r="M18" s="1" t="s">
+        <v>10</v>
+      </c>
     </row>
     <row r="19" s="1" customFormat="true" ht="16.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A19" s="6" t="n">
@@ -13094,6 +13130,9 @@
       <c r="L19" s="1" t="n">
         <v>0</v>
       </c>
+      <c r="M19" s="1" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="20" s="1" customFormat="true" ht="16.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A20" s="6" t="n">
@@ -13131,6 +13170,9 @@
       <c r="L20" s="1" t="n">
         <v>0</v>
       </c>
+      <c r="M20" s="1" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="21" s="1" customFormat="true" ht="16.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A21" s="6" t="n">
@@ -13168,6 +13210,9 @@
       <c r="L21" s="1" t="s">
         <v>10</v>
       </c>
+      <c r="M21" s="1" t="s">
+        <v>10</v>
+      </c>
     </row>
     <row r="22" s="1" customFormat="true" ht="16.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A22" s="6" t="n">
@@ -13205,6 +13250,9 @@
       <c r="L22" s="1" t="s">
         <v>10</v>
       </c>
+      <c r="M22" s="1" t="s">
+        <v>10</v>
+      </c>
     </row>
     <row r="23" s="1" customFormat="true" ht="16.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A23" s="6" t="n">
@@ -13242,6 +13290,9 @@
       <c r="L23" s="1" t="s">
         <v>10</v>
       </c>
+      <c r="M23" s="1" t="s">
+        <v>10</v>
+      </c>
     </row>
     <row r="24" s="1" customFormat="true" ht="16.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A24" s="6" t="n">
@@ -13279,6 +13330,9 @@
       <c r="L24" s="1" t="s">
         <v>10</v>
       </c>
+      <c r="M24" s="1" t="s">
+        <v>10</v>
+      </c>
     </row>
     <row r="25" s="1" customFormat="true" ht="16.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A25" s="6" t="n">
@@ -13318,6 +13372,9 @@
       <c r="L25" s="1" t="s">
         <v>10</v>
       </c>
+      <c r="M25" s="1" t="s">
+        <v>10</v>
+      </c>
     </row>
     <row r="26" s="1" customFormat="true" ht="16.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A26" s="6" t="n">
@@ -13355,6 +13412,9 @@
       <c r="L26" s="1" t="s">
         <v>10</v>
       </c>
+      <c r="M26" s="1" t="s">
+        <v>10</v>
+      </c>
     </row>
     <row r="27" s="1" customFormat="true" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A27" s="6" t="n">
@@ -13394,6 +13454,9 @@
       <c r="L27" s="1" t="s">
         <v>10</v>
       </c>
+      <c r="M27" s="1" t="s">
+        <v>10</v>
+      </c>
     </row>
     <row r="28" s="1" customFormat="true" ht="16.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A28" s="6" t="n">
@@ -13431,6 +13494,9 @@
       <c r="L28" s="1" t="s">
         <v>10</v>
       </c>
+      <c r="M28" s="1" t="s">
+        <v>10</v>
+      </c>
     </row>
     <row r="29" s="1" customFormat="true" ht="16.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A29" s="6" t="n">
@@ -13470,6 +13536,9 @@
       <c r="L29" s="1" t="s">
         <v>10</v>
       </c>
+      <c r="M29" s="1" t="s">
+        <v>10</v>
+      </c>
     </row>
     <row r="30" s="1" customFormat="true" ht="16.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A30" s="6" t="n">
@@ -13507,6 +13576,9 @@
       <c r="L30" s="1" t="s">
         <v>10</v>
       </c>
+      <c r="M30" s="1" t="s">
+        <v>10</v>
+      </c>
     </row>
     <row r="31" s="1" customFormat="true" ht="16.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A31" s="6" t="n">
@@ -13546,6 +13618,9 @@
       <c r="L31" s="1" t="s">
         <v>10</v>
       </c>
+      <c r="M31" s="1" t="s">
+        <v>10</v>
+      </c>
     </row>
     <row r="32" s="1" customFormat="true" ht="16.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A32" s="6" t="n">
@@ -13583,6 +13658,9 @@
       <c r="L32" s="1" t="s">
         <v>10</v>
       </c>
+      <c r="M32" s="1" t="s">
+        <v>10</v>
+      </c>
     </row>
     <row r="33" s="1" customFormat="true" ht="16.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A33" s="6" t="n">
@@ -13620,6 +13698,9 @@
       <c r="L33" s="1" t="s">
         <v>10</v>
       </c>
+      <c r="M33" s="1" t="s">
+        <v>10</v>
+      </c>
     </row>
     <row r="34" s="1" customFormat="true" ht="16.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A34" s="6" t="n">
@@ -13655,6 +13736,9 @@
         <v>10</v>
       </c>
       <c r="L34" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="M34" s="1" t="s">
         <v>10</v>
       </c>
     </row>

--- a/07 ootareon 目標管理シート.xlsx
+++ b/07 ootareon 目標管理シート.xlsx
@@ -47,7 +47,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1543" uniqueCount="526">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1563" uniqueCount="526">
   <si>
     <t xml:space="preserve">学習目標自己チェックシート(ビジネスマナー)</t>
   </si>
@@ -2181,9 +2181,9 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>20</xdr:col>
-      <xdr:colOff>533520</xdr:colOff>
+      <xdr:colOff>533160</xdr:colOff>
       <xdr:row>6</xdr:row>
-      <xdr:rowOff>23400</xdr:rowOff>
+      <xdr:rowOff>23040</xdr:rowOff>
     </xdr:to>
     <xdr:sp>
       <xdr:nvSpPr>
@@ -2193,7 +2193,7 @@
       <xdr:spPr>
         <a:xfrm>
           <a:off x="14182920" y="0"/>
-          <a:ext cx="5000040" cy="1614240"/>
+          <a:ext cx="4999680" cy="1613880"/>
         </a:xfrm>
         <a:prstGeom prst="wedgeRoundRectCallout">
           <a:avLst>
@@ -2359,9 +2359,9 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>16</xdr:col>
-      <xdr:colOff>295560</xdr:colOff>
+      <xdr:colOff>295200</xdr:colOff>
       <xdr:row>6</xdr:row>
-      <xdr:rowOff>168480</xdr:rowOff>
+      <xdr:rowOff>168120</xdr:rowOff>
     </xdr:to>
     <xdr:sp>
       <xdr:nvSpPr>
@@ -2371,7 +2371,7 @@
       <xdr:spPr>
         <a:xfrm>
           <a:off x="11673360" y="145080"/>
-          <a:ext cx="5000040" cy="1614240"/>
+          <a:ext cx="4999680" cy="1613880"/>
         </a:xfrm>
         <a:prstGeom prst="wedgeRoundRectCallout">
           <a:avLst>
@@ -2537,9 +2537,9 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>16</xdr:col>
-      <xdr:colOff>295560</xdr:colOff>
+      <xdr:colOff>295200</xdr:colOff>
       <xdr:row>6</xdr:row>
-      <xdr:rowOff>168480</xdr:rowOff>
+      <xdr:rowOff>168120</xdr:rowOff>
     </xdr:to>
     <xdr:sp>
       <xdr:nvSpPr>
@@ -2549,7 +2549,7 @@
       <xdr:spPr>
         <a:xfrm>
           <a:off x="11620440" y="145080"/>
-          <a:ext cx="5000400" cy="1614240"/>
+          <a:ext cx="5000040" cy="1613880"/>
         </a:xfrm>
         <a:prstGeom prst="wedgeRoundRectCallout">
           <a:avLst>
@@ -2715,9 +2715,9 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>19</xdr:col>
-      <xdr:colOff>446400</xdr:colOff>
+      <xdr:colOff>446040</xdr:colOff>
       <xdr:row>6</xdr:row>
-      <xdr:rowOff>60840</xdr:rowOff>
+      <xdr:rowOff>60480</xdr:rowOff>
     </xdr:to>
     <xdr:sp>
       <xdr:nvSpPr>
@@ -2727,7 +2727,7 @@
       <xdr:spPr>
         <a:xfrm>
           <a:off x="13364640" y="0"/>
-          <a:ext cx="5058000" cy="1651680"/>
+          <a:ext cx="5057640" cy="1651320"/>
         </a:xfrm>
         <a:prstGeom prst="wedgeRoundRectCallout">
           <a:avLst>
@@ -2888,9 +2888,9 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>4</xdr:col>
-      <xdr:colOff>68760</xdr:colOff>
+      <xdr:colOff>68400</xdr:colOff>
       <xdr:row>85</xdr:row>
-      <xdr:rowOff>159480</xdr:rowOff>
+      <xdr:rowOff>159120</xdr:rowOff>
     </xdr:to>
     <xdr:sp>
       <xdr:nvSpPr>
@@ -2900,7 +2900,7 @@
       <xdr:spPr>
         <a:xfrm>
           <a:off x="11283480" y="16242120"/>
-          <a:ext cx="187920" cy="2218680"/>
+          <a:ext cx="187560" cy="2218320"/>
         </a:xfrm>
         <a:prstGeom prst="rightBrace">
           <a:avLst>
@@ -2940,9 +2940,9 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>15</xdr:col>
-      <xdr:colOff>397440</xdr:colOff>
+      <xdr:colOff>397080</xdr:colOff>
       <xdr:row>84</xdr:row>
-      <xdr:rowOff>120240</xdr:rowOff>
+      <xdr:rowOff>119880</xdr:rowOff>
     </xdr:to>
     <xdr:sp>
       <xdr:nvSpPr>
@@ -2952,7 +2952,7 @@
       <xdr:spPr>
         <a:xfrm>
           <a:off x="11702160" y="17062200"/>
-          <a:ext cx="4610160" cy="1149840"/>
+          <a:ext cx="4609800" cy="1149480"/>
         </a:xfrm>
         <a:prstGeom prst="ellipse">
           <a:avLst/>
@@ -3053,9 +3053,9 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>21</xdr:col>
-      <xdr:colOff>19080</xdr:colOff>
+      <xdr:colOff>18720</xdr:colOff>
       <xdr:row>6</xdr:row>
-      <xdr:rowOff>50400</xdr:rowOff>
+      <xdr:rowOff>50040</xdr:rowOff>
     </xdr:to>
     <xdr:sp>
       <xdr:nvSpPr>
@@ -3065,7 +3065,7 @@
       <xdr:spPr>
         <a:xfrm>
           <a:off x="13158360" y="0"/>
-          <a:ext cx="5021640" cy="1641240"/>
+          <a:ext cx="5021280" cy="1640880"/>
         </a:xfrm>
         <a:prstGeom prst="wedgeRoundRectCallout">
           <a:avLst>
@@ -3231,9 +3231,9 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>43</xdr:col>
-      <xdr:colOff>2160</xdr:colOff>
+      <xdr:colOff>1800</xdr:colOff>
       <xdr:row>13</xdr:row>
-      <xdr:rowOff>39600</xdr:rowOff>
+      <xdr:rowOff>39240</xdr:rowOff>
     </xdr:to>
     <xdr:sp>
       <xdr:nvSpPr>
@@ -3243,7 +3243,7 @@
       <xdr:spPr>
         <a:xfrm>
           <a:off x="28142280" y="0"/>
-          <a:ext cx="5057640" cy="3074400"/>
+          <a:ext cx="5057280" cy="3074040"/>
         </a:xfrm>
         <a:prstGeom prst="wedgeRoundRectCallout">
           <a:avLst>
@@ -3409,9 +3409,9 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>36</xdr:col>
-      <xdr:colOff>50760</xdr:colOff>
+      <xdr:colOff>50400</xdr:colOff>
       <xdr:row>11</xdr:row>
-      <xdr:rowOff>55800</xdr:rowOff>
+      <xdr:rowOff>55440</xdr:rowOff>
     </xdr:to>
     <xdr:sp>
       <xdr:nvSpPr>
@@ -3421,7 +3421,7 @@
       <xdr:spPr>
         <a:xfrm>
           <a:off x="23848200" y="16200"/>
-          <a:ext cx="5057640" cy="2662920"/>
+          <a:ext cx="5057280" cy="2662560"/>
         </a:xfrm>
         <a:prstGeom prst="wedgeRoundRectCallout">
           <a:avLst>
@@ -3772,7 +3772,7 @@
   <dimension ref="A1:P28"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="pageBreakPreview" topLeftCell="C7" colorId="64" zoomScale="80" zoomScaleNormal="70" zoomScalePageLayoutView="80" workbookViewId="0">
-      <selection pane="topLeft" activeCell="P29" activeCellId="1" sqref="M7:M34 P29"/>
+      <selection pane="topLeft" activeCell="P29" activeCellId="1" sqref="N7:N34 P29"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.45703125" defaultRowHeight="16.5" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -4945,7 +4945,7 @@
   <dimension ref="A1:D16"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="pageBreakPreview" topLeftCell="A1" colorId="64" zoomScale="80" zoomScaleNormal="70" zoomScalePageLayoutView="80" workbookViewId="0">
-      <selection pane="topLeft" activeCell="A1" activeCellId="1" sqref="M7:M34 A1"/>
+      <selection pane="topLeft" activeCell="A1" activeCellId="1" sqref="N7:N34 A1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.45703125" defaultRowHeight="16.5" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -5143,7 +5143,7 @@
   <dimension ref="A1:D63"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="pageBreakPreview" topLeftCell="A1" colorId="64" zoomScale="80" zoomScaleNormal="70" zoomScalePageLayoutView="80" workbookViewId="0">
-      <selection pane="topLeft" activeCell="A1" activeCellId="1" sqref="M7:M34 A1"/>
+      <selection pane="topLeft" activeCell="A1" activeCellId="1" sqref="N7:N34 A1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.45703125" defaultRowHeight="16.5" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -5828,7 +5828,7 @@
   <dimension ref="A1:E86"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="pageBreakPreview" topLeftCell="C53" colorId="64" zoomScale="80" zoomScaleNormal="70" zoomScalePageLayoutView="80" workbookViewId="0">
-      <selection pane="topLeft" activeCell="E76" activeCellId="1" sqref="M7:M34 E76"/>
+      <selection pane="topLeft" activeCell="E76" activeCellId="1" sqref="N7:N34 E76"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.45703125" defaultRowHeight="16.5" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -7131,7 +7131,7 @@
   <dimension ref="A1:F232"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="pageBreakPreview" topLeftCell="A133" colorId="64" zoomScale="80" zoomScaleNormal="85" zoomScalePageLayoutView="80" workbookViewId="0">
-      <selection pane="topLeft" activeCell="H25" activeCellId="1" sqref="M7:M34 H25"/>
+      <selection pane="topLeft" activeCell="H25" activeCellId="1" sqref="N7:N34 H25"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.45703125" defaultRowHeight="16.5" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -10312,7 +10312,7 @@
   <dimension ref="A1:J79"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="pageBreakPreview" topLeftCell="C59" colorId="64" zoomScale="80" zoomScaleNormal="85" zoomScalePageLayoutView="80" workbookViewId="0">
-      <selection pane="topLeft" activeCell="J75" activeCellId="1" sqref="M7:M34 J75"/>
+      <selection pane="topLeft" activeCell="J75" activeCellId="1" sqref="N7:N34 J75"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.45703125" defaultRowHeight="16.5" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -12551,10 +12551,10 @@
     <tabColor rgb="FF9DC3E6"/>
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:M34"/>
+  <dimension ref="A1:N34"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="pageBreakPreview" topLeftCell="D1" colorId="64" zoomScale="80" zoomScaleNormal="85" zoomScalePageLayoutView="80" workbookViewId="0">
-      <selection pane="topLeft" activeCell="M7" activeCellId="0" sqref="M7:M34"/>
+      <selection pane="topLeft" activeCell="N7" activeCellId="0" sqref="N7:N34"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.45703125" defaultRowHeight="16.5" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -12649,6 +12649,9 @@
       <c r="M7" s="1" t="s">
         <v>10</v>
       </c>
+      <c r="N7" s="1" t="s">
+        <v>10</v>
+      </c>
     </row>
     <row r="8" customFormat="false" ht="16.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A8" s="6" t="n">
@@ -12689,6 +12692,9 @@
       <c r="M8" s="1" t="s">
         <v>10</v>
       </c>
+      <c r="N8" s="1" t="s">
+        <v>10</v>
+      </c>
     </row>
     <row r="9" customFormat="false" ht="16.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A9" s="6" t="n">
@@ -12729,6 +12735,9 @@
       <c r="M9" s="1" t="s">
         <v>10</v>
       </c>
+      <c r="N9" s="1" t="s">
+        <v>10</v>
+      </c>
     </row>
     <row r="10" customFormat="false" ht="16.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A10" s="6" t="n">
@@ -12769,6 +12778,9 @@
       <c r="M10" s="1" t="n">
         <v>0</v>
       </c>
+      <c r="N10" s="1" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="11" customFormat="false" ht="16.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A11" s="6" t="n">
@@ -12809,6 +12821,9 @@
       <c r="M11" s="1" t="n">
         <v>0</v>
       </c>
+      <c r="N11" s="1" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="12" customFormat="false" ht="16.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A12" s="6" t="n">
@@ -12849,6 +12864,9 @@
       <c r="M12" s="1" t="s">
         <v>10</v>
       </c>
+      <c r="N12" s="1" t="s">
+        <v>10</v>
+      </c>
     </row>
     <row r="13" customFormat="false" ht="16.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A13" s="6" t="n">
@@ -12891,6 +12909,9 @@
       <c r="M13" s="1" t="s">
         <v>10</v>
       </c>
+      <c r="N13" s="1" t="s">
+        <v>10</v>
+      </c>
     </row>
     <row r="14" customFormat="false" ht="16.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A14" s="6" t="n">
@@ -12931,6 +12952,9 @@
       <c r="M14" s="1" t="n">
         <v>0</v>
       </c>
+      <c r="N14" s="1" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="15" customFormat="false" ht="16.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A15" s="6" t="n">
@@ -12971,6 +12995,9 @@
       <c r="M15" s="1" t="n">
         <v>0</v>
       </c>
+      <c r="N15" s="1" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="16" customFormat="false" ht="16.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A16" s="6" t="n">
@@ -13009,6 +13036,9 @@
         <v>0</v>
       </c>
       <c r="M16" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="N16" s="1" t="n">
         <v>0</v>
       </c>
     </row>
@@ -13051,6 +13081,9 @@
       <c r="M17" s="1" t="n">
         <v>0</v>
       </c>
+      <c r="N17" s="1" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="18" customFormat="false" ht="16.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A18" s="6" t="n">
@@ -13091,6 +13124,9 @@
       <c r="M18" s="1" t="s">
         <v>10</v>
       </c>
+      <c r="N18" s="1" t="s">
+        <v>10</v>
+      </c>
     </row>
     <row r="19" s="1" customFormat="true" ht="16.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A19" s="6" t="n">
@@ -13133,6 +13169,9 @@
       <c r="M19" s="1" t="n">
         <v>0</v>
       </c>
+      <c r="N19" s="1" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="20" s="1" customFormat="true" ht="16.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A20" s="6" t="n">
@@ -13173,6 +13212,9 @@
       <c r="M20" s="1" t="n">
         <v>0</v>
       </c>
+      <c r="N20" s="1" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="21" s="1" customFormat="true" ht="16.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A21" s="6" t="n">
@@ -13213,6 +13255,9 @@
       <c r="M21" s="1" t="s">
         <v>10</v>
       </c>
+      <c r="N21" s="1" t="s">
+        <v>10</v>
+      </c>
     </row>
     <row r="22" s="1" customFormat="true" ht="16.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A22" s="6" t="n">
@@ -13253,6 +13298,9 @@
       <c r="M22" s="1" t="s">
         <v>10</v>
       </c>
+      <c r="N22" s="1" t="s">
+        <v>10</v>
+      </c>
     </row>
     <row r="23" s="1" customFormat="true" ht="16.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A23" s="6" t="n">
@@ -13293,6 +13341,9 @@
       <c r="M23" s="1" t="s">
         <v>10</v>
       </c>
+      <c r="N23" s="1" t="s">
+        <v>10</v>
+      </c>
     </row>
     <row r="24" s="1" customFormat="true" ht="16.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A24" s="6" t="n">
@@ -13333,6 +13384,9 @@
       <c r="M24" s="1" t="s">
         <v>10</v>
       </c>
+      <c r="N24" s="1" t="s">
+        <v>10</v>
+      </c>
     </row>
     <row r="25" s="1" customFormat="true" ht="16.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A25" s="6" t="n">
@@ -13375,6 +13429,9 @@
       <c r="M25" s="1" t="s">
         <v>10</v>
       </c>
+      <c r="N25" s="1" t="s">
+        <v>10</v>
+      </c>
     </row>
     <row r="26" s="1" customFormat="true" ht="16.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A26" s="6" t="n">
@@ -13415,6 +13472,9 @@
       <c r="M26" s="1" t="s">
         <v>10</v>
       </c>
+      <c r="N26" s="1" t="s">
+        <v>10</v>
+      </c>
     </row>
     <row r="27" s="1" customFormat="true" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A27" s="6" t="n">
@@ -13457,6 +13517,9 @@
       <c r="M27" s="1" t="s">
         <v>10</v>
       </c>
+      <c r="N27" s="1" t="s">
+        <v>10</v>
+      </c>
     </row>
     <row r="28" s="1" customFormat="true" ht="16.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A28" s="6" t="n">
@@ -13497,6 +13560,9 @@
       <c r="M28" s="1" t="s">
         <v>10</v>
       </c>
+      <c r="N28" s="1" t="s">
+        <v>10</v>
+      </c>
     </row>
     <row r="29" s="1" customFormat="true" ht="16.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A29" s="6" t="n">
@@ -13539,6 +13605,9 @@
       <c r="M29" s="1" t="s">
         <v>10</v>
       </c>
+      <c r="N29" s="1" t="s">
+        <v>10</v>
+      </c>
     </row>
     <row r="30" s="1" customFormat="true" ht="16.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A30" s="6" t="n">
@@ -13579,6 +13648,9 @@
       <c r="M30" s="1" t="s">
         <v>10</v>
       </c>
+      <c r="N30" s="1" t="s">
+        <v>10</v>
+      </c>
     </row>
     <row r="31" s="1" customFormat="true" ht="16.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A31" s="6" t="n">
@@ -13621,6 +13693,9 @@
       <c r="M31" s="1" t="s">
         <v>10</v>
       </c>
+      <c r="N31" s="1" t="s">
+        <v>10</v>
+      </c>
     </row>
     <row r="32" s="1" customFormat="true" ht="16.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A32" s="6" t="n">
@@ -13661,6 +13736,9 @@
       <c r="M32" s="1" t="s">
         <v>10</v>
       </c>
+      <c r="N32" s="1" t="s">
+        <v>10</v>
+      </c>
     </row>
     <row r="33" s="1" customFormat="true" ht="16.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A33" s="6" t="n">
@@ -13701,6 +13779,9 @@
       <c r="M33" s="1" t="s">
         <v>10</v>
       </c>
+      <c r="N33" s="1" t="s">
+        <v>10</v>
+      </c>
     </row>
     <row r="34" s="1" customFormat="true" ht="16.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A34" s="6" t="n">
@@ -13739,6 +13820,9 @@
         <v>10</v>
       </c>
       <c r="M34" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="N34" s="1" t="s">
         <v>10</v>
       </c>
     </row>

--- a/07 ootareon 目標管理シート.xlsx
+++ b/07 ootareon 目標管理シート.xlsx
@@ -47,7 +47,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1563" uniqueCount="526">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1583" uniqueCount="526">
   <si>
     <t xml:space="preserve">学習目標自己チェックシート(ビジネスマナー)</t>
   </si>
@@ -2181,9 +2181,9 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>20</xdr:col>
-      <xdr:colOff>533160</xdr:colOff>
+      <xdr:colOff>532800</xdr:colOff>
       <xdr:row>6</xdr:row>
-      <xdr:rowOff>23040</xdr:rowOff>
+      <xdr:rowOff>22680</xdr:rowOff>
     </xdr:to>
     <xdr:sp>
       <xdr:nvSpPr>
@@ -2193,7 +2193,7 @@
       <xdr:spPr>
         <a:xfrm>
           <a:off x="14182920" y="0"/>
-          <a:ext cx="4999680" cy="1613880"/>
+          <a:ext cx="4999320" cy="1613520"/>
         </a:xfrm>
         <a:prstGeom prst="wedgeRoundRectCallout">
           <a:avLst>
@@ -2359,9 +2359,9 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>16</xdr:col>
-      <xdr:colOff>295200</xdr:colOff>
+      <xdr:colOff>294840</xdr:colOff>
       <xdr:row>6</xdr:row>
-      <xdr:rowOff>168120</xdr:rowOff>
+      <xdr:rowOff>167760</xdr:rowOff>
     </xdr:to>
     <xdr:sp>
       <xdr:nvSpPr>
@@ -2371,7 +2371,7 @@
       <xdr:spPr>
         <a:xfrm>
           <a:off x="11673360" y="145080"/>
-          <a:ext cx="4999680" cy="1613880"/>
+          <a:ext cx="4999320" cy="1613520"/>
         </a:xfrm>
         <a:prstGeom prst="wedgeRoundRectCallout">
           <a:avLst>
@@ -2537,9 +2537,9 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>16</xdr:col>
-      <xdr:colOff>295200</xdr:colOff>
+      <xdr:colOff>294840</xdr:colOff>
       <xdr:row>6</xdr:row>
-      <xdr:rowOff>168120</xdr:rowOff>
+      <xdr:rowOff>167760</xdr:rowOff>
     </xdr:to>
     <xdr:sp>
       <xdr:nvSpPr>
@@ -2549,7 +2549,7 @@
       <xdr:spPr>
         <a:xfrm>
           <a:off x="11620440" y="145080"/>
-          <a:ext cx="5000040" cy="1613880"/>
+          <a:ext cx="4999680" cy="1613520"/>
         </a:xfrm>
         <a:prstGeom prst="wedgeRoundRectCallout">
           <a:avLst>
@@ -2715,9 +2715,9 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>19</xdr:col>
-      <xdr:colOff>446040</xdr:colOff>
+      <xdr:colOff>445680</xdr:colOff>
       <xdr:row>6</xdr:row>
-      <xdr:rowOff>60480</xdr:rowOff>
+      <xdr:rowOff>60120</xdr:rowOff>
     </xdr:to>
     <xdr:sp>
       <xdr:nvSpPr>
@@ -2727,7 +2727,7 @@
       <xdr:spPr>
         <a:xfrm>
           <a:off x="13364640" y="0"/>
-          <a:ext cx="5057640" cy="1651320"/>
+          <a:ext cx="5057280" cy="1650960"/>
         </a:xfrm>
         <a:prstGeom prst="wedgeRoundRectCallout">
           <a:avLst>
@@ -2888,9 +2888,9 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>4</xdr:col>
-      <xdr:colOff>68400</xdr:colOff>
+      <xdr:colOff>68040</xdr:colOff>
       <xdr:row>85</xdr:row>
-      <xdr:rowOff>159120</xdr:rowOff>
+      <xdr:rowOff>158760</xdr:rowOff>
     </xdr:to>
     <xdr:sp>
       <xdr:nvSpPr>
@@ -2900,7 +2900,7 @@
       <xdr:spPr>
         <a:xfrm>
           <a:off x="11283480" y="16242120"/>
-          <a:ext cx="187560" cy="2218320"/>
+          <a:ext cx="187200" cy="2217960"/>
         </a:xfrm>
         <a:prstGeom prst="rightBrace">
           <a:avLst>
@@ -2940,9 +2940,9 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>15</xdr:col>
-      <xdr:colOff>397080</xdr:colOff>
+      <xdr:colOff>396720</xdr:colOff>
       <xdr:row>84</xdr:row>
-      <xdr:rowOff>119880</xdr:rowOff>
+      <xdr:rowOff>119520</xdr:rowOff>
     </xdr:to>
     <xdr:sp>
       <xdr:nvSpPr>
@@ -2952,7 +2952,7 @@
       <xdr:spPr>
         <a:xfrm>
           <a:off x="11702160" y="17062200"/>
-          <a:ext cx="4609800" cy="1149480"/>
+          <a:ext cx="4609440" cy="1149120"/>
         </a:xfrm>
         <a:prstGeom prst="ellipse">
           <a:avLst/>
@@ -3053,9 +3053,9 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>21</xdr:col>
-      <xdr:colOff>18720</xdr:colOff>
+      <xdr:colOff>18360</xdr:colOff>
       <xdr:row>6</xdr:row>
-      <xdr:rowOff>50040</xdr:rowOff>
+      <xdr:rowOff>49680</xdr:rowOff>
     </xdr:to>
     <xdr:sp>
       <xdr:nvSpPr>
@@ -3065,7 +3065,7 @@
       <xdr:spPr>
         <a:xfrm>
           <a:off x="13158360" y="0"/>
-          <a:ext cx="5021280" cy="1640880"/>
+          <a:ext cx="5020920" cy="1640520"/>
         </a:xfrm>
         <a:prstGeom prst="wedgeRoundRectCallout">
           <a:avLst>
@@ -3231,9 +3231,9 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>43</xdr:col>
-      <xdr:colOff>1800</xdr:colOff>
+      <xdr:colOff>1440</xdr:colOff>
       <xdr:row>13</xdr:row>
-      <xdr:rowOff>39240</xdr:rowOff>
+      <xdr:rowOff>38880</xdr:rowOff>
     </xdr:to>
     <xdr:sp>
       <xdr:nvSpPr>
@@ -3243,7 +3243,7 @@
       <xdr:spPr>
         <a:xfrm>
           <a:off x="28142280" y="0"/>
-          <a:ext cx="5057280" cy="3074040"/>
+          <a:ext cx="5056920" cy="3073680"/>
         </a:xfrm>
         <a:prstGeom prst="wedgeRoundRectCallout">
           <a:avLst>
@@ -3409,9 +3409,9 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>36</xdr:col>
-      <xdr:colOff>50400</xdr:colOff>
+      <xdr:colOff>50040</xdr:colOff>
       <xdr:row>11</xdr:row>
-      <xdr:rowOff>55440</xdr:rowOff>
+      <xdr:rowOff>55080</xdr:rowOff>
     </xdr:to>
     <xdr:sp>
       <xdr:nvSpPr>
@@ -3421,7 +3421,7 @@
       <xdr:spPr>
         <a:xfrm>
           <a:off x="23848200" y="16200"/>
-          <a:ext cx="5057280" cy="2662560"/>
+          <a:ext cx="5056920" cy="2662200"/>
         </a:xfrm>
         <a:prstGeom prst="wedgeRoundRectCallout">
           <a:avLst>
@@ -3772,7 +3772,7 @@
   <dimension ref="A1:P28"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="pageBreakPreview" topLeftCell="C7" colorId="64" zoomScale="80" zoomScaleNormal="70" zoomScalePageLayoutView="80" workbookViewId="0">
-      <selection pane="topLeft" activeCell="P29" activeCellId="1" sqref="N7:N34 P29"/>
+      <selection pane="topLeft" activeCell="P29" activeCellId="1" sqref="O7:O34 P29"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.45703125" defaultRowHeight="16.5" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -4945,7 +4945,7 @@
   <dimension ref="A1:D16"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="pageBreakPreview" topLeftCell="A1" colorId="64" zoomScale="80" zoomScaleNormal="70" zoomScalePageLayoutView="80" workbookViewId="0">
-      <selection pane="topLeft" activeCell="A1" activeCellId="1" sqref="N7:N34 A1"/>
+      <selection pane="topLeft" activeCell="A1" activeCellId="1" sqref="O7:O34 A1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.45703125" defaultRowHeight="16.5" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -5143,7 +5143,7 @@
   <dimension ref="A1:D63"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="pageBreakPreview" topLeftCell="A1" colorId="64" zoomScale="80" zoomScaleNormal="70" zoomScalePageLayoutView="80" workbookViewId="0">
-      <selection pane="topLeft" activeCell="A1" activeCellId="1" sqref="N7:N34 A1"/>
+      <selection pane="topLeft" activeCell="A1" activeCellId="1" sqref="O7:O34 A1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.45703125" defaultRowHeight="16.5" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -5828,7 +5828,7 @@
   <dimension ref="A1:E86"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="pageBreakPreview" topLeftCell="C53" colorId="64" zoomScale="80" zoomScaleNormal="70" zoomScalePageLayoutView="80" workbookViewId="0">
-      <selection pane="topLeft" activeCell="E76" activeCellId="1" sqref="N7:N34 E76"/>
+      <selection pane="topLeft" activeCell="E76" activeCellId="1" sqref="O7:O34 E76"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.45703125" defaultRowHeight="16.5" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -7131,7 +7131,7 @@
   <dimension ref="A1:F232"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="pageBreakPreview" topLeftCell="A133" colorId="64" zoomScale="80" zoomScaleNormal="85" zoomScalePageLayoutView="80" workbookViewId="0">
-      <selection pane="topLeft" activeCell="H25" activeCellId="1" sqref="N7:N34 H25"/>
+      <selection pane="topLeft" activeCell="H25" activeCellId="1" sqref="O7:O34 H25"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.45703125" defaultRowHeight="16.5" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -10312,7 +10312,7 @@
   <dimension ref="A1:J79"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="pageBreakPreview" topLeftCell="C59" colorId="64" zoomScale="80" zoomScaleNormal="85" zoomScalePageLayoutView="80" workbookViewId="0">
-      <selection pane="topLeft" activeCell="J75" activeCellId="1" sqref="N7:N34 J75"/>
+      <selection pane="topLeft" activeCell="J75" activeCellId="1" sqref="O7:O34 J75"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.45703125" defaultRowHeight="16.5" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -12551,10 +12551,10 @@
     <tabColor rgb="FF9DC3E6"/>
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:N34"/>
+  <dimension ref="A1:O34"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="pageBreakPreview" topLeftCell="D1" colorId="64" zoomScale="80" zoomScaleNormal="85" zoomScalePageLayoutView="80" workbookViewId="0">
-      <selection pane="topLeft" activeCell="N7" activeCellId="0" sqref="N7:N34"/>
+      <selection pane="topLeft" activeCell="O7" activeCellId="0" sqref="O7:O34"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.45703125" defaultRowHeight="16.5" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -12652,6 +12652,9 @@
       <c r="N7" s="1" t="s">
         <v>10</v>
       </c>
+      <c r="O7" s="1" t="s">
+        <v>10</v>
+      </c>
     </row>
     <row r="8" customFormat="false" ht="16.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A8" s="6" t="n">
@@ -12695,6 +12698,9 @@
       <c r="N8" s="1" t="s">
         <v>10</v>
       </c>
+      <c r="O8" s="1" t="s">
+        <v>10</v>
+      </c>
     </row>
     <row r="9" customFormat="false" ht="16.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A9" s="6" t="n">
@@ -12738,6 +12744,9 @@
       <c r="N9" s="1" t="s">
         <v>10</v>
       </c>
+      <c r="O9" s="1" t="s">
+        <v>10</v>
+      </c>
     </row>
     <row r="10" customFormat="false" ht="16.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A10" s="6" t="n">
@@ -12781,6 +12790,9 @@
       <c r="N10" s="1" t="n">
         <v>0</v>
       </c>
+      <c r="O10" s="1" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="11" customFormat="false" ht="16.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A11" s="6" t="n">
@@ -12824,6 +12836,9 @@
       <c r="N11" s="1" t="n">
         <v>0</v>
       </c>
+      <c r="O11" s="1" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="12" customFormat="false" ht="16.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A12" s="6" t="n">
@@ -12867,6 +12882,9 @@
       <c r="N12" s="1" t="s">
         <v>10</v>
       </c>
+      <c r="O12" s="1" t="s">
+        <v>10</v>
+      </c>
     </row>
     <row r="13" customFormat="false" ht="16.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A13" s="6" t="n">
@@ -12912,6 +12930,9 @@
       <c r="N13" s="1" t="s">
         <v>10</v>
       </c>
+      <c r="O13" s="1" t="s">
+        <v>10</v>
+      </c>
     </row>
     <row r="14" customFormat="false" ht="16.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A14" s="6" t="n">
@@ -12955,6 +12976,9 @@
       <c r="N14" s="1" t="n">
         <v>0</v>
       </c>
+      <c r="O14" s="1" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="15" customFormat="false" ht="16.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A15" s="6" t="n">
@@ -12998,6 +13022,9 @@
       <c r="N15" s="1" t="n">
         <v>0</v>
       </c>
+      <c r="O15" s="1" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="16" customFormat="false" ht="16.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A16" s="6" t="n">
@@ -13039,6 +13066,9 @@
         <v>0</v>
       </c>
       <c r="N16" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="O16" s="1" t="n">
         <v>0</v>
       </c>
     </row>
@@ -13084,6 +13114,9 @@
       <c r="N17" s="1" t="n">
         <v>0</v>
       </c>
+      <c r="O17" s="1" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="18" customFormat="false" ht="16.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A18" s="6" t="n">
@@ -13127,6 +13160,9 @@
       <c r="N18" s="1" t="s">
         <v>10</v>
       </c>
+      <c r="O18" s="1" t="s">
+        <v>10</v>
+      </c>
     </row>
     <row r="19" s="1" customFormat="true" ht="16.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A19" s="6" t="n">
@@ -13172,6 +13208,9 @@
       <c r="N19" s="1" t="n">
         <v>0</v>
       </c>
+      <c r="O19" s="1" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="20" s="1" customFormat="true" ht="16.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A20" s="6" t="n">
@@ -13215,6 +13254,9 @@
       <c r="N20" s="1" t="n">
         <v>0</v>
       </c>
+      <c r="O20" s="1" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="21" s="1" customFormat="true" ht="16.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A21" s="6" t="n">
@@ -13258,6 +13300,9 @@
       <c r="N21" s="1" t="s">
         <v>10</v>
       </c>
+      <c r="O21" s="1" t="s">
+        <v>10</v>
+      </c>
     </row>
     <row r="22" s="1" customFormat="true" ht="16.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A22" s="6" t="n">
@@ -13301,6 +13346,9 @@
       <c r="N22" s="1" t="s">
         <v>10</v>
       </c>
+      <c r="O22" s="1" t="s">
+        <v>10</v>
+      </c>
     </row>
     <row r="23" s="1" customFormat="true" ht="16.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A23" s="6" t="n">
@@ -13344,6 +13392,9 @@
       <c r="N23" s="1" t="s">
         <v>10</v>
       </c>
+      <c r="O23" s="1" t="s">
+        <v>10</v>
+      </c>
     </row>
     <row r="24" s="1" customFormat="true" ht="16.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A24" s="6" t="n">
@@ -13387,6 +13438,9 @@
       <c r="N24" s="1" t="s">
         <v>10</v>
       </c>
+      <c r="O24" s="1" t="s">
+        <v>10</v>
+      </c>
     </row>
     <row r="25" s="1" customFormat="true" ht="16.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A25" s="6" t="n">
@@ -13432,6 +13486,9 @@
       <c r="N25" s="1" t="s">
         <v>10</v>
       </c>
+      <c r="O25" s="1" t="s">
+        <v>10</v>
+      </c>
     </row>
     <row r="26" s="1" customFormat="true" ht="16.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A26" s="6" t="n">
@@ -13475,6 +13532,9 @@
       <c r="N26" s="1" t="s">
         <v>10</v>
       </c>
+      <c r="O26" s="1" t="s">
+        <v>10</v>
+      </c>
     </row>
     <row r="27" s="1" customFormat="true" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A27" s="6" t="n">
@@ -13520,6 +13580,9 @@
       <c r="N27" s="1" t="s">
         <v>10</v>
       </c>
+      <c r="O27" s="1" t="s">
+        <v>10</v>
+      </c>
     </row>
     <row r="28" s="1" customFormat="true" ht="16.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A28" s="6" t="n">
@@ -13563,6 +13626,9 @@
       <c r="N28" s="1" t="s">
         <v>10</v>
       </c>
+      <c r="O28" s="1" t="s">
+        <v>10</v>
+      </c>
     </row>
     <row r="29" s="1" customFormat="true" ht="16.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A29" s="6" t="n">
@@ -13608,6 +13674,9 @@
       <c r="N29" s="1" t="s">
         <v>10</v>
       </c>
+      <c r="O29" s="1" t="s">
+        <v>10</v>
+      </c>
     </row>
     <row r="30" s="1" customFormat="true" ht="16.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A30" s="6" t="n">
@@ -13651,6 +13720,9 @@
       <c r="N30" s="1" t="s">
         <v>10</v>
       </c>
+      <c r="O30" s="1" t="s">
+        <v>10</v>
+      </c>
     </row>
     <row r="31" s="1" customFormat="true" ht="16.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A31" s="6" t="n">
@@ -13696,6 +13768,9 @@
       <c r="N31" s="1" t="s">
         <v>10</v>
       </c>
+      <c r="O31" s="1" t="s">
+        <v>10</v>
+      </c>
     </row>
     <row r="32" s="1" customFormat="true" ht="16.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A32" s="6" t="n">
@@ -13739,6 +13814,9 @@
       <c r="N32" s="1" t="s">
         <v>10</v>
       </c>
+      <c r="O32" s="1" t="s">
+        <v>10</v>
+      </c>
     </row>
     <row r="33" s="1" customFormat="true" ht="16.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A33" s="6" t="n">
@@ -13782,6 +13860,9 @@
       <c r="N33" s="1" t="s">
         <v>10</v>
       </c>
+      <c r="O33" s="1" t="s">
+        <v>10</v>
+      </c>
     </row>
     <row r="34" s="1" customFormat="true" ht="16.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A34" s="6" t="n">
@@ -13823,6 +13904,9 @@
         <v>10</v>
       </c>
       <c r="N34" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="O34" s="1" t="s">
         <v>10</v>
       </c>
     </row>
